--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wode/Documents/signal_framework/big/meta_stra_framwork/result/single/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0DDD08-48FB-D445-B0FA-A82D4103C4DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>strategy_name</t>
   </si>
@@ -98,6 +92,9 @@
   </si>
   <si>
     <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#1#0&amp;trend']</t>
+  </si>
+  <si>
+    <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']</t>
   </si>
   <si>
     <t>2010-05-04</t>
@@ -115,12 +112,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -128,15 +125,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -182,23 +172,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -240,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,27 +254,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,24 +288,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,17 +463,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
-  <cols>
-    <col min="24" max="24" width="9" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:25">
       <c r="B1" s="1" t="s">
@@ -611,46 +552,46 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>100000000</v>
       </c>
       <c r="H2">
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
       <c r="I2">
-        <v>0.13100000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="J2">
-        <v>0.26500000000000001</v>
+        <v>0.265</v>
       </c>
       <c r="K2">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="L2">
         <v>0.152</v>
       </c>
       <c r="M2">
-        <v>0.22800000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="N2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="O2">
         <v>0.104</v>
       </c>
       <c r="P2">
-        <v>0.14499999999999999</v>
+        <v>0.145</v>
       </c>
       <c r="Q2">
         <v>158523666.303</v>
@@ -659,10 +600,10 @@
         <v>158523666.303</v>
       </c>
       <c r="S2">
-        <v>0.58499999999999996</v>
+        <v>0.585</v>
       </c>
       <c r="T2">
-        <v>5.5E-2</v>
+        <v>0.055</v>
       </c>
       <c r="U2">
         <v>1.585</v>
@@ -671,10 +612,10 @@
         <v>100000000</v>
       </c>
       <c r="W2">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="X2">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="Y2">
         <v>2</v>
@@ -688,77 +629,153 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>100000000</v>
       </c>
       <c r="H3">
-        <v>-3.4000000000000002E-2</v>
+        <v>-0.034</v>
       </c>
       <c r="I3">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="J3">
-        <v>-15.154999999999999</v>
+        <v>-15.155</v>
       </c>
       <c r="K3">
-        <v>-0.25900000000000001</v>
+        <v>-0.259</v>
       </c>
       <c r="L3">
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="M3">
-        <v>0.23599999999999999</v>
+        <v>0.236</v>
       </c>
       <c r="N3">
         <v>-0.375</v>
       </c>
       <c r="O3">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="P3">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="Q3">
-        <v>97530705.724999994</v>
+        <v>97530705.72499999</v>
       </c>
       <c r="R3">
-        <v>94194847.724999994</v>
+        <v>94194847.72499999</v>
       </c>
       <c r="S3">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.025</v>
       </c>
       <c r="T3">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="U3">
-        <v>0.97499999999999998</v>
+        <v>0.975</v>
       </c>
       <c r="V3">
         <v>100000000</v>
       </c>
       <c r="W3">
-        <v>0.29599999999999999</v>
+        <v>0.296</v>
       </c>
       <c r="X3">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="Y3">
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>100000000</v>
+      </c>
+      <c r="H4">
+        <v>0.099</v>
+      </c>
+      <c r="I4">
+        <v>0.834</v>
+      </c>
+      <c r="J4">
+        <v>0.512</v>
+      </c>
+      <c r="K4">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.094</v>
+      </c>
+      <c r="M4">
+        <v>0.137</v>
+      </c>
+      <c r="N4">
+        <v>1.003</v>
+      </c>
+      <c r="O4">
+        <v>0.236</v>
+      </c>
+      <c r="P4">
+        <v>0.431</v>
+      </c>
+      <c r="Q4">
+        <v>291370955.559</v>
+      </c>
+      <c r="R4">
+        <v>3937182.559</v>
+      </c>
+      <c r="S4">
+        <v>1.914</v>
+      </c>
+      <c r="T4">
+        <v>0.132</v>
+      </c>
+      <c r="U4">
+        <v>2.914</v>
+      </c>
+      <c r="V4">
+        <v>100000000</v>
+      </c>
+      <c r="W4">
+        <v>0.296</v>
+      </c>
+      <c r="X4">
+        <v>0.031</v>
+      </c>
+      <c r="Y4">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>strategy_name</t>
   </si>
@@ -88,10 +88,94 @@
     <t>stock_num</t>
   </si>
   <si>
-    <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']</t>
-  </si>
-  <si>
-    <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#1#0&amp;trend']</t>
+    <t>2016max_draw_down</t>
+  </si>
+  <si>
+    <t>2016Sharpe</t>
+  </si>
+  <si>
+    <t>2016Total_Return</t>
+  </si>
+  <si>
+    <t>2017max_draw_down</t>
+  </si>
+  <si>
+    <t>2017Sharpe</t>
+  </si>
+  <si>
+    <t>2017Total_Return</t>
+  </si>
+  <si>
+    <t>2018max_draw_down</t>
+  </si>
+  <si>
+    <t>2018Sharpe</t>
+  </si>
+  <si>
+    <t>2018Total_Return</t>
+  </si>
+  <si>
+    <t>2019max_draw_down</t>
+  </si>
+  <si>
+    <t>2019Sharpe</t>
+  </si>
+  <si>
+    <t>2019Total_Return</t>
+  </si>
+  <si>
+    <t>2010max_draw_down</t>
+  </si>
+  <si>
+    <t>2010Sharpe</t>
+  </si>
+  <si>
+    <t>2010Total_Return</t>
+  </si>
+  <si>
+    <t>2011max_draw_down</t>
+  </si>
+  <si>
+    <t>2011Sharpe</t>
+  </si>
+  <si>
+    <t>2011Total_Return</t>
+  </si>
+  <si>
+    <t>2012max_draw_down</t>
+  </si>
+  <si>
+    <t>2012Sharpe</t>
+  </si>
+  <si>
+    <t>2012Total_Return</t>
+  </si>
+  <si>
+    <t>2013max_draw_down</t>
+  </si>
+  <si>
+    <t>2013Sharpe</t>
+  </si>
+  <si>
+    <t>2013Total_Return</t>
+  </si>
+  <si>
+    <t>2014max_draw_down</t>
+  </si>
+  <si>
+    <t>2014Sharpe</t>
+  </si>
+  <si>
+    <t>2014Total_Return</t>
+  </si>
+  <si>
+    <t>2015max_draw_down</t>
+  </si>
+  <si>
+    <t>2015Sharpe</t>
+  </si>
+  <si>
+    <t>2015Total_Return</t>
   </si>
   <si>
     <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']</t>
@@ -464,13 +548,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:BC2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:55">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,70 +627,160 @@
       <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:55">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="G2">
         <v>100000000</v>
       </c>
       <c r="H2">
-        <v>0.024</v>
+        <v>-0.047</v>
       </c>
       <c r="I2">
-        <v>0.131</v>
+        <v>0.213</v>
       </c>
       <c r="J2">
-        <v>0.265</v>
+        <v>-0.417</v>
       </c>
       <c r="K2">
-        <v>0.004</v>
+        <v>-0.332</v>
       </c>
       <c r="L2">
-        <v>0.152</v>
+        <v>0.14</v>
       </c>
       <c r="M2">
-        <v>0.228</v>
+        <v>0.204</v>
       </c>
       <c r="N2">
-        <v>0.005</v>
+        <v>-0.484</v>
       </c>
       <c r="O2">
-        <v>0.104</v>
+        <v>0.099</v>
       </c>
       <c r="P2">
-        <v>0.145</v>
+        <v>0.264</v>
       </c>
       <c r="Q2">
-        <v>158523666.303</v>
+        <v>88091211.057</v>
       </c>
       <c r="R2">
-        <v>158523666.303</v>
+        <v>49831259.057</v>
       </c>
       <c r="S2">
-        <v>0.585</v>
+        <v>-0.119</v>
       </c>
       <c r="T2">
-        <v>0.055</v>
+        <v>-0.015</v>
       </c>
       <c r="U2">
-        <v>1.585</v>
+        <v>0.881</v>
       </c>
       <c r="V2">
         <v>100000000</v>
@@ -620,159 +794,95 @@
       <c r="Y2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3">
-        <v>100000000</v>
-      </c>
-      <c r="H3">
-        <v>-0.034</v>
-      </c>
-      <c r="I3">
-        <v>0.001</v>
-      </c>
-      <c r="J3">
-        <v>-15.155</v>
-      </c>
-      <c r="K3">
-        <v>-0.259</v>
-      </c>
-      <c r="L3">
-        <v>0.163</v>
-      </c>
-      <c r="M3">
-        <v>0.236</v>
-      </c>
-      <c r="N3">
-        <v>-0.375</v>
-      </c>
-      <c r="O3">
-        <v>0.002</v>
-      </c>
-      <c r="P3">
-        <v>0.027</v>
-      </c>
-      <c r="Q3">
-        <v>97530705.72499999</v>
-      </c>
-      <c r="R3">
-        <v>94194847.72499999</v>
-      </c>
-      <c r="S3">
-        <v>-0.025</v>
-      </c>
-      <c r="T3">
-        <v>-0.003</v>
-      </c>
-      <c r="U3">
-        <v>0.975</v>
-      </c>
-      <c r="V3">
-        <v>100000000</v>
-      </c>
-      <c r="W3">
-        <v>0.296</v>
-      </c>
-      <c r="X3">
-        <v>0.031</v>
-      </c>
-      <c r="Y3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>100000000</v>
-      </c>
-      <c r="H4">
-        <v>0.099</v>
-      </c>
-      <c r="I4">
-        <v>0.834</v>
-      </c>
-      <c r="J4">
-        <v>0.512</v>
-      </c>
-      <c r="K4">
-        <v>0.6909999999999999</v>
-      </c>
-      <c r="L4">
-        <v>0.094</v>
-      </c>
-      <c r="M4">
-        <v>0.137</v>
-      </c>
-      <c r="N4">
-        <v>1.003</v>
-      </c>
-      <c r="O4">
-        <v>0.236</v>
-      </c>
-      <c r="P4">
-        <v>0.431</v>
-      </c>
-      <c r="Q4">
-        <v>291370955.559</v>
-      </c>
-      <c r="R4">
-        <v>3937182.559</v>
-      </c>
-      <c r="S4">
-        <v>1.914</v>
-      </c>
-      <c r="T4">
-        <v>0.132</v>
-      </c>
-      <c r="U4">
-        <v>2.914</v>
-      </c>
-      <c r="V4">
-        <v>100000000</v>
-      </c>
-      <c r="W4">
-        <v>0.296</v>
-      </c>
-      <c r="X4">
-        <v>0.031</v>
-      </c>
-      <c r="Y4">
-        <v>300</v>
+      <c r="Z2">
+        <v>-0.02894975410990808</v>
+      </c>
+      <c r="AA2">
+        <v>-3.107489847887107</v>
+      </c>
+      <c r="AB2">
+        <v>-0.02709785221878536</v>
+      </c>
+      <c r="AC2">
+        <v>-0.0217394399126567</v>
+      </c>
+      <c r="AD2">
+        <v>-1.623911606464194</v>
+      </c>
+      <c r="AE2">
+        <v>-0.003202262032800722</v>
+      </c>
+      <c r="AF2">
+        <v>-0.05316637697251358</v>
+      </c>
+      <c r="AG2">
+        <v>-1.055135278043513</v>
+      </c>
+      <c r="AH2">
+        <v>-0.03170880461299627</v>
+      </c>
+      <c r="AI2">
+        <v>-0.02922422230346688</v>
+      </c>
+      <c r="AJ2">
+        <v>0.03502827710001312</v>
+      </c>
+      <c r="AK2">
+        <v>0.008826106126281938</v>
+      </c>
+      <c r="AL2">
+        <v>-0.006418789274236003</v>
+      </c>
+      <c r="AM2">
+        <v>-8.147546791460146</v>
+      </c>
+      <c r="AN2">
+        <v>-0.00567899999999999</v>
+      </c>
+      <c r="AO2">
+        <v>-0.07552901424177771</v>
+      </c>
+      <c r="AP2">
+        <v>-1.354468011130447</v>
+      </c>
+      <c r="AQ2">
+        <v>-0.04079165581336414</v>
+      </c>
+      <c r="AR2">
+        <v>-0.03247398836671433</v>
+      </c>
+      <c r="AS2">
+        <v>0.005330268371609658</v>
+      </c>
+      <c r="AT2">
+        <v>0.0315078934869428</v>
+      </c>
+      <c r="AU2">
+        <v>-0.2210335397267962</v>
+      </c>
+      <c r="AV2">
+        <v>-0.5630837943758764</v>
+      </c>
+      <c r="AW2">
+        <v>-0.08049721197145321</v>
+      </c>
+      <c r="AX2">
+        <v>-0.05298463322455915</v>
+      </c>
+      <c r="AY2">
+        <v>0.4750678959275052</v>
+      </c>
+      <c r="AZ2">
+        <v>0.08214970021503198</v>
+      </c>
+      <c r="BA2">
+        <v>-0.09566901722030163</v>
+      </c>
+      <c r="BB2">
+        <v>-0.4757281626791275</v>
+      </c>
+      <c r="BC2">
+        <v>-0.04926649772905754</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -7,18 +7,112 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="分年" sheetId="1" r:id="rId1"/>
+    <sheet name="综合" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>strategy_name</t>
   </si>
   <si>
+    <t>2016max_draw_down</t>
+  </si>
+  <si>
+    <t>2016Sharpe</t>
+  </si>
+  <si>
+    <t>2016Total_Return</t>
+  </si>
+  <si>
+    <t>2017max_draw_down</t>
+  </si>
+  <si>
+    <t>2017Sharpe</t>
+  </si>
+  <si>
+    <t>2017Total_Return</t>
+  </si>
+  <si>
+    <t>2018max_draw_down</t>
+  </si>
+  <si>
+    <t>2018Sharpe</t>
+  </si>
+  <si>
+    <t>2018Total_Return</t>
+  </si>
+  <si>
+    <t>2019max_draw_down</t>
+  </si>
+  <si>
+    <t>2019Sharpe</t>
+  </si>
+  <si>
+    <t>2019Total_Return</t>
+  </si>
+  <si>
+    <t>2010max_draw_down</t>
+  </si>
+  <si>
+    <t>2010Sharpe</t>
+  </si>
+  <si>
+    <t>2010Total_Return</t>
+  </si>
+  <si>
+    <t>2011max_draw_down</t>
+  </si>
+  <si>
+    <t>2011Sharpe</t>
+  </si>
+  <si>
+    <t>2011Total_Return</t>
+  </si>
+  <si>
+    <t>2012max_draw_down</t>
+  </si>
+  <si>
+    <t>2012Sharpe</t>
+  </si>
+  <si>
+    <t>2012Total_Return</t>
+  </si>
+  <si>
+    <t>2013max_draw_down</t>
+  </si>
+  <si>
+    <t>2013Sharpe</t>
+  </si>
+  <si>
+    <t>2013Total_Return</t>
+  </si>
+  <si>
+    <t>2014max_draw_down</t>
+  </si>
+  <si>
+    <t>2014Sharpe</t>
+  </si>
+  <si>
+    <t>2014Total_Return</t>
+  </si>
+  <si>
+    <t>2015max_draw_down</t>
+  </si>
+  <si>
+    <t>2015Sharpe</t>
+  </si>
+  <si>
+    <t>2015Total_Return</t>
+  </si>
+  <si>
+    <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']</t>
+  </si>
+  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -86,99 +180,6 @@
   </si>
   <si>
     <t>stock_num</t>
-  </si>
-  <si>
-    <t>2016max_draw_down</t>
-  </si>
-  <si>
-    <t>2016Sharpe</t>
-  </si>
-  <si>
-    <t>2016Total_Return</t>
-  </si>
-  <si>
-    <t>2017max_draw_down</t>
-  </si>
-  <si>
-    <t>2017Sharpe</t>
-  </si>
-  <si>
-    <t>2017Total_Return</t>
-  </si>
-  <si>
-    <t>2018max_draw_down</t>
-  </si>
-  <si>
-    <t>2018Sharpe</t>
-  </si>
-  <si>
-    <t>2018Total_Return</t>
-  </si>
-  <si>
-    <t>2019max_draw_down</t>
-  </si>
-  <si>
-    <t>2019Sharpe</t>
-  </si>
-  <si>
-    <t>2019Total_Return</t>
-  </si>
-  <si>
-    <t>2010max_draw_down</t>
-  </si>
-  <si>
-    <t>2010Sharpe</t>
-  </si>
-  <si>
-    <t>2010Total_Return</t>
-  </si>
-  <si>
-    <t>2011max_draw_down</t>
-  </si>
-  <si>
-    <t>2011Sharpe</t>
-  </si>
-  <si>
-    <t>2011Total_Return</t>
-  </si>
-  <si>
-    <t>2012max_draw_down</t>
-  </si>
-  <si>
-    <t>2012Sharpe</t>
-  </si>
-  <si>
-    <t>2012Total_Return</t>
-  </si>
-  <si>
-    <t>2013max_draw_down</t>
-  </si>
-  <si>
-    <t>2013Sharpe</t>
-  </si>
-  <si>
-    <t>2013Total_Return</t>
-  </si>
-  <si>
-    <t>2014max_draw_down</t>
-  </si>
-  <si>
-    <t>2014Sharpe</t>
-  </si>
-  <si>
-    <t>2014Total_Return</t>
-  </si>
-  <si>
-    <t>2015max_draw_down</t>
-  </si>
-  <si>
-    <t>2015Sharpe</t>
-  </si>
-  <si>
-    <t>2015Total_Return</t>
-  </si>
-  <si>
-    <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']</t>
   </si>
   <si>
     <t>2010-05-04</t>
@@ -548,341 +549,719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BC2"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.02894975410990808</v>
+      </c>
+      <c r="C3">
+        <v>-0.02894975410990808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4">
+        <v>-3.107489847887107</v>
+      </c>
+      <c r="C4">
+        <v>-3.107489847887107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5">
+        <v>-0.02709785221878536</v>
+      </c>
+      <c r="C5">
+        <v>-0.02709785221878536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6">
+        <v>-0.0217394399126567</v>
+      </c>
+      <c r="C6">
+        <v>-0.0217394399126567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B7">
+        <v>-1.623911606464194</v>
+      </c>
+      <c r="C7">
+        <v>-1.623911606464194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B8">
+        <v>-0.003202262032800722</v>
+      </c>
+      <c r="C8">
+        <v>-0.003202262032800722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B9">
+        <v>-0.05316637697251358</v>
+      </c>
+      <c r="C9">
+        <v>-0.05316637697251358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B10">
+        <v>-1.055135278043513</v>
+      </c>
+      <c r="C10">
+        <v>-1.055135278043513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B11">
+        <v>-0.03170880461299627</v>
+      </c>
+      <c r="C11">
+        <v>-0.03170880461299627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B12">
+        <v>-0.02922422230346688</v>
+      </c>
+      <c r="C12">
+        <v>-0.02922422230346688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B13">
+        <v>0.03502827710001312</v>
+      </c>
+      <c r="C13">
+        <v>0.03502827710001312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="B14">
+        <v>0.008826106126281938</v>
+      </c>
+      <c r="C14">
+        <v>0.008826106126281938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="B15">
+        <v>-0.006418789274236003</v>
+      </c>
+      <c r="C15">
+        <v>-0.006418789274236003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="B16">
+        <v>-8.147546791460146</v>
+      </c>
+      <c r="C16">
+        <v>-8.147546791460146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="B17">
+        <v>-0.00567899999999999</v>
+      </c>
+      <c r="C17">
+        <v>-0.00567899999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="B18">
+        <v>-0.07552901424177771</v>
+      </c>
+      <c r="C18">
+        <v>-0.07552901424177771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="B19">
+        <v>-1.354468011130447</v>
+      </c>
+      <c r="C19">
+        <v>-1.354468011130447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="B20">
+        <v>-0.04079165581336414</v>
+      </c>
+      <c r="C20">
+        <v>-0.04079165581336414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="B21">
+        <v>-0.03247398836671433</v>
+      </c>
+      <c r="C21">
+        <v>-0.03247398836671433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="B22">
+        <v>0.005330268371609658</v>
+      </c>
+      <c r="C22">
+        <v>0.005330268371609658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="B23">
+        <v>0.0315078934869428</v>
+      </c>
+      <c r="C23">
+        <v>0.0315078934869428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="B24">
+        <v>-0.2210335397267962</v>
+      </c>
+      <c r="C24">
+        <v>-0.2210335397267962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="B25">
+        <v>-0.5630837943758764</v>
+      </c>
+      <c r="C25">
+        <v>-0.5630837943758764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="B26">
+        <v>-0.08049721197145321</v>
+      </c>
+      <c r="C26">
+        <v>-0.08049721197145321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="B27">
+        <v>-0.05298463322455915</v>
+      </c>
+      <c r="C27">
+        <v>-0.05298463322455915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="B28">
+        <v>0.4750678959275052</v>
+      </c>
+      <c r="C28">
+        <v>0.4750678959275052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="B29">
+        <v>0.08214970021503198</v>
+      </c>
+      <c r="C29">
+        <v>0.08214970021503198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="B30">
+        <v>-0.09566901722030163</v>
+      </c>
+      <c r="C30">
+        <v>-0.09566901722030163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="B31">
+        <v>-0.4757281626791275</v>
+      </c>
+      <c r="C31">
+        <v>-0.4757281626791275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="B32">
+        <v>-0.04926649772905754</v>
+      </c>
+      <c r="C32">
+        <v>-0.04926649772905754</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="B7">
+        <v>100000000</v>
+      </c>
+      <c r="C7">
+        <v>100000000</v>
+      </c>
+      <c r="D7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="B8">
+        <v>-0.047</v>
+      </c>
+      <c r="C8">
+        <v>-0.047</v>
+      </c>
+      <c r="D8">
+        <v>-0.047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="B9">
+        <v>0.213</v>
+      </c>
+      <c r="C9">
+        <v>0.213</v>
+      </c>
+      <c r="D9">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="B10">
+        <v>-0.417</v>
+      </c>
+      <c r="C10">
+        <v>-0.417</v>
+      </c>
+      <c r="D10">
+        <v>-0.417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="B11">
+        <v>-0.332</v>
+      </c>
+      <c r="C11">
+        <v>-0.332</v>
+      </c>
+      <c r="D11">
+        <v>-0.332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="B12">
+        <v>0.14</v>
+      </c>
+      <c r="C12">
+        <v>0.14</v>
+      </c>
+      <c r="D12">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="B13">
+        <v>0.204</v>
+      </c>
+      <c r="C13">
+        <v>0.204</v>
+      </c>
+      <c r="D13">
+        <v>0.204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="B14">
+        <v>-0.484</v>
+      </c>
+      <c r="C14">
+        <v>-0.484</v>
+      </c>
+      <c r="D14">
+        <v>-0.484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="B15">
+        <v>0.099</v>
+      </c>
+      <c r="C15">
+        <v>0.099</v>
+      </c>
+      <c r="D15">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="B16">
+        <v>0.264</v>
+      </c>
+      <c r="C16">
+        <v>0.264</v>
+      </c>
+      <c r="D16">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="B17">
+        <v>88091211.057</v>
+      </c>
+      <c r="C17">
+        <v>88091211.057</v>
+      </c>
+      <c r="D17">
+        <v>88091211.057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="B18">
+        <v>49831259.057</v>
+      </c>
+      <c r="C18">
+        <v>49831259.057</v>
+      </c>
+      <c r="D18">
+        <v>49831259.057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="B19">
+        <v>-0.119</v>
+      </c>
+      <c r="C19">
+        <v>-0.119</v>
+      </c>
+      <c r="D19">
+        <v>-0.119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="B20">
+        <v>-0.015</v>
+      </c>
+      <c r="C20">
+        <v>-0.015</v>
+      </c>
+      <c r="D20">
+        <v>-0.015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="B21">
+        <v>0.881</v>
+      </c>
+      <c r="C21">
+        <v>0.881</v>
+      </c>
+      <c r="D21">
+        <v>0.881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="B22">
+        <v>100000000</v>
+      </c>
+      <c r="C22">
+        <v>100000000</v>
+      </c>
+      <c r="D22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="B23">
+        <v>0.296</v>
+      </c>
+      <c r="C23">
+        <v>0.296</v>
+      </c>
+      <c r="D23">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:55">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B24">
+        <v>0.031</v>
+      </c>
+      <c r="C24">
+        <v>0.031</v>
+      </c>
+      <c r="D24">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2">
-        <v>100000000</v>
-      </c>
-      <c r="H2">
-        <v>-0.047</v>
-      </c>
-      <c r="I2">
-        <v>0.213</v>
-      </c>
-      <c r="J2">
-        <v>-0.417</v>
-      </c>
-      <c r="K2">
-        <v>-0.332</v>
-      </c>
-      <c r="L2">
-        <v>0.14</v>
-      </c>
-      <c r="M2">
-        <v>0.204</v>
-      </c>
-      <c r="N2">
-        <v>-0.484</v>
-      </c>
-      <c r="O2">
-        <v>0.099</v>
-      </c>
-      <c r="P2">
-        <v>0.264</v>
-      </c>
-      <c r="Q2">
-        <v>88091211.057</v>
-      </c>
-      <c r="R2">
-        <v>49831259.057</v>
-      </c>
-      <c r="S2">
-        <v>-0.119</v>
-      </c>
-      <c r="T2">
-        <v>-0.015</v>
-      </c>
-      <c r="U2">
-        <v>0.881</v>
-      </c>
-      <c r="V2">
-        <v>100000000</v>
-      </c>
-      <c r="W2">
-        <v>0.296</v>
-      </c>
-      <c r="X2">
-        <v>0.031</v>
-      </c>
-      <c r="Y2">
+      <c r="B25">
         <v>2</v>
       </c>
-      <c r="Z2">
-        <v>-0.02894975410990808</v>
-      </c>
-      <c r="AA2">
-        <v>-3.107489847887107</v>
-      </c>
-      <c r="AB2">
-        <v>-0.02709785221878536</v>
-      </c>
-      <c r="AC2">
-        <v>-0.0217394399126567</v>
-      </c>
-      <c r="AD2">
-        <v>-1.623911606464194</v>
-      </c>
-      <c r="AE2">
-        <v>-0.003202262032800722</v>
-      </c>
-      <c r="AF2">
-        <v>-0.05316637697251358</v>
-      </c>
-      <c r="AG2">
-        <v>-1.055135278043513</v>
-      </c>
-      <c r="AH2">
-        <v>-0.03170880461299627</v>
-      </c>
-      <c r="AI2">
-        <v>-0.02922422230346688</v>
-      </c>
-      <c r="AJ2">
-        <v>0.03502827710001312</v>
-      </c>
-      <c r="AK2">
-        <v>0.008826106126281938</v>
-      </c>
-      <c r="AL2">
-        <v>-0.006418789274236003</v>
-      </c>
-      <c r="AM2">
-        <v>-8.147546791460146</v>
-      </c>
-      <c r="AN2">
-        <v>-0.00567899999999999</v>
-      </c>
-      <c r="AO2">
-        <v>-0.07552901424177771</v>
-      </c>
-      <c r="AP2">
-        <v>-1.354468011130447</v>
-      </c>
-      <c r="AQ2">
-        <v>-0.04079165581336414</v>
-      </c>
-      <c r="AR2">
-        <v>-0.03247398836671433</v>
-      </c>
-      <c r="AS2">
-        <v>0.005330268371609658</v>
-      </c>
-      <c r="AT2">
-        <v>0.0315078934869428</v>
-      </c>
-      <c r="AU2">
-        <v>-0.2210335397267962</v>
-      </c>
-      <c r="AV2">
-        <v>-0.5630837943758764</v>
-      </c>
-      <c r="AW2">
-        <v>-0.08049721197145321</v>
-      </c>
-      <c r="AX2">
-        <v>-0.05298463322455915</v>
-      </c>
-      <c r="AY2">
-        <v>0.4750678959275052</v>
-      </c>
-      <c r="AZ2">
-        <v>0.08214970021503198</v>
-      </c>
-      <c r="BA2">
-        <v>-0.09566901722030163</v>
-      </c>
-      <c r="BB2">
-        <v>-0.4757281626791275</v>
-      </c>
-      <c r="BC2">
-        <v>-0.04926649772905754</v>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>strategy_name</t>
   </si>
@@ -549,21 +549,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,8 +576,11 @@
       <c r="C2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -584,8 +590,11 @@
       <c r="C3">
         <v>-0.02894975410990808</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>-0.02894975410990808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -595,8 +604,11 @@
       <c r="C4">
         <v>-3.107489847887107</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>-3.107489847887107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -606,8 +618,11 @@
       <c r="C5">
         <v>-0.02709785221878536</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>-0.02709785221878536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -617,8 +632,11 @@
       <c r="C6">
         <v>-0.0217394399126567</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>-0.0217394399126567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -628,8 +646,11 @@
       <c r="C7">
         <v>-1.623911606464194</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>-1.623911606464194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -639,8 +660,11 @@
       <c r="C8">
         <v>-0.003202262032800722</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>-0.003202262032800722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -650,8 +674,11 @@
       <c r="C9">
         <v>-0.05316637697251358</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>-0.05316637697251358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -661,8 +688,11 @@
       <c r="C10">
         <v>-1.055135278043513</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>-1.055135278043513</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -672,8 +702,11 @@
       <c r="C11">
         <v>-0.03170880461299627</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>-0.03170880461299627</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -683,8 +716,11 @@
       <c r="C12">
         <v>-0.02922422230346688</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>-0.02922422230346688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -694,8 +730,11 @@
       <c r="C13">
         <v>0.03502827710001312</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>0.03502827710001312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -705,8 +744,11 @@
       <c r="C14">
         <v>0.008826106126281938</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>0.008826106126281938</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -716,8 +758,11 @@
       <c r="C15">
         <v>-0.006418789274236003</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>-0.006418789274236003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -727,8 +772,11 @@
       <c r="C16">
         <v>-8.147546791460146</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>-8.147546791460146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -738,8 +786,11 @@
       <c r="C17">
         <v>-0.00567899999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>-0.00567899999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -749,8 +800,11 @@
       <c r="C18">
         <v>-0.07552901424177771</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>-0.07552901424177771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -760,8 +814,11 @@
       <c r="C19">
         <v>-1.354468011130447</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>-1.354468011130447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -771,8 +828,11 @@
       <c r="C20">
         <v>-0.04079165581336414</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>-0.04079165581336414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -782,8 +842,11 @@
       <c r="C21">
         <v>-0.03247398836671433</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>-0.03247398836671433</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -793,8 +856,11 @@
       <c r="C22">
         <v>0.005330268371609658</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>0.005330268371609658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -804,8 +870,11 @@
       <c r="C23">
         <v>0.0315078934869428</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>0.0315078934869428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -815,8 +884,11 @@
       <c r="C24">
         <v>-0.2210335397267962</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>-0.2210335397267962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -826,8 +898,11 @@
       <c r="C25">
         <v>-0.5630837943758764</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>-0.5630837943758764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -837,8 +912,11 @@
       <c r="C26">
         <v>-0.08049721197145321</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <v>-0.08049721197145321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -848,8 +926,11 @@
       <c r="C27">
         <v>-0.05298463322455915</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>-0.05298463322455915</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
@@ -859,8 +940,11 @@
       <c r="C28">
         <v>0.4750678959275052</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>0.4750678959275052</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -870,8 +954,11 @@
       <c r="C29">
         <v>0.08214970021503198</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29">
+        <v>0.08214970021503198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
@@ -881,8 +968,11 @@
       <c r="C30">
         <v>-0.09566901722030163</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30">
+        <v>-0.09566901722030163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -892,8 +982,11 @@
       <c r="C31">
         <v>-0.4757281626791275</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31">
+        <v>-0.4757281626791275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -901,6 +994,9 @@
         <v>-0.04926649772905754</v>
       </c>
       <c r="C32">
+        <v>-0.04926649772905754</v>
+      </c>
+      <c r="D32">
         <v>-0.04926649772905754</v>
       </c>
     </row>
@@ -911,13 +1007,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -927,8 +1023,11 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,8 +1040,11 @@
       <c r="D2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -955,8 +1057,11 @@
       <c r="D3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -969,8 +1074,11 @@
       <c r="D4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -983,8 +1091,11 @@
       <c r="D5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -997,8 +1108,11 @@
       <c r="D6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -1011,8 +1125,11 @@
       <c r="D7">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
@@ -1025,8 +1142,11 @@
       <c r="D8">
         <v>-0.047</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>-0.047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1039,8 +1159,11 @@
       <c r="D9">
         <v>0.213</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0.213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1053,8 +1176,11 @@
       <c r="D10">
         <v>-0.417</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>-0.417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -1067,8 +1193,11 @@
       <c r="D11">
         <v>-0.332</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>-0.332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1081,8 +1210,11 @@
       <c r="D12">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>42</v>
       </c>
@@ -1095,8 +1227,11 @@
       <c r="D13">
         <v>0.204</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>0.204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1109,8 +1244,11 @@
       <c r="D14">
         <v>-0.484</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>-0.484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -1123,8 +1261,11 @@
       <c r="D15">
         <v>0.099</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0.099</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1137,8 +1278,11 @@
       <c r="D16">
         <v>0.264</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1151,8 +1295,11 @@
       <c r="D17">
         <v>88091211.057</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>88091211.057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -1165,8 +1312,11 @@
       <c r="D18">
         <v>49831259.057</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>49831259.057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1179,8 +1329,11 @@
       <c r="D19">
         <v>-0.119</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>-0.119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1193,8 +1346,11 @@
       <c r="D20">
         <v>-0.015</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>-0.015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1207,8 +1363,11 @@
       <c r="D21">
         <v>0.881</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>0.881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1221,8 +1380,11 @@
       <c r="D22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1235,8 +1397,11 @@
       <c r="D23">
         <v>0.296</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
@@ -1249,8 +1414,11 @@
       <c r="D24">
         <v>0.031</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -1261,6 +1429,9 @@
         <v>2</v>
       </c>
       <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
         <v>2</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,21 +15,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>strategy_name</t>
   </si>
   <si>
-    <t>2019max_draw_down</t>
-  </si>
-  <si>
-    <t>2019Sharpe</t>
-  </si>
-  <si>
-    <t>2019Total_Return</t>
-  </si>
-  <si>
-    <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']</t>
+    <t>2016max_draw_down</t>
+  </si>
+  <si>
+    <t>2016Sharpe</t>
+  </si>
+  <si>
+    <t>2016Total_Return</t>
+  </si>
+  <si>
+    <t>2017max_draw_down</t>
+  </si>
+  <si>
+    <t>2017Sharpe</t>
+  </si>
+  <si>
+    <t>2017Total_Return</t>
+  </si>
+  <si>
+    <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']</t>
+  </si>
+  <si>
+    <t>-inf</t>
   </si>
   <si>
     <t>start_date</t>
@@ -101,10 +113,10 @@
     <t>stock_num</t>
   </si>
   <si>
-    <t>2019-01-02</t>
-  </si>
-  <si>
-    <t>2019-12-27</t>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2017-01-17</t>
   </si>
   <si>
     <t>strategy.py</t>
@@ -468,47 +480,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.09302305741842232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>-0.001213105540182058</v>
+      </c>
+      <c r="C3">
+        <v>-0.001213105540182058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7278693893169516</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-7.135351581867956</v>
+      </c>
+      <c r="C4">
+        <v>-7.135351581867956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.12958</v>
+        <v>-0.001008087703630225</v>
+      </c>
+      <c r="C5">
+        <v>-0.001008087703630225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -518,78 +578,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -597,164 +675,209 @@
       <c r="C7">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.018</v>
+        <v>-0.034</v>
       </c>
       <c r="C8">
-        <v>-0.018</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.034</v>
+      </c>
+      <c r="D8">
+        <v>-0.034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.432</v>
+        <v>-0.006</v>
       </c>
       <c r="C9">
-        <v>0.432</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.006</v>
+      </c>
+      <c r="D9">
+        <v>-0.006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.822</v>
+        <v>-6.404</v>
       </c>
       <c r="C10">
-        <v>0.822</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-6.404</v>
+      </c>
+      <c r="D10">
+        <v>-6.404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-1.214</v>
+        <v>4.217</v>
       </c>
       <c r="C11">
-        <v>-1.214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>4.217</v>
+      </c>
+      <c r="D11">
+        <v>4.217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.122</v>
+        <v>0.057</v>
       </c>
       <c r="C12">
-        <v>0.122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.057</v>
+      </c>
+      <c r="D12">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.153</v>
+        <v>0.118</v>
       </c>
       <c r="C13">
-        <v>0.153</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.118</v>
+      </c>
+      <c r="D13">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-1.518</v>
+        <v>8.638999999999999</v>
       </c>
       <c r="C14">
-        <v>-1.518</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>8.638999999999999</v>
+      </c>
+      <c r="D14">
+        <v>8.638999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.134</v>
+        <v>0.005</v>
       </c>
       <c r="C15">
-        <v>0.134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.005</v>
+      </c>
+      <c r="D15">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.093</v>
+        <v>0.001</v>
       </c>
       <c r="C16">
-        <v>0.093</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.001</v>
+      </c>
+      <c r="D16">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>112958026.375</v>
+        <v>99890511.37800001</v>
       </c>
       <c r="C17">
-        <v>112958026.375</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>99890511.37800001</v>
+      </c>
+      <c r="D17">
+        <v>99890511.37800001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>42581538.375</v>
+        <v>99890511.37800001</v>
       </c>
       <c r="C18">
-        <v>42581538.375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>99890511.37800001</v>
+      </c>
+      <c r="D18">
+        <v>99890511.37800001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.13</v>
+        <v>-0.001</v>
       </c>
       <c r="C19">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>-0.001</v>
+      </c>
+      <c r="D19">
+        <v>-0.001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.135</v>
+        <v>-0.008</v>
       </c>
       <c r="C20">
-        <v>0.135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.008</v>
+      </c>
+      <c r="D20">
+        <v>-0.008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>1.13</v>
+        <v>0.999</v>
       </c>
       <c r="C21">
-        <v>1.13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.999</v>
+      </c>
+      <c r="D21">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -762,37 +885,49 @@
       <c r="C22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.336</v>
+        <v>-0.067</v>
       </c>
       <c r="C23">
-        <v>0.336</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.067</v>
+      </c>
+      <c r="D23">
+        <v>-0.067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.352</v>
+        <v>-0.4</v>
       </c>
       <c r="C24">
-        <v>0.352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.4</v>
+      </c>
+      <c r="D24">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
         <v>2</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>strategy_name</t>
   </si>
@@ -480,21 +480,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +516,20 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -515,8 +539,20 @@
       <c r="C3">
         <v>-0.001213105540182058</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>-0.001213105540182058</v>
+      </c>
+      <c r="E3">
+        <v>-0.001213105540182058</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>-0.001213105540182058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -526,8 +562,20 @@
       <c r="C4">
         <v>-7.135351581867956</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>-7.135351581867956</v>
+      </c>
+      <c r="E4">
+        <v>-7.135351581867956</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>-7.135351581867956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -537,8 +585,20 @@
       <c r="C5">
         <v>-0.001008087703630225</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>-0.001008087703630225</v>
+      </c>
+      <c r="E5">
+        <v>-0.001008087703630225</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>-0.001008087703630225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -548,8 +608,20 @@
       <c r="C6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -559,8 +631,20 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -568,6 +652,18 @@
         <v>0</v>
       </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
@@ -578,13 +674,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -594,8 +690,20 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -608,8 +716,20 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -622,8 +742,20 @@
       <c r="D3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -636,8 +768,20 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -650,8 +794,20 @@
       <c r="D5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -664,8 +820,20 @@
       <c r="D6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -678,8 +846,20 @@
       <c r="D7">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>100000000</v>
+      </c>
+      <c r="F7">
+        <v>100000000</v>
+      </c>
+      <c r="G7">
+        <v>100000000</v>
+      </c>
+      <c r="H7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -692,8 +872,20 @@
       <c r="D8">
         <v>-0.034</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>-0.034</v>
+      </c>
+      <c r="F8">
+        <v>-0.034</v>
+      </c>
+      <c r="G8">
+        <v>-0.023</v>
+      </c>
+      <c r="H8">
+        <v>-0.034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -706,8 +898,20 @@
       <c r="D9">
         <v>-0.006</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>-0.006</v>
+      </c>
+      <c r="F9">
+        <v>-0.006</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>-0.006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -720,8 +924,17 @@
       <c r="D10">
         <v>-6.404</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>-6.404</v>
+      </c>
+      <c r="F10">
+        <v>-6.404</v>
+      </c>
+      <c r="H10">
+        <v>-6.404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -734,8 +947,20 @@
       <c r="D11">
         <v>4.217</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>4.217</v>
+      </c>
+      <c r="F11">
+        <v>4.217</v>
+      </c>
+      <c r="G11">
+        <v>4.314</v>
+      </c>
+      <c r="H11">
+        <v>4.217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -748,8 +973,20 @@
       <c r="D12">
         <v>0.057</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0.057</v>
+      </c>
+      <c r="F12">
+        <v>0.057</v>
+      </c>
+      <c r="G12">
+        <v>0.057</v>
+      </c>
+      <c r="H12">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -762,8 +999,20 @@
       <c r="D13">
         <v>0.118</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>0.118</v>
+      </c>
+      <c r="F13">
+        <v>0.118</v>
+      </c>
+      <c r="G13">
+        <v>0.117</v>
+      </c>
+      <c r="H13">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -776,8 +1025,20 @@
       <c r="D14">
         <v>8.638999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>8.638999999999999</v>
+      </c>
+      <c r="F14">
+        <v>8.638999999999999</v>
+      </c>
+      <c r="G14">
+        <v>8.83</v>
+      </c>
+      <c r="H14">
+        <v>8.638999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -790,8 +1051,20 @@
       <c r="D15">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0.005</v>
+      </c>
+      <c r="F15">
+        <v>0.005</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -804,8 +1077,20 @@
       <c r="D16">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>0.001</v>
+      </c>
+      <c r="F16">
+        <v>0.001</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -818,8 +1103,20 @@
       <c r="D17">
         <v>99890511.37800001</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>99890511.37800001</v>
+      </c>
+      <c r="F17">
+        <v>99890511.37800001</v>
+      </c>
+      <c r="G17">
+        <v>100000000</v>
+      </c>
+      <c r="H17">
+        <v>99890511.37800001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -832,8 +1129,20 @@
       <c r="D18">
         <v>99890511.37800001</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>99890511.37800001</v>
+      </c>
+      <c r="F18">
+        <v>99890511.37800001</v>
+      </c>
+      <c r="G18">
+        <v>100000000</v>
+      </c>
+      <c r="H18">
+        <v>99890511.37800001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
@@ -846,8 +1155,20 @@
       <c r="D19">
         <v>-0.001</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>-0.001</v>
+      </c>
+      <c r="F19">
+        <v>-0.001</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>-0.001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>26</v>
       </c>
@@ -860,8 +1181,20 @@
       <c r="D20">
         <v>-0.008</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>-0.008</v>
+      </c>
+      <c r="F20">
+        <v>-0.008</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>-0.008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>27</v>
       </c>
@@ -874,8 +1207,20 @@
       <c r="D21">
         <v>0.999</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>0.999</v>
+      </c>
+      <c r="F21">
+        <v>0.999</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>28</v>
       </c>
@@ -888,8 +1233,20 @@
       <c r="D22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>100000000</v>
+      </c>
+      <c r="F22">
+        <v>100000000</v>
+      </c>
+      <c r="G22">
+        <v>100000000</v>
+      </c>
+      <c r="H22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -902,8 +1259,20 @@
       <c r="D23">
         <v>-0.067</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>-0.067</v>
+      </c>
+      <c r="F23">
+        <v>-0.067</v>
+      </c>
+      <c r="G23">
+        <v>-0.067</v>
+      </c>
+      <c r="H23">
+        <v>-0.067</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>30</v>
       </c>
@@ -916,8 +1285,20 @@
       <c r="D24">
         <v>-0.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>-0.4</v>
+      </c>
+      <c r="F24">
+        <v>-0.4</v>
+      </c>
+      <c r="G24">
+        <v>-0.4</v>
+      </c>
+      <c r="H24">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
@@ -928,6 +1309,18 @@
         <v>2</v>
       </c>
       <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wode/Documents/signal_framework/big/meta_stra_framwork/result/single/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC18D91-DF3B-1F42-9C31-182C4F2ADB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="分年" sheetId="1" r:id="rId1"/>
     <sheet name="综合" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
     <t>strategy_name</t>
   </si>
@@ -38,12 +44,36 @@
     <t>2017Total_Return</t>
   </si>
   <si>
+    <t>2018max_draw_down</t>
+  </si>
+  <si>
+    <t>2018Sharpe</t>
+  </si>
+  <si>
+    <t>2018Total_Return</t>
+  </si>
+  <si>
+    <t>2019max_draw_down</t>
+  </si>
+  <si>
+    <t>2019Sharpe</t>
+  </si>
+  <si>
+    <t>2019Total_Return</t>
+  </si>
+  <si>
+    <t>2015max_draw_down</t>
+  </si>
+  <si>
+    <t>2015Sharpe</t>
+  </si>
+  <si>
+    <t>2015Total_Return</t>
+  </si>
+  <si>
     <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']</t>
   </si>
   <si>
-    <t>-inf</t>
-  </si>
-  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -113,27 +143,35 @@
     <t>stock_num</t>
   </si>
   <si>
-    <t>2016-11-30</t>
-  </si>
-  <si>
-    <t>2017-01-17</t>
+    <t>2015-01-05</t>
+  </si>
+  <si>
+    <t>2019-12-27</t>
   </si>
   <si>
     <t>strategy.py</t>
   </si>
   <si>
     <t>BACKTEST</t>
+  </si>
+  <si>
+    <t>o ri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -141,8 +179,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -188,15 +233,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -238,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,9 +323,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,6 +375,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -479,363 +568,488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.001213105540182058</v>
+        <v>-0.12579360273817</v>
       </c>
       <c r="C3">
-        <v>-0.001213105540182058</v>
+        <v>-6.7917736752422297E-2</v>
       </c>
       <c r="D3">
-        <v>-0.001213105540182058</v>
+        <v>-7.4733424983537522E-2</v>
       </c>
       <c r="E3">
-        <v>-0.001213105540182058</v>
+        <v>-5.9683133204984078E-2</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-0.001213105540182058</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.13457152949268911</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-7.135351581867956</v>
+        <v>-0.18971233525395689</v>
       </c>
       <c r="C4">
-        <v>-7.135351581867956</v>
+        <v>0.61854455997194591</v>
       </c>
       <c r="D4">
-        <v>-7.135351581867956</v>
+        <v>9.0854249634633955E-2</v>
       </c>
       <c r="E4">
-        <v>-7.135351581867956</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4">
-        <v>-7.135351581867956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.28148043737409822</v>
+      </c>
+      <c r="F4">
+        <v>-0.29764302008899468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.001008087703630225</v>
+        <v>5.5116134160457068E-3</v>
       </c>
       <c r="C5">
-        <v>-0.001008087703630225</v>
+        <v>0.1119515961621224</v>
       </c>
       <c r="D5">
-        <v>-0.001008087703630225</v>
+        <v>3.6254164324015972E-2</v>
       </c>
       <c r="E5">
-        <v>-0.001008087703630225</v>
+        <v>5.8371924351375157E-2</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>-0.001008087703630225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-1.4884758615638399E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-5.0700371942750233E-2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-5.1981817847738587E-2</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-4.5612920239823877E-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-5.2266759412225028E-2</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-5.848055152963294E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="B7">
+        <v>0.68374235497640035</v>
+      </c>
+      <c r="C7">
+        <v>1.8529944531876721</v>
+      </c>
+      <c r="D7">
+        <v>1.7495521145370589</v>
+      </c>
+      <c r="E7">
+        <v>1.3078240718559051</v>
+      </c>
+      <c r="F7">
+        <v>1.421109966612996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>9.0828734066517619E-2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.22934191702432041</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.21779318266773409</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.15989391111547691</v>
       </c>
       <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
+        <v>0.1913024085273452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-0.16996088451519151</v>
+      </c>
+      <c r="C9">
+        <v>-0.1496962813092545</v>
+      </c>
+      <c r="D9">
+        <v>-0.21461351377339699</v>
+      </c>
+      <c r="E9">
+        <v>-0.2080624756981144</v>
+      </c>
+      <c r="F9">
+        <v>-0.15894262225977659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-1.475076174420145</v>
+      </c>
+      <c r="C10">
+        <v>-1.3049061562993021</v>
+      </c>
+      <c r="D10">
+        <v>-1.6962955896321781</v>
+      </c>
+      <c r="E10">
+        <v>-1.3236169041102559</v>
+      </c>
+      <c r="F10">
+        <v>-1.0908467520560661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>-0.12425457349008449</v>
+      </c>
+      <c r="C11">
+        <v>-0.1080708861617736</v>
+      </c>
+      <c r="D11">
+        <v>-0.15154578637688701</v>
+      </c>
+      <c r="E11">
+        <v>-0.1338652089924465</v>
+      </c>
+      <c r="F11">
+        <v>-9.4806673161095312E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>-7.0801311939290623E-2</v>
+      </c>
+      <c r="C12">
+        <v>-7.6496467741392182E-2</v>
+      </c>
+      <c r="D12">
+        <v>-6.8889286475808609E-2</v>
+      </c>
+      <c r="E12">
+        <v>-9.8222141370595262E-2</v>
+      </c>
+      <c r="F12">
+        <v>-7.8928514012369888E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1.0832240359357761</v>
+      </c>
+      <c r="C13">
+        <v>1.2099330080745661</v>
+      </c>
+      <c r="D13">
+        <v>1.130956447579696</v>
+      </c>
+      <c r="E13">
+        <v>0.71016297818168816</v>
+      </c>
+      <c r="F13">
+        <v>1.007140572811231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.1761314991225385</v>
+      </c>
+      <c r="C14">
+        <v>0.21165670196224021</v>
+      </c>
+      <c r="D14">
+        <v>0.19826327820689299</v>
+      </c>
+      <c r="E14">
+        <v>0.12320212561747459</v>
+      </c>
+      <c r="F14">
+        <v>0.1797934695364195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>-0.2315324063065696</v>
+      </c>
+      <c r="C15">
+        <v>-0.29287272092820371</v>
+      </c>
+      <c r="D15">
+        <v>-0.24927244657356079</v>
+      </c>
+      <c r="E15">
+        <v>-0.2409119155141749</v>
+      </c>
+      <c r="F15">
+        <v>-0.23752904819866419</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.1019767169631344</v>
+      </c>
+      <c r="C16">
+        <v>0.51828353609815614</v>
+      </c>
+      <c r="D16">
+        <v>0.54019281602952895</v>
+      </c>
+      <c r="E16">
+        <v>0.93062544021571625</v>
+      </c>
+      <c r="F16">
+        <v>0.73271219528077447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>5.2111000000000018E-2</v>
+      </c>
+      <c r="C17">
+        <v>0.18621299999999999</v>
+      </c>
+      <c r="D17">
+        <v>0.19491900000000009</v>
+      </c>
+      <c r="E17">
+        <v>0.3338620000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.2458020000000001</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -852,377 +1066,290 @@
       <c r="F7">
         <v>100000000</v>
       </c>
-      <c r="G7">
-        <v>100000000</v>
-      </c>
-      <c r="H7">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>-0.034</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C8">
-        <v>-0.034</v>
+        <v>0.09</v>
       </c>
       <c r="D8">
-        <v>-0.034</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="E8">
-        <v>-0.034</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="F8">
-        <v>-0.034</v>
-      </c>
-      <c r="G8">
-        <v>-0.023</v>
-      </c>
-      <c r="H8">
-        <v>-0.034</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>-0.006</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="C9">
-        <v>-0.006</v>
+        <v>0.33</v>
       </c>
       <c r="D9">
-        <v>-0.006</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="E9">
-        <v>-0.006</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="F9">
-        <v>-0.006</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>-0.006</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>-6.404</v>
+        <v>0.109</v>
       </c>
       <c r="C10">
-        <v>-6.404</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D10">
-        <v>-6.404</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="E10">
-        <v>-6.404</v>
+        <v>0.497</v>
       </c>
       <c r="F10">
-        <v>-6.404</v>
-      </c>
-      <c r="H10">
-        <v>-6.404</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>4.217</v>
+        <v>-0.04</v>
       </c>
       <c r="C11">
-        <v>4.217</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="D11">
-        <v>4.217</v>
+        <v>0.222</v>
       </c>
       <c r="E11">
-        <v>4.217</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="F11">
-        <v>4.217</v>
-      </c>
-      <c r="G11">
-        <v>4.314</v>
-      </c>
-      <c r="H11">
-        <v>4.217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>0.057</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="C12">
-        <v>0.057</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D12">
-        <v>0.057</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E12">
-        <v>0.057</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="F12">
-        <v>0.057</v>
-      </c>
-      <c r="G12">
-        <v>0.057</v>
-      </c>
-      <c r="H12">
-        <v>0.057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B13">
-        <v>0.118</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="C13">
-        <v>0.118</v>
+        <v>0.21</v>
       </c>
       <c r="D13">
-        <v>0.118</v>
+        <v>0.20699999999999999</v>
       </c>
       <c r="E13">
-        <v>0.118</v>
+        <v>0.214</v>
       </c>
       <c r="F13">
-        <v>0.118</v>
-      </c>
-      <c r="G13">
-        <v>0.117</v>
-      </c>
-      <c r="H13">
-        <v>0.118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B14">
-        <v>8.638999999999999</v>
+        <v>-5.8999999999999997E-2</v>
       </c>
       <c r="C14">
-        <v>8.638999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="D14">
-        <v>8.638999999999999</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="E14">
-        <v>8.638999999999999</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="F14">
-        <v>8.638999999999999</v>
-      </c>
-      <c r="G14">
-        <v>8.83</v>
-      </c>
-      <c r="H14">
-        <v>8.638999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.35399999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>0.005</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="C15">
-        <v>0.005</v>
+        <v>0.154</v>
       </c>
       <c r="D15">
-        <v>0.005</v>
+        <v>0.152</v>
       </c>
       <c r="E15">
-        <v>0.005</v>
+        <v>0.159</v>
       </c>
       <c r="F15">
-        <v>0.005</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0.005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>0.001</v>
+        <v>0.314</v>
       </c>
       <c r="C16">
-        <v>0.001</v>
+        <v>0.29299999999999998</v>
       </c>
       <c r="D16">
-        <v>0.001</v>
+        <v>0.249</v>
       </c>
       <c r="E16">
-        <v>0.001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="F16">
-        <v>0.001</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>99890511.37800001</v>
+        <v>121438394.361</v>
       </c>
       <c r="C17">
-        <v>99890511.37800001</v>
+        <v>178521539.16800001</v>
       </c>
       <c r="D17">
-        <v>99890511.37800001</v>
+        <v>155474897.23199999</v>
       </c>
       <c r="E17">
-        <v>99890511.37800001</v>
+        <v>162666402.49200001</v>
       </c>
       <c r="F17">
-        <v>99890511.37800001</v>
-      </c>
-      <c r="G17">
-        <v>100000000</v>
-      </c>
-      <c r="H17">
-        <v>99890511.37800001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>157423513.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>99890511.37800001</v>
+        <v>33737681.361000001</v>
       </c>
       <c r="C18">
-        <v>99890511.37800001</v>
+        <v>52114477.167999998</v>
       </c>
       <c r="D18">
-        <v>99890511.37800001</v>
+        <v>47425454.232000001</v>
       </c>
       <c r="E18">
-        <v>99890511.37800001</v>
+        <v>56073215.491999999</v>
       </c>
       <c r="F18">
-        <v>99890511.37800001</v>
-      </c>
-      <c r="G18">
-        <v>100000000</v>
-      </c>
-      <c r="H18">
-        <v>99890511.37800001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>24307892.190000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>-0.001</v>
+        <v>0.214</v>
       </c>
       <c r="C19">
-        <v>-0.001</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="D19">
-        <v>-0.001</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="E19">
-        <v>-0.001</v>
+        <v>0.627</v>
       </c>
       <c r="F19">
-        <v>-0.001</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>-0.001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>0.57399999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>-0.008</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="C20">
-        <v>-0.008</v>
+        <v>0.128</v>
       </c>
       <c r="D20">
-        <v>-0.008</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E20">
-        <v>-0.008</v>
+        <v>0.106</v>
       </c>
       <c r="F20">
-        <v>-0.008</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>-0.008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>0.999</v>
+        <v>1.214</v>
       </c>
       <c r="C21">
-        <v>0.999</v>
+        <v>1.7849999999999999</v>
       </c>
       <c r="D21">
-        <v>0.999</v>
+        <v>1.5549999999999999</v>
       </c>
       <c r="E21">
-        <v>0.999</v>
+        <v>1.627</v>
       </c>
       <c r="F21">
-        <v>0.999</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0.999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>1.5740000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -1239,92 +1366,69 @@
       <c r="F22">
         <v>100000000</v>
       </c>
-      <c r="G22">
-        <v>100000000</v>
-      </c>
-      <c r="H22">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B23">
-        <v>-0.067</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="C23">
-        <v>-0.067</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="D23">
-        <v>-0.067</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E23">
-        <v>-0.067</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="F23">
-        <v>-0.067</v>
-      </c>
-      <c r="G23">
-        <v>-0.067</v>
-      </c>
-      <c r="H23">
-        <v>-0.067</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>-0.4</v>
+        <v>2.7E-2</v>
       </c>
       <c r="C24">
-        <v>-0.4</v>
+        <v>2.7E-2</v>
       </c>
       <c r="D24">
-        <v>-0.4</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E24">
-        <v>-0.4</v>
+        <v>2.7E-2</v>
       </c>
       <c r="F24">
-        <v>-0.4</v>
-      </c>
-      <c r="G24">
-        <v>-0.4</v>
-      </c>
-      <c r="H24">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>118</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wode/Documents/signal_framework/big/meta_stra_framwork/result/single/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC18D91-DF3B-1F42-9C31-182C4F2ADB9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="分年" sheetId="1" r:id="rId1"/>
     <sheet name="综合" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
   <si>
+    <t>ori</t>
+  </si>
+  <si>
     <t>strategy_name</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
     <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']</t>
   </si>
   <si>
+    <t>o ri</t>
+  </si>
+  <si>
     <t>start_date</t>
   </si>
   <si>
@@ -153,25 +153,17 @@
   </si>
   <si>
     <t>BACKTEST</t>
-  </si>
-  <si>
-    <t>o ri</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ori</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -179,15 +171,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -233,23 +218,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -291,7 +268,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,27 +300,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,24 +334,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,14 +509,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1">
@@ -591,124 +530,124 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>-0.12579360273817</v>
       </c>
       <c r="C3">
-        <v>-6.7917736752422297E-2</v>
+        <v>-0.0679177367524223</v>
       </c>
       <c r="D3">
-        <v>-7.4733424983537522E-2</v>
+        <v>-0.1345715294926891</v>
       </c>
       <c r="E3">
-        <v>-5.9683133204984078E-2</v>
+        <v>-0.05968313320498408</v>
       </c>
       <c r="F3">
-        <v>-0.13457152949268911</v>
+        <v>-0.1345715294926891</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>-0.18971233525395689</v>
+        <v>-0.1897123352539569</v>
       </c>
       <c r="C4">
-        <v>0.61854455997194591</v>
+        <v>0.6185445599719459</v>
       </c>
       <c r="D4">
-        <v>9.0854249634633955E-2</v>
+        <v>-0.2976430200889947</v>
       </c>
       <c r="E4">
-        <v>0.28148043737409822</v>
+        <v>0.2814804373740982</v>
       </c>
       <c r="F4">
-        <v>-0.29764302008899468</v>
+        <v>-0.2976430200889947</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>5.5116134160457068E-3</v>
+        <v>0.005511613416045707</v>
       </c>
       <c r="C5">
         <v>0.1119515961621224</v>
       </c>
       <c r="D5">
-        <v>3.6254164324015972E-2</v>
+        <v>-0.0148847586156384</v>
       </c>
       <c r="E5">
-        <v>5.8371924351375157E-2</v>
+        <v>0.05837192435137516</v>
       </c>
       <c r="F5">
-        <v>-1.4884758615638399E-2</v>
+        <v>-0.0148847586156384</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>-5.0700371942750233E-2</v>
+        <v>-0.05070037194275023</v>
       </c>
       <c r="C6">
-        <v>-5.1981817847738587E-2</v>
+        <v>-0.05198181784773859</v>
       </c>
       <c r="D6">
-        <v>-4.5612920239823877E-2</v>
+        <v>-0.05848055152963294</v>
       </c>
       <c r="E6">
-        <v>-5.2266759412225028E-2</v>
+        <v>-0.05226675941222503</v>
       </c>
       <c r="F6">
-        <v>-5.848055152963294E-2</v>
+        <v>-0.05848055152963294</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.68374235497640035</v>
+        <v>0.6837423549764003</v>
       </c>
       <c r="C7">
-        <v>1.8529944531876721</v>
+        <v>1.852994453187672</v>
       </c>
       <c r="D7">
-        <v>1.7495521145370589</v>
+        <v>1.421109966612996</v>
       </c>
       <c r="E7">
-        <v>1.3078240718559051</v>
+        <v>1.307824071855905</v>
       </c>
       <c r="F7">
         <v>1.421109966612996</v>
@@ -716,19 +655,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>9.0828734066517619E-2</v>
+        <v>0.09082873406651762</v>
       </c>
       <c r="C8">
-        <v>0.22934191702432041</v>
+        <v>0.2293419170243204</v>
       </c>
       <c r="D8">
-        <v>0.21779318266773409</v>
+        <v>0.1913024085273452</v>
       </c>
       <c r="E8">
-        <v>0.15989391111547691</v>
+        <v>0.1598939111154769</v>
       </c>
       <c r="F8">
         <v>0.1913024085273452</v>
@@ -736,99 +675,99 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>-0.16996088451519151</v>
+        <v>-0.1699608845151915</v>
       </c>
       <c r="C9">
         <v>-0.1496962813092545</v>
       </c>
       <c r="D9">
-        <v>-0.21461351377339699</v>
+        <v>-0.1589426222597766</v>
       </c>
       <c r="E9">
         <v>-0.2080624756981144</v>
       </c>
       <c r="F9">
-        <v>-0.15894262225977659</v>
+        <v>-0.1589426222597766</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>-1.475076174420145</v>
       </c>
       <c r="C10">
-        <v>-1.3049061562993021</v>
+        <v>-1.304906156299302</v>
       </c>
       <c r="D10">
-        <v>-1.6962955896321781</v>
+        <v>-1.090846752056066</v>
       </c>
       <c r="E10">
-        <v>-1.3236169041102559</v>
+        <v>-1.323616904110256</v>
       </c>
       <c r="F10">
-        <v>-1.0908467520560661</v>
+        <v>-1.090846752056066</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>-0.12425457349008449</v>
+        <v>-0.1242545734900845</v>
       </c>
       <c r="C11">
         <v>-0.1080708861617736</v>
       </c>
       <c r="D11">
-        <v>-0.15154578637688701</v>
+        <v>-0.09480667316109531</v>
       </c>
       <c r="E11">
         <v>-0.1338652089924465</v>
       </c>
       <c r="F11">
-        <v>-9.4806673161095312E-2</v>
+        <v>-0.09480667316109531</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>-7.0801311939290623E-2</v>
+        <v>-0.07080131193929062</v>
       </c>
       <c r="C12">
-        <v>-7.6496467741392182E-2</v>
+        <v>-0.07649646774139218</v>
       </c>
       <c r="D12">
-        <v>-6.8889286475808609E-2</v>
+        <v>-0.07892851401236989</v>
       </c>
       <c r="E12">
-        <v>-9.8222141370595262E-2</v>
+        <v>-0.09822214137059526</v>
       </c>
       <c r="F12">
-        <v>-7.8928514012369888E-2</v>
+        <v>-0.07892851401236989</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1.0832240359357761</v>
+        <v>1.083224035935776</v>
       </c>
       <c r="C13">
-        <v>1.2099330080745661</v>
+        <v>1.209933008074566</v>
       </c>
       <c r="D13">
-        <v>1.130956447579696</v>
+        <v>1.007140572811231</v>
       </c>
       <c r="E13">
-        <v>0.71016297818168816</v>
+        <v>0.7101629781816882</v>
       </c>
       <c r="F13">
         <v>1.007140572811231</v>
@@ -836,19 +775,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0.1761314991225385</v>
       </c>
       <c r="C14">
-        <v>0.21165670196224021</v>
+        <v>0.2116567019622402</v>
       </c>
       <c r="D14">
-        <v>0.19826327820689299</v>
+        <v>0.1797934695364195</v>
       </c>
       <c r="E14">
-        <v>0.12320212561747459</v>
+        <v>0.1232021256174746</v>
       </c>
       <c r="F14">
         <v>0.1797934695364195</v>
@@ -856,56 +795,56 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>-0.2315324063065696</v>
       </c>
       <c r="C15">
-        <v>-0.29287272092820371</v>
+        <v>-0.2928727209282037</v>
       </c>
       <c r="D15">
-        <v>-0.24927244657356079</v>
+        <v>-0.2375290481986642</v>
       </c>
       <c r="E15">
         <v>-0.2409119155141749</v>
       </c>
       <c r="F15">
-        <v>-0.23752904819866419</v>
+        <v>-0.2375290481986642</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0.1019767169631344</v>
       </c>
       <c r="C16">
-        <v>0.51828353609815614</v>
+        <v>0.5182835360981561</v>
       </c>
       <c r="D16">
-        <v>0.54019281602952895</v>
+        <v>0.7327121952807745</v>
       </c>
       <c r="E16">
-        <v>0.93062544021571625</v>
+        <v>0.9306254402157162</v>
       </c>
       <c r="F16">
-        <v>0.73271219528077447</v>
+        <v>0.7327121952807745</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>5.2111000000000018E-2</v>
+        <v>0.05211100000000002</v>
       </c>
       <c r="C17">
-        <v>0.18621299999999999</v>
+        <v>0.186213</v>
       </c>
       <c r="D17">
-        <v>0.19491900000000009</v>
+        <v>0.2458020000000001</v>
       </c>
       <c r="E17">
         <v>0.3338620000000001</v>
@@ -915,20 +854,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1">
@@ -944,112 +880,112 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -1069,79 +1005,79 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="C8">
         <v>0.09</v>
       </c>
       <c r="D8">
-        <v>6.0999999999999999E-2</v>
+        <v>0.063</v>
       </c>
       <c r="E8">
-        <v>7.0999999999999994E-2</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F8">
-        <v>6.3E-2</v>
+        <v>0.063</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>0.28299999999999997</v>
+        <v>0.283</v>
       </c>
       <c r="C9">
         <v>0.33</v>
       </c>
       <c r="D9">
-        <v>0.33700000000000002</v>
+        <v>0.354</v>
       </c>
       <c r="E9">
-        <v>0.32800000000000001</v>
+        <v>0.328</v>
       </c>
       <c r="F9">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>0.109</v>
       </c>
       <c r="C10">
-        <v>0.63400000000000001</v>
+        <v>0.634</v>
       </c>
       <c r="D10">
-        <v>0.45100000000000001</v>
+        <v>0.467</v>
       </c>
       <c r="E10">
         <v>0.497</v>
       </c>
       <c r="F10">
-        <v>0.46700000000000003</v>
+        <v>0.467</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>-0.04</v>
       </c>
       <c r="C11">
-        <v>0.35599999999999998</v>
+        <v>0.356</v>
       </c>
       <c r="D11">
-        <v>0.222</v>
+        <v>0.24</v>
       </c>
       <c r="E11">
-        <v>0.26300000000000001</v>
+        <v>0.263</v>
       </c>
       <c r="F11">
         <v>0.24</v>
@@ -1149,70 +1085,70 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>0.14199999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="C12">
-        <v>0.14099999999999999</v>
+        <v>0.141</v>
       </c>
       <c r="D12">
-        <v>0.14000000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="E12">
-        <v>0.14499999999999999</v>
+        <v>0.145</v>
       </c>
       <c r="F12">
-        <v>0.13700000000000001</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>0.20799999999999999</v>
+        <v>0.208</v>
       </c>
       <c r="C13">
         <v>0.21</v>
       </c>
       <c r="D13">
-        <v>0.20699999999999999</v>
+        <v>0.202</v>
       </c>
       <c r="E13">
         <v>0.214</v>
       </c>
       <c r="F13">
-        <v>0.20200000000000001</v>
+        <v>0.202</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>-5.8999999999999997E-2</v>
+        <v>-0.059</v>
       </c>
       <c r="C14">
         <v>0.53</v>
       </c>
       <c r="D14">
-        <v>0.32800000000000001</v>
+        <v>0.354</v>
       </c>
       <c r="E14">
-        <v>0.38900000000000001</v>
+        <v>0.389</v>
       </c>
       <c r="F14">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B15">
-        <v>0.13100000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="C15">
         <v>0.154</v>
@@ -1229,39 +1165,39 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>0.314</v>
       </c>
       <c r="C16">
-        <v>0.29299999999999998</v>
+        <v>0.293</v>
       </c>
       <c r="D16">
-        <v>0.249</v>
+        <v>0.261</v>
       </c>
       <c r="E16">
-        <v>0.24099999999999999</v>
+        <v>0.241</v>
       </c>
       <c r="F16">
-        <v>0.26100000000000001</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>121438394.361</v>
       </c>
       <c r="C17">
-        <v>178521539.16800001</v>
+        <v>178521539.168</v>
       </c>
       <c r="D17">
-        <v>155474897.23199999</v>
+        <v>157423513.19</v>
       </c>
       <c r="E17">
-        <v>162666402.49200001</v>
+        <v>162666402.492</v>
       </c>
       <c r="F17">
         <v>157423513.19</v>
@@ -1269,87 +1205,87 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18">
-        <v>33737681.361000001</v>
+        <v>33737681.361</v>
       </c>
       <c r="C18">
-        <v>52114477.167999998</v>
+        <v>52114477.168</v>
       </c>
       <c r="D18">
-        <v>47425454.232000001</v>
+        <v>24307892.19</v>
       </c>
       <c r="E18">
-        <v>56073215.491999999</v>
+        <v>56073215.492</v>
       </c>
       <c r="F18">
-        <v>24307892.190000001</v>
+        <v>24307892.19</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>0.214</v>
       </c>
       <c r="C19">
-        <v>0.78500000000000003</v>
+        <v>0.785</v>
       </c>
       <c r="D19">
-        <v>0.55500000000000005</v>
+        <v>0.574</v>
       </c>
       <c r="E19">
         <v>0.627</v>
       </c>
       <c r="F19">
-        <v>0.57399999999999995</v>
+        <v>0.574</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>4.1000000000000002E-2</v>
+        <v>0.041</v>
       </c>
       <c r="C20">
         <v>0.128</v>
       </c>
       <c r="D20">
-        <v>9.6000000000000002E-2</v>
+        <v>0.099</v>
       </c>
       <c r="E20">
         <v>0.106</v>
       </c>
       <c r="F20">
-        <v>9.9000000000000005E-2</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>1.214</v>
       </c>
       <c r="C21">
-        <v>1.7849999999999999</v>
+        <v>1.785</v>
       </c>
       <c r="D21">
-        <v>1.5549999999999999</v>
+        <v>1.574</v>
       </c>
       <c r="E21">
         <v>1.627</v>
       </c>
       <c r="F21">
-        <v>1.5740000000000001</v>
+        <v>1.574</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -1369,47 +1305,47 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23">
-        <v>0.13800000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="C23">
-        <v>0.13800000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="D23">
-        <v>0.13800000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="E23">
-        <v>0.13800000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="F23">
-        <v>0.13800000000000001</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="C24">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="D24">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="E24">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="F24">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>85</v>
@@ -1418,7 +1354,7 @@
         <v>118</v>
       </c>
       <c r="D25">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="E25">
         <v>123</v>
@@ -1428,7 +1364,6 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -564,7 +564,7 @@
         <v>-0.0679177367524223</v>
       </c>
       <c r="D3">
-        <v>-0.1345715294926891</v>
+        <v>-0.1356081615238861</v>
       </c>
       <c r="E3">
         <v>-0.05968313320498408</v>
@@ -584,7 +584,7 @@
         <v>0.6185445599719459</v>
       </c>
       <c r="D4">
-        <v>-0.2976430200889947</v>
+        <v>-0.3310042415336092</v>
       </c>
       <c r="E4">
         <v>0.2814804373740982</v>
@@ -604,7 +604,7 @@
         <v>0.1119515961621224</v>
       </c>
       <c r="D5">
-        <v>-0.0148847586156384</v>
+        <v>-0.01892629559511109</v>
       </c>
       <c r="E5">
         <v>0.05837192435137516</v>
@@ -624,7 +624,7 @@
         <v>-0.05198181784773859</v>
       </c>
       <c r="D6">
-        <v>-0.05848055152963294</v>
+        <v>-0.06053265847998712</v>
       </c>
       <c r="E6">
         <v>-0.05226675941222503</v>
@@ -644,7 +644,7 @@
         <v>1.852994453187672</v>
       </c>
       <c r="D7">
-        <v>1.421109966612996</v>
+        <v>1.302555139231319</v>
       </c>
       <c r="E7">
         <v>1.307824071855905</v>
@@ -664,7 +664,7 @@
         <v>0.2293419170243204</v>
       </c>
       <c r="D8">
-        <v>0.1913024085273452</v>
+        <v>0.1789150091617535</v>
       </c>
       <c r="E8">
         <v>0.1598939111154769</v>
@@ -684,7 +684,7 @@
         <v>-0.1496962813092545</v>
       </c>
       <c r="D9">
-        <v>-0.1589426222597766</v>
+        <v>-0.1676483545171238</v>
       </c>
       <c r="E9">
         <v>-0.2080624756981144</v>
@@ -704,7 +704,7 @@
         <v>-1.304906156299302</v>
       </c>
       <c r="D10">
-        <v>-1.090846752056066</v>
+        <v>-1.200353172069828</v>
       </c>
       <c r="E10">
         <v>-1.323616904110256</v>
@@ -724,7 +724,7 @@
         <v>-0.1080708861617736</v>
       </c>
       <c r="D11">
-        <v>-0.09480667316109531</v>
+        <v>-0.1060274134920663</v>
       </c>
       <c r="E11">
         <v>-0.1338652089924465</v>
@@ -744,7 +744,7 @@
         <v>-0.07649646774139218</v>
       </c>
       <c r="D12">
-        <v>-0.07892851401236989</v>
+        <v>-0.08431151642484869</v>
       </c>
       <c r="E12">
         <v>-0.09822214137059526</v>
@@ -764,7 +764,7 @@
         <v>1.209933008074566</v>
       </c>
       <c r="D13">
-        <v>1.007140572811231</v>
+        <v>0.9047383806846042</v>
       </c>
       <c r="E13">
         <v>0.7101629781816882</v>
@@ -784,7 +784,7 @@
         <v>0.2116567019622402</v>
       </c>
       <c r="D14">
-        <v>0.1797934695364195</v>
+        <v>0.1652336154214402</v>
       </c>
       <c r="E14">
         <v>0.1232021256174746</v>
@@ -804,7 +804,7 @@
         <v>-0.2928727209282037</v>
       </c>
       <c r="D15">
-        <v>-0.2375290481986642</v>
+        <v>-0.2407390116632698</v>
       </c>
       <c r="E15">
         <v>-0.2409119155141749</v>
@@ -824,7 +824,7 @@
         <v>0.5182835360981561</v>
       </c>
       <c r="D16">
-        <v>0.7327121952807745</v>
+        <v>0.6829158184108688</v>
       </c>
       <c r="E16">
         <v>0.9306254402157162</v>
@@ -844,7 +844,7 @@
         <v>0.186213</v>
       </c>
       <c r="D17">
-        <v>0.2458020000000001</v>
+        <v>0.2302979999999999</v>
       </c>
       <c r="E17">
         <v>0.3338620000000001</v>
@@ -1014,7 +1014,7 @@
         <v>0.09</v>
       </c>
       <c r="D8">
-        <v>0.063</v>
+        <v>0.052</v>
       </c>
       <c r="E8">
         <v>0.07099999999999999</v>
@@ -1034,7 +1034,7 @@
         <v>0.33</v>
       </c>
       <c r="D9">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="E9">
         <v>0.328</v>
@@ -1054,7 +1054,7 @@
         <v>0.634</v>
       </c>
       <c r="D10">
-        <v>0.467</v>
+        <v>0.395</v>
       </c>
       <c r="E10">
         <v>0.497</v>
@@ -1074,7 +1074,7 @@
         <v>0.356</v>
       </c>
       <c r="D11">
-        <v>0.24</v>
+        <v>0.187</v>
       </c>
       <c r="E11">
         <v>0.263</v>
@@ -1134,7 +1134,7 @@
         <v>0.53</v>
       </c>
       <c r="D14">
-        <v>0.354</v>
+        <v>0.275</v>
       </c>
       <c r="E14">
         <v>0.389</v>
@@ -1154,7 +1154,7 @@
         <v>0.154</v>
       </c>
       <c r="D15">
-        <v>0.152</v>
+        <v>0.153</v>
       </c>
       <c r="E15">
         <v>0.159</v>
@@ -1174,7 +1174,7 @@
         <v>0.293</v>
       </c>
       <c r="D16">
-        <v>0.261</v>
+        <v>0.265</v>
       </c>
       <c r="E16">
         <v>0.241</v>
@@ -1194,7 +1194,7 @@
         <v>178521539.168</v>
       </c>
       <c r="D17">
-        <v>157423513.19</v>
+        <v>149450286.111</v>
       </c>
       <c r="E17">
         <v>162666402.492</v>
@@ -1214,7 +1214,7 @@
         <v>52114477.168</v>
       </c>
       <c r="D18">
-        <v>24307892.19</v>
+        <v>22880965.111</v>
       </c>
       <c r="E18">
         <v>56073215.492</v>
@@ -1234,7 +1234,7 @@
         <v>0.785</v>
       </c>
       <c r="D19">
-        <v>0.574</v>
+        <v>0.495</v>
       </c>
       <c r="E19">
         <v>0.627</v>
@@ -1254,7 +1254,7 @@
         <v>0.128</v>
       </c>
       <c r="D20">
-        <v>0.099</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E20">
         <v>0.106</v>
@@ -1274,7 +1274,7 @@
         <v>1.785</v>
       </c>
       <c r="D21">
-        <v>1.574</v>
+        <v>1.495</v>
       </c>
       <c r="E21">
         <v>1.627</v>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>ori</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']</t>
+  </si>
+  <si>
+    <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']</t>
   </si>
   <si>
     <t>o ri</t>
@@ -544,7 +547,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -564,7 +567,7 @@
         <v>-0.0679177367524223</v>
       </c>
       <c r="D3">
-        <v>-0.1356081615238861</v>
+        <v>-0.151895744426883</v>
       </c>
       <c r="E3">
         <v>-0.05968313320498408</v>
@@ -584,7 +587,7 @@
         <v>0.6185445599719459</v>
       </c>
       <c r="D4">
-        <v>-0.3310042415336092</v>
+        <v>-0.9895755519749272</v>
       </c>
       <c r="E4">
         <v>0.2814804373740982</v>
@@ -604,7 +607,7 @@
         <v>0.1119515961621224</v>
       </c>
       <c r="D5">
-        <v>-0.01892629559511109</v>
+        <v>-0.1050242206852544</v>
       </c>
       <c r="E5">
         <v>0.05837192435137516</v>
@@ -624,7 +627,7 @@
         <v>-0.05198181784773859</v>
       </c>
       <c r="D6">
-        <v>-0.06053265847998712</v>
+        <v>-0.08411475498406173</v>
       </c>
       <c r="E6">
         <v>-0.05226675941222503</v>
@@ -644,7 +647,7 @@
         <v>1.852994453187672</v>
       </c>
       <c r="D7">
-        <v>1.302555139231319</v>
+        <v>1.501051966688859</v>
       </c>
       <c r="E7">
         <v>1.307824071855905</v>
@@ -664,7 +667,7 @@
         <v>0.2293419170243204</v>
       </c>
       <c r="D8">
-        <v>0.1789150091617535</v>
+        <v>0.2611938936372359</v>
       </c>
       <c r="E8">
         <v>0.1598939111154769</v>
@@ -684,7 +687,7 @@
         <v>-0.1496962813092545</v>
       </c>
       <c r="D9">
-        <v>-0.1676483545171238</v>
+        <v>-0.3166620959951271</v>
       </c>
       <c r="E9">
         <v>-0.2080624756981144</v>
@@ -704,7 +707,7 @@
         <v>-1.304906156299302</v>
       </c>
       <c r="D10">
-        <v>-1.200353172069828</v>
+        <v>-1.351898587247674</v>
       </c>
       <c r="E10">
         <v>-1.323616904110256</v>
@@ -724,7 +727,7 @@
         <v>-0.1080708861617736</v>
       </c>
       <c r="D11">
-        <v>-0.1060274134920663</v>
+        <v>-0.2471827812011195</v>
       </c>
       <c r="E11">
         <v>-0.1338652089924465</v>
@@ -744,7 +747,7 @@
         <v>-0.07649646774139218</v>
       </c>
       <c r="D12">
-        <v>-0.08431151642484869</v>
+        <v>-0.154016484462899</v>
       </c>
       <c r="E12">
         <v>-0.09822214137059526</v>
@@ -764,7 +767,7 @@
         <v>1.209933008074566</v>
       </c>
       <c r="D13">
-        <v>0.9047383806846042</v>
+        <v>1.535281252705377</v>
       </c>
       <c r="E13">
         <v>0.7101629781816882</v>
@@ -784,7 +787,7 @@
         <v>0.2116567019622402</v>
       </c>
       <c r="D14">
-        <v>0.1652336154214402</v>
+        <v>0.4676579509614406</v>
       </c>
       <c r="E14">
         <v>0.1232021256174746</v>
@@ -804,7 +807,7 @@
         <v>-0.2928727209282037</v>
       </c>
       <c r="D15">
-        <v>-0.2407390116632698</v>
+        <v>-0.3880710686807977</v>
       </c>
       <c r="E15">
         <v>-0.2409119155141749</v>
@@ -824,7 +827,7 @@
         <v>0.5182835360981561</v>
       </c>
       <c r="D16">
-        <v>0.6829158184108688</v>
+        <v>0.4210918295512091</v>
       </c>
       <c r="E16">
         <v>0.9306254402157162</v>
@@ -844,7 +847,7 @@
         <v>0.186213</v>
       </c>
       <c r="D17">
-        <v>0.2302979999999999</v>
+        <v>0.1934419999999999</v>
       </c>
       <c r="E17">
         <v>0.3338620000000001</v>
@@ -880,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -894,7 +897,7 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -905,87 +908,87 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -1005,7 +1008,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>0.008</v>
@@ -1014,7 +1017,7 @@
         <v>0.09</v>
       </c>
       <c r="D8">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="E8">
         <v>0.07099999999999999</v>
@@ -1025,7 +1028,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>0.283</v>
@@ -1034,7 +1037,7 @@
         <v>0.33</v>
       </c>
       <c r="D9">
-        <v>0.355</v>
+        <v>0.626</v>
       </c>
       <c r="E9">
         <v>0.328</v>
@@ -1045,7 +1048,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>0.109</v>
@@ -1054,7 +1057,7 @@
         <v>0.634</v>
       </c>
       <c r="D10">
-        <v>0.395</v>
+        <v>0.301</v>
       </c>
       <c r="E10">
         <v>0.497</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>-0.04</v>
@@ -1074,7 +1077,7 @@
         <v>0.356</v>
       </c>
       <c r="D11">
-        <v>0.187</v>
+        <v>0.239</v>
       </c>
       <c r="E11">
         <v>0.263</v>
@@ -1085,7 +1088,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12">
         <v>0.142</v>
@@ -1094,7 +1097,7 @@
         <v>0.141</v>
       </c>
       <c r="D12">
-        <v>0.137</v>
+        <v>0.121</v>
       </c>
       <c r="E12">
         <v>0.145</v>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>0.208</v>
@@ -1114,7 +1117,7 @@
         <v>0.21</v>
       </c>
       <c r="D13">
-        <v>0.202</v>
+        <v>0.175</v>
       </c>
       <c r="E13">
         <v>0.214</v>
@@ -1125,7 +1128,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>-0.059</v>
@@ -1134,7 +1137,7 @@
         <v>0.53</v>
       </c>
       <c r="D14">
-        <v>0.275</v>
+        <v>0.345</v>
       </c>
       <c r="E14">
         <v>0.389</v>
@@ -1145,7 +1148,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15">
         <v>0.131</v>
@@ -1154,7 +1157,7 @@
         <v>0.154</v>
       </c>
       <c r="D15">
-        <v>0.153</v>
+        <v>0.214</v>
       </c>
       <c r="E15">
         <v>0.159</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16">
         <v>0.314</v>
@@ -1174,7 +1177,7 @@
         <v>0.293</v>
       </c>
       <c r="D16">
-        <v>0.265</v>
+        <v>0.425</v>
       </c>
       <c r="E16">
         <v>0.241</v>
@@ -1185,7 +1188,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17">
         <v>121438394.361</v>
@@ -1194,7 +1197,7 @@
         <v>178521539.168</v>
       </c>
       <c r="D17">
-        <v>149450286.111</v>
+        <v>144256053.196</v>
       </c>
       <c r="E17">
         <v>162666402.492</v>
@@ -1205,7 +1208,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18">
         <v>33737681.361</v>
@@ -1214,7 +1217,7 @@
         <v>52114477.168</v>
       </c>
       <c r="D18">
-        <v>22880965.111</v>
+        <v>2988511.596</v>
       </c>
       <c r="E18">
         <v>56073215.492</v>
@@ -1225,7 +1228,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19">
         <v>0.214</v>
@@ -1234,7 +1237,7 @@
         <v>0.785</v>
       </c>
       <c r="D19">
-        <v>0.495</v>
+        <v>0.443</v>
       </c>
       <c r="E19">
         <v>0.627</v>
@@ -1245,7 +1248,7 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20">
         <v>0.041</v>
@@ -1254,7 +1257,7 @@
         <v>0.128</v>
       </c>
       <c r="D20">
-        <v>0.08699999999999999</v>
+        <v>0.079</v>
       </c>
       <c r="E20">
         <v>0.106</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>1.214</v>
@@ -1274,7 +1277,7 @@
         <v>1.785</v>
       </c>
       <c r="D21">
-        <v>1.495</v>
+        <v>1.443</v>
       </c>
       <c r="E21">
         <v>1.627</v>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -1325,7 +1328,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -1345,7 +1348,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25">
         <v>85</v>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -71,7 +71,7 @@
     <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']</t>
   </si>
   <si>
-    <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']</t>
+    <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close#2#0&amp;trend&amp;HS*MACD#3#1&amp;trend*MB#3#1&amp;trend*K#40#1&amp;thre&amp;HS', 'close_EMA_7#close_EMA_15#0&amp;diff*close#2#1&amp;trend&amp;HS*MACD#3#0&amp;trend*MB#3#0&amp;trend*K#40#0&amp;thre&amp;HS']</t>
   </si>
   <si>
     <t>o ri</t>
@@ -567,7 +567,7 @@
         <v>-0.0679177367524223</v>
       </c>
       <c r="D3">
-        <v>-0.151895744426883</v>
+        <v>-0.1532089115562715</v>
       </c>
       <c r="E3">
         <v>-0.05968313320498408</v>
@@ -587,7 +587,7 @@
         <v>0.6185445599719459</v>
       </c>
       <c r="D4">
-        <v>-0.9895755519749272</v>
+        <v>-0.9772149384056574</v>
       </c>
       <c r="E4">
         <v>0.2814804373740982</v>
@@ -607,7 +607,7 @@
         <v>0.1119515961621224</v>
       </c>
       <c r="D5">
-        <v>-0.1050242206852544</v>
+        <v>-0.1198707906118331</v>
       </c>
       <c r="E5">
         <v>0.05837192435137516</v>
@@ -627,7 +627,7 @@
         <v>-0.05198181784773859</v>
       </c>
       <c r="D6">
-        <v>-0.08411475498406173</v>
+        <v>-0.07403036055195067</v>
       </c>
       <c r="E6">
         <v>-0.05226675941222503</v>
@@ -647,7 +647,7 @@
         <v>1.852994453187672</v>
       </c>
       <c r="D7">
-        <v>1.501051966688859</v>
+        <v>1.828844072821667</v>
       </c>
       <c r="E7">
         <v>1.307824071855905</v>
@@ -667,7 +667,7 @@
         <v>0.2293419170243204</v>
       </c>
       <c r="D8">
-        <v>0.2611938936372359</v>
+        <v>0.332544606268889</v>
       </c>
       <c r="E8">
         <v>0.1598939111154769</v>
@@ -687,7 +687,7 @@
         <v>-0.1496962813092545</v>
       </c>
       <c r="D9">
-        <v>-0.3166620959951271</v>
+        <v>-0.2901673768847958</v>
       </c>
       <c r="E9">
         <v>-0.2080624756981144</v>
@@ -707,7 +707,7 @@
         <v>-1.304906156299302</v>
       </c>
       <c r="D10">
-        <v>-1.351898587247674</v>
+        <v>-1.403199206852305</v>
       </c>
       <c r="E10">
         <v>-1.323616904110256</v>
@@ -727,7 +727,7 @@
         <v>-0.1080708861617736</v>
       </c>
       <c r="D11">
-        <v>-0.2471827812011195</v>
+        <v>-0.2418984483323813</v>
       </c>
       <c r="E11">
         <v>-0.1338652089924465</v>
@@ -747,7 +747,7 @@
         <v>-0.07649646774139218</v>
       </c>
       <c r="D12">
-        <v>-0.154016484462899</v>
+        <v>-0.1219611761040746</v>
       </c>
       <c r="E12">
         <v>-0.09822214137059526</v>
@@ -767,7 +767,7 @@
         <v>1.209933008074566</v>
       </c>
       <c r="D13">
-        <v>1.535281252705377</v>
+        <v>1.421151102306971</v>
       </c>
       <c r="E13">
         <v>0.7101629781816882</v>
@@ -787,7 +787,7 @@
         <v>0.2116567019622402</v>
       </c>
       <c r="D14">
-        <v>0.4676579509614406</v>
+        <v>0.3756733902861871</v>
       </c>
       <c r="E14">
         <v>0.1232021256174746</v>
@@ -807,7 +807,7 @@
         <v>-0.2928727209282037</v>
       </c>
       <c r="D15">
-        <v>-0.3880710686807977</v>
+        <v>-0.40276533958274</v>
       </c>
       <c r="E15">
         <v>-0.2409119155141749</v>
@@ -827,7 +827,7 @@
         <v>0.5182835360981561</v>
       </c>
       <c r="D16">
-        <v>0.4210918295512091</v>
+        <v>0.3733696386820167</v>
       </c>
       <c r="E16">
         <v>0.9306254402157162</v>
@@ -847,7 +847,7 @@
         <v>0.186213</v>
       </c>
       <c r="D17">
-        <v>0.1934419999999999</v>
+        <v>0.1892149999999999</v>
       </c>
       <c r="E17">
         <v>0.3338620000000001</v>
@@ -1017,7 +1017,7 @@
         <v>0.09</v>
       </c>
       <c r="D8">
-        <v>0.05</v>
+        <v>0.037</v>
       </c>
       <c r="E8">
         <v>0.07099999999999999</v>
@@ -1037,7 +1037,7 @@
         <v>0.33</v>
       </c>
       <c r="D9">
-        <v>0.626</v>
+        <v>0.723</v>
       </c>
       <c r="E9">
         <v>0.328</v>
@@ -1057,7 +1057,7 @@
         <v>0.634</v>
       </c>
       <c r="D10">
-        <v>0.301</v>
+        <v>0.243</v>
       </c>
       <c r="E10">
         <v>0.497</v>
@@ -1077,7 +1077,7 @@
         <v>0.356</v>
       </c>
       <c r="D11">
-        <v>0.239</v>
+        <v>0.21</v>
       </c>
       <c r="E11">
         <v>0.263</v>
@@ -1097,7 +1097,7 @@
         <v>0.141</v>
       </c>
       <c r="D12">
-        <v>0.121</v>
+        <v>0.102</v>
       </c>
       <c r="E12">
         <v>0.145</v>
@@ -1117,7 +1117,7 @@
         <v>0.21</v>
       </c>
       <c r="D13">
-        <v>0.175</v>
+        <v>0.148</v>
       </c>
       <c r="E13">
         <v>0.214</v>
@@ -1137,7 +1137,7 @@
         <v>0.53</v>
       </c>
       <c r="D14">
-        <v>0.345</v>
+        <v>0.304</v>
       </c>
       <c r="E14">
         <v>0.389</v>
@@ -1157,7 +1157,7 @@
         <v>0.154</v>
       </c>
       <c r="D15">
-        <v>0.214</v>
+        <v>0.221</v>
       </c>
       <c r="E15">
         <v>0.159</v>
@@ -1177,7 +1177,7 @@
         <v>0.293</v>
       </c>
       <c r="D16">
-        <v>0.425</v>
+        <v>0.464</v>
       </c>
       <c r="E16">
         <v>0.241</v>
@@ -1197,7 +1197,7 @@
         <v>178521539.168</v>
       </c>
       <c r="D17">
-        <v>144256053.196</v>
+        <v>136006489.857</v>
       </c>
       <c r="E17">
         <v>162666402.492</v>
@@ -1217,7 +1217,7 @@
         <v>52114477.168</v>
       </c>
       <c r="D18">
-        <v>2988511.596</v>
+        <v>1200670.117</v>
       </c>
       <c r="E18">
         <v>56073215.492</v>
@@ -1237,7 +1237,7 @@
         <v>0.785</v>
       </c>
       <c r="D19">
-        <v>0.443</v>
+        <v>0.36</v>
       </c>
       <c r="E19">
         <v>0.627</v>
@@ -1257,7 +1257,7 @@
         <v>0.128</v>
       </c>
       <c r="D20">
-        <v>0.079</v>
+        <v>0.066</v>
       </c>
       <c r="E20">
         <v>0.106</v>
@@ -1277,7 +1277,7 @@
         <v>1.785</v>
       </c>
       <c r="D21">
-        <v>1.443</v>
+        <v>1.36</v>
       </c>
       <c r="E21">
         <v>1.627</v>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,11 +15,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>ori</t>
   </si>
   <si>
+    <t>['MACD#2#1&amp;trend*close#2#1&amp;trend&amp;HS', 'MB#2#0&amp;trend*MACD#2#1&amp;trend+MB#2#0&amp;trend*close#2#0&amp;trend&amp;HS']2020-04-27 11:57:34</t>
+  </si>
+  <si>
+    <t>['MACD#2#1&amp;trend*close#2#1&amp;trend&amp;HS', 'MB#2#0&amp;trend*MACD#2#1&amp;trend+MB#2#0&amp;trend*close#2#0&amp;trend&amp;HS']2020-04-27 12:12:57</t>
+  </si>
+  <si>
     <t>strategy_name</t>
   </si>
   <si>
@@ -71,7 +77,7 @@
     <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']</t>
   </si>
   <si>
-    <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close#2#0&amp;trend&amp;HS*MACD#3#1&amp;trend*MB#3#1&amp;trend*K#40#1&amp;thre&amp;HS', 'close_EMA_7#close_EMA_15#0&amp;diff*close#2#1&amp;trend&amp;HS*MACD#3#0&amp;trend*MB#3#0&amp;trend*K#40#0&amp;thre&amp;HS']</t>
+    <t>['MACD#2#1&amp;trend*close#2#1&amp;trend&amp;HS', 'MB#2#0&amp;trend*MACD#2#1&amp;trend+MB#2#0&amp;trend*close#2#0&amp;trend&amp;HS']</t>
   </si>
   <si>
     <t>o ri</t>
@@ -513,13 +519,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -535,30 +541,42 @@
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>-0.12579360273817</v>
@@ -567,7 +585,7 @@
         <v>-0.0679177367524223</v>
       </c>
       <c r="D3">
-        <v>-0.1532089115562715</v>
+        <v>-0.253273049390655</v>
       </c>
       <c r="E3">
         <v>-0.05968313320498408</v>
@@ -575,10 +593,16 @@
       <c r="F3">
         <v>-0.1345715294926891</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>-0.253273049390655</v>
+      </c>
+      <c r="H3">
+        <v>-0.253273049390655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>-0.1897123352539569</v>
@@ -587,7 +611,7 @@
         <v>0.6185445599719459</v>
       </c>
       <c r="D4">
-        <v>-0.9772149384056574</v>
+        <v>-1.513924764253464</v>
       </c>
       <c r="E4">
         <v>0.2814804373740982</v>
@@ -595,10 +619,16 @@
       <c r="F4">
         <v>-0.2976430200889947</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>-1.513924764253464</v>
+      </c>
+      <c r="H4">
+        <v>-1.513924764253464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.005511613416045707</v>
@@ -607,7 +637,7 @@
         <v>0.1119515961621224</v>
       </c>
       <c r="D5">
-        <v>-0.1198707906118331</v>
+        <v>-0.2419503720342553</v>
       </c>
       <c r="E5">
         <v>0.05837192435137516</v>
@@ -615,10 +645,16 @@
       <c r="F5">
         <v>-0.0148847586156384</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>-0.2419503720342553</v>
+      </c>
+      <c r="H5">
+        <v>-0.2419503720342553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>-0.05070037194275023</v>
@@ -627,7 +663,7 @@
         <v>-0.05198181784773859</v>
       </c>
       <c r="D6">
-        <v>-0.07403036055195067</v>
+        <v>-0.08838430512428741</v>
       </c>
       <c r="E6">
         <v>-0.05226675941222503</v>
@@ -635,10 +671,16 @@
       <c r="F6">
         <v>-0.05848055152963294</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>-0.08838430512428741</v>
+      </c>
+      <c r="H6">
+        <v>-0.08838430512428741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0.6837423549764003</v>
@@ -647,7 +689,7 @@
         <v>1.852994453187672</v>
       </c>
       <c r="D7">
-        <v>1.828844072821667</v>
+        <v>0.4384996560397904</v>
       </c>
       <c r="E7">
         <v>1.307824071855905</v>
@@ -655,10 +697,16 @@
       <c r="F7">
         <v>1.421109966612996</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.4384996560397904</v>
+      </c>
+      <c r="H7">
+        <v>0.4384996560397904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.09082873406651762</v>
@@ -667,7 +715,7 @@
         <v>0.2293419170243204</v>
       </c>
       <c r="D8">
-        <v>0.332544606268889</v>
+        <v>0.09907467416398935</v>
       </c>
       <c r="E8">
         <v>0.1598939111154769</v>
@@ -675,10 +723,16 @@
       <c r="F8">
         <v>0.1913024085273452</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>0.09907467416398935</v>
+      </c>
+      <c r="H8">
+        <v>0.09907467416398935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>-0.1699608845151915</v>
@@ -687,7 +741,7 @@
         <v>-0.1496962813092545</v>
       </c>
       <c r="D9">
-        <v>-0.2901673768847958</v>
+        <v>-0.3629416375404849</v>
       </c>
       <c r="E9">
         <v>-0.2080624756981144</v>
@@ -695,10 +749,16 @@
       <c r="F9">
         <v>-0.1589426222597766</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>-0.3629416375404849</v>
+      </c>
+      <c r="H9">
+        <v>-0.3629416375404849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>-1.475076174420145</v>
@@ -707,7 +767,7 @@
         <v>-1.304906156299302</v>
       </c>
       <c r="D10">
-        <v>-1.403199206852305</v>
+        <v>-2.260632370809777</v>
       </c>
       <c r="E10">
         <v>-1.323616904110256</v>
@@ -715,10 +775,16 @@
       <c r="F10">
         <v>-1.090846752056066</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>-2.260632370809777</v>
+      </c>
+      <c r="H10">
+        <v>-2.260632370809777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>-0.1242545734900845</v>
@@ -727,7 +793,7 @@
         <v>-0.1080708861617736</v>
       </c>
       <c r="D11">
-        <v>-0.2418984483323813</v>
+        <v>-0.3240857071775097</v>
       </c>
       <c r="E11">
         <v>-0.1338652089924465</v>
@@ -735,10 +801,16 @@
       <c r="F11">
         <v>-0.09480667316109531</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>-0.3240857071775097</v>
+      </c>
+      <c r="H11">
+        <v>-0.3240857071775097</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>-0.07080131193929062</v>
@@ -747,7 +819,7 @@
         <v>-0.07649646774139218</v>
       </c>
       <c r="D12">
-        <v>-0.1219611761040746</v>
+        <v>-0.2032257745147973</v>
       </c>
       <c r="E12">
         <v>-0.09822214137059526</v>
@@ -755,10 +827,16 @@
       <c r="F12">
         <v>-0.07892851401236989</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>-0.2032257745147973</v>
+      </c>
+      <c r="H12">
+        <v>-0.2032257745147973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1.083224035935776</v>
@@ -767,7 +845,7 @@
         <v>1.209933008074566</v>
       </c>
       <c r="D13">
-        <v>1.421151102306971</v>
+        <v>0.9762648746481797</v>
       </c>
       <c r="E13">
         <v>0.7101629781816882</v>
@@ -775,10 +853,16 @@
       <c r="F13">
         <v>1.007140572811231</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0.9762648746481797</v>
+      </c>
+      <c r="H13">
+        <v>0.9762648746481797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>0.1761314991225385</v>
@@ -787,7 +871,7 @@
         <v>0.2116567019622402</v>
       </c>
       <c r="D14">
-        <v>0.3756733902861871</v>
+        <v>0.2875785126781142</v>
       </c>
       <c r="E14">
         <v>0.1232021256174746</v>
@@ -795,10 +879,16 @@
       <c r="F14">
         <v>0.1797934695364195</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0.2875785126781142</v>
+      </c>
+      <c r="H14">
+        <v>0.2875785126781142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>-0.2315324063065696</v>
@@ -807,7 +897,7 @@
         <v>-0.2928727209282037</v>
       </c>
       <c r="D15">
-        <v>-0.40276533958274</v>
+        <v>-0.4077721394704611</v>
       </c>
       <c r="E15">
         <v>-0.2409119155141749</v>
@@ -815,10 +905,16 @@
       <c r="F15">
         <v>-0.2375290481986642</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>-0.4077721394704611</v>
+      </c>
+      <c r="H15">
+        <v>-0.4077721394704611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>0.1019767169631344</v>
@@ -827,7 +923,7 @@
         <v>0.5182835360981561</v>
       </c>
       <c r="D16">
-        <v>0.3733696386820167</v>
+        <v>0.4817121257955591</v>
       </c>
       <c r="E16">
         <v>0.9306254402157162</v>
@@ -835,10 +931,16 @@
       <c r="F16">
         <v>0.7327121952807745</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0.4817121257955591</v>
+      </c>
+      <c r="H16">
+        <v>0.4817121257955591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0.05211100000000002</v>
@@ -847,13 +949,19 @@
         <v>0.186213</v>
       </c>
       <c r="D17">
-        <v>0.1892149999999999</v>
+        <v>0.2357800000000001</v>
       </c>
       <c r="E17">
         <v>0.3338620000000001</v>
       </c>
       <c r="F17">
         <v>0.2458020000000001</v>
+      </c>
+      <c r="G17">
+        <v>0.2357800000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.2357800000000001</v>
       </c>
     </row>
   </sheetData>
@@ -863,13 +971,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -883,112 +991,148 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -1005,10 +1149,16 @@
       <c r="F7">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>100000000</v>
+      </c>
+      <c r="H7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>0.008</v>
@@ -1017,7 +1167,7 @@
         <v>0.09</v>
       </c>
       <c r="D8">
-        <v>0.037</v>
+        <v>-0.063</v>
       </c>
       <c r="E8">
         <v>0.07099999999999999</v>
@@ -1025,10 +1175,16 @@
       <c r="F8">
         <v>0.063</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>-0.063</v>
+      </c>
+      <c r="H8">
+        <v>-0.063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9">
         <v>0.283</v>
@@ -1037,7 +1193,7 @@
         <v>0.33</v>
       </c>
       <c r="D9">
-        <v>0.723</v>
+        <v>0.795</v>
       </c>
       <c r="E9">
         <v>0.328</v>
@@ -1045,10 +1201,16 @@
       <c r="F9">
         <v>0.354</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.795</v>
+      </c>
+      <c r="H9">
+        <v>0.795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10">
         <v>0.109</v>
@@ -1057,7 +1219,7 @@
         <v>0.634</v>
       </c>
       <c r="D10">
-        <v>0.243</v>
+        <v>-0.192</v>
       </c>
       <c r="E10">
         <v>0.497</v>
@@ -1065,10 +1227,16 @@
       <c r="F10">
         <v>0.467</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>-0.192</v>
+      </c>
+      <c r="H10">
+        <v>-0.192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>-0.04</v>
@@ -1077,7 +1245,7 @@
         <v>0.356</v>
       </c>
       <c r="D11">
-        <v>0.21</v>
+        <v>-0.484</v>
       </c>
       <c r="E11">
         <v>0.263</v>
@@ -1085,10 +1253,16 @@
       <c r="F11">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>-0.484</v>
+      </c>
+      <c r="H11">
+        <v>-0.484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>0.142</v>
@@ -1097,7 +1271,7 @@
         <v>0.141</v>
       </c>
       <c r="D12">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
         <v>0.145</v>
@@ -1105,10 +1279,16 @@
       <c r="F12">
         <v>0.137</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>0.208</v>
@@ -1117,7 +1297,7 @@
         <v>0.21</v>
       </c>
       <c r="D13">
-        <v>0.148</v>
+        <v>0.14</v>
       </c>
       <c r="E13">
         <v>0.214</v>
@@ -1125,10 +1305,16 @@
       <c r="F13">
         <v>0.202</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0.14</v>
+      </c>
+      <c r="H13">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>-0.059</v>
@@ -1137,7 +1323,7 @@
         <v>0.53</v>
       </c>
       <c r="D14">
-        <v>0.304</v>
+        <v>-0.677</v>
       </c>
       <c r="E14">
         <v>0.389</v>
@@ -1145,10 +1331,16 @@
       <c r="F14">
         <v>0.354</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>-0.677</v>
+      </c>
+      <c r="H14">
+        <v>-0.677</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>0.131</v>
@@ -1157,7 +1349,7 @@
         <v>0.154</v>
       </c>
       <c r="D15">
-        <v>0.221</v>
+        <v>0.234</v>
       </c>
       <c r="E15">
         <v>0.159</v>
@@ -1165,10 +1357,16 @@
       <c r="F15">
         <v>0.152</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0.234</v>
+      </c>
+      <c r="H15">
+        <v>0.234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B16">
         <v>0.314</v>
@@ -1177,7 +1375,7 @@
         <v>0.293</v>
       </c>
       <c r="D16">
-        <v>0.464</v>
+        <v>0.598</v>
       </c>
       <c r="E16">
         <v>0.241</v>
@@ -1185,10 +1383,16 @@
       <c r="F16">
         <v>0.261</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0.598</v>
+      </c>
+      <c r="H16">
+        <v>0.598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>121438394.361</v>
@@ -1197,7 +1401,7 @@
         <v>178521539.168</v>
       </c>
       <c r="D17">
-        <v>136006489.857</v>
+        <v>83187055.868</v>
       </c>
       <c r="E17">
         <v>162666402.492</v>
@@ -1205,10 +1409,16 @@
       <c r="F17">
         <v>157423513.19</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>83187055.868</v>
+      </c>
+      <c r="H17">
+        <v>83187055.868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>33737681.361</v>
@@ -1217,7 +1427,7 @@
         <v>52114477.168</v>
       </c>
       <c r="D18">
-        <v>1200670.117</v>
+        <v>4840617.868</v>
       </c>
       <c r="E18">
         <v>56073215.492</v>
@@ -1225,10 +1435,16 @@
       <c r="F18">
         <v>24307892.19</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>4840617.868</v>
+      </c>
+      <c r="H18">
+        <v>4840617.868</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19">
         <v>0.214</v>
@@ -1237,7 +1453,7 @@
         <v>0.785</v>
       </c>
       <c r="D19">
-        <v>0.36</v>
+        <v>-0.168</v>
       </c>
       <c r="E19">
         <v>0.627</v>
@@ -1245,10 +1461,16 @@
       <c r="F19">
         <v>0.574</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>-0.168</v>
+      </c>
+      <c r="H19">
+        <v>-0.168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20">
         <v>0.041</v>
@@ -1257,7 +1479,7 @@
         <v>0.128</v>
       </c>
       <c r="D20">
-        <v>0.066</v>
+        <v>-0.037</v>
       </c>
       <c r="E20">
         <v>0.106</v>
@@ -1265,10 +1487,16 @@
       <c r="F20">
         <v>0.099</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20">
+        <v>-0.037</v>
+      </c>
+      <c r="H20">
+        <v>-0.037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>1.214</v>
@@ -1277,7 +1505,7 @@
         <v>1.785</v>
       </c>
       <c r="D21">
-        <v>1.36</v>
+        <v>0.832</v>
       </c>
       <c r="E21">
         <v>1.627</v>
@@ -1285,10 +1513,16 @@
       <c r="F21">
         <v>1.574</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>0.832</v>
+      </c>
+      <c r="H21">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -1305,10 +1539,16 @@
       <c r="F22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>100000000</v>
+      </c>
+      <c r="H22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -1325,10 +1565,16 @@
       <c r="F23">
         <v>0.138</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0.138</v>
+      </c>
+      <c r="H23">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -1345,10 +1591,16 @@
       <c r="F24">
         <v>0.027</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24">
+        <v>0.027</v>
+      </c>
+      <c r="H24">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>85</v>
@@ -1363,6 +1615,12 @@
         <v>123</v>
       </c>
       <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+      <c r="H25">
         <v>300</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="68">
   <si>
     <t>ori</t>
   </si>
@@ -26,6 +26,36 @@
     <t>['MACD#2#1&amp;trend*close#2#1&amp;trend&amp;HS', 'MB#2#0&amp;trend*MACD#2#1&amp;trend+MB#2#0&amp;trend*close#2#0&amp;trend&amp;HS']2020-04-27 12:12:57</t>
   </si>
   <si>
+    <t>['K_shift_1#10#0&amp;thre&amp;HS+D#20#0&amp;thre&amp;HS+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre+K_shift_1#30#0&amp;thre+RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#40#1&amp;thre+D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff+K_shift_1#90#1&amp;thre+RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_shift_1#close_MA_20#1&amp;diff+K_shift_1#70#1&amp;thre']2020-04-29 22:36:20</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;thre&amp;HS+D#20#0&amp;thre&amp;HS+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre+K_shift_1#30#0&amp;thre+RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#40#1&amp;thre+D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff+K_shift_1#90#1&amp;thre+RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_shift_1#close_MA_20#1&amp;diff+K_shift_1#70#1&amp;thre']2020-04-30 14:13:50</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;thre&amp;HS+D#90#1&amp;thre&amp;HS+D_shift_1#10#0&amp;thre&amp;HS*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;diff&amp;HS+D_shift_1#20#0&amp;thre&amp;HS+D_shift_1#30#0&amp;thre&amp;HS']2020-04-30 14:29:53</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-01 12:47:56</t>
+  </si>
+  <si>
+    <t>['MACD#2#1&amp;trend*MACD#2#0&amp;trend*MB#2#1&amp;trend+MACD#2#1&amp;trend*close#2#1&amp;trend&amp;HS*MB#2#1&amp;trend', 'MB#2#0&amp;trend*MACD#2#0&amp;trend*close#2#0&amp;trend&amp;HS+MB#2#0&amp;trend*close#2#1&amp;trend&amp;HS*close#2#0&amp;trend&amp;HS']2020-05-01 13:08:03</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-01 21:46:52</t>
+  </si>
+  <si>
+    <t>['K_shift_1#40#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff', 'open#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#20#0&amp;thre']2020-05-01 22:00:05</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre']2020-05-01 22:10:58</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+D#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff', 'MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff']2020-05-01 22:44:37</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff']2020-05-01 23:00:12</t>
+  </si>
+  <si>
     <t>strategy_name</t>
   </si>
   <si>
@@ -78,6 +108,33 @@
   </si>
   <si>
     <t>['MACD#2#1&amp;trend*close#2#1&amp;trend&amp;HS', 'MB#2#0&amp;trend*MACD#2#1&amp;trend+MB#2#0&amp;trend*close#2#0&amp;trend&amp;HS']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;thre&amp;HS+D#20#0&amp;thre&amp;HS+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre+K_shift_1#30#0&amp;thre+RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#40#1&amp;thre+D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff+K_shift_1#90#1&amp;thre+RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_shift_1#close_MA_20#1&amp;diff+K_shift_1#70#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;thre&amp;HS+D#90#1&amp;thre&amp;HS+D_shift_1#10#0&amp;thre&amp;HS*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;diff&amp;HS+D_shift_1#20#0&amp;thre&amp;HS+D_shift_1#30#0&amp;thre&amp;HS']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['MACD#2#1&amp;trend*MACD#2#0&amp;trend*MB#2#1&amp;trend+MACD#2#1&amp;trend*close#2#1&amp;trend&amp;HS*MB#2#1&amp;trend', 'MB#2#0&amp;trend*MACD#2#0&amp;trend*close#2#0&amp;trend&amp;HS+MB#2#0&amp;trend*close#2#1&amp;trend&amp;HS*close#2#0&amp;trend&amp;HS']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#40#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff', 'open#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#20#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+D#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff', 'MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff']</t>
   </si>
   <si>
     <t>o ri</t>
@@ -519,13 +576,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -547,36 +604,96 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>-0.12579360273817</v>
@@ -599,10 +716,40 @@
       <c r="H3">
         <v>-0.253273049390655</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>-0.1624354098604295</v>
+      </c>
+      <c r="J3">
+        <v>-0.471427596340031</v>
+      </c>
+      <c r="K3">
+        <v>-0.07741176079279921</v>
+      </c>
+      <c r="L3">
+        <v>-0.06065503873518663</v>
+      </c>
+      <c r="M3">
+        <v>-0.1994826685508331</v>
+      </c>
+      <c r="N3">
+        <v>-0.06065503873518663</v>
+      </c>
+      <c r="O3">
+        <v>-0.1570700787056322</v>
+      </c>
+      <c r="P3">
+        <v>-0.04069454429396269</v>
+      </c>
+      <c r="Q3">
+        <v>-0.02495833650154955</v>
+      </c>
+      <c r="R3">
+        <v>-0.06659139365965916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>-0.1897123352539569</v>
@@ -625,10 +772,40 @@
       <c r="H4">
         <v>-1.513924764253464</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>-6.577178750524675</v>
+      </c>
+      <c r="J4">
+        <v>-8.513520745593905</v>
+      </c>
+      <c r="K4">
+        <v>-0.1556226816796295</v>
+      </c>
+      <c r="L4">
+        <v>-0.278791851743988</v>
+      </c>
+      <c r="M4">
+        <v>-0.1014090277908945</v>
+      </c>
+      <c r="N4">
+        <v>-0.278791851743988</v>
+      </c>
+      <c r="O4">
+        <v>0.118794536219188</v>
+      </c>
+      <c r="P4">
+        <v>-0.3435165359075013</v>
+      </c>
+      <c r="Q4">
+        <v>1.480996887612745</v>
+      </c>
+      <c r="R4">
+        <v>-0.538352136077812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>0.005511613416045707</v>
@@ -651,10 +828,40 @@
       <c r="H5">
         <v>-0.2419503720342553</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>-0.1623220295794536</v>
+      </c>
+      <c r="J5">
+        <v>-0.4714275963400309</v>
+      </c>
+      <c r="K5">
+        <v>0.01458644170210779</v>
+      </c>
+      <c r="L5">
+        <v>0.006723688064776571</v>
+      </c>
+      <c r="M5">
+        <v>0.005985506954301176</v>
+      </c>
+      <c r="N5">
+        <v>0.006723688064776571</v>
+      </c>
+      <c r="O5">
+        <v>0.04350459298884082</v>
+      </c>
+      <c r="P5">
+        <v>-0.0001806131488013337</v>
+      </c>
+      <c r="Q5">
+        <v>0.1297770040620077</v>
+      </c>
+      <c r="R5">
+        <v>-0.01095543397359718</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>-0.05070037194275023</v>
@@ -677,10 +884,40 @@
       <c r="H6">
         <v>-0.08838430512428741</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>-0.1796316751159632</v>
+      </c>
+      <c r="J6">
+        <v>-0.4715759460507781</v>
+      </c>
+      <c r="K6">
+        <v>-0.02624444489884958</v>
+      </c>
+      <c r="L6">
+        <v>-0.01059946704599735</v>
+      </c>
+      <c r="M6">
+        <v>-0.07545117326550532</v>
+      </c>
+      <c r="N6">
+        <v>-0.01059946704599735</v>
+      </c>
+      <c r="O6">
+        <v>-0.06498867992342305</v>
+      </c>
+      <c r="P6">
+        <v>-0.06110579642564695</v>
+      </c>
+      <c r="Q6">
+        <v>-0.01593583065046922</v>
+      </c>
+      <c r="R6">
+        <v>-0.00722619146609027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0.6837423549764003</v>
@@ -703,10 +940,40 @@
       <c r="H7">
         <v>0.4384996560397904</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>-8.52271977361942</v>
+      </c>
+      <c r="J7">
+        <v>-15.8139404067067</v>
+      </c>
+      <c r="K7">
+        <v>0.8220928293972539</v>
+      </c>
+      <c r="L7">
+        <v>0.899347901450764</v>
+      </c>
+      <c r="M7">
+        <v>1.184763605615341</v>
+      </c>
+      <c r="N7">
+        <v>0.899347901450764</v>
+      </c>
+      <c r="O7">
+        <v>2.251054755261136</v>
+      </c>
+      <c r="P7">
+        <v>-0.706137550729761</v>
+      </c>
+      <c r="Q7">
+        <v>1.017389625379829</v>
+      </c>
+      <c r="R7">
+        <v>1.592308314166921</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0.09082873406651762</v>
@@ -729,10 +996,40 @@
       <c r="H8">
         <v>0.09907467416398935</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>-0.1796316751159632</v>
+      </c>
+      <c r="J8">
+        <v>-0.4715759460507781</v>
+      </c>
+      <c r="K8">
+        <v>0.07877652110513919</v>
+      </c>
+      <c r="L8">
+        <v>0.04217164572430885</v>
+      </c>
+      <c r="M8">
+        <v>0.215065369197864</v>
+      </c>
+      <c r="N8">
+        <v>0.04217164572430885</v>
+      </c>
+      <c r="O8">
+        <v>0.3261130483616085</v>
+      </c>
+      <c r="P8">
+        <v>-0.009304899688221912</v>
+      </c>
+      <c r="Q8">
+        <v>0.06708361526927958</v>
+      </c>
+      <c r="R8">
+        <v>0.06869256679555406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>-0.1699608845151915</v>
@@ -755,10 +1052,40 @@
       <c r="H9">
         <v>-0.3629416375404849</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>-0.2345479566804284</v>
+      </c>
+      <c r="J9">
+        <v>-0.6145383481771001</v>
+      </c>
+      <c r="K9">
+        <v>-0.102252362017664</v>
+      </c>
+      <c r="L9">
+        <v>-0.07549787499668825</v>
+      </c>
+      <c r="M9">
+        <v>-0.3605894252297446</v>
+      </c>
+      <c r="N9">
+        <v>-0.07549787499668825</v>
+      </c>
+      <c r="O9">
+        <v>-0.2427750913334452</v>
+      </c>
+      <c r="P9">
+        <v>-0.106868222097305</v>
+      </c>
+      <c r="Q9">
+        <v>-0.04221713687655493</v>
+      </c>
+      <c r="R9">
+        <v>-0.05742575720084053</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>-1.475076174420145</v>
@@ -781,10 +1108,40 @@
       <c r="H10">
         <v>-2.260632370809777</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>-8.291243446424104</v>
+      </c>
+      <c r="J10">
+        <v>-15.20313662507444</v>
+      </c>
+      <c r="K10">
+        <v>-1.049018263884041</v>
+      </c>
+      <c r="L10">
+        <v>-0.03082300869924497</v>
+      </c>
+      <c r="M10">
+        <v>-1.929908136198217</v>
+      </c>
+      <c r="N10">
+        <v>-0.03082300869924497</v>
+      </c>
+      <c r="O10">
+        <v>-1.136334594336373</v>
+      </c>
+      <c r="P10">
+        <v>-1.609468714617271</v>
+      </c>
+      <c r="Q10">
+        <v>-0.6821984246171334</v>
+      </c>
+      <c r="R10">
+        <v>0.1812638460467207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>-0.1242545734900845</v>
@@ -807,10 +1164,40 @@
       <c r="H11">
         <v>-0.3240857071775097</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>-0.232093515888368</v>
+      </c>
+      <c r="J11">
+        <v>-0.6126620909898658</v>
+      </c>
+      <c r="K11">
+        <v>-0.04421376524268576</v>
+      </c>
+      <c r="L11">
+        <v>0.01816874780429665</v>
+      </c>
+      <c r="M11">
+        <v>-0.3065135104083695</v>
+      </c>
+      <c r="N11">
+        <v>0.01816874780429665</v>
+      </c>
+      <c r="O11">
+        <v>-0.1766683621542201</v>
+      </c>
+      <c r="P11">
+        <v>-0.05653279138945783</v>
+      </c>
+      <c r="Q11">
+        <v>-0.007693393736265028</v>
+      </c>
+      <c r="R11">
+        <v>0.038039713602935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>-0.07080131193929062</v>
@@ -833,10 +1220,40 @@
       <c r="H12">
         <v>-0.2032257745147973</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>-0.1902398404438415</v>
+      </c>
+      <c r="J12">
+        <v>-0.4457202332766111</v>
+      </c>
+      <c r="K12">
+        <v>-0.0609827996162241</v>
+      </c>
+      <c r="L12">
+        <v>-0.112030298135244</v>
+      </c>
+      <c r="M12">
+        <v>-0.1605063388398004</v>
+      </c>
+      <c r="N12">
+        <v>-0.112030298135244</v>
+      </c>
+      <c r="O12">
+        <v>-0.1114578379316583</v>
+      </c>
+      <c r="P12">
+        <v>-0.05769068020734158</v>
+      </c>
+      <c r="Q12">
+        <v>-0.04138461428568019</v>
+      </c>
+      <c r="R12">
+        <v>-0.03455837885402524</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>1.083224035935776</v>
@@ -859,10 +1276,40 @@
       <c r="H13">
         <v>0.9762648746481797</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>-7.22477640333322</v>
+      </c>
+      <c r="J13">
+        <v>-13.7750441483848</v>
+      </c>
+      <c r="K13">
+        <v>1.691717676533085</v>
+      </c>
+      <c r="L13">
+        <v>0.656215789326641</v>
+      </c>
+      <c r="M13">
+        <v>1.594385889323833</v>
+      </c>
+      <c r="N13">
+        <v>0.656215789326641</v>
+      </c>
+      <c r="O13">
+        <v>1.574721352863813</v>
+      </c>
+      <c r="P13">
+        <v>1.12434018783674</v>
+      </c>
+      <c r="Q13">
+        <v>0.03523078602101965</v>
+      </c>
+      <c r="R13">
+        <v>1.440168350060071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>0.1761314991225385</v>
@@ -885,10 +1332,40 @@
       <c r="H14">
         <v>0.2875785126781142</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>-0.1721961244862008</v>
+      </c>
+      <c r="J14">
+        <v>-0.4405349519743863</v>
+      </c>
+      <c r="K14">
+        <v>0.3031400794525025</v>
+      </c>
+      <c r="L14">
+        <v>0.09510248069132061</v>
+      </c>
+      <c r="M14">
+        <v>0.5068862416687822</v>
+      </c>
+      <c r="N14">
+        <v>0.09510248069132061</v>
+      </c>
+      <c r="O14">
+        <v>0.3240893165434093</v>
+      </c>
+      <c r="P14">
+        <v>0.1668592030487223</v>
+      </c>
+      <c r="Q14">
+        <v>0.02110635949786178</v>
+      </c>
+      <c r="R14">
+        <v>0.1612058570198104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>-0.2315324063065696</v>
@@ -911,10 +1388,40 @@
       <c r="H15">
         <v>-0.4077721394704611</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>-0.24268</v>
+      </c>
+      <c r="J15">
+        <v>-0.431022</v>
+      </c>
+      <c r="K15">
+        <v>-0.2438258695940992</v>
+      </c>
+      <c r="L15">
+        <v>-0.08460743617896893</v>
+      </c>
+      <c r="M15">
+        <v>-0.4787870155138606</v>
+      </c>
+      <c r="N15">
+        <v>-0.08460743617896893</v>
+      </c>
+      <c r="O15">
+        <v>-0.3998622669156586</v>
+      </c>
+      <c r="P15">
+        <v>-0.118856826144734</v>
+      </c>
+      <c r="Q15">
+        <v>-0.1662442218010751</v>
+      </c>
+      <c r="R15">
+        <v>-0.05992068920490212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>0.1019767169631344</v>
@@ -937,10 +1444,40 @@
       <c r="H16">
         <v>0.4817121257955591</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>-6.255740114110107</v>
+      </c>
+      <c r="J16">
+        <v>-3.038094859810128</v>
+      </c>
+      <c r="K16">
+        <v>0.1793278570857413</v>
+      </c>
+      <c r="L16">
+        <v>1.982927016900313</v>
+      </c>
+      <c r="M16">
+        <v>0.2217095991794173</v>
+      </c>
+      <c r="N16">
+        <v>1.982927016900313</v>
+      </c>
+      <c r="O16">
+        <v>1.062848994825769</v>
+      </c>
+      <c r="P16">
+        <v>0.8977474460944737</v>
+      </c>
+      <c r="Q16">
+        <v>1.499845701915631</v>
+      </c>
+      <c r="R16">
+        <v>1.494332239861178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>0.05211100000000002</v>
@@ -962,6 +1499,36 @@
       </c>
       <c r="H17">
         <v>0.2357800000000001</v>
+      </c>
+      <c r="I17">
+        <v>-0.24268</v>
+      </c>
+      <c r="J17">
+        <v>-0.429225</v>
+      </c>
+      <c r="K17">
+        <v>0.07572500000000004</v>
+      </c>
+      <c r="L17">
+        <v>0.404407</v>
+      </c>
+      <c r="M17">
+        <v>0.1342030000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.404407</v>
+      </c>
+      <c r="O17">
+        <v>0.53559</v>
+      </c>
+      <c r="P17">
+        <v>0.218073</v>
+      </c>
+      <c r="Q17">
+        <v>0.351056</v>
+      </c>
+      <c r="R17">
+        <v>0.225328</v>
       </c>
     </row>
   </sheetData>
@@ -971,13 +1538,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -991,7 +1558,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -999,166 +1566,376 @@
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7">
+        <v>100000000</v>
+      </c>
+      <c r="C7">
+        <v>100000000</v>
+      </c>
+      <c r="D7">
+        <v>100000000</v>
+      </c>
+      <c r="E7">
+        <v>100000000</v>
+      </c>
+      <c r="F7">
+        <v>100000000</v>
+      </c>
+      <c r="G7">
+        <v>100000000</v>
+      </c>
+      <c r="H7">
+        <v>100000000</v>
+      </c>
+      <c r="I7">
+        <v>100000000</v>
+      </c>
+      <c r="J7">
+        <v>100000000</v>
+      </c>
+      <c r="K7">
+        <v>100000000</v>
+      </c>
+      <c r="L7">
+        <v>100000000</v>
+      </c>
+      <c r="M7">
+        <v>100000000</v>
+      </c>
+      <c r="N7">
+        <v>100000000</v>
+      </c>
+      <c r="O7">
+        <v>100000000</v>
+      </c>
+      <c r="P7">
+        <v>100000000</v>
+      </c>
+      <c r="Q7">
+        <v>100000000</v>
+      </c>
+      <c r="R7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>100000000</v>
-      </c>
-      <c r="C7">
-        <v>100000000</v>
-      </c>
-      <c r="D7">
-        <v>100000000</v>
-      </c>
-      <c r="E7">
-        <v>100000000</v>
-      </c>
-      <c r="F7">
-        <v>100000000</v>
-      </c>
-      <c r="G7">
-        <v>100000000</v>
-      </c>
-      <c r="H7">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="B8">
         <v>0.008</v>
@@ -1181,10 +1958,40 @@
       <c r="H8">
         <v>-0.063</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>-0.267</v>
+      </c>
+      <c r="J8">
+        <v>-0.738</v>
+      </c>
+      <c r="K8">
+        <v>0.047</v>
+      </c>
+      <c r="L8">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.04</v>
+      </c>
+      <c r="N8">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.141</v>
+      </c>
+      <c r="P8">
+        <v>0.026</v>
+      </c>
+      <c r="Q8">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0.283</v>
@@ -1207,10 +2014,40 @@
       <c r="H9">
         <v>0.795</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>0.083</v>
+      </c>
+      <c r="J9">
+        <v>0.32</v>
+      </c>
+      <c r="K9">
+        <v>0.263</v>
+      </c>
+      <c r="L9">
+        <v>0.197</v>
+      </c>
+      <c r="M9">
+        <v>0.9360000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.197</v>
+      </c>
+      <c r="O9">
+        <v>0.652</v>
+      </c>
+      <c r="P9">
+        <v>0.184</v>
+      </c>
+      <c r="Q9">
+        <v>0.181</v>
+      </c>
+      <c r="R9">
+        <v>0.162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0.109</v>
@@ -1233,10 +2070,40 @@
       <c r="H10">
         <v>-0.192</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>-6.713</v>
+      </c>
+      <c r="J10">
+        <v>-6.584</v>
+      </c>
+      <c r="K10">
+        <v>0.416</v>
+      </c>
+      <c r="L10">
+        <v>0.775</v>
+      </c>
+      <c r="M10">
+        <v>0.233</v>
+      </c>
+      <c r="N10">
+        <v>0.775</v>
+      </c>
+      <c r="O10">
+        <v>0.731</v>
+      </c>
+      <c r="P10">
+        <v>0.283</v>
+      </c>
+      <c r="Q10">
+        <v>0.771</v>
+      </c>
+      <c r="R10">
+        <v>0.732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>-0.04</v>
@@ -1259,10 +2126,40 @@
       <c r="H11">
         <v>-0.484</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>-1.265</v>
+      </c>
+      <c r="J11">
+        <v>-4.085</v>
+      </c>
+      <c r="K11">
+        <v>0.144</v>
+      </c>
+      <c r="L11">
+        <v>0.237</v>
+      </c>
+      <c r="M11">
+        <v>0.302</v>
+      </c>
+      <c r="N11">
+        <v>0.237</v>
+      </c>
+      <c r="O11">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P11">
+        <v>0.033</v>
+      </c>
+      <c r="Q11">
+        <v>0.235</v>
+      </c>
+      <c r="R11">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>0.142</v>
@@ -1285,10 +2182,40 @@
       <c r="H12">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>0.159</v>
+      </c>
+      <c r="J12">
+        <v>0.15</v>
+      </c>
+      <c r="K12">
+        <v>0.144</v>
+      </c>
+      <c r="L12">
+        <v>0.137</v>
+      </c>
+      <c r="M12">
+        <v>0.09</v>
+      </c>
+      <c r="N12">
+        <v>0.137</v>
+      </c>
+      <c r="O12">
+        <v>0.11</v>
+      </c>
+      <c r="P12">
+        <v>0.147</v>
+      </c>
+      <c r="Q12">
+        <v>0.145</v>
+      </c>
+      <c r="R12">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>0.208</v>
@@ -1311,10 +2238,40 @@
       <c r="H13">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>0.227</v>
+      </c>
+      <c r="J13">
+        <v>0.184</v>
+      </c>
+      <c r="K13">
+        <v>0.212</v>
+      </c>
+      <c r="L13">
+        <v>0.213</v>
+      </c>
+      <c r="M13">
+        <v>0.127</v>
+      </c>
+      <c r="N13">
+        <v>0.213</v>
+      </c>
+      <c r="O13">
+        <v>0.164</v>
+      </c>
+      <c r="P13">
+        <v>0.222</v>
+      </c>
+      <c r="Q13">
+        <v>0.218</v>
+      </c>
+      <c r="R13">
+        <v>0.217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>-0.059</v>
@@ -1337,10 +2294,40 @@
       <c r="H14">
         <v>-0.677</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14">
+        <v>-1.806</v>
+      </c>
+      <c r="J14">
+        <v>-5.015</v>
+      </c>
+      <c r="K14">
+        <v>0.212</v>
+      </c>
+      <c r="L14">
+        <v>0.369</v>
+      </c>
+      <c r="M14">
+        <v>0.424</v>
+      </c>
+      <c r="N14">
+        <v>0.369</v>
+      </c>
+      <c r="O14">
+        <v>1.213</v>
+      </c>
+      <c r="P14">
+        <v>0.049</v>
+      </c>
+      <c r="Q14">
+        <v>0.353</v>
+      </c>
+      <c r="R14">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>0.131</v>
@@ -1363,10 +2350,40 @@
       <c r="H15">
         <v>0.234</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>0.039</v>
+      </c>
+      <c r="J15">
+        <v>0.111</v>
+      </c>
+      <c r="K15">
+        <v>0.127</v>
+      </c>
+      <c r="L15">
+        <v>0.094</v>
+      </c>
+      <c r="M15">
+        <v>0.262</v>
+      </c>
+      <c r="N15">
+        <v>0.094</v>
+      </c>
+      <c r="O15">
+        <v>0.213</v>
+      </c>
+      <c r="P15">
+        <v>0.106</v>
+      </c>
+      <c r="Q15">
+        <v>0.096</v>
+      </c>
+      <c r="R15">
+        <v>0.081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>0.314</v>
@@ -1389,10 +2406,40 @@
       <c r="H16">
         <v>0.598</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16">
+        <v>0.68</v>
+      </c>
+      <c r="J16">
+        <v>0.966</v>
+      </c>
+      <c r="K16">
+        <v>0.298</v>
+      </c>
+      <c r="L16">
+        <v>0.112</v>
+      </c>
+      <c r="M16">
+        <v>0.484</v>
+      </c>
+      <c r="N16">
+        <v>0.112</v>
+      </c>
+      <c r="O16">
+        <v>0.4</v>
+      </c>
+      <c r="P16">
+        <v>0.177</v>
+      </c>
+      <c r="Q16">
+        <v>0.166</v>
+      </c>
+      <c r="R16">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>121438394.361</v>
@@ -1415,10 +2462,40 @@
       <c r="H17">
         <v>83187055.868</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>32706191.637</v>
+      </c>
+      <c r="J17">
+        <v>3355012.332</v>
+      </c>
+      <c r="K17">
+        <v>146694980.878</v>
+      </c>
+      <c r="L17">
+        <v>164616853.157</v>
+      </c>
+      <c r="M17">
+        <v>134161960.878</v>
+      </c>
+      <c r="N17">
+        <v>164616853.157</v>
+      </c>
+      <c r="O17">
+        <v>224410087.391</v>
+      </c>
+      <c r="P17">
+        <v>132825144.083</v>
+      </c>
+      <c r="Q17">
+        <v>165064608.84</v>
+      </c>
+      <c r="R17">
+        <v>155038384.335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>33737681.361</v>
@@ -1441,10 +2518,40 @@
       <c r="H18">
         <v>4840617.868</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>27254979.637</v>
+      </c>
+      <c r="J18">
+        <v>982020.3320000001</v>
+      </c>
+      <c r="K18">
+        <v>22246.878</v>
+      </c>
+      <c r="L18">
+        <v>162422420.157</v>
+      </c>
+      <c r="M18">
+        <v>22976915.278</v>
+      </c>
+      <c r="N18">
+        <v>162422420.157</v>
+      </c>
+      <c r="O18">
+        <v>71136195.391</v>
+      </c>
+      <c r="P18">
+        <v>123391.083</v>
+      </c>
+      <c r="Q18">
+        <v>47.84</v>
+      </c>
+      <c r="R18">
+        <v>154581444.335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>0.214</v>
@@ -1467,10 +2574,40 @@
       <c r="H19">
         <v>-0.168</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>-0.673</v>
+      </c>
+      <c r="J19">
+        <v>-0.966</v>
+      </c>
+      <c r="K19">
+        <v>0.467</v>
+      </c>
+      <c r="L19">
+        <v>0.646</v>
+      </c>
+      <c r="M19">
+        <v>0.342</v>
+      </c>
+      <c r="N19">
+        <v>0.646</v>
+      </c>
+      <c r="O19">
+        <v>1.244</v>
+      </c>
+      <c r="P19">
+        <v>0.328</v>
+      </c>
+      <c r="Q19">
+        <v>0.651</v>
+      </c>
+      <c r="R19">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>0.041</v>
@@ -1493,10 +2630,40 @@
       <c r="H20">
         <v>-0.037</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20">
+        <v>-0.207</v>
+      </c>
+      <c r="J20">
+        <v>-0.505</v>
+      </c>
+      <c r="K20">
+        <v>0.083</v>
+      </c>
+      <c r="L20">
+        <v>0.109</v>
+      </c>
+      <c r="M20">
+        <v>0.063</v>
+      </c>
+      <c r="N20">
+        <v>0.109</v>
+      </c>
+      <c r="O20">
+        <v>0.182</v>
+      </c>
+      <c r="P20">
+        <v>0.061</v>
+      </c>
+      <c r="Q20">
+        <v>0.109</v>
+      </c>
+      <c r="R20">
+        <v>0.095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>1.214</v>
@@ -1519,10 +2686,40 @@
       <c r="H21">
         <v>0.832</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21">
+        <v>0.327</v>
+      </c>
+      <c r="J21">
+        <v>0.034</v>
+      </c>
+      <c r="K21">
+        <v>1.467</v>
+      </c>
+      <c r="L21">
+        <v>1.646</v>
+      </c>
+      <c r="M21">
+        <v>1.342</v>
+      </c>
+      <c r="N21">
+        <v>1.646</v>
+      </c>
+      <c r="O21">
+        <v>2.244</v>
+      </c>
+      <c r="P21">
+        <v>1.328</v>
+      </c>
+      <c r="Q21">
+        <v>1.651</v>
+      </c>
+      <c r="R21">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -1545,10 +2742,40 @@
       <c r="H22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22">
+        <v>100000000</v>
+      </c>
+      <c r="J22">
+        <v>100000000</v>
+      </c>
+      <c r="K22">
+        <v>100000000</v>
+      </c>
+      <c r="L22">
+        <v>100000000</v>
+      </c>
+      <c r="M22">
+        <v>100000000</v>
+      </c>
+      <c r="N22">
+        <v>100000000</v>
+      </c>
+      <c r="O22">
+        <v>100000000</v>
+      </c>
+      <c r="P22">
+        <v>100000000</v>
+      </c>
+      <c r="Q22">
+        <v>100000000</v>
+      </c>
+      <c r="R22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -1571,10 +2798,40 @@
       <c r="H23">
         <v>0.138</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23">
+        <v>0.138</v>
+      </c>
+      <c r="J23">
+        <v>0.138</v>
+      </c>
+      <c r="K23">
+        <v>0.138</v>
+      </c>
+      <c r="L23">
+        <v>0.138</v>
+      </c>
+      <c r="M23">
+        <v>0.138</v>
+      </c>
+      <c r="N23">
+        <v>0.138</v>
+      </c>
+      <c r="O23">
+        <v>0.138</v>
+      </c>
+      <c r="P23">
+        <v>0.138</v>
+      </c>
+      <c r="Q23">
+        <v>0.138</v>
+      </c>
+      <c r="R23">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -1597,10 +2854,40 @@
       <c r="H24">
         <v>0.027</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24">
+        <v>0.027</v>
+      </c>
+      <c r="J24">
+        <v>0.027</v>
+      </c>
+      <c r="K24">
+        <v>0.027</v>
+      </c>
+      <c r="L24">
+        <v>0.027</v>
+      </c>
+      <c r="M24">
+        <v>0.027</v>
+      </c>
+      <c r="N24">
+        <v>0.027</v>
+      </c>
+      <c r="O24">
+        <v>0.027</v>
+      </c>
+      <c r="P24">
+        <v>0.027</v>
+      </c>
+      <c r="Q24">
+        <v>0.027</v>
+      </c>
+      <c r="R24">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>85</v>
@@ -1621,6 +2908,36 @@
         <v>300</v>
       </c>
       <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>300</v>
+      </c>
+      <c r="K25">
+        <v>300</v>
+      </c>
+      <c r="L25">
+        <v>300</v>
+      </c>
+      <c r="M25">
+        <v>300</v>
+      </c>
+      <c r="N25">
+        <v>300</v>
+      </c>
+      <c r="O25">
+        <v>300</v>
+      </c>
+      <c r="P25">
+        <v>300</v>
+      </c>
+      <c r="Q25">
+        <v>300</v>
+      </c>
+      <c r="R25">
         <v>300</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-02 17:34:16</t>
+  </si>
+  <si>
+    <t>['K_shift_1#40#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff', 'open#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#20#0&amp;thre']2020-05-02 17:47:54</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre']2020-05-02 18:13:50</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+D#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff', 'MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff']2020-05-02 18:24:19</t>
+  </si>
+  <si>
+    <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']2020-05-04 10:09:46</t>
+  </si>
   <si>
     <t>strategy_name</t>
   </si>
@@ -80,7 +95,22 @@
     <t>2015Total_Return</t>
   </si>
   <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#40#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff', 'open#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#20#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+D#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff', 'MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff']</t>
+  </si>
+  <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff']</t>
+  </si>
+  <si>
+    <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']</t>
   </si>
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff']2020-05-02 16:04:46</t>
@@ -522,183 +552,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>-0.06065503873518663</v>
+      </c>
+      <c r="C3">
+        <v>-0.1571652245232164</v>
+      </c>
+      <c r="D3">
+        <v>-0.04069454429396269</v>
+      </c>
+      <c r="E3">
+        <v>-0.02495578243482244</v>
+      </c>
+      <c r="F3">
+        <v>-0.06659139365965916</v>
+      </c>
+      <c r="G3">
+        <v>-0.1518934062341737</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>309</v>
+      </c>
+      <c r="C4">
+        <v>515</v>
+      </c>
+      <c r="D4">
+        <v>1186</v>
+      </c>
+      <c r="E4">
+        <v>1242</v>
+      </c>
+      <c r="F4">
+        <v>343</v>
+      </c>
+      <c r="G4">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>-0.278791851743988</v>
+      </c>
+      <c r="C5">
+        <v>0.1181151870082159</v>
+      </c>
+      <c r="D5">
+        <v>-0.3435165359075013</v>
+      </c>
+      <c r="E5">
+        <v>1.454368400118186</v>
+      </c>
+      <c r="F5">
+        <v>-0.538352136077812</v>
+      </c>
+      <c r="G5">
+        <v>-0.9894346221230249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.006723688064776571</v>
+      </c>
+      <c r="C6">
+        <v>0.04335261896399806</v>
+      </c>
+      <c r="D6">
+        <v>-0.0001806131488013337</v>
+      </c>
+      <c r="E6">
+        <v>0.1271829594517792</v>
+      </c>
+      <c r="F6">
+        <v>-0.01095543397359718</v>
+      </c>
+      <c r="G6">
+        <v>-0.1050003816555524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-0.01059946704599735</v>
+      </c>
+      <c r="C7">
+        <v>-0.06497813516594553</v>
+      </c>
+      <c r="D7">
+        <v>-0.06110579642564695</v>
+      </c>
+      <c r="E7">
+        <v>-0.01593221340775519</v>
+      </c>
+      <c r="F7">
+        <v>-0.00722619146609027</v>
+      </c>
+      <c r="G7">
+        <v>-0.08411863516379459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>353</v>
+      </c>
+      <c r="C8">
+        <v>746</v>
+      </c>
+      <c r="D8">
+        <v>1608</v>
+      </c>
+      <c r="E8">
+        <v>1511</v>
+      </c>
+      <c r="F8">
+        <v>831</v>
+      </c>
+      <c r="G8">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.899347901450764</v>
+      </c>
+      <c r="C9">
+        <v>2.251122408964554</v>
+      </c>
+      <c r="D9">
+        <v>-0.706137550729761</v>
+      </c>
+      <c r="E9">
+        <v>1.014831533095475</v>
+      </c>
+      <c r="F9">
+        <v>1.592308314166921</v>
+      </c>
+      <c r="G9">
+        <v>1.501091046944493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.04217164572430885</v>
+      </c>
+      <c r="C10">
+        <v>0.326079805986689</v>
+      </c>
+      <c r="D10">
+        <v>-0.009304899688221912</v>
+      </c>
+      <c r="E10">
+        <v>0.0671092934467746</v>
+      </c>
+      <c r="F10">
+        <v>0.06869256679555406</v>
+      </c>
+      <c r="G10">
+        <v>0.261229036105326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>-0.07549787499668825</v>
+      </c>
+      <c r="C11">
+        <v>-0.2427569934432924</v>
+      </c>
+      <c r="D11">
+        <v>-0.106868222097305</v>
+      </c>
+      <c r="E11">
+        <v>-0.04222415997236417</v>
+      </c>
+      <c r="F11">
+        <v>-0.05742575720084053</v>
+      </c>
+      <c r="G11">
+        <v>-0.3166614508873488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>559</v>
+      </c>
+      <c r="C12">
+        <v>814</v>
+      </c>
+      <c r="D12">
+        <v>716</v>
+      </c>
+      <c r="E12">
+        <v>1078</v>
+      </c>
+      <c r="F12">
+        <v>934</v>
+      </c>
+      <c r="G12">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>-0.03082300869924497</v>
+      </c>
+      <c r="C13">
+        <v>-1.136109902383941</v>
+      </c>
+      <c r="D13">
+        <v>-1.609468714617271</v>
+      </c>
+      <c r="E13">
+        <v>-0.6858134375760797</v>
+      </c>
+      <c r="F13">
+        <v>0.1812638460467207</v>
+      </c>
+      <c r="G13">
+        <v>-1.352060642377527</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>0.01816874780429665</v>
+      </c>
+      <c r="C14">
+        <v>-0.1766483163046837</v>
+      </c>
+      <c r="D14">
+        <v>-0.05653279138945783</v>
+      </c>
+      <c r="E14">
+        <v>-0.007699100050581183</v>
+      </c>
+      <c r="F14">
+        <v>0.038039713602935</v>
+      </c>
+      <c r="G14">
+        <v>-0.2471972945509874</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>-0.112030298135244</v>
+      </c>
+      <c r="C15">
+        <v>-0.1114546112089108</v>
+      </c>
+      <c r="D15">
+        <v>-0.05769068020734158</v>
+      </c>
+      <c r="E15">
+        <v>-0.04138394195598727</v>
+      </c>
+      <c r="F15">
+        <v>-0.03360189943159964</v>
+      </c>
+      <c r="G15">
+        <v>-0.1539991230218497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>420</v>
+      </c>
+      <c r="C16">
+        <v>737</v>
+      </c>
+      <c r="D16">
+        <v>868</v>
+      </c>
+      <c r="E16">
+        <v>2048</v>
+      </c>
+      <c r="F16">
+        <v>936</v>
+      </c>
+      <c r="G16">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.6722309939491503</v>
+      </c>
+      <c r="C17">
+        <v>1.541496473652254</v>
+      </c>
+      <c r="D17">
+        <v>1.124400521043868</v>
+      </c>
+      <c r="E17">
+        <v>-0.01201824440968287</v>
+      </c>
+      <c r="F17">
+        <v>1.408504539945312</v>
+      </c>
+      <c r="G17">
+        <v>1.509206472058557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>-0.06659139365965916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>-0.538352136077812</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-0.01095543397359718</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>-0.00722619146609027</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1.592308314166921</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0.06869256679555406</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-0.05742575720084053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0.1812638460467207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0.038039713602935</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>-0.03360189943159964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1.408504539945312</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="B18">
+        <v>0.09466342028059964</v>
+      </c>
+      <c r="C18">
+        <v>0.3141859558641853</v>
+      </c>
+      <c r="D18">
+        <v>0.1668679879787018</v>
+      </c>
+      <c r="E18">
+        <v>0.01761270128512153</v>
+      </c>
+      <c r="F18">
         <v>0.1598629367486799</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="G18">
+        <v>0.4640634366829072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B19">
+        <v>-0.08460743617896893</v>
+      </c>
+      <c r="C19">
+        <v>-0.3991915530469137</v>
+      </c>
+      <c r="D19">
+        <v>-0.118856826144734</v>
+      </c>
+      <c r="E19">
+        <v>-0.1662192839104826</v>
+      </c>
+      <c r="F19">
         <v>-0.05992068920490212</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="G19">
+        <v>-0.3887687166468059</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B20">
+        <v>1018</v>
+      </c>
+      <c r="C20">
+        <v>631</v>
+      </c>
+      <c r="D20">
+        <v>871</v>
+      </c>
+      <c r="E20">
+        <v>1419</v>
+      </c>
+      <c r="F20">
         <v>879</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="G20">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B21">
+        <v>1.982927016900313</v>
+      </c>
+      <c r="C21">
+        <v>1.066591879817908</v>
+      </c>
+      <c r="D21">
+        <v>0.8977474460944737</v>
+      </c>
+      <c r="E21">
+        <v>1.469958092292065</v>
+      </c>
+      <c r="F21">
         <v>1.494332239861178</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="G21">
+        <v>0.4194037221902138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B22">
+        <v>0.404407</v>
+      </c>
+      <c r="C22">
+        <v>0.5367740000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.218073</v>
+      </c>
+      <c r="E22">
+        <v>0.344276</v>
+      </c>
+      <c r="F22">
         <v>0.225328</v>
+      </c>
+      <c r="G22">
+        <v>0.1929529999999999</v>
       </c>
     </row>
   </sheetData>
@@ -708,78 +1068,150 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -787,164 +1219,344 @@
       <c r="C7">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>100000000</v>
+      </c>
+      <c r="E7">
+        <v>100000000</v>
+      </c>
+      <c r="F7">
+        <v>100000000</v>
+      </c>
+      <c r="G7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="B8">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="C8">
+        <v>0.139</v>
+      </c>
+      <c r="D8">
+        <v>0.026</v>
+      </c>
+      <c r="E8">
+        <v>0.068</v>
+      </c>
+      <c r="F8">
         <v>0.056</v>
       </c>
-      <c r="C8">
-        <v>0.056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B9">
+        <v>0.196</v>
+      </c>
+      <c r="C9">
+        <v>0.652</v>
+      </c>
+      <c r="D9">
+        <v>0.184</v>
+      </c>
+      <c r="E9">
+        <v>0.181</v>
+      </c>
+      <c r="F9">
         <v>0.162</v>
       </c>
-      <c r="C9">
-        <v>0.162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="G9">
+        <v>0.628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B10">
+        <v>0.779</v>
+      </c>
+      <c r="C10">
+        <v>0.726</v>
+      </c>
+      <c r="D10">
+        <v>0.283</v>
+      </c>
+      <c r="E10">
+        <v>0.748</v>
+      </c>
+      <c r="F10">
         <v>0.727</v>
       </c>
-      <c r="C10">
-        <v>0.727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="G10">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B11">
+        <v>0.237</v>
+      </c>
+      <c r="C11">
+        <v>0.803</v>
+      </c>
+      <c r="D11">
+        <v>0.033</v>
+      </c>
+      <c r="E11">
+        <v>0.225</v>
+      </c>
+      <c r="F11">
         <v>0.169</v>
       </c>
-      <c r="C11">
-        <v>0.169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="G11">
+        <v>0.236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B12">
+        <v>0.137</v>
+      </c>
+      <c r="C12">
+        <v>0.109</v>
+      </c>
+      <c r="D12">
+        <v>0.147</v>
+      </c>
+      <c r="E12">
+        <v>0.145</v>
+      </c>
+      <c r="F12">
         <v>0.14</v>
       </c>
-      <c r="C12">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="G12">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B13">
+        <v>0.213</v>
+      </c>
+      <c r="C13">
+        <v>0.164</v>
+      </c>
+      <c r="D13">
+        <v>0.222</v>
+      </c>
+      <c r="E13">
         <v>0.218</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>0.218</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="G13">
+        <v>0.174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B14">
+        <v>0.368</v>
+      </c>
+      <c r="C14">
+        <v>1.202</v>
+      </c>
+      <c r="D14">
+        <v>0.049</v>
+      </c>
+      <c r="E14">
+        <v>0.338</v>
+      </c>
+      <c r="F14">
         <v>0.262</v>
       </c>
-      <c r="C14">
-        <v>0.262</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="G14">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B15">
+        <v>0.094</v>
+      </c>
+      <c r="C15">
+        <v>0.212</v>
+      </c>
+      <c r="D15">
+        <v>0.106</v>
+      </c>
+      <c r="E15">
+        <v>0.096</v>
+      </c>
+      <c r="F15">
         <v>0.082</v>
       </c>
-      <c r="C15">
-        <v>0.082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="G15">
+        <v>0.214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B16">
+        <v>0.112</v>
+      </c>
+      <c r="C16">
+        <v>0.399</v>
+      </c>
+      <c r="D16">
+        <v>0.177</v>
+      </c>
+      <c r="E16">
+        <v>0.166</v>
+      </c>
+      <c r="F16">
         <v>0.108</v>
       </c>
-      <c r="C16">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="G16">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B17">
+        <v>164550948.309</v>
+      </c>
+      <c r="C17">
+        <v>222861116.83</v>
+      </c>
+      <c r="D17">
+        <v>132826126.47</v>
+      </c>
+      <c r="E17">
+        <v>163301473.342</v>
+      </c>
+      <c r="F17">
         <v>154859129.891</v>
       </c>
-      <c r="C17">
-        <v>154859129.891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="G17">
+        <v>143847615.003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B18">
+        <v>164197868.309</v>
+      </c>
+      <c r="C18">
+        <v>70791916.83</v>
+      </c>
+      <c r="D18">
+        <v>123254.47</v>
+      </c>
+      <c r="E18">
+        <v>7.342</v>
+      </c>
+      <c r="F18">
         <v>154402189.891</v>
       </c>
-      <c r="C18">
-        <v>154402189.891</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="G18">
+        <v>16675999.803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B19">
+        <v>0.646</v>
+      </c>
+      <c r="C19">
+        <v>1.229</v>
+      </c>
+      <c r="D19">
+        <v>0.328</v>
+      </c>
+      <c r="E19">
+        <v>0.633</v>
+      </c>
+      <c r="F19">
         <v>0.549</v>
       </c>
-      <c r="C19">
-        <v>0.549</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="G19">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B20">
+        <v>0.109</v>
+      </c>
+      <c r="C20">
+        <v>0.181</v>
+      </c>
+      <c r="D20">
+        <v>0.061</v>
+      </c>
+      <c r="E20">
+        <v>0.107</v>
+      </c>
+      <c r="F20">
         <v>0.095</v>
       </c>
-      <c r="C20">
-        <v>0.095</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="G20">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B21">
+        <v>1.646</v>
+      </c>
+      <c r="C21">
+        <v>2.229</v>
+      </c>
+      <c r="D21">
+        <v>1.328</v>
+      </c>
+      <c r="E21">
+        <v>1.633</v>
+      </c>
+      <c r="F21">
         <v>1.549</v>
       </c>
-      <c r="C21">
-        <v>1.549</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="G21">
+        <v>1.438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -952,10 +1564,22 @@
       <c r="C22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>100000000</v>
+      </c>
+      <c r="E22">
+        <v>100000000</v>
+      </c>
+      <c r="F22">
+        <v>100000000</v>
+      </c>
+      <c r="G22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -963,10 +1587,22 @@
       <c r="C23">
         <v>0.138</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>0.138</v>
+      </c>
+      <c r="E23">
+        <v>0.138</v>
+      </c>
+      <c r="F23">
+        <v>0.138</v>
+      </c>
+      <c r="G23">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -974,15 +1610,39 @@
       <c r="C24">
         <v>0.027</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>0.027</v>
+      </c>
+      <c r="E24">
+        <v>0.027</v>
+      </c>
+      <c r="F24">
+        <v>0.027</v>
+      </c>
+      <c r="G24">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <v>300</v>
       </c>
       <c r="C25">
+        <v>300</v>
+      </c>
+      <c r="D25">
+        <v>300</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
         <v>300</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,21 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
-  <si>
-    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-02 17:34:16</t>
-  </si>
-  <si>
-    <t>['K_shift_1#40#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff', 'open#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#20#0&amp;thre']2020-05-02 17:47:54</t>
-  </si>
-  <si>
-    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre']2020-05-02 18:13:50</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+D#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff', 'MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff']2020-05-02 18:24:19</t>
-  </si>
-  <si>
-    <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']2020-05-04 10:09:46</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']2020-05-10 00:50:09</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20_shift_1#close#1&amp;HS&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*xxx+D_shift_1#30#0&amp;HS&amp;thre*xxx']2020-05-10 00:56:29</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-10 01:02:09</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre']2020-05-10 01:16:34</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre']2020-05-10 01:29:08</t>
+  </si>
+  <si>
+    <t>['SAR#3#0&amp;trend+ROC_14#-10#0&amp;thre+STOCHRSI_fastd_7#STOCHRSI_fastk_12#0&amp;diff+SIN#DIV#0&amp;diff&amp;HS+NATR_5#3#1&amp;trend+LINEARREG_ANGLE_40#2#0&amp;trend+NATR_14#3#0&amp;thre&amp;HS+ATR_60#1#1&amp;thre&amp;HS+ATR_14#0#0&amp;thre&amp;HS+close_TRIMA_30#42#0&amp;thre+CDLEVENINGDOJISTAR#0#0&amp;thre&amp;HS+close_MAMA#close_EMA_2#1&amp;diff&amp;HS+RSI_30#ROCR100_40#0&amp;cross+CEIL#3#0&amp;trend+OBV#4571203#1&amp;thre&amp;HS+CDLLONGLINE#3#0&amp;trend&amp;HS+CDLMATCHINGLOW#1#0&amp;thre&amp;HS+VAR_30#1#1&amp;thre+SINH#2#0&amp;trend+TSF_7#LINEARREG_14#0&amp;cross&amp;HS+CMO_12#33#0&amp;thre+LINEARREG_12#43#1&amp;thre+L_line_26#3#1&amp;trend+TRIX_26#3#1&amp;trend+CDLPIERCING#0#0&amp;thre+ROCP_26#0#0&amp;thre&amp;HS+L_line_60#28#0&amp;thre+close_TRIMA_40#close_KAMA_60#0&amp;cross+ROCR_14#1#0&amp;thre&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;diff+RSI_60#60#1&amp;thre&amp;HS+CDLHIKKAKEMOD#3#1&amp;trend&amp;HS+STDDEV_14#1#1&amp;trend&amp;HS+close_TEMA_30#close_TRIMA_40#0&amp;cross&amp;HS+CDLBREAKAWAY#2#0&amp;trend+TRANGE#ATR_26#0&amp;cross+L_line_30#AVGPRICE#1&amp;diff&amp;HS+CDLGAPSIDESIDEWHITE#2#0&amp;trend&amp;HS+TSF_5#32#1&amp;thre+TYPPRICE#1#1&amp;trend+ATAN#2#1&amp;trend&amp;HS+CDLDOJISTAR#1#0&amp;trend&amp;HS+RSI_14#65#0&amp;thre+MOM_40#3#0&amp;trend&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+close_KAMA_2#2#0&amp;trend&amp;HS+MAVP_40#42#1&amp;thre&amp;HS+CDLRISEFALL3METHODS#1#1&amp;trend&amp;HS+L_line_26#2#1&amp;trend&amp;HS+close_DEMA_14#close_TEMA_26#0&amp;cross+NATR_12#5#0&amp;thre&amp;HS+CMO_60#-24#1&amp;thre+COS#FLOOR#1&amp;cross+LINEARREG_26#3#1&amp;trend+STOCHRSI_fastk_5#25#1&amp;thre&amp;HS+MOM_14#1#1&amp;trend+CDLMATCHINGLOW#1#1&amp;trend+CMO_30#3#1&amp;trend&amp;HS+close_WMA_14#close_DEMA_26#0&amp;cross&amp;HS+LINEARREG_ANGLE_2#39#0&amp;thre+ROCR100_2#1#0&amp;trend+CDLRICKSHAWMAN#3#1&amp;trend+CMO_14#STOCHRSI_fastd_14#0&amp;cross+STOCHRSI_fastd_30#75#1&amp;thre&amp;HS+CEIL#26#1&amp;thre+ACOS#1#0&amp;trend&amp;HS+MOM_40#8#1&amp;thre&amp;HS+TRIX_2#3#1&amp;trend&amp;HS+RSI_5#ROCR100_7#1&amp;diff+close_EMA_7#close_MA_14#0&amp;diff+M_line_7#L_line_14#0&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff+close_KAMA_7#1#1&amp;trend&amp;HS+TRIX_30#0#0&amp;thre&amp;HS+CDLABANDONEDBABY#1#1&amp;trend+ROC_60#35#0&amp;thre+CDLLADDERBOTTOM#1#0&amp;trend+ROCR100_40#1#1&amp;trend&amp;HS+close_EMA_2#close_MA_7#0&amp;cross+VAR_60#3#1&amp;trend+close_MA_40#32#1&amp;thre+RSI_5#ROCR100_7#1&amp;cross+NATR_7#ATR_40#1&amp;cross&amp;HS+close_DEMA_12#close_TEMA_14#0&amp;cross&amp;HS+LINEARREG_SLOPE_14#3#1&amp;trend+CDLSHOOTINGSTAR#3#1&amp;trend+close_TEMA_60#MAVP_2#0&amp;cross&amp;HS+VAR_2#LINEARREG_ANGLE_7#0&amp;cross&amp;HS+CDLCONCEALBABYSWALL#0#0&amp;thre+STDDEV_12#VAR_14#1&amp;cross+TSF_2#25#1&amp;thre+TRIX_40#3#0&amp;trend&amp;HS+VAR_12#1#1&amp;trend+LINEARREG_26#LINEARREG_INTERCEPT_30#1&amp;cross+ATR_7#1#0&amp;trend&amp;HS+close_TRIMA_14#43#0&amp;thre&amp;HS+RSI_30#1#1&amp;trend+LINEARREG_14#1#0&amp;trend+quadrature#-8#0&amp;thre&amp;HS+close_TEMA_14#32#0&amp;thre&amp;HS+ATR_26#2#0&amp;thre&amp;HS+VAR_26#3#0&amp;trend&amp;HS+L_line_26#MAVP_60#1&amp;diff&amp;HS+CDLLONGLINE#2#0&amp;trend&amp;HS+TRIX_30#0#1&amp;thre&amp;HS+TRIX_12#0#1&amp;thre&amp;HS+TRIX_60#APO#0&amp;diff&amp;HS+ROCR100_14#1#1&amp;trend&amp;HS+NATR_30#STDDEV_2#1&amp;cross+close_TEMA_5#3#1&amp;trend&amp;HS+STOCHRSI_fastd_60#51#1&amp;thre+CDLLONGLINE#49#1&amp;thre&amp;HS+H_line_12#1#0&amp;trend&amp;HS+ROC_60#1#1&amp;trend+ROC_14#18#0&amp;thre&amp;HS+STOCHRSI_fastk_5#2#0&amp;trend+NATR_12#5#1&amp;thre&amp;HS+ROCR100_12#ROCR_14#1&amp;cross&amp;HS+H_line_7#1#1&amp;trend&amp;HS+VAR_60#1#0&amp;trend&amp;HS+close_TRIMA_60#2#1&amp;trend&amp;HS+CMO_2#STOCHRSI_fastd_2#1&amp;cross+MOM_40#CMO_60#0&amp;diff+CDLCLOSINGMARUBOZU#-2#1&amp;thre&amp;HS+close_MA_7#2#1&amp;trend&amp;HS+L_line_5#2#0&amp;trend+MACD#1#0&amp;thre&amp;HS+CDLMORNINGSTAR#1#0&amp;trend+L_line_2#2#1&amp;trend&amp;HS+STOCHRSI_fastk_26#TRIX_30#1&amp;diff+LINEARREG_SLOPE_12#TSF_14#0&amp;cross+RSI_12#1#0&amp;trend&amp;HS+close_WMA_5#3#1&amp;trend+ROCR100_2#2#1&amp;trend+LINEARREG_7#1#0&amp;trend+CDLGAPSIDESIDEWHITE#1#1&amp;trend+close_MA_60#32#1&amp;thre&amp;HS+STDDEV_26#2#0&amp;thre&amp;HS+MAVP_26#26#1&amp;thre&amp;HS+CDLKICKING#1#0&amp;trend+FLOOR#25#1&amp;thre&amp;HS+close_KAMA_30#1#1&amp;trend+LINEARREG_INTERCEPT_60#1#0&amp;trend&amp;HS+LINEARREG_INTERCEPT_26#3#0&amp;trend+LINEARREG_INTERCEPT_60#ACOS#0&amp;cross+ROCR100_30#99#0&amp;thre+close_DEMA_60#3#0&amp;trend+ROCR100_60#3#0&amp;trend&amp;HS+NATR_12#2#1&amp;trend+CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS+LINEARREG_30#1#0&amp;trend&amp;HS+close_WMA_7#26#1&amp;thre+CDLINVERTEDHAMMER#1#0&amp;thre&amp;HS+VAR_14#1#1&amp;thre+CDLABANDONEDBABY#0#1&amp;thre+M_line_2#L_line_7#0&amp;diff+MAVP_2#3#1&amp;trend+MACD#3#1&amp;trend+H_line_30#35#1&amp;thre&amp;HS+CEIL#47#1&amp;thre+ROCR_5#0#0&amp;thre&amp;HS+CDLSHOOTINGSTAR#2#1&amp;trend+PPO#3#0&amp;trend&amp;HS+ATR_7#NATR_30#0&amp;cross&amp;HS+close_KAMA_2#2#1&amp;trend&amp;HS+STDDEV_5#0#0&amp;thre+H_line_5#3#0&amp;trend&amp;HS+close_EMA_12#26#1&amp;thre&amp;HS+L_line_14#24#1&amp;thre&amp;HS+ROC_40#-16#1&amp;thre+close_DEMA_2#46#0&amp;thre+ADOSC#2#1&amp;trend&amp;HS+STDDEV_14#3#0&amp;trend&amp;HS+CMO_7#2#0&amp;trend&amp;HS+ROCR_40#ROCP_60#1&amp;cross+ROCR100_30#ROCR_40#1&amp;diff&amp;HS+STOCHRSI_fastd_5#50#1&amp;thre+ROCR100_5#89#1&amp;thre+close_KAMA_7#1#1&amp;trend+NATR_40#3#1&amp;thre&amp;HS+ATR_60#LINEARREG_5#1&amp;diff+close_SMA_40#2#1&amp;trend+STOCHRSI_fastk_7#TRIX_12#0&amp;diff+RSI_26#ROCR100_30#0&amp;cross&amp;HS+APO#1#1&amp;thre+CDLONNECK#3#0&amp;trend&amp;HS+CDLHIKKAKEMOD#2#0&amp;trend+TRANGE#1#0&amp;thre&amp;HS+close_WMA_5#32#1&amp;thre+COS#1#0&amp;trend&amp;HS+EXP#2#0&amp;trend&amp;HS+TAN#-296#0&amp;thre+CDLHANGINGMAN#0#1&amp;thre+close_EMA_14#26#1&amp;thre&amp;HS+inhpase#NATR_2#0&amp;cross&amp;HS+CDLKICKINGBYLENGTH#1#0&amp;trend+RSI_12#28#1&amp;thre+close_DEMA_14#32#1&amp;thre&amp;HS+close_EMA_26#32#1&amp;thre&amp;HS+LINEARREG_SLOPE_5#TSF_7#1&amp;diff', 'close_EMA_26#32#1&amp;thre&amp;HS']2020-05-11 15:30:51</t>
   </si>
   <si>
     <t>strategy_name</t>
@@ -95,25 +98,31 @@
     <t>2015Total_Return</t>
   </si>
   <si>
-    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K_shift_1#40#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#40#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff', 'open#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#20#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#20#0&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre']</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff+D#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close#open#1&amp;diff', 'MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff']</t>
-  </si>
-  <si>
-    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff']</t>
-  </si>
-  <si>
-    <t>['close#2#0&amp;trend&amp;HS*MACD#2#1&amp;trend*MB#2#1&amp;trend', 'close#2#1&amp;trend&amp;HS*MACD#2#0&amp;trend*MB#2#0&amp;trend']</t>
-  </si>
-  <si>
-    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*open#close_MA_10#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*close_MA_5#close#1&amp;diff*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*close_shift_1#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff']2020-05-02 16:04:46</t>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20_shift_1#close#1&amp;HS&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*xxx+D_shift_1#30#0&amp;HS&amp;thre*xxx']</t>
+  </si>
+  <si>
+    <t>-inf</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['SAR#3#0&amp;trend+ROC_14#-10#0&amp;thre+STOCHRSI_fastd_7#STOCHRSI_fastk_12#0&amp;diff+SIN#DIV#0&amp;diff&amp;HS+NATR_5#3#1&amp;trend+LINEARREG_ANGLE_40#2#0&amp;trend+NATR_14#3#0&amp;thre&amp;HS+ATR_60#1#1&amp;thre&amp;HS+ATR_14#0#0&amp;thre&amp;HS+close_TRIMA_30#42#0&amp;thre+CDLEVENINGDOJISTAR#0#0&amp;thre&amp;HS+close_MAMA#close_EMA_2#1&amp;diff&amp;HS+RSI_30#ROCR100_40#0&amp;cross+CEIL#3#0&amp;trend+OBV#4571203#1&amp;thre&amp;HS+CDLLONGLINE#3#0&amp;trend&amp;HS+CDLMATCHINGLOW#1#0&amp;thre&amp;HS+VAR_30#1#1&amp;thre+SINH#2#0&amp;trend+TSF_7#LINEARREG_14#0&amp;cross&amp;HS+CMO_12#33#0&amp;thre+LINEARREG_12#43#1&amp;thre+L_line_26#3#1&amp;trend+TRIX_26#3#1&amp;trend+CDLPIERCING#0#0&amp;thre+ROCP_26#0#0&amp;thre&amp;HS+L_line_60#28#0&amp;thre+close_TRIMA_40#close_KAMA_60#0&amp;cross+ROCR_14#1#0&amp;thre&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;diff+RSI_60#60#1&amp;thre&amp;HS+CDLHIKKAKEMOD#3#1&amp;trend&amp;HS+STDDEV_14#1#1&amp;trend&amp;HS+close_TEMA_30#close_TRIMA_40#0&amp;cross&amp;HS+CDLBREAKAWAY#2#0&amp;trend+TRANGE#ATR_26#0&amp;cross+L_line_30#AVGPRICE#1&amp;diff&amp;HS+CDLGAPSIDESIDEWHITE#2#0&amp;trend&amp;HS+TSF_5#32#1&amp;thre+TYPPRICE#1#1&amp;trend+ATAN#2#1&amp;trend&amp;HS+CDLDOJISTAR#1#0&amp;trend&amp;HS+RSI_14#65#0&amp;thre+MOM_40#3#0&amp;trend&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+close_KAMA_2#2#0&amp;trend&amp;HS+MAVP_40#42#1&amp;thre&amp;HS+CDLRISEFALL3METHODS#1#1&amp;trend&amp;HS+L_line_26#2#1&amp;trend&amp;HS+close_DEMA_14#close_TEMA_26#0&amp;cross+NATR_12#5#0&amp;thre&amp;HS+CMO_60#-24#1&amp;thre+COS#FLOOR#1&amp;cross+LINEARREG_26#3#1&amp;trend+STOCHRSI_fastk_5#25#1&amp;thre&amp;HS+MOM_14#1#1&amp;trend+CDLMATCHINGLOW#1#1&amp;trend+CMO_30#3#1&amp;trend&amp;HS+close_WMA_14#close_DEMA_26#0&amp;cross&amp;HS+LINEARREG_ANGLE_2#39#0&amp;thre+ROCR100_2#1#0&amp;trend+CDLRICKSHAWMAN#3#1&amp;trend+CMO_14#STOCHRSI_fastd_14#0&amp;cross+STOCHRSI_fastd_30#75#1&amp;thre&amp;HS+CEIL#26#1&amp;thre+ACOS#1#0&amp;trend&amp;HS+MOM_40#8#1&amp;thre&amp;HS+TRIX_2#3#1&amp;trend&amp;HS+RSI_5#ROCR100_7#1&amp;diff+close_EMA_7#close_MA_14#0&amp;diff+M_line_7#L_line_14#0&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff+close_KAMA_7#1#1&amp;trend&amp;HS+TRIX_30#0#0&amp;thre&amp;HS+CDLABANDONEDBABY#1#1&amp;trend+ROC_60#35#0&amp;thre+CDLLADDERBOTTOM#1#0&amp;trend+ROCR100_40#1#1&amp;trend&amp;HS+close_EMA_2#close_MA_7#0&amp;cross+VAR_60#3#1&amp;trend+close_MA_40#32#1&amp;thre+RSI_5#ROCR100_7#1&amp;cross+NATR_7#ATR_40#1&amp;cross&amp;HS+close_DEMA_12#close_TEMA_14#0&amp;cross&amp;HS+LINEARREG_SLOPE_14#3#1&amp;trend+CDLSHOOTINGSTAR#3#1&amp;trend+close_TEMA_60#MAVP_2#0&amp;cross&amp;HS+VAR_2#LINEARREG_ANGLE_7#0&amp;cross&amp;HS+CDLCONCEALBABYSWALL#0#0&amp;thre+STDDEV_12#VAR_14#1&amp;cross+TSF_2#25#1&amp;thre+TRIX_40#3#0&amp;trend&amp;HS+VAR_12#1#1&amp;trend+LINEARREG_26#LINEARREG_INTERCEPT_30#1&amp;cross+ATR_7#1#0&amp;trend&amp;HS+close_TRIMA_14#43#0&amp;thre&amp;HS+RSI_30#1#1&amp;trend+LINEARREG_14#1#0&amp;trend+quadrature#-8#0&amp;thre&amp;HS+close_TEMA_14#32#0&amp;thre&amp;HS+ATR_26#2#0&amp;thre&amp;HS+VAR_26#3#0&amp;trend&amp;HS+L_line_26#MAVP_60#1&amp;diff&amp;HS+CDLLONGLINE#2#0&amp;trend&amp;HS+TRIX_30#0#1&amp;thre&amp;HS+TRIX_12#0#1&amp;thre&amp;HS+TRIX_60#APO#0&amp;diff&amp;HS+ROCR100_14#1#1&amp;trend&amp;HS+NATR_30#STDDEV_2#1&amp;cross+close_TEMA_5#3#1&amp;trend&amp;HS+STOCHRSI_fastd_60#51#1&amp;thre+CDLLONGLINE#49#1&amp;thre&amp;HS+H_line_12#1#0&amp;trend&amp;HS+ROC_60#1#1&amp;trend+ROC_14#18#0&amp;thre&amp;HS+STOCHRSI_fastk_5#2#0&amp;trend+NATR_12#5#1&amp;thre&amp;HS+ROCR100_12#ROCR_14#1&amp;cross&amp;HS+H_line_7#1#1&amp;trend&amp;HS+VAR_60#1#0&amp;trend&amp;HS+close_TRIMA_60#2#1&amp;trend&amp;HS+CMO_2#STOCHRSI_fastd_2#1&amp;cross+MOM_40#CMO_60#0&amp;diff+CDLCLOSINGMARUBOZU#-2#1&amp;thre&amp;HS+close_MA_7#2#1&amp;trend&amp;HS+L_line_5#2#0&amp;trend+MACD#1#0&amp;thre&amp;HS+CDLMORNINGSTAR#1#0&amp;trend+L_line_2#2#1&amp;trend&amp;HS+STOCHRSI_fastk_26#TRIX_30#1&amp;diff+LINEARREG_SLOPE_12#TSF_14#0&amp;cross+RSI_12#1#0&amp;trend&amp;HS+close_WMA_5#3#1&amp;trend+ROCR100_2#2#1&amp;trend+LINEARREG_7#1#0&amp;trend+CDLGAPSIDESIDEWHITE#1#1&amp;trend+close_MA_60#32#1&amp;thre&amp;HS+STDDEV_26#2#0&amp;thre&amp;HS+MAVP_26#26#1&amp;thre&amp;HS+CDLKICKING#1#0&amp;trend+FLOOR#25#1&amp;thre&amp;HS+close_KAMA_30#1#1&amp;trend+LINEARREG_INTERCEPT_60#1#0&amp;trend&amp;HS+LINEARREG_INTERCEPT_26#3#0&amp;trend+LINEARREG_INTERCEPT_60#ACOS#0&amp;cross+ROCR100_30#99#0&amp;thre+close_DEMA_60#3#0&amp;trend+ROCR100_60#3#0&amp;trend&amp;HS+NATR_12#2#1&amp;trend+CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS+LINEARREG_30#1#0&amp;trend&amp;HS+close_WMA_7#26#1&amp;thre+CDLINVERTEDHAMMER#1#0&amp;thre&amp;HS+VAR_14#1#1&amp;thre+CDLABANDONEDBABY#0#1&amp;thre+M_line_2#L_line_7#0&amp;diff+MAVP_2#3#1&amp;trend+MACD#3#1&amp;trend+H_line_30#35#1&amp;thre&amp;HS+CEIL#47#1&amp;thre+ROCR_5#0#0&amp;thre&amp;HS+CDLSHOOTINGSTAR#2#1&amp;trend+PPO#3#0&amp;trend&amp;HS+ATR_7#NATR_30#0&amp;cross&amp;HS+close_KAMA_2#2#1&amp;trend&amp;HS+STDDEV_5#0#0&amp;thre+H_line_5#3#0&amp;trend&amp;HS+close_EMA_12#26#1&amp;thre&amp;HS+L_line_14#24#1&amp;thre&amp;HS+ROC_40#-16#1&amp;thre+close_DEMA_2#46#0&amp;thre+ADOSC#2#1&amp;trend&amp;HS+STDDEV_14#3#0&amp;trend&amp;HS+CMO_7#2#0&amp;trend&amp;HS+ROCR_40#ROCP_60#1&amp;cross+ROCR100_30#ROCR_40#1&amp;diff&amp;HS+STOCHRSI_fastd_5#50#1&amp;thre+ROCR100_5#89#1&amp;thre+close_KAMA_7#1#1&amp;trend+NATR_40#3#1&amp;thre&amp;HS+ATR_60#LINEARREG_5#1&amp;diff+close_SMA_40#2#1&amp;trend+STOCHRSI_fastk_7#TRIX_12#0&amp;diff+RSI_26#ROCR100_30#0&amp;cross&amp;HS+APO#1#1&amp;thre+CDLONNECK#3#0&amp;trend&amp;HS+CDLHIKKAKEMOD#2#0&amp;trend+TRANGE#1#0&amp;thre&amp;HS+close_WMA_5#32#1&amp;thre+COS#1#0&amp;trend&amp;HS+EXP#2#0&amp;trend&amp;HS+TAN#-296#0&amp;thre+CDLHANGINGMAN#0#1&amp;thre+close_EMA_14#26#1&amp;thre&amp;HS+inhpase#NATR_2#0&amp;cross&amp;HS+CDLKICKINGBYLENGTH#1#0&amp;trend+RSI_12#28#1&amp;thre+close_DEMA_14#32#1&amp;thre&amp;HS+close_EMA_26#32#1&amp;thre&amp;HS+LINEARREG_SLOPE_5#TSF_7#1&amp;diff', 'close_EMA_26#32#1&amp;thre&amp;HS']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-10 00:40:50</t>
   </si>
   <si>
     <t>start_date</t>
@@ -552,513 +561,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:8">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06065503873518663</v>
+        <v>-0.06068879581669351</v>
       </c>
       <c r="C3">
-        <v>-0.1571652245232164</v>
+        <v>-0.1334115617552565</v>
       </c>
       <c r="D3">
-        <v>-0.04069454429396269</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.02495578243482244</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.06659139365965916</v>
+        <v>-0.06799399473064016</v>
       </c>
       <c r="G3">
-        <v>-0.1518934062341737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.08681367350504454</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>309</v>
       </c>
       <c r="C4">
-        <v>515</v>
+        <v>398</v>
       </c>
       <c r="D4">
-        <v>1186</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1242</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="G4">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>237</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.278791851743988</v>
+        <v>-0.322888504320907</v>
       </c>
       <c r="C5">
-        <v>0.1181151870082159</v>
-      </c>
-      <c r="D5">
-        <v>-0.3435165359075013</v>
-      </c>
-      <c r="E5">
-        <v>1.454368400118186</v>
+        <v>-0.1343476410452543</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>-0.538352136077812</v>
+        <v>-1.119896336168875</v>
       </c>
       <c r="G5">
-        <v>-0.9894346221230249</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>-0.4545198422842536</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.006723688064776571</v>
+        <v>0.00586360100162878</v>
       </c>
       <c r="C6">
-        <v>0.04335261896399806</v>
+        <v>0.01056597817103505</v>
       </c>
       <c r="D6">
-        <v>-0.0001806131488013337</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1271829594517792</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-0.01095543397359718</v>
+        <v>-0.029061549881537</v>
       </c>
       <c r="G6">
-        <v>-0.1050003816555524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.007045686504041676</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01059946704599735</v>
+        <v>-0.01037357430000463</v>
       </c>
       <c r="C7">
-        <v>-0.06497813516594553</v>
+        <v>-0.009301956812525991</v>
       </c>
       <c r="D7">
-        <v>-0.06110579642564695</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>-0.01593221340775519</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>-0.00722619146609027</v>
+        <v>-0.01397364880874741</v>
       </c>
       <c r="G7">
-        <v>-0.08411863516379459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.007396776066527222</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C8">
-        <v>746</v>
+        <v>410</v>
       </c>
       <c r="D8">
-        <v>1608</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1511</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>831</v>
+        <v>723</v>
       </c>
       <c r="G8">
-        <v>2076</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>683</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.899347901450764</v>
+        <v>0.964891579226408</v>
       </c>
       <c r="C9">
-        <v>2.251122408964554</v>
-      </c>
-      <c r="D9">
-        <v>-0.706137550729761</v>
-      </c>
-      <c r="E9">
-        <v>1.014831533095475</v>
+        <v>0.9226290254589607</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>1.592308314166921</v>
+        <v>1.738783523005261</v>
       </c>
       <c r="G9">
-        <v>1.501091046944493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1.61797184494811</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.04217164572430885</v>
+        <v>0.04737268008837399</v>
       </c>
       <c r="C10">
-        <v>0.326079805986689</v>
+        <v>0.05089153893822865</v>
       </c>
       <c r="D10">
-        <v>-0.009304899688221912</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0671092934467746</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06869256679555406</v>
+        <v>0.08592100472512094</v>
       </c>
       <c r="G10">
-        <v>0.261229036105326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.06877843346671333</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07549787499668825</v>
+        <v>-0.07593883860828288</v>
       </c>
       <c r="C11">
-        <v>-0.2427569934432924</v>
+        <v>-0.07989108853819749</v>
       </c>
       <c r="D11">
-        <v>-0.106868222097305</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-0.04222415997236417</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.05742575720084053</v>
+        <v>-0.07383294537405583</v>
       </c>
       <c r="G11">
-        <v>-0.3166614508873488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.07041203502798465</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>559</v>
       </c>
       <c r="C12">
-        <v>814</v>
+        <v>632</v>
       </c>
       <c r="D12">
-        <v>716</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1078</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>934</v>
+        <v>691</v>
       </c>
       <c r="G12">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>880</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.03082300869924497</v>
+        <v>-0.04841559501838143</v>
       </c>
       <c r="C13">
-        <v>-1.136109902383941</v>
-      </c>
-      <c r="D13">
-        <v>-1.609468714617271</v>
-      </c>
-      <c r="E13">
-        <v>-0.6858134375760797</v>
+        <v>-0.6756274364665751</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
       </c>
       <c r="F13">
-        <v>0.1812638460467207</v>
+        <v>-0.2424662817787195</v>
       </c>
       <c r="G13">
-        <v>-1.352060642377527</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1030007104252951</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01816874780429665</v>
+        <v>0.01824049369479946</v>
       </c>
       <c r="C14">
-        <v>-0.1766483163046837</v>
+        <v>-0.01474134366817135</v>
       </c>
       <c r="D14">
-        <v>-0.05653279138945783</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-0.007699100050581183</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.038039713602935</v>
+        <v>0.006137238759409532</v>
       </c>
       <c r="G14">
-        <v>-0.2471972945509874</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.03119729991686739</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.112030298135244</v>
+        <v>-0.1120318841141407</v>
       </c>
       <c r="C15">
-        <v>-0.1114546112089108</v>
+        <v>-0.03854632571779448</v>
       </c>
       <c r="D15">
-        <v>-0.05769068020734158</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>-0.04138394195598727</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.03360189943159964</v>
+        <v>-0.03598951155948549</v>
       </c>
       <c r="G15">
-        <v>-0.1539991230218497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>-0.02997131063427882</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>420</v>
+        <v>513</v>
       </c>
       <c r="C16">
         <v>737</v>
       </c>
       <c r="D16">
-        <v>868</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>2048</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>936</v>
+        <v>587</v>
       </c>
       <c r="G16">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>636</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0.6722309939491503</v>
+        <v>0.6413937902326782</v>
       </c>
       <c r="C17">
-        <v>1.541496473652254</v>
-      </c>
-      <c r="D17">
-        <v>1.124400521043868</v>
-      </c>
-      <c r="E17">
-        <v>-0.01201824440968287</v>
+        <v>-0.3449320318182317</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
       </c>
       <c r="F17">
-        <v>1.408504539945312</v>
+        <v>0.6510261798763134</v>
       </c>
       <c r="G17">
-        <v>1.509206472058557</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>2.144193851268474</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.09466342028059964</v>
+        <v>0.09461197171710613</v>
       </c>
       <c r="C18">
-        <v>0.3141859558641853</v>
+        <v>0.004572752026965078</v>
       </c>
       <c r="D18">
-        <v>0.1668679879787018</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01761270128512153</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1598629367486799</v>
+        <v>0.07609523739623783</v>
       </c>
       <c r="G18">
-        <v>0.4640634366829072</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>0.2302724303047824</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.08460743617896893</v>
+        <v>-0.163714060091224</v>
       </c>
       <c r="C19">
-        <v>-0.3991915530469137</v>
+        <v>-0.1097508890041886</v>
       </c>
       <c r="D19">
-        <v>-0.118856826144734</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>-0.1662192839104826</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>-0.05992068920490212</v>
+        <v>-0.1147151654428266</v>
       </c>
       <c r="G19">
-        <v>-0.3887687166468059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.1046741169021991</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="C20">
-        <v>631</v>
+        <v>1265</v>
       </c>
       <c r="D20">
-        <v>871</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1419</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>879</v>
+        <v>605</v>
       </c>
       <c r="G20">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>937</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>1.982927016900313</v>
+        <v>1.415005227739788</v>
       </c>
       <c r="C21">
-        <v>1.066591879817908</v>
-      </c>
-      <c r="D21">
-        <v>0.8977474460944737</v>
-      </c>
-      <c r="E21">
-        <v>1.469958092292065</v>
+        <v>0.6911351083684878</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
       </c>
       <c r="F21">
-        <v>1.494332239861178</v>
+        <v>1.286687649309716</v>
       </c>
       <c r="G21">
-        <v>0.4194037221902138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1.207139776651669</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.404407</v>
+        <v>0.317564</v>
       </c>
       <c r="C22">
-        <v>0.5367740000000001</v>
+        <v>0.1276759999999999</v>
       </c>
       <c r="D22">
-        <v>0.218073</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0.344276</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.225328</v>
+        <v>0.2789779999999999</v>
       </c>
       <c r="G22">
-        <v>0.1929529999999999</v>
+        <v>0.2267079999999999</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1068,38 +1143,44 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -1111,475 +1192,592 @@
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>100000000</v>
+      </c>
+      <c r="C7">
+        <v>100000000</v>
+      </c>
+      <c r="D7">
+        <v>100000000</v>
+      </c>
+      <c r="E7">
+        <v>100000000</v>
+      </c>
+      <c r="F7">
+        <v>100000000</v>
+      </c>
+      <c r="G7">
+        <v>100000000</v>
+      </c>
+      <c r="H7">
+        <v>100000000</v>
+      </c>
+      <c r="I7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>0.056</v>
+      </c>
+      <c r="C8">
+        <v>0.056</v>
+      </c>
+      <c r="D8">
+        <v>0.001</v>
+      </c>
+      <c r="E8">
+        <v>-0.035</v>
+      </c>
+      <c r="F8">
+        <v>-0.035</v>
+      </c>
+      <c r="G8">
+        <v>0.044</v>
+      </c>
+      <c r="H8">
+        <v>0.068</v>
+      </c>
+      <c r="I8">
+        <v>-0.035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>0.217</v>
+      </c>
+      <c r="C9">
+        <v>0.217</v>
+      </c>
+      <c r="D9">
+        <v>0.168</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.195</v>
+      </c>
+      <c r="H9">
+        <v>0.201</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10">
+        <v>0.617</v>
+      </c>
+      <c r="C10">
+        <v>0.617</v>
+      </c>
+      <c r="D10">
+        <v>0.051</v>
+      </c>
+      <c r="G10">
+        <v>0.544</v>
+      </c>
+      <c r="H10">
+        <v>0.8129999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>0.184</v>
+      </c>
+      <c r="C11">
+        <v>0.184</v>
+      </c>
+      <c r="D11">
+        <v>-0.083</v>
+      </c>
+      <c r="E11">
+        <v>-0.233</v>
+      </c>
+      <c r="F11">
+        <v>-0.233</v>
+      </c>
+      <c r="G11">
+        <v>0.124</v>
+      </c>
+      <c r="H11">
+        <v>0.237</v>
+      </c>
+      <c r="I11">
+        <v>-0.233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>0.136</v>
+      </c>
+      <c r="C12">
+        <v>0.136</v>
+      </c>
+      <c r="D12">
+        <v>0.146</v>
+      </c>
+      <c r="E12">
+        <v>0.163</v>
+      </c>
+      <c r="F12">
+        <v>0.163</v>
+      </c>
+      <c r="G12">
+        <v>0.138</v>
+      </c>
+      <c r="H12">
+        <v>0.135</v>
+      </c>
+      <c r="I12">
+        <v>0.163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0.209</v>
+      </c>
+      <c r="C13">
+        <v>0.209</v>
+      </c>
+      <c r="D13">
+        <v>0.218</v>
+      </c>
+      <c r="E13">
+        <v>0.245</v>
+      </c>
+      <c r="F13">
+        <v>0.245</v>
+      </c>
+      <c r="G13">
+        <v>0.211</v>
+      </c>
+      <c r="H13">
+        <v>0.209</v>
+      </c>
+      <c r="I13">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14">
+        <v>0.028</v>
+      </c>
+      <c r="C14">
+        <v>0.028</v>
+      </c>
+      <c r="D14">
+        <v>0.002</v>
+      </c>
+      <c r="E14">
+        <v>-0.013</v>
+      </c>
+      <c r="F14">
+        <v>-0.013</v>
+      </c>
+      <c r="G14">
+        <v>0.022</v>
+      </c>
+      <c r="H14">
+        <v>0.034</v>
+      </c>
+      <c r="I14">
+        <v>-0.351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>0.099</v>
+      </c>
+      <c r="C15">
+        <v>0.099</v>
+      </c>
+      <c r="D15">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.09</v>
+      </c>
+      <c r="H15">
+        <v>0.089</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>0.164</v>
+      </c>
+      <c r="C16">
+        <v>0.164</v>
+      </c>
+      <c r="D16">
+        <v>0.189</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.138</v>
+      </c>
+      <c r="H16">
+        <v>0.161</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17">
+        <v>155010327.538</v>
+      </c>
+      <c r="C17">
+        <v>155010327.538</v>
+      </c>
+      <c r="D17">
+        <v>118499047.236</v>
+      </c>
+      <c r="E17">
+        <v>100000000</v>
+      </c>
+      <c r="F17">
+        <v>100000000</v>
+      </c>
+      <c r="G17">
+        <v>146616858.492</v>
+      </c>
+      <c r="H17">
+        <v>164279982.473</v>
+      </c>
+      <c r="I17">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18">
+        <v>152943314.538</v>
+      </c>
+      <c r="C18">
+        <v>152943314.538</v>
+      </c>
+      <c r="D18">
+        <v>109384312.236</v>
+      </c>
+      <c r="E18">
+        <v>100000000</v>
+      </c>
+      <c r="F18">
+        <v>100000000</v>
+      </c>
+      <c r="G18">
+        <v>146616858.492</v>
+      </c>
+      <c r="H18">
+        <v>163794398.473</v>
+      </c>
+      <c r="I18">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19">
+        <v>0.55</v>
+      </c>
+      <c r="C19">
+        <v>0.55</v>
+      </c>
+      <c r="D19">
+        <v>0.185</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0.466</v>
+      </c>
+      <c r="H19">
+        <v>0.643</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>0.095</v>
+      </c>
+      <c r="C20">
+        <v>0.095</v>
+      </c>
+      <c r="D20">
+        <v>0.036</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0.082</v>
+      </c>
+      <c r="H20">
+        <v>0.108</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21">
+        <v>1.55</v>
+      </c>
+      <c r="C21">
+        <v>1.55</v>
+      </c>
+      <c r="D21">
+        <v>1.185</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.466</v>
+      </c>
+      <c r="H21">
+        <v>1.643</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22">
+        <v>100000000</v>
+      </c>
+      <c r="C22">
+        <v>100000000</v>
+      </c>
+      <c r="D22">
+        <v>100000000</v>
+      </c>
+      <c r="E22">
+        <v>100000000</v>
+      </c>
+      <c r="F22">
+        <v>100000000</v>
+      </c>
+      <c r="G22">
+        <v>100000000</v>
+      </c>
+      <c r="H22">
+        <v>100000000</v>
+      </c>
+      <c r="I22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>100000000</v>
-      </c>
-      <c r="C7">
-        <v>100000000</v>
-      </c>
-      <c r="D7">
-        <v>100000000</v>
-      </c>
-      <c r="E7">
-        <v>100000000</v>
-      </c>
-      <c r="F7">
-        <v>100000000</v>
-      </c>
-      <c r="G7">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="C8">
-        <v>0.139</v>
-      </c>
-      <c r="D8">
-        <v>0.026</v>
-      </c>
-      <c r="E8">
-        <v>0.068</v>
-      </c>
-      <c r="F8">
-        <v>0.056</v>
-      </c>
-      <c r="G8">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>0.196</v>
-      </c>
-      <c r="C9">
-        <v>0.652</v>
-      </c>
-      <c r="D9">
-        <v>0.184</v>
-      </c>
-      <c r="E9">
-        <v>0.181</v>
-      </c>
-      <c r="F9">
-        <v>0.162</v>
-      </c>
-      <c r="G9">
-        <v>0.628</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>0.779</v>
-      </c>
-      <c r="C10">
-        <v>0.726</v>
-      </c>
-      <c r="D10">
-        <v>0.283</v>
-      </c>
-      <c r="E10">
-        <v>0.748</v>
-      </c>
-      <c r="F10">
-        <v>0.727</v>
-      </c>
-      <c r="G10">
-        <v>0.298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11">
-        <v>0.237</v>
-      </c>
-      <c r="C11">
-        <v>0.803</v>
-      </c>
-      <c r="D11">
-        <v>0.033</v>
-      </c>
-      <c r="E11">
-        <v>0.225</v>
-      </c>
-      <c r="F11">
-        <v>0.169</v>
-      </c>
-      <c r="G11">
-        <v>0.236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12">
-        <v>0.137</v>
-      </c>
-      <c r="C12">
-        <v>0.109</v>
-      </c>
-      <c r="D12">
-        <v>0.147</v>
-      </c>
-      <c r="E12">
-        <v>0.145</v>
-      </c>
-      <c r="F12">
-        <v>0.14</v>
-      </c>
-      <c r="G12">
-        <v>0.121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13">
-        <v>0.213</v>
-      </c>
-      <c r="C13">
-        <v>0.164</v>
-      </c>
-      <c r="D13">
-        <v>0.222</v>
-      </c>
-      <c r="E13">
-        <v>0.218</v>
-      </c>
-      <c r="F13">
-        <v>0.218</v>
-      </c>
-      <c r="G13">
-        <v>0.174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14">
-        <v>0.368</v>
-      </c>
-      <c r="C14">
-        <v>1.202</v>
-      </c>
-      <c r="D14">
-        <v>0.049</v>
-      </c>
-      <c r="E14">
-        <v>0.338</v>
-      </c>
-      <c r="F14">
-        <v>0.262</v>
-      </c>
-      <c r="G14">
-        <v>0.341</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15">
-        <v>0.094</v>
-      </c>
-      <c r="C15">
-        <v>0.212</v>
-      </c>
-      <c r="D15">
-        <v>0.106</v>
-      </c>
-      <c r="E15">
-        <v>0.096</v>
-      </c>
-      <c r="F15">
-        <v>0.082</v>
-      </c>
-      <c r="G15">
-        <v>0.214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16">
-        <v>0.112</v>
-      </c>
-      <c r="C16">
-        <v>0.399</v>
-      </c>
-      <c r="D16">
-        <v>0.177</v>
-      </c>
-      <c r="E16">
-        <v>0.166</v>
-      </c>
-      <c r="F16">
-        <v>0.108</v>
-      </c>
-      <c r="G16">
-        <v>0.425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17">
-        <v>164550948.309</v>
-      </c>
-      <c r="C17">
-        <v>222861116.83</v>
-      </c>
-      <c r="D17">
-        <v>132826126.47</v>
-      </c>
-      <c r="E17">
-        <v>163301473.342</v>
-      </c>
-      <c r="F17">
-        <v>154859129.891</v>
-      </c>
-      <c r="G17">
-        <v>143847615.003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18">
-        <v>164197868.309</v>
-      </c>
-      <c r="C18">
-        <v>70791916.83</v>
-      </c>
-      <c r="D18">
-        <v>123254.47</v>
-      </c>
-      <c r="E18">
-        <v>7.342</v>
-      </c>
-      <c r="F18">
-        <v>154402189.891</v>
-      </c>
-      <c r="G18">
-        <v>16675999.803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19">
-        <v>0.646</v>
-      </c>
-      <c r="C19">
-        <v>1.229</v>
-      </c>
-      <c r="D19">
-        <v>0.328</v>
-      </c>
-      <c r="E19">
-        <v>0.633</v>
-      </c>
-      <c r="F19">
-        <v>0.549</v>
-      </c>
-      <c r="G19">
-        <v>0.438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20">
-        <v>0.109</v>
-      </c>
-      <c r="C20">
-        <v>0.181</v>
-      </c>
-      <c r="D20">
-        <v>0.061</v>
-      </c>
-      <c r="E20">
-        <v>0.107</v>
-      </c>
-      <c r="F20">
-        <v>0.095</v>
-      </c>
-      <c r="G20">
-        <v>0.078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21">
-        <v>1.646</v>
-      </c>
-      <c r="C21">
-        <v>2.229</v>
-      </c>
-      <c r="D21">
-        <v>1.328</v>
-      </c>
-      <c r="E21">
-        <v>1.633</v>
-      </c>
-      <c r="F21">
-        <v>1.549</v>
-      </c>
-      <c r="G21">
-        <v>1.438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22">
-        <v>100000000</v>
-      </c>
-      <c r="C22">
-        <v>100000000</v>
-      </c>
-      <c r="D22">
-        <v>100000000</v>
-      </c>
-      <c r="E22">
-        <v>100000000</v>
-      </c>
-      <c r="F22">
-        <v>100000000</v>
-      </c>
-      <c r="G22">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -1599,10 +1797,16 @@
       <c r="G23">
         <v>0.138</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0.138</v>
+      </c>
+      <c r="I23">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -1622,10 +1826,16 @@
       <c r="G24">
         <v>0.027</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0.027</v>
+      </c>
+      <c r="I24">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -1643,6 +1853,12 @@
         <v>300</v>
       </c>
       <c r="G25">
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25">
         <v>300</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,24 +15,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="63">
-  <si>
-    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']2020-05-10 00:50:09</t>
-  </si>
-  <si>
-    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20_shift_1#close#1&amp;HS&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*xxx+D_shift_1#30#0&amp;HS&amp;thre*xxx']2020-05-10 00:56:29</t>
-  </si>
-  <si>
-    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-10 01:02:09</t>
-  </si>
-  <si>
-    <t>['K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre']2020-05-10 01:16:34</t>
-  </si>
-  <si>
-    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre']2020-05-10 01:29:08</t>
-  </si>
-  <si>
-    <t>['SAR#3#0&amp;trend+ROC_14#-10#0&amp;thre+STOCHRSI_fastd_7#STOCHRSI_fastk_12#0&amp;diff+SIN#DIV#0&amp;diff&amp;HS+NATR_5#3#1&amp;trend+LINEARREG_ANGLE_40#2#0&amp;trend+NATR_14#3#0&amp;thre&amp;HS+ATR_60#1#1&amp;thre&amp;HS+ATR_14#0#0&amp;thre&amp;HS+close_TRIMA_30#42#0&amp;thre+CDLEVENINGDOJISTAR#0#0&amp;thre&amp;HS+close_MAMA#close_EMA_2#1&amp;diff&amp;HS+RSI_30#ROCR100_40#0&amp;cross+CEIL#3#0&amp;trend+OBV#4571203#1&amp;thre&amp;HS+CDLLONGLINE#3#0&amp;trend&amp;HS+CDLMATCHINGLOW#1#0&amp;thre&amp;HS+VAR_30#1#1&amp;thre+SINH#2#0&amp;trend+TSF_7#LINEARREG_14#0&amp;cross&amp;HS+CMO_12#33#0&amp;thre+LINEARREG_12#43#1&amp;thre+L_line_26#3#1&amp;trend+TRIX_26#3#1&amp;trend+CDLPIERCING#0#0&amp;thre+ROCP_26#0#0&amp;thre&amp;HS+L_line_60#28#0&amp;thre+close_TRIMA_40#close_KAMA_60#0&amp;cross+ROCR_14#1#0&amp;thre&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;diff+RSI_60#60#1&amp;thre&amp;HS+CDLHIKKAKEMOD#3#1&amp;trend&amp;HS+STDDEV_14#1#1&amp;trend&amp;HS+close_TEMA_30#close_TRIMA_40#0&amp;cross&amp;HS+CDLBREAKAWAY#2#0&amp;trend+TRANGE#ATR_26#0&amp;cross+L_line_30#AVGPRICE#1&amp;diff&amp;HS+CDLGAPSIDESIDEWHITE#2#0&amp;trend&amp;HS+TSF_5#32#1&amp;thre+TYPPRICE#1#1&amp;trend+ATAN#2#1&amp;trend&amp;HS+CDLDOJISTAR#1#0&amp;trend&amp;HS+RSI_14#65#0&amp;thre+MOM_40#3#0&amp;trend&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+close_KAMA_2#2#0&amp;trend&amp;HS+MAVP_40#42#1&amp;thre&amp;HS+CDLRISEFALL3METHODS#1#1&amp;trend&amp;HS+L_line_26#2#1&amp;trend&amp;HS+close_DEMA_14#close_TEMA_26#0&amp;cross+NATR_12#5#0&amp;thre&amp;HS+CMO_60#-24#1&amp;thre+COS#FLOOR#1&amp;cross+LINEARREG_26#3#1&amp;trend+STOCHRSI_fastk_5#25#1&amp;thre&amp;HS+MOM_14#1#1&amp;trend+CDLMATCHINGLOW#1#1&amp;trend+CMO_30#3#1&amp;trend&amp;HS+close_WMA_14#close_DEMA_26#0&amp;cross&amp;HS+LINEARREG_ANGLE_2#39#0&amp;thre+ROCR100_2#1#0&amp;trend+CDLRICKSHAWMAN#3#1&amp;trend+CMO_14#STOCHRSI_fastd_14#0&amp;cross+STOCHRSI_fastd_30#75#1&amp;thre&amp;HS+CEIL#26#1&amp;thre+ACOS#1#0&amp;trend&amp;HS+MOM_40#8#1&amp;thre&amp;HS+TRIX_2#3#1&amp;trend&amp;HS+RSI_5#ROCR100_7#1&amp;diff+close_EMA_7#close_MA_14#0&amp;diff+M_line_7#L_line_14#0&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff+close_KAMA_7#1#1&amp;trend&amp;HS+TRIX_30#0#0&amp;thre&amp;HS+CDLABANDONEDBABY#1#1&amp;trend+ROC_60#35#0&amp;thre+CDLLADDERBOTTOM#1#0&amp;trend+ROCR100_40#1#1&amp;trend&amp;HS+close_EMA_2#close_MA_7#0&amp;cross+VAR_60#3#1&amp;trend+close_MA_40#32#1&amp;thre+RSI_5#ROCR100_7#1&amp;cross+NATR_7#ATR_40#1&amp;cross&amp;HS+close_DEMA_12#close_TEMA_14#0&amp;cross&amp;HS+LINEARREG_SLOPE_14#3#1&amp;trend+CDLSHOOTINGSTAR#3#1&amp;trend+close_TEMA_60#MAVP_2#0&amp;cross&amp;HS+VAR_2#LINEARREG_ANGLE_7#0&amp;cross&amp;HS+CDLCONCEALBABYSWALL#0#0&amp;thre+STDDEV_12#VAR_14#1&amp;cross+TSF_2#25#1&amp;thre+TRIX_40#3#0&amp;trend&amp;HS+VAR_12#1#1&amp;trend+LINEARREG_26#LINEARREG_INTERCEPT_30#1&amp;cross+ATR_7#1#0&amp;trend&amp;HS+close_TRIMA_14#43#0&amp;thre&amp;HS+RSI_30#1#1&amp;trend+LINEARREG_14#1#0&amp;trend+quadrature#-8#0&amp;thre&amp;HS+close_TEMA_14#32#0&amp;thre&amp;HS+ATR_26#2#0&amp;thre&amp;HS+VAR_26#3#0&amp;trend&amp;HS+L_line_26#MAVP_60#1&amp;diff&amp;HS+CDLLONGLINE#2#0&amp;trend&amp;HS+TRIX_30#0#1&amp;thre&amp;HS+TRIX_12#0#1&amp;thre&amp;HS+TRIX_60#APO#0&amp;diff&amp;HS+ROCR100_14#1#1&amp;trend&amp;HS+NATR_30#STDDEV_2#1&amp;cross+close_TEMA_5#3#1&amp;trend&amp;HS+STOCHRSI_fastd_60#51#1&amp;thre+CDLLONGLINE#49#1&amp;thre&amp;HS+H_line_12#1#0&amp;trend&amp;HS+ROC_60#1#1&amp;trend+ROC_14#18#0&amp;thre&amp;HS+STOCHRSI_fastk_5#2#0&amp;trend+NATR_12#5#1&amp;thre&amp;HS+ROCR100_12#ROCR_14#1&amp;cross&amp;HS+H_line_7#1#1&amp;trend&amp;HS+VAR_60#1#0&amp;trend&amp;HS+close_TRIMA_60#2#1&amp;trend&amp;HS+CMO_2#STOCHRSI_fastd_2#1&amp;cross+MOM_40#CMO_60#0&amp;diff+CDLCLOSINGMARUBOZU#-2#1&amp;thre&amp;HS+close_MA_7#2#1&amp;trend&amp;HS+L_line_5#2#0&amp;trend+MACD#1#0&amp;thre&amp;HS+CDLMORNINGSTAR#1#0&amp;trend+L_line_2#2#1&amp;trend&amp;HS+STOCHRSI_fastk_26#TRIX_30#1&amp;diff+LINEARREG_SLOPE_12#TSF_14#0&amp;cross+RSI_12#1#0&amp;trend&amp;HS+close_WMA_5#3#1&amp;trend+ROCR100_2#2#1&amp;trend+LINEARREG_7#1#0&amp;trend+CDLGAPSIDESIDEWHITE#1#1&amp;trend+close_MA_60#32#1&amp;thre&amp;HS+STDDEV_26#2#0&amp;thre&amp;HS+MAVP_26#26#1&amp;thre&amp;HS+CDLKICKING#1#0&amp;trend+FLOOR#25#1&amp;thre&amp;HS+close_KAMA_30#1#1&amp;trend+LINEARREG_INTERCEPT_60#1#0&amp;trend&amp;HS+LINEARREG_INTERCEPT_26#3#0&amp;trend+LINEARREG_INTERCEPT_60#ACOS#0&amp;cross+ROCR100_30#99#0&amp;thre+close_DEMA_60#3#0&amp;trend+ROCR100_60#3#0&amp;trend&amp;HS+NATR_12#2#1&amp;trend+CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS+LINEARREG_30#1#0&amp;trend&amp;HS+close_WMA_7#26#1&amp;thre+CDLINVERTEDHAMMER#1#0&amp;thre&amp;HS+VAR_14#1#1&amp;thre+CDLABANDONEDBABY#0#1&amp;thre+M_line_2#L_line_7#0&amp;diff+MAVP_2#3#1&amp;trend+MACD#3#1&amp;trend+H_line_30#35#1&amp;thre&amp;HS+CEIL#47#1&amp;thre+ROCR_5#0#0&amp;thre&amp;HS+CDLSHOOTINGSTAR#2#1&amp;trend+PPO#3#0&amp;trend&amp;HS+ATR_7#NATR_30#0&amp;cross&amp;HS+close_KAMA_2#2#1&amp;trend&amp;HS+STDDEV_5#0#0&amp;thre+H_line_5#3#0&amp;trend&amp;HS+close_EMA_12#26#1&amp;thre&amp;HS+L_line_14#24#1&amp;thre&amp;HS+ROC_40#-16#1&amp;thre+close_DEMA_2#46#0&amp;thre+ADOSC#2#1&amp;trend&amp;HS+STDDEV_14#3#0&amp;trend&amp;HS+CMO_7#2#0&amp;trend&amp;HS+ROCR_40#ROCP_60#1&amp;cross+ROCR100_30#ROCR_40#1&amp;diff&amp;HS+STOCHRSI_fastd_5#50#1&amp;thre+ROCR100_5#89#1&amp;thre+close_KAMA_7#1#1&amp;trend+NATR_40#3#1&amp;thre&amp;HS+ATR_60#LINEARREG_5#1&amp;diff+close_SMA_40#2#1&amp;trend+STOCHRSI_fastk_7#TRIX_12#0&amp;diff+RSI_26#ROCR100_30#0&amp;cross&amp;HS+APO#1#1&amp;thre+CDLONNECK#3#0&amp;trend&amp;HS+CDLHIKKAKEMOD#2#0&amp;trend+TRANGE#1#0&amp;thre&amp;HS+close_WMA_5#32#1&amp;thre+COS#1#0&amp;trend&amp;HS+EXP#2#0&amp;trend&amp;HS+TAN#-296#0&amp;thre+CDLHANGINGMAN#0#1&amp;thre+close_EMA_14#26#1&amp;thre&amp;HS+inhpase#NATR_2#0&amp;cross&amp;HS+CDLKICKINGBYLENGTH#1#0&amp;trend+RSI_12#28#1&amp;thre+close_DEMA_14#32#1&amp;thre&amp;HS+close_EMA_26#32#1&amp;thre&amp;HS+LINEARREG_SLOPE_5#TSF_7#1&amp;diff', 'close_EMA_26#32#1&amp;thre&amp;HS']2020-05-11 15:30:51</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="82">
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']2020-05-11 17:24:07</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20_shift_1#close#1&amp;HS&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*xxx+D_shift_1#30#0&amp;HS&amp;thre*xxx']2020-05-11 17:30:18</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-11 17:39:57</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff']2020-05-11 17:49:46</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre']2020-05-11 18:00:22</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre', 'K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre']2020-05-11 18:11:49</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre']2020-05-11 18:22:19</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre']2020-05-11 18:36:46</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre']2020-05-11 18:49:21</t>
+  </si>
+  <si>
+    <t>['K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre', 'close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+xxx*open#close#1&amp;diff*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+xxx*open#close#1&amp;diff*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*open#close#1&amp;diff*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+xxx*open#close#1&amp;diff*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+xxx*open#close#1&amp;diff*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*open#close#1&amp;diff*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+xxx*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+xxx*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+xxx*K#10#0&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#10#0&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#10#0&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#10#0&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#10#0&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#10#0&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+xxx*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+xxx*K#90#1&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#90#1&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#90#1&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#90#1&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#90#1&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#90#1&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+xxx*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre']2020-05-11 18:57:21</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-11 19:00:01</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre', 'K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre']2020-05-11 19:14:41</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-11 19:25:56</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*xxx+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*xxx+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*xxx+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*xxx+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*xxx+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open#open_shift_1#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*OBV#0#0&amp;thre']2020-05-11 19:28:35</t>
+  </si>
+  <si>
+    <t>['SAR#3#0&amp;trend+ROC_14#-10#0&amp;thre+STOCHRSI_fastd_7#STOCHRSI_fastk_12#0&amp;diff+SIN#DIV#0&amp;diff&amp;HS+NATR_5#3#1&amp;trend+LINEARREG_ANGLE_40#2#0&amp;trend+NATR_14#3#0&amp;thre&amp;HS+ATR_60#1#1&amp;thre&amp;HS+ATR_14#0#0&amp;thre&amp;HS+close_TRIMA_30#42#0&amp;thre+CDLEVENINGDOJISTAR#0#0&amp;thre&amp;HS+close_MAMA#close_EMA_2#1&amp;diff&amp;HS+RSI_30#ROCR100_40#0&amp;cross+CEIL#3#0&amp;trend+OBV#4571203#1&amp;thre&amp;HS+CDLLONGLINE#3#0&amp;trend&amp;HS+CDLMATCHINGLOW#1#0&amp;thre&amp;HS+VAR_30#1#1&amp;thre+SINH#2#0&amp;trend+TSF_7#LINEARREG_14#0&amp;cross&amp;HS+CMO_12#33#0&amp;thre+LINEARREG_12#43#1&amp;thre+L_line_26#3#1&amp;trend+TRIX_26#3#1&amp;trend+CDLPIERCING#0#0&amp;thre+ROCP_26#0#0&amp;thre&amp;HS+L_line_60#28#0&amp;thre+close_TRIMA_40#close_KAMA_60#0&amp;cross+ROCR_14#1#0&amp;thre&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;diff+RSI_60#60#1&amp;thre&amp;HS+CDLHIKKAKEMOD#3#1&amp;trend&amp;HS+STDDEV_14#1#1&amp;trend&amp;HS+close_TEMA_30#close_TRIMA_40#0&amp;cross&amp;HS+CDLBREAKAWAY#2#0&amp;trend+TRANGE#ATR_26#0&amp;cross+L_line_30#AVGPRICE#1&amp;diff&amp;HS+CDLGAPSIDESIDEWHITE#2#0&amp;trend&amp;HS+TSF_5#32#1&amp;thre+TYPPRICE#1#1&amp;trend+ATAN#2#1&amp;trend&amp;HS+CDLDOJISTAR#1#0&amp;trend&amp;HS+RSI_14#65#0&amp;thre+MOM_40#3#0&amp;trend&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+close_KAMA_2#2#0&amp;trend&amp;HS+MAVP_40#42#1&amp;thre&amp;HS+CDLRISEFALL3METHODS#1#1&amp;trend&amp;HS+L_line_26#2#1&amp;trend&amp;HS+close_DEMA_14#close_TEMA_26#0&amp;cross+NATR_12#5#0&amp;thre&amp;HS+CMO_60#-24#1&amp;thre+COS#FLOOR#1&amp;cross+LINEARREG_26#3#1&amp;trend+STOCHRSI_fastk_5#25#1&amp;thre&amp;HS+MOM_14#1#1&amp;trend+CDLMATCHINGLOW#1#1&amp;trend+CMO_30#3#1&amp;trend&amp;HS+close_WMA_14#close_DEMA_26#0&amp;cross&amp;HS+LINEARREG_ANGLE_2#39#0&amp;thre+ROCR100_2#1#0&amp;trend+CDLRICKSHAWMAN#3#1&amp;trend+CMO_14#STOCHRSI_fastd_14#0&amp;cross+STOCHRSI_fastd_30#75#1&amp;thre&amp;HS+CEIL#26#1&amp;thre+ACOS#1#0&amp;trend&amp;HS+MOM_40#8#1&amp;thre&amp;HS+TRIX_2#3#1&amp;trend&amp;HS+RSI_5#ROCR100_7#1&amp;diff+close_EMA_7#close_MA_14#0&amp;diff+M_line_7#L_line_14#0&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff+close_KAMA_7#1#1&amp;trend&amp;HS+TRIX_30#0#0&amp;thre&amp;HS+CDLABANDONEDBABY#1#1&amp;trend+ROC_60#35#0&amp;thre+CDLLADDERBOTTOM#1#0&amp;trend+ROCR100_40#1#1&amp;trend&amp;HS+close_EMA_2#close_MA_7#0&amp;cross+VAR_60#3#1&amp;trend+close_MA_40#32#1&amp;thre+RSI_5#ROCR100_7#1&amp;cross+NATR_7#ATR_40#1&amp;cross&amp;HS+close_DEMA_12#close_TEMA_14#0&amp;cross&amp;HS+LINEARREG_SLOPE_14#3#1&amp;trend+CDLSHOOTINGSTAR#3#1&amp;trend+close_TEMA_60#MAVP_2#0&amp;cross&amp;HS+VAR_2#LINEARREG_ANGLE_7#0&amp;cross&amp;HS+CDLCONCEALBABYSWALL#0#0&amp;thre+STDDEV_12#VAR_14#1&amp;cross+TSF_2#25#1&amp;thre+TRIX_40#3#0&amp;trend&amp;HS+VAR_12#1#1&amp;trend+LINEARREG_26#LINEARREG_INTERCEPT_30#1&amp;cross+ATR_7#1#0&amp;trend&amp;HS+close_TRIMA_14#43#0&amp;thre&amp;HS+RSI_30#1#1&amp;trend+LINEARREG_14#1#0&amp;trend+quadrature#-8#0&amp;thre&amp;HS+close_TEMA_14#32#0&amp;thre&amp;HS+ATR_26#2#0&amp;thre&amp;HS+VAR_26#3#0&amp;trend&amp;HS+L_line_26#MAVP_60#1&amp;diff&amp;HS+CDLLONGLINE#2#0&amp;trend&amp;HS+TRIX_30#0#1&amp;thre&amp;HS+TRIX_12#0#1&amp;thre&amp;HS+TRIX_60#APO#0&amp;diff&amp;HS+ROCR100_14#1#1&amp;trend&amp;HS+NATR_30#STDDEV_2#1&amp;cross+close_TEMA_5#3#1&amp;trend&amp;HS+STOCHRSI_fastd_60#51#1&amp;thre+CDLLONGLINE#49#1&amp;thre&amp;HS+H_line_12#1#0&amp;trend&amp;HS+ROC_60#1#1&amp;trend+ROC_14#18#0&amp;thre&amp;HS+STOCHRSI_fastk_5#2#0&amp;trend+NATR_12#5#1&amp;thre&amp;HS+ROCR100_12#ROCR_14#1&amp;cross&amp;HS+H_line_7#1#1&amp;trend&amp;HS+VAR_60#1#0&amp;trend&amp;HS+close_TRIMA_60#2#1&amp;trend&amp;HS+CMO_2#STOCHRSI_fastd_2#1&amp;cross+MOM_40#CMO_60#0&amp;diff+CDLCLOSINGMARUBOZU#-2#1&amp;thre&amp;HS+close_MA_7#2#1&amp;trend&amp;HS+L_line_5#2#0&amp;trend+MACD#1#0&amp;thre&amp;HS+CDLMORNINGSTAR#1#0&amp;trend+L_line_2#2#1&amp;trend&amp;HS+STOCHRSI_fastk_26#TRIX_30#1&amp;diff+LINEARREG_SLOPE_12#TSF_14#0&amp;cross+RSI_12#1#0&amp;trend&amp;HS+close_WMA_5#3#1&amp;trend+ROCR100_2#2#1&amp;trend+LINEARREG_7#1#0&amp;trend+CDLGAPSIDESIDEWHITE#1#1&amp;trend+close_MA_60#32#1&amp;thre&amp;HS+STDDEV_26#2#0&amp;thre&amp;HS+MAVP_26#26#1&amp;thre&amp;HS+CDLKICKING#1#0&amp;trend+FLOOR#25#1&amp;thre&amp;HS+close_KAMA_30#1#1&amp;trend+LINEARREG_INTERCEPT_60#1#0&amp;trend&amp;HS+LINEARREG_INTERCEPT_26#3#0&amp;trend+LINEARREG_INTERCEPT_60#ACOS#0&amp;cross+ROCR100_30#99#0&amp;thre+close_DEMA_60#3#0&amp;trend+ROCR100_60#3#0&amp;trend&amp;HS+NATR_12#2#1&amp;trend+CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS+LINEARREG_30#1#0&amp;trend&amp;HS+close_WMA_7#26#1&amp;thre+CDLINVERTEDHAMMER#1#0&amp;thre&amp;HS+VAR_14#1#1&amp;thre+CDLABANDONEDBABY#0#1&amp;thre+M_line_2#L_line_7#0&amp;diff+MAVP_2#3#1&amp;trend+MACD#3#1&amp;trend+H_line_30#35#1&amp;thre&amp;HS+CEIL#47#1&amp;thre+ROCR_5#0#0&amp;thre&amp;HS+CDLSHOOTINGSTAR#2#1&amp;trend+PPO#3#0&amp;trend&amp;HS+ATR_7#NATR_30#0&amp;cross&amp;HS+close_KAMA_2#2#1&amp;trend&amp;HS+STDDEV_5#0#0&amp;thre+H_line_5#3#0&amp;trend&amp;HS+close_EMA_12#26#1&amp;thre&amp;HS+L_line_14#24#1&amp;thre&amp;HS+ROC_40#-16#1&amp;thre+close_DEMA_2#46#0&amp;thre+ADOSC#2#1&amp;trend&amp;HS+STDDEV_14#3#0&amp;trend&amp;HS+CMO_7#2#0&amp;trend&amp;HS+ROCR_40#ROCP_60#1&amp;cross+ROCR100_30#ROCR_40#1&amp;diff&amp;HS+STOCHRSI_fastd_5#50#1&amp;thre+ROCR100_5#89#1&amp;thre+close_KAMA_7#1#1&amp;trend+NATR_40#3#1&amp;thre&amp;HS+ATR_60#LINEARREG_5#1&amp;diff+close_SMA_40#2#1&amp;trend+STOCHRSI_fastk_7#TRIX_12#0&amp;diff+RSI_26#ROCR100_30#0&amp;cross&amp;HS+APO#1#1&amp;thre+CDLONNECK#3#0&amp;trend&amp;HS+CDLHIKKAKEMOD#2#0&amp;trend+TRANGE#1#0&amp;thre&amp;HS+close_WMA_5#32#1&amp;thre+COS#1#0&amp;trend&amp;HS+EXP#2#0&amp;trend&amp;HS+TAN#-296#0&amp;thre+CDLHANGINGMAN#0#1&amp;thre+close_EMA_14#26#1&amp;thre&amp;HS+inhpase#NATR_2#0&amp;cross&amp;HS+CDLKICKINGBYLENGTH#1#0&amp;trend+RSI_12#28#1&amp;thre+close_DEMA_14#32#1&amp;thre&amp;HS+close_EMA_26#32#1&amp;thre&amp;HS+LINEARREG_SLOPE_5#TSF_7#1&amp;diff', 'close_EMA_26#32#1&amp;thre&amp;HS']2020-05-12 00:09:03</t>
+  </si>
+  <si>
+    <t>['SAR#3#0&amp;trend+ROC_14#-10#0&amp;thre+STOCHRSI_fastd_7#STOCHRSI_fastk_12#0&amp;diff+SIN#DIV#0&amp;diff&amp;HS+NATR_5#3#1&amp;trend+LINEARREG_ANGLE_40#2#0&amp;trend+NATR_14#3#0&amp;thre&amp;HS+ATR_60#1#1&amp;thre&amp;HS+ATR_14#0#0&amp;thre&amp;HS+close_TRIMA_30#42#0&amp;thre+CDLEVENINGDOJISTAR#0#0&amp;thre&amp;HS+close_MAMA#close_EMA_2#1&amp;diff&amp;HS+RSI_30#ROCR100_40#0&amp;cross+CEIL#3#0&amp;trend+OBV#4571203#1&amp;thre&amp;HS+CDLLONGLINE#3#0&amp;trend&amp;HS+CDLMATCHINGLOW#1#0&amp;thre&amp;HS+VAR_30#1#1&amp;thre+SINH#2#0&amp;trend+TSF_7#LINEARREG_14#0&amp;cross&amp;HS+CMO_12#33#0&amp;thre+LINEARREG_12#43#1&amp;thre+L_line_26#3#1&amp;trend+TRIX_26#3#1&amp;trend+CDLPIERCING#0#0&amp;thre+ROCP_26#0#0&amp;thre&amp;HS+L_line_60#28#0&amp;thre+close_TRIMA_40#close_KAMA_60#0&amp;cross+ROCR_14#1#0&amp;thre&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;diff+RSI_60#60#1&amp;thre&amp;HS+CDLHIKKAKEMOD#3#1&amp;trend&amp;HS+STDDEV_14#1#1&amp;trend&amp;HS+close_TEMA_30#close_TRIMA_40#0&amp;cross&amp;HS+CDLBREAKAWAY#2#0&amp;trend+TRANGE#ATR_26#0&amp;cross+L_line_30#AVGPRICE#1&amp;diff&amp;HS+CDLGAPSIDESIDEWHITE#2#0&amp;trend&amp;HS+TSF_5#32#1&amp;thre+TYPPRICE#1#1&amp;trend+ATAN#2#1&amp;trend&amp;HS+CDLDOJISTAR#1#0&amp;trend&amp;HS+RSI_14#65#0&amp;thre+MOM_40#3#0&amp;trend&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+close_KAMA_2#2#0&amp;trend&amp;HS+MAVP_40#42#1&amp;thre&amp;HS+CDLRISEFALL3METHODS#1#1&amp;trend&amp;HS+L_line_26#2#1&amp;trend&amp;HS+close_DEMA_14#close_TEMA_26#0&amp;cross+NATR_12#5#0&amp;thre&amp;HS+CMO_60#-24#1&amp;thre+COS#FLOOR#1&amp;cross+LINEARREG_26#3#1&amp;trend+STOCHRSI_fastk_5#25#1&amp;thre&amp;HS+MOM_14#1#1&amp;trend+CDLMATCHINGLOW#1#1&amp;trend+CMO_30#3#1&amp;trend&amp;HS+close_WMA_14#close_DEMA_26#0&amp;cross&amp;HS+LINEARREG_ANGLE_2#39#0&amp;thre+ROCR100_2#1#0&amp;trend+CDLRICKSHAWMAN#3#1&amp;trend+CMO_14#STOCHRSI_fastd_14#0&amp;cross+STOCHRSI_fastd_30#75#1&amp;thre&amp;HS+CEIL#26#1&amp;thre+ACOS#1#0&amp;trend&amp;HS+MOM_40#8#1&amp;thre&amp;HS+TRIX_2#3#1&amp;trend&amp;HS+RSI_5#ROCR100_7#1&amp;diff+close_EMA_7#close_MA_14#0&amp;diff+M_line_7#L_line_14#0&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff+close_KAMA_7#1#1&amp;trend&amp;HS+TRIX_30#0#0&amp;thre&amp;HS+CDLABANDONEDBABY#1#1&amp;trend+ROC_60#35#0&amp;thre+CDLLADDERBOTTOM#1#0&amp;trend+ROCR100_40#1#1&amp;trend&amp;HS+close_EMA_2#close_MA_7#0&amp;cross+VAR_60#3#1&amp;trend+close_MA_40#32#1&amp;thre+RSI_5#ROCR100_7#1&amp;cross+NATR_7#ATR_40#1&amp;cross&amp;HS+close_DEMA_12#close_TEMA_14#0&amp;cross&amp;HS+LINEARREG_SLOPE_14#3#1&amp;trend+CDLSHOOTINGSTAR#3#1&amp;trend+close_TEMA_60#MAVP_2#0&amp;cross&amp;HS+VAR_2#LINEARREG_ANGLE_7#0&amp;cross&amp;HS+CDLCONCEALBABYSWALL#0#0&amp;thre+STDDEV_12#VAR_14#1&amp;cross+TSF_2#25#1&amp;thre+TRIX_40#3#0&amp;trend&amp;HS+VAR_12#1#1&amp;trend+LINEARREG_26#LINEARREG_INTERCEPT_30#1&amp;cross+ATR_7#1#0&amp;trend&amp;HS+close_TRIMA_14#43#0&amp;thre&amp;HS+RSI_30#1#1&amp;trend+LINEARREG_14#1#0&amp;trend+quadrature#-8#0&amp;thre&amp;HS+close_TEMA_14#32#0&amp;thre&amp;HS+ATR_26#2#0&amp;thre&amp;HS+VAR_26#3#0&amp;trend&amp;HS+L_line_26#MAVP_60#1&amp;diff&amp;HS+CDLLONGLINE#2#0&amp;trend&amp;HS+TRIX_30#0#1&amp;thre&amp;HS+TRIX_12#0#1&amp;thre&amp;HS+TRIX_60#APO#0&amp;diff&amp;HS+ROCR100_14#1#1&amp;trend&amp;HS+NATR_30#STDDEV_2#1&amp;cross+close_TEMA_5#3#1&amp;trend&amp;HS+STOCHRSI_fastd_60#51#1&amp;thre+CDLLONGLINE#49#1&amp;thre&amp;HS+H_line_12#1#0&amp;trend&amp;HS+ROC_60#1#1&amp;trend+ROC_14#18#0&amp;thre&amp;HS+STOCHRSI_fastk_5#2#0&amp;trend+NATR_12#5#1&amp;thre&amp;HS+ROCR100_12#ROCR_14#1&amp;cross&amp;HS+H_line_7#1#1&amp;trend&amp;HS+VAR_60#1#0&amp;trend&amp;HS+close_TRIMA_60#2#1&amp;trend&amp;HS+CMO_2#STOCHRSI_fastd_2#1&amp;cross+MOM_40#CMO_60#0&amp;diff+CDLCLOSINGMARUBOZU#-2#1&amp;thre&amp;HS+close_MA_7#2#1&amp;trend&amp;HS+L_line_5#2#0&amp;trend+MACD#1#0&amp;thre&amp;HS+CDLMORNINGSTAR#1#0&amp;trend+L_line_2#2#1&amp;trend&amp;HS+STOCHRSI_fastk_26#TRIX_30#1&amp;diff+LINEARREG_SLOPE_12#TSF_14#0&amp;cross+RSI_12#1#0&amp;trend&amp;HS+close_WMA_5#3#1&amp;trend+ROCR100_2#2#1&amp;trend+LINEARREG_7#1#0&amp;trend+CDLGAPSIDESIDEWHITE#1#1&amp;trend+close_MA_60#32#1&amp;thre&amp;HS+STDDEV_26#2#0&amp;thre&amp;HS+MAVP_26#26#1&amp;thre&amp;HS+CDLKICKING#1#0&amp;trend+FLOOR#25#1&amp;thre&amp;HS+close_KAMA_30#1#1&amp;trend+LINEARREG_INTERCEPT_60#1#0&amp;trend&amp;HS+LINEARREG_INTERCEPT_26#3#0&amp;trend+LINEARREG_INTERCEPT_60#ACOS#0&amp;cross+ROCR100_30#99#0&amp;thre+close_DEMA_60#3#0&amp;trend+ROCR100_60#3#0&amp;trend&amp;HS+NATR_12#2#1&amp;trend+CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS+LINEARREG_30#1#0&amp;trend&amp;HS+close_WMA_7#26#1&amp;thre+CDLINVERTEDHAMMER#1#0&amp;thre&amp;HS+VAR_14#1#1&amp;thre+CDLABANDONEDBABY#0#1&amp;thre+M_line_2#L_line_7#0&amp;diff+MAVP_2#3#1&amp;trend+MACD#3#1&amp;trend+H_line_30#35#1&amp;thre&amp;HS+CEIL#47#1&amp;thre+ROCR_5#0#0&amp;thre&amp;HS+CDLSHOOTINGSTAR#2#1&amp;trend+PPO#3#0&amp;trend&amp;HS+ATR_7#NATR_30#0&amp;cross&amp;HS+close_KAMA_2#2#1&amp;trend&amp;HS+STDDEV_5#0#0&amp;thre+H_line_5#3#0&amp;trend&amp;HS+close_EMA_12#26#1&amp;thre&amp;HS+L_line_14#24#1&amp;thre&amp;HS+ROC_40#-16#1&amp;thre+close_DEMA_2#46#0&amp;thre+ADOSC#2#1&amp;trend&amp;HS+STDDEV_14#3#0&amp;trend&amp;HS+CMO_7#2#0&amp;trend&amp;HS+ROCR_40#ROCP_60#1&amp;cross+ROCR100_30#ROCR_40#1&amp;diff&amp;HS+STOCHRSI_fastd_5#50#1&amp;thre+ROCR100_5#89#1&amp;thre+close_KAMA_7#1#1&amp;trend+NATR_40#3#1&amp;thre&amp;HS+ATR_60#LINEARREG_5#1&amp;diff+close_SMA_40#2#1&amp;trend+STOCHRSI_fastk_7#TRIX_12#0&amp;diff+RSI_26#ROCR100_30#0&amp;cross&amp;HS+APO#1#1&amp;thre+CDLONNECK#3#0&amp;trend&amp;HS+CDLHIKKAKEMOD#2#0&amp;trend+TRANGE#1#0&amp;thre&amp;HS+close_WMA_5#32#1&amp;thre+COS#1#0&amp;trend&amp;HS+EXP#2#0&amp;trend&amp;HS+TAN#-296#0&amp;thre+CDLHANGINGMAN#0#1&amp;thre+close_EMA_14#26#1&amp;thre&amp;HS+inhpase#NATR_2#0&amp;cross&amp;HS+CDLKICKINGBYLENGTH#1#0&amp;trend+RSI_12#28#1&amp;thre+close_DEMA_14#32#1&amp;thre&amp;HS+close_EMA_26#32#1&amp;thre&amp;HS+LINEARREG_SLOPE_5#TSF_7#1&amp;diff', 'close_EMA_26#32#1&amp;thre&amp;HS']2020-05-12 06:41:11</t>
   </si>
   <si>
     <t>strategy_name</t>
@@ -113,16 +143,43 @@
     <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']</t>
   </si>
   <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre', 'K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre']</t>
+  </si>
+  <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre']</t>
   </si>
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre']</t>
   </si>
   <si>
+    <t>['K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre', 'close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+xxx*open#close#1&amp;diff*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+xxx*open#close#1&amp;diff*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*open#close#1&amp;diff*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+xxx*open#close#1&amp;diff*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+xxx*open#close#1&amp;diff*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*open#close#1&amp;diff*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+xxx*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+xxx*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+xxx*K#10#0&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#10#0&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#10#0&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#10#0&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#10#0&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#10#0&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+xxx*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+xxx*K#90#1&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#90#1&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#90#1&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#90#1&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#90#1&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#90#1&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+xxx*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre', 'K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*xxx+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*xxx+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*xxx+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*xxx+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*xxx+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open#open_shift_1#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*OBV#0#0&amp;thre']</t>
+  </si>
+  <si>
     <t>['SAR#3#0&amp;trend+ROC_14#-10#0&amp;thre+STOCHRSI_fastd_7#STOCHRSI_fastk_12#0&amp;diff+SIN#DIV#0&amp;diff&amp;HS+NATR_5#3#1&amp;trend+LINEARREG_ANGLE_40#2#0&amp;trend+NATR_14#3#0&amp;thre&amp;HS+ATR_60#1#1&amp;thre&amp;HS+ATR_14#0#0&amp;thre&amp;HS+close_TRIMA_30#42#0&amp;thre+CDLEVENINGDOJISTAR#0#0&amp;thre&amp;HS+close_MAMA#close_EMA_2#1&amp;diff&amp;HS+RSI_30#ROCR100_40#0&amp;cross+CEIL#3#0&amp;trend+OBV#4571203#1&amp;thre&amp;HS+CDLLONGLINE#3#0&amp;trend&amp;HS+CDLMATCHINGLOW#1#0&amp;thre&amp;HS+VAR_30#1#1&amp;thre+SINH#2#0&amp;trend+TSF_7#LINEARREG_14#0&amp;cross&amp;HS+CMO_12#33#0&amp;thre+LINEARREG_12#43#1&amp;thre+L_line_26#3#1&amp;trend+TRIX_26#3#1&amp;trend+CDLPIERCING#0#0&amp;thre+ROCP_26#0#0&amp;thre&amp;HS+L_line_60#28#0&amp;thre+close_TRIMA_40#close_KAMA_60#0&amp;cross+ROCR_14#1#0&amp;thre&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;diff+RSI_60#60#1&amp;thre&amp;HS+CDLHIKKAKEMOD#3#1&amp;trend&amp;HS+STDDEV_14#1#1&amp;trend&amp;HS+close_TEMA_30#close_TRIMA_40#0&amp;cross&amp;HS+CDLBREAKAWAY#2#0&amp;trend+TRANGE#ATR_26#0&amp;cross+L_line_30#AVGPRICE#1&amp;diff&amp;HS+CDLGAPSIDESIDEWHITE#2#0&amp;trend&amp;HS+TSF_5#32#1&amp;thre+TYPPRICE#1#1&amp;trend+ATAN#2#1&amp;trend&amp;HS+CDLDOJISTAR#1#0&amp;trend&amp;HS+RSI_14#65#0&amp;thre+MOM_40#3#0&amp;trend&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+close_KAMA_2#2#0&amp;trend&amp;HS+MAVP_40#42#1&amp;thre&amp;HS+CDLRISEFALL3METHODS#1#1&amp;trend&amp;HS+L_line_26#2#1&amp;trend&amp;HS+close_DEMA_14#close_TEMA_26#0&amp;cross+NATR_12#5#0&amp;thre&amp;HS+CMO_60#-24#1&amp;thre+COS#FLOOR#1&amp;cross+LINEARREG_26#3#1&amp;trend+STOCHRSI_fastk_5#25#1&amp;thre&amp;HS+MOM_14#1#1&amp;trend+CDLMATCHINGLOW#1#1&amp;trend+CMO_30#3#1&amp;trend&amp;HS+close_WMA_14#close_DEMA_26#0&amp;cross&amp;HS+LINEARREG_ANGLE_2#39#0&amp;thre+ROCR100_2#1#0&amp;trend+CDLRICKSHAWMAN#3#1&amp;trend+CMO_14#STOCHRSI_fastd_14#0&amp;cross+STOCHRSI_fastd_30#75#1&amp;thre&amp;HS+CEIL#26#1&amp;thre+ACOS#1#0&amp;trend&amp;HS+MOM_40#8#1&amp;thre&amp;HS+TRIX_2#3#1&amp;trend&amp;HS+RSI_5#ROCR100_7#1&amp;diff+close_EMA_7#close_MA_14#0&amp;diff+M_line_7#L_line_14#0&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff+close_KAMA_7#1#1&amp;trend&amp;HS+TRIX_30#0#0&amp;thre&amp;HS+CDLABANDONEDBABY#1#1&amp;trend+ROC_60#35#0&amp;thre+CDLLADDERBOTTOM#1#0&amp;trend+ROCR100_40#1#1&amp;trend&amp;HS+close_EMA_2#close_MA_7#0&amp;cross+VAR_60#3#1&amp;trend+close_MA_40#32#1&amp;thre+RSI_5#ROCR100_7#1&amp;cross+NATR_7#ATR_40#1&amp;cross&amp;HS+close_DEMA_12#close_TEMA_14#0&amp;cross&amp;HS+LINEARREG_SLOPE_14#3#1&amp;trend+CDLSHOOTINGSTAR#3#1&amp;trend+close_TEMA_60#MAVP_2#0&amp;cross&amp;HS+VAR_2#LINEARREG_ANGLE_7#0&amp;cross&amp;HS+CDLCONCEALBABYSWALL#0#0&amp;thre+STDDEV_12#VAR_14#1&amp;cross+TSF_2#25#1&amp;thre+TRIX_40#3#0&amp;trend&amp;HS+VAR_12#1#1&amp;trend+LINEARREG_26#LINEARREG_INTERCEPT_30#1&amp;cross+ATR_7#1#0&amp;trend&amp;HS+close_TRIMA_14#43#0&amp;thre&amp;HS+RSI_30#1#1&amp;trend+LINEARREG_14#1#0&amp;trend+quadrature#-8#0&amp;thre&amp;HS+close_TEMA_14#32#0&amp;thre&amp;HS+ATR_26#2#0&amp;thre&amp;HS+VAR_26#3#0&amp;trend&amp;HS+L_line_26#MAVP_60#1&amp;diff&amp;HS+CDLLONGLINE#2#0&amp;trend&amp;HS+TRIX_30#0#1&amp;thre&amp;HS+TRIX_12#0#1&amp;thre&amp;HS+TRIX_60#APO#0&amp;diff&amp;HS+ROCR100_14#1#1&amp;trend&amp;HS+NATR_30#STDDEV_2#1&amp;cross+close_TEMA_5#3#1&amp;trend&amp;HS+STOCHRSI_fastd_60#51#1&amp;thre+CDLLONGLINE#49#1&amp;thre&amp;HS+H_line_12#1#0&amp;trend&amp;HS+ROC_60#1#1&amp;trend+ROC_14#18#0&amp;thre&amp;HS+STOCHRSI_fastk_5#2#0&amp;trend+NATR_12#5#1&amp;thre&amp;HS+ROCR100_12#ROCR_14#1&amp;cross&amp;HS+H_line_7#1#1&amp;trend&amp;HS+VAR_60#1#0&amp;trend&amp;HS+close_TRIMA_60#2#1&amp;trend&amp;HS+CMO_2#STOCHRSI_fastd_2#1&amp;cross+MOM_40#CMO_60#0&amp;diff+CDLCLOSINGMARUBOZU#-2#1&amp;thre&amp;HS+close_MA_7#2#1&amp;trend&amp;HS+L_line_5#2#0&amp;trend+MACD#1#0&amp;thre&amp;HS+CDLMORNINGSTAR#1#0&amp;trend+L_line_2#2#1&amp;trend&amp;HS+STOCHRSI_fastk_26#TRIX_30#1&amp;diff+LINEARREG_SLOPE_12#TSF_14#0&amp;cross+RSI_12#1#0&amp;trend&amp;HS+close_WMA_5#3#1&amp;trend+ROCR100_2#2#1&amp;trend+LINEARREG_7#1#0&amp;trend+CDLGAPSIDESIDEWHITE#1#1&amp;trend+close_MA_60#32#1&amp;thre&amp;HS+STDDEV_26#2#0&amp;thre&amp;HS+MAVP_26#26#1&amp;thre&amp;HS+CDLKICKING#1#0&amp;trend+FLOOR#25#1&amp;thre&amp;HS+close_KAMA_30#1#1&amp;trend+LINEARREG_INTERCEPT_60#1#0&amp;trend&amp;HS+LINEARREG_INTERCEPT_26#3#0&amp;trend+LINEARREG_INTERCEPT_60#ACOS#0&amp;cross+ROCR100_30#99#0&amp;thre+close_DEMA_60#3#0&amp;trend+ROCR100_60#3#0&amp;trend&amp;HS+NATR_12#2#1&amp;trend+CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS+LINEARREG_30#1#0&amp;trend&amp;HS+close_WMA_7#26#1&amp;thre+CDLINVERTEDHAMMER#1#0&amp;thre&amp;HS+VAR_14#1#1&amp;thre+CDLABANDONEDBABY#0#1&amp;thre+M_line_2#L_line_7#0&amp;diff+MAVP_2#3#1&amp;trend+MACD#3#1&amp;trend+H_line_30#35#1&amp;thre&amp;HS+CEIL#47#1&amp;thre+ROCR_5#0#0&amp;thre&amp;HS+CDLSHOOTINGSTAR#2#1&amp;trend+PPO#3#0&amp;trend&amp;HS+ATR_7#NATR_30#0&amp;cross&amp;HS+close_KAMA_2#2#1&amp;trend&amp;HS+STDDEV_5#0#0&amp;thre+H_line_5#3#0&amp;trend&amp;HS+close_EMA_12#26#1&amp;thre&amp;HS+L_line_14#24#1&amp;thre&amp;HS+ROC_40#-16#1&amp;thre+close_DEMA_2#46#0&amp;thre+ADOSC#2#1&amp;trend&amp;HS+STDDEV_14#3#0&amp;trend&amp;HS+CMO_7#2#0&amp;trend&amp;HS+ROCR_40#ROCP_60#1&amp;cross+ROCR100_30#ROCR_40#1&amp;diff&amp;HS+STOCHRSI_fastd_5#50#1&amp;thre+ROCR100_5#89#1&amp;thre+close_KAMA_7#1#1&amp;trend+NATR_40#3#1&amp;thre&amp;HS+ATR_60#LINEARREG_5#1&amp;diff+close_SMA_40#2#1&amp;trend+STOCHRSI_fastk_7#TRIX_12#0&amp;diff+RSI_26#ROCR100_30#0&amp;cross&amp;HS+APO#1#1&amp;thre+CDLONNECK#3#0&amp;trend&amp;HS+CDLHIKKAKEMOD#2#0&amp;trend+TRANGE#1#0&amp;thre&amp;HS+close_WMA_5#32#1&amp;thre+COS#1#0&amp;trend&amp;HS+EXP#2#0&amp;trend&amp;HS+TAN#-296#0&amp;thre+CDLHANGINGMAN#0#1&amp;thre+close_EMA_14#26#1&amp;thre&amp;HS+inhpase#NATR_2#0&amp;cross&amp;HS+CDLKICKINGBYLENGTH#1#0&amp;trend+RSI_12#28#1&amp;thre+close_DEMA_14#32#1&amp;thre&amp;HS+close_EMA_26#32#1&amp;thre&amp;HS+LINEARREG_SLOPE_5#TSF_7#1&amp;diff', 'close_EMA_26#32#1&amp;thre&amp;HS']</t>
   </si>
   <si>
-    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-10 00:40:50</t>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-11 17:14:55</t>
   </si>
   <si>
     <t>start_date</t>
@@ -561,13 +618,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -589,166 +646,376 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>-0.06068879581669351</v>
       </c>
       <c r="C3">
-        <v>-0.1334115617552565</v>
+        <v>-0.1298327394690314</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-0.1029258692247421</v>
       </c>
       <c r="F3">
-        <v>-0.06799399473064016</v>
+        <v>-0.09616356937420956</v>
       </c>
       <c r="G3">
+        <v>-0.1097123668377117</v>
+      </c>
+      <c r="H3">
+        <v>-0.07169816078813773</v>
+      </c>
+      <c r="I3">
+        <v>-0.1249826230916995</v>
+      </c>
+      <c r="J3">
+        <v>-0.06799458011404735</v>
+      </c>
+      <c r="K3">
         <v>-0.08681367350504454</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>-0.02064525313274379</v>
+      </c>
+      <c r="O3">
+        <v>-0.08082269634112982</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>-0.5858844793193516</v>
+      </c>
+      <c r="R3">
+        <v>-0.5858844793193516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>309</v>
       </c>
       <c r="C4">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="F4">
+        <v>430</v>
+      </c>
+      <c r="G4">
+        <v>676</v>
+      </c>
+      <c r="H4">
+        <v>778</v>
+      </c>
+      <c r="I4">
+        <v>626</v>
+      </c>
+      <c r="J4">
         <v>329</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>237</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>377</v>
+      </c>
+      <c r="O4">
+        <v>668</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>55343</v>
+      </c>
+      <c r="R4">
+        <v>55343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>-0.322888504320907</v>
       </c>
       <c r="C5">
-        <v>-0.1343476410452543</v>
+        <v>-0.1183184018008555</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>-0.6048521730266428</v>
       </c>
       <c r="F5">
-        <v>-1.119896336168875</v>
+        <v>-0.3533535498716779</v>
       </c>
       <c r="G5">
+        <v>-0.2410637259522915</v>
+      </c>
+      <c r="H5">
+        <v>-0.8800143655269971</v>
+      </c>
+      <c r="I5">
+        <v>0.06496990533754204</v>
+      </c>
+      <c r="J5">
+        <v>-1.119773524012645</v>
+      </c>
+      <c r="K5">
         <v>-0.4545198422842536</v>
       </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="L5" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>-1.063976094679115</v>
+      </c>
+      <c r="O5">
+        <v>0.3533550856249668</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5">
+        <v>-12.40955753951304</v>
+      </c>
+      <c r="R5">
+        <v>-12.40955753951304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>0.00586360100162878</v>
       </c>
       <c r="C6">
-        <v>0.01056597817103505</v>
+        <v>0.01281839819238869</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.03025695754517896</v>
       </c>
       <c r="F6">
-        <v>-0.029061549881537</v>
+        <v>-0.00892360048597695</v>
       </c>
       <c r="G6">
+        <v>0.001757275440474943</v>
+      </c>
+      <c r="H6">
+        <v>-0.0398187687031372</v>
+      </c>
+      <c r="I6">
+        <v>0.03512023748539553</v>
+      </c>
+      <c r="J6">
+        <v>-0.0290614250537399</v>
+      </c>
+      <c r="K6">
         <v>-0.007045686504041676</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>-0.001990317694169097</v>
+      </c>
+      <c r="O6">
+        <v>0.0563493832414819</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>-0.5858844793193516</v>
+      </c>
+      <c r="R6">
+        <v>-0.5858844793193516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>-0.01037357430000463</v>
       </c>
       <c r="C7">
-        <v>-0.009301956812525991</v>
+        <v>-0.009316683012470683</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-0.009033986253263016</v>
       </c>
       <c r="F7">
-        <v>-0.01397364880874741</v>
+        <v>-0.01388828772912698</v>
       </c>
       <c r="G7">
+        <v>-0.07408679730434187</v>
+      </c>
+      <c r="H7">
+        <v>-0.03755272042192637</v>
+      </c>
+      <c r="I7">
+        <v>-0.03088086967984816</v>
+      </c>
+      <c r="J7">
+        <v>-0.01397186645710413</v>
+      </c>
+      <c r="K7">
         <v>-0.007396776066527222</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>-0.01153330588526946</v>
+      </c>
+      <c r="O7">
+        <v>-0.06097945288127105</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>-0.5905839587242026</v>
+      </c>
+      <c r="R7">
+        <v>-0.5905839587242026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>352</v>
@@ -760,99 +1027,219 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1241</v>
       </c>
       <c r="F8">
+        <v>747</v>
+      </c>
+      <c r="G8">
+        <v>777</v>
+      </c>
+      <c r="H8">
+        <v>840</v>
+      </c>
+      <c r="I8">
+        <v>884</v>
+      </c>
+      <c r="J8">
         <v>723</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <v>683</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>667</v>
+      </c>
+      <c r="O8">
+        <v>865</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>56143</v>
+      </c>
+      <c r="R8">
+        <v>56143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>0.964891579226408</v>
       </c>
       <c r="C9">
-        <v>0.9226290254589607</v>
+        <v>0.9242453061539718</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>2.169444188749579</v>
       </c>
       <c r="F9">
-        <v>1.738783523005261</v>
+        <v>1.05370239858041</v>
       </c>
       <c r="G9">
+        <v>0.8517240991581094</v>
+      </c>
+      <c r="H9">
+        <v>1.346142566787862</v>
+      </c>
+      <c r="I9">
+        <v>1.753535799322752</v>
+      </c>
+      <c r="J9">
+        <v>1.738969220060517</v>
+      </c>
+      <c r="K9">
         <v>1.61797184494811</v>
       </c>
-      <c r="H9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>-0.09540756946655782</v>
+      </c>
+      <c r="O9">
+        <v>1.965500067665733</v>
+      </c>
+      <c r="P9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9">
+        <v>-37.68925196360794</v>
+      </c>
+      <c r="R9">
+        <v>-37.68925196360794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>0.04737268008837399</v>
       </c>
       <c r="C10">
-        <v>0.05089153893822865</v>
+        <v>0.05089278911540783</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1084060105181327</v>
       </c>
       <c r="F10">
-        <v>0.08592100472512094</v>
+        <v>0.06640686291512019</v>
       </c>
       <c r="G10">
+        <v>0.1049310420703704</v>
+      </c>
+      <c r="H10">
+        <v>0.1488326576017185</v>
+      </c>
+      <c r="I10">
+        <v>0.1577354754372258</v>
+      </c>
+      <c r="J10">
+        <v>0.08591534131357388</v>
+      </c>
+      <c r="K10">
         <v>0.06877843346671333</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.02032034673873047</v>
+      </c>
+      <c r="O10">
+        <v>0.253090511400575</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>-0.5905839587242026</v>
+      </c>
+      <c r="R10">
+        <v>-0.5905839587242026</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>-0.07593883860828288</v>
       </c>
       <c r="C11">
-        <v>-0.07989108853819749</v>
+        <v>-0.07990900587803496</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>-0.1224174844247709</v>
       </c>
       <c r="F11">
-        <v>-0.07383294537405583</v>
+        <v>-0.0767374845186809</v>
       </c>
       <c r="G11">
+        <v>-0.1015902198737735</v>
+      </c>
+      <c r="H11">
+        <v>-0.1014572066586655</v>
+      </c>
+      <c r="I11">
+        <v>-0.1301138799672049</v>
+      </c>
+      <c r="J11">
+        <v>-0.07383522465172065</v>
+      </c>
+      <c r="K11">
         <v>-0.07041203502798465</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>-0.02697461212976016</v>
+      </c>
+      <c r="O11">
+        <v>-0.06686827710657905</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>-0.6356217245065575</v>
+      </c>
+      <c r="R11">
+        <v>-0.6356217245065575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>559</v>
@@ -864,99 +1251,219 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1281</v>
       </c>
       <c r="F12">
+        <v>921</v>
+      </c>
+      <c r="G12">
+        <v>459</v>
+      </c>
+      <c r="H12">
+        <v>1440</v>
+      </c>
+      <c r="I12">
+        <v>1067</v>
+      </c>
+      <c r="J12">
         <v>691</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <v>880</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>547</v>
+      </c>
+      <c r="O12">
+        <v>663</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>57732</v>
+      </c>
+      <c r="R12">
+        <v>57732</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>-0.04841559501838143</v>
       </c>
       <c r="C13">
-        <v>-0.6756274364665751</v>
+        <v>-0.6748977489571448</v>
       </c>
       <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>-1.446289189101312</v>
       </c>
       <c r="F13">
-        <v>-0.2424662817787195</v>
+        <v>-0.3371233475254196</v>
       </c>
       <c r="G13">
+        <v>-0.5657004721771492</v>
+      </c>
+      <c r="H13">
+        <v>-0.6944230228955816</v>
+      </c>
+      <c r="I13">
+        <v>-0.3903879533013059</v>
+      </c>
+      <c r="J13">
+        <v>-0.2424574547755195</v>
+      </c>
+      <c r="K13">
         <v>0.1030007104252951</v>
       </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="L13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13">
+        <v>-0.2693133559121839</v>
+      </c>
+      <c r="O13">
+        <v>-0.9201635600766969</v>
+      </c>
+      <c r="P13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>-28.28099545520579</v>
+      </c>
+      <c r="R13">
+        <v>-28.28099545520579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>0.01824049369479946</v>
       </c>
       <c r="C14">
-        <v>-0.01474134366817135</v>
+        <v>-0.01475769676929024</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>-0.08614171816137764</v>
       </c>
       <c r="F14">
-        <v>0.006137238759409532</v>
+        <v>0.0006210947616426044</v>
       </c>
       <c r="G14">
+        <v>-0.03225335012141373</v>
+      </c>
+      <c r="H14">
+        <v>-0.040216578206818</v>
+      </c>
+      <c r="I14">
+        <v>-0.02015288119719566</v>
+      </c>
+      <c r="J14">
+        <v>0.006131740522633677</v>
+      </c>
+      <c r="K14">
         <v>0.03119729991686739</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.01463785509543008</v>
+      </c>
+      <c r="O14">
+        <v>-0.05354978116516323</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>-0.6356217245065574</v>
+      </c>
+      <c r="R14">
+        <v>-0.6356217245065574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>-0.1120318841141407</v>
       </c>
       <c r="C15">
-        <v>-0.03854632571779448</v>
+        <v>-0.04122531850920919</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>-0.04670597780077124</v>
       </c>
       <c r="F15">
-        <v>-0.03598951155948549</v>
+        <v>-0.06609702405028572</v>
       </c>
       <c r="G15">
+        <v>-0.1456541649924996</v>
+      </c>
+      <c r="H15">
+        <v>-0.07909427961204551</v>
+      </c>
+      <c r="I15">
+        <v>-0.05976412689855426</v>
+      </c>
+      <c r="J15">
+        <v>-0.04048803350316732</v>
+      </c>
+      <c r="K15">
         <v>-0.02997131063427882</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>-0.06589077789251874</v>
+      </c>
+      <c r="O15">
+        <v>-0.1202250047771884</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>-0.5365836093907533</v>
+      </c>
+      <c r="R15">
+        <v>-0.5365836093907533</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>513</v>
@@ -968,73 +1475,163 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1394</v>
       </c>
       <c r="F16">
-        <v>587</v>
+        <v>841</v>
       </c>
       <c r="G16">
+        <v>620</v>
+      </c>
+      <c r="H16">
+        <v>1448</v>
+      </c>
+      <c r="I16">
+        <v>1004</v>
+      </c>
+      <c r="J16">
+        <v>589</v>
+      </c>
+      <c r="K16">
         <v>636</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>526</v>
+      </c>
+      <c r="O16">
+        <v>1575</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>60472</v>
+      </c>
+      <c r="R16">
+        <v>60472</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>0.6413937902326782</v>
       </c>
       <c r="C17">
-        <v>-0.3449320318182317</v>
+        <v>-0.2706152262487113</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>1.493562370348469</v>
       </c>
       <c r="F17">
-        <v>0.6510261798763134</v>
+        <v>1.755606871757842</v>
       </c>
       <c r="G17">
+        <v>0.5762552273831004</v>
+      </c>
+      <c r="H17">
+        <v>1.169545252531603</v>
+      </c>
+      <c r="I17">
+        <v>1.630357325163023</v>
+      </c>
+      <c r="J17">
+        <v>0.7918361697441226</v>
+      </c>
+      <c r="K17">
         <v>2.144193851268474</v>
       </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17">
+        <v>1.029327758872524</v>
+      </c>
+      <c r="O17">
+        <v>1.083214063259147</v>
+      </c>
+      <c r="P17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q17">
+        <v>-35.97233501729208</v>
+      </c>
+      <c r="R17">
+        <v>-35.97233501729208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>0.09461197171710613</v>
       </c>
       <c r="C18">
-        <v>0.004572752026965078</v>
+        <v>0.00838045294030579</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.2277781280113836</v>
       </c>
       <c r="F18">
-        <v>0.07609523739623783</v>
+        <v>0.3243818710167673</v>
       </c>
       <c r="G18">
+        <v>0.1103020612765222</v>
+      </c>
+      <c r="H18">
+        <v>0.1952466505826189</v>
+      </c>
+      <c r="I18">
+        <v>0.2811028265382782</v>
+      </c>
+      <c r="J18">
+        <v>0.09241505513308537</v>
+      </c>
+      <c r="K18">
         <v>0.2302724303047824</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.119257705142073</v>
+      </c>
+      <c r="O18">
+        <v>0.2157298992579114</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>-0.5365836093907533</v>
+      </c>
+      <c r="R18">
+        <v>-0.5365836093907533</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>-0.163714060091224</v>
@@ -1046,21 +1643,51 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>-0.1872458320748456</v>
       </c>
       <c r="F19">
-        <v>-0.1147151654428266</v>
+        <v>-0.2310560881503735</v>
       </c>
       <c r="G19">
+        <v>-0.2651208345795857</v>
+      </c>
+      <c r="H19">
+        <v>-0.2245605359630647</v>
+      </c>
+      <c r="I19">
+        <v>-0.2529726595510632</v>
+      </c>
+      <c r="J19">
+        <v>-0.1147131417642677</v>
+      </c>
+      <c r="K19">
         <v>-0.1046741169021991</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>-0.1154630041690442</v>
+      </c>
+      <c r="O19">
+        <v>-0.1134922293680588</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>-0.536798</v>
+      </c>
+      <c r="R19">
+        <v>-0.536798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>1011</v>
@@ -1072,21 +1699,51 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="F20">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="G20">
+        <v>837</v>
+      </c>
+      <c r="H20">
+        <v>659</v>
+      </c>
+      <c r="I20">
+        <v>873</v>
+      </c>
+      <c r="J20">
+        <v>608</v>
+      </c>
+      <c r="K20">
         <v>937</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1125</v>
+      </c>
+      <c r="O20">
+        <v>1271</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>54010</v>
+      </c>
+      <c r="R20">
+        <v>54010</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>1.415005227739788</v>
@@ -1095,24 +1752,54 @@
         <v>0.6911351083684878</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>0.5134714379876141</v>
       </c>
       <c r="F21">
-        <v>1.286687649309716</v>
+        <v>0.6748096008234891</v>
       </c>
       <c r="G21">
+        <v>0.4353408820193554</v>
+      </c>
+      <c r="H21">
+        <v>0.6003431788178978</v>
+      </c>
+      <c r="I21">
+        <v>0.5715462350116025</v>
+      </c>
+      <c r="J21">
+        <v>1.287795013597923</v>
+      </c>
+      <c r="K21">
         <v>1.207139776651669</v>
       </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="L21" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>1.245776409597041</v>
+      </c>
+      <c r="O21">
+        <v>2.193115179407612</v>
+      </c>
+      <c r="P21" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21">
+        <v>-5.023761652020543</v>
+      </c>
+      <c r="R21">
+        <v>-5.023761652020543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>0.317564</v>
@@ -1124,16 +1811,46 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.1267039999999999</v>
       </c>
       <c r="F22">
-        <v>0.2789779999999999</v>
+        <v>0.2124029999999999</v>
       </c>
       <c r="G22">
+        <v>0.1601349999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.1964669999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.239425</v>
+      </c>
+      <c r="J22">
+        <v>0.279361</v>
+      </c>
+      <c r="K22">
         <v>0.2267079999999999</v>
       </c>
-      <c r="H22">
-        <v>0</v>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.3481609999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.968561</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>-0.536798</v>
+      </c>
+      <c r="R22">
+        <v>-0.536798</v>
       </c>
     </row>
   </sheetData>
@@ -1143,18 +1860,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1174,184 +1891,394 @@
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>80</v>
+      </c>
+      <c r="R5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>81</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>81</v>
+      </c>
+      <c r="R6" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7">
+        <v>100000000</v>
+      </c>
+      <c r="C7">
+        <v>100000000</v>
+      </c>
+      <c r="D7">
+        <v>100000000</v>
+      </c>
+      <c r="E7">
+        <v>100000000</v>
+      </c>
+      <c r="F7">
+        <v>100000000</v>
+      </c>
+      <c r="G7">
+        <v>100000000</v>
+      </c>
+      <c r="H7">
+        <v>100000000</v>
+      </c>
+      <c r="I7">
+        <v>100000000</v>
+      </c>
+      <c r="J7">
+        <v>100000000</v>
+      </c>
+      <c r="K7">
+        <v>100000000</v>
+      </c>
+      <c r="L7">
+        <v>100000000</v>
+      </c>
+      <c r="M7">
+        <v>100000000</v>
+      </c>
+      <c r="N7">
+        <v>100000000</v>
+      </c>
+      <c r="O7">
+        <v>100000000</v>
+      </c>
+      <c r="P7">
+        <v>100000000</v>
+      </c>
+      <c r="Q7">
+        <v>100000000</v>
+      </c>
+      <c r="R7">
+        <v>100000000</v>
+      </c>
+      <c r="S7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7">
-        <v>100000000</v>
-      </c>
-      <c r="C7">
-        <v>100000000</v>
-      </c>
-      <c r="D7">
-        <v>100000000</v>
-      </c>
-      <c r="E7">
-        <v>100000000</v>
-      </c>
-      <c r="F7">
-        <v>100000000</v>
-      </c>
-      <c r="G7">
-        <v>100000000</v>
-      </c>
-      <c r="H7">
-        <v>100000000</v>
-      </c>
-      <c r="I7">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="B8">
         <v>0.056</v>
@@ -1360,27 +2287,57 @@
         <v>0.056</v>
       </c>
       <c r="D8">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E8">
         <v>-0.035</v>
       </c>
       <c r="F8">
+        <v>0.029</v>
+      </c>
+      <c r="G8">
+        <v>0.081</v>
+      </c>
+      <c r="H8">
+        <v>0.028</v>
+      </c>
+      <c r="I8">
+        <v>0.052</v>
+      </c>
+      <c r="J8">
+        <v>0.102</v>
+      </c>
+      <c r="K8">
+        <v>0.048</v>
+      </c>
+      <c r="L8">
+        <v>0.068</v>
+      </c>
+      <c r="M8">
         <v>-0.035</v>
       </c>
-      <c r="G8">
-        <v>0.044</v>
-      </c>
-      <c r="H8">
-        <v>0.068</v>
-      </c>
-      <c r="I8">
+      <c r="N8">
         <v>-0.035</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="O8">
+        <v>0.057</v>
+      </c>
+      <c r="P8">
+        <v>0.195</v>
+      </c>
+      <c r="Q8">
+        <v>-0.035</v>
+      </c>
+      <c r="R8">
+        <v>-0.9360000000000001</v>
+      </c>
+      <c r="S8">
+        <v>-0.9360000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B9">
         <v>0.217</v>
@@ -1395,21 +2352,51 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.292</v>
       </c>
       <c r="G9">
-        <v>0.195</v>
+        <v>0.332</v>
       </c>
       <c r="H9">
+        <v>0.358</v>
+      </c>
+      <c r="I9">
+        <v>0.339</v>
+      </c>
+      <c r="J9">
+        <v>0.529</v>
+      </c>
+      <c r="K9">
+        <v>0.199</v>
+      </c>
+      <c r="L9">
         <v>0.201</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0.222</v>
+      </c>
+      <c r="P9">
+        <v>0.338</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.275</v>
+      </c>
+      <c r="S9">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B10">
         <v>0.617</v>
@@ -1418,18 +2405,45 @@
         <v>0.617</v>
       </c>
       <c r="D10">
-        <v>0.051</v>
+        <v>0.066</v>
+      </c>
+      <c r="F10">
+        <v>0.329</v>
       </c>
       <c r="G10">
-        <v>0.544</v>
+        <v>0.674</v>
       </c>
       <c r="H10">
+        <v>0.246</v>
+      </c>
+      <c r="I10">
+        <v>0.454</v>
+      </c>
+      <c r="J10">
+        <v>0.649</v>
+      </c>
+      <c r="K10">
+        <v>0.575</v>
+      </c>
+      <c r="L10">
         <v>0.8129999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="O10">
+        <v>0.626</v>
+      </c>
+      <c r="P10">
+        <v>1.238</v>
+      </c>
+      <c r="R10">
+        <v>-10.326</v>
+      </c>
+      <c r="S10">
+        <v>-10.326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B11">
         <v>0.184</v>
@@ -1438,27 +2452,57 @@
         <v>0.184</v>
       </c>
       <c r="D11">
-        <v>-0.083</v>
+        <v>-0.078</v>
       </c>
       <c r="E11">
         <v>-0.233</v>
       </c>
       <c r="F11">
+        <v>0.067</v>
+      </c>
+      <c r="G11">
+        <v>0.339</v>
+      </c>
+      <c r="H11">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.195</v>
+      </c>
+      <c r="J11">
+        <v>0.552</v>
+      </c>
+      <c r="K11">
+        <v>0.139</v>
+      </c>
+      <c r="L11">
+        <v>0.237</v>
+      </c>
+      <c r="M11">
         <v>-0.233</v>
       </c>
-      <c r="G11">
-        <v>0.124</v>
-      </c>
-      <c r="H11">
-        <v>0.237</v>
-      </c>
-      <c r="I11">
+      <c r="N11">
         <v>-0.233</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="O11">
+        <v>0.191</v>
+      </c>
+      <c r="P11">
+        <v>0.837</v>
+      </c>
+      <c r="Q11">
+        <v>-0.233</v>
+      </c>
+      <c r="R11">
+        <v>-5.078</v>
+      </c>
+      <c r="S11">
+        <v>-5.078</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>0.136</v>
@@ -1473,21 +2517,51 @@
         <v>0.163</v>
       </c>
       <c r="F12">
+        <v>0.125</v>
+      </c>
+      <c r="G12">
+        <v>0.125</v>
+      </c>
+      <c r="H12">
+        <v>0.136</v>
+      </c>
+      <c r="I12">
+        <v>0.124</v>
+      </c>
+      <c r="J12">
+        <v>0.109</v>
+      </c>
+      <c r="K12">
+        <v>0.138</v>
+      </c>
+      <c r="L12">
+        <v>0.135</v>
+      </c>
+      <c r="M12">
         <v>0.163</v>
       </c>
-      <c r="G12">
-        <v>0.138</v>
-      </c>
-      <c r="H12">
-        <v>0.135</v>
-      </c>
-      <c r="I12">
+      <c r="N12">
         <v>0.163</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="O12">
+        <v>0.136</v>
+      </c>
+      <c r="P12">
+        <v>0.14</v>
+      </c>
+      <c r="Q12">
+        <v>0.163</v>
+      </c>
+      <c r="R12">
+        <v>0.16</v>
+      </c>
+      <c r="S12">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>0.209</v>
@@ -1502,21 +2576,51 @@
         <v>0.245</v>
       </c>
       <c r="F13">
+        <v>0.191</v>
+      </c>
+      <c r="G13">
+        <v>0.193</v>
+      </c>
+      <c r="H13">
+        <v>0.198</v>
+      </c>
+      <c r="I13">
+        <v>0.192</v>
+      </c>
+      <c r="J13">
+        <v>0.166</v>
+      </c>
+      <c r="K13">
+        <v>0.211</v>
+      </c>
+      <c r="L13">
+        <v>0.209</v>
+      </c>
+      <c r="M13">
         <v>0.245</v>
       </c>
-      <c r="G13">
-        <v>0.211</v>
-      </c>
-      <c r="H13">
-        <v>0.209</v>
-      </c>
-      <c r="I13">
+      <c r="N13">
         <v>0.245</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="O13">
+        <v>0.208</v>
+      </c>
+      <c r="P13">
+        <v>0.215</v>
+      </c>
+      <c r="Q13">
+        <v>0.245</v>
+      </c>
+      <c r="R13">
+        <v>0.188</v>
+      </c>
+      <c r="S13">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B14">
         <v>0.028</v>
@@ -1531,21 +2635,51 @@
         <v>-0.013</v>
       </c>
       <c r="F14">
+        <v>0.018</v>
+      </c>
+      <c r="G14">
+        <v>0.044</v>
+      </c>
+      <c r="H14">
+        <v>0.017</v>
+      </c>
+      <c r="I14">
+        <v>0.031</v>
+      </c>
+      <c r="J14">
+        <v>0.066</v>
+      </c>
+      <c r="K14">
+        <v>0.024</v>
+      </c>
+      <c r="L14">
+        <v>0.034</v>
+      </c>
+      <c r="M14">
         <v>-0.013</v>
       </c>
-      <c r="G14">
-        <v>0.022</v>
-      </c>
-      <c r="H14">
-        <v>0.034</v>
-      </c>
-      <c r="I14">
-        <v>-0.351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="N14">
+        <v>-0.013</v>
+      </c>
+      <c r="O14">
+        <v>0.029</v>
+      </c>
+      <c r="P14">
+        <v>0.091</v>
+      </c>
+      <c r="Q14">
+        <v>-0.013</v>
+      </c>
+      <c r="R14">
+        <v>-0.366</v>
+      </c>
+      <c r="S14">
+        <v>-0.366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B15">
         <v>0.099</v>
@@ -1554,27 +2688,57 @@
         <v>0.099</v>
       </c>
       <c r="D15">
-        <v>0.08799999999999999</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="G15">
+        <v>0.131</v>
+      </c>
+      <c r="H15">
+        <v>0.149</v>
+      </c>
+      <c r="I15">
+        <v>0.133</v>
+      </c>
+      <c r="J15">
+        <v>0.176</v>
+      </c>
+      <c r="K15">
+        <v>0.091</v>
+      </c>
+      <c r="L15">
+        <v>0.089</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.1</v>
+      </c>
+      <c r="P15">
+        <v>0.164</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>0.09</v>
       </c>
-      <c r="H15">
-        <v>0.089</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="S15">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>0.164</v>
@@ -1583,27 +2747,57 @@
         <v>0.164</v>
       </c>
       <c r="D16">
-        <v>0.189</v>
+        <v>0.184</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.241</v>
       </c>
       <c r="G16">
+        <v>0.255</v>
+      </c>
+      <c r="H16">
+        <v>0.302</v>
+      </c>
+      <c r="I16">
+        <v>0.25</v>
+      </c>
+      <c r="J16">
+        <v>0.253</v>
+      </c>
+      <c r="K16">
         <v>0.138</v>
       </c>
-      <c r="H16">
+      <c r="L16">
         <v>0.161</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.115</v>
+      </c>
+      <c r="P16">
+        <v>0.162</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.987</v>
+      </c>
+      <c r="S16">
+        <v>0.987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B17">
         <v>155010327.538</v>
@@ -1612,27 +2806,57 @@
         <v>155010327.538</v>
       </c>
       <c r="D17">
-        <v>118499047.236</v>
+        <v>119218274.348</v>
       </c>
       <c r="E17">
         <v>100000000</v>
       </c>
       <c r="F17">
-        <v>100000000</v>
+        <v>136328829.082</v>
       </c>
       <c r="G17">
-        <v>146616858.492</v>
+        <v>173413945.677</v>
       </c>
       <c r="H17">
+        <v>133606218.946</v>
+      </c>
+      <c r="I17">
+        <v>151349924.093</v>
+      </c>
+      <c r="J17">
+        <v>190306768.655</v>
+      </c>
+      <c r="K17">
+        <v>148883486.269</v>
+      </c>
+      <c r="L17">
         <v>164279982.473</v>
       </c>
-      <c r="I17">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="M17">
+        <v>100000000</v>
+      </c>
+      <c r="N17">
+        <v>100000000</v>
+      </c>
+      <c r="O17">
+        <v>155934152.34</v>
+      </c>
+      <c r="P17">
+        <v>294525371.046</v>
+      </c>
+      <c r="Q17">
+        <v>100000000</v>
+      </c>
+      <c r="R17">
+        <v>1286957.289</v>
+      </c>
+      <c r="S17">
+        <v>1286957.289</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B18">
         <v>152943314.538</v>
@@ -1641,27 +2865,57 @@
         <v>152943314.538</v>
       </c>
       <c r="D18">
-        <v>109384312.236</v>
+        <v>112059019.348</v>
       </c>
       <c r="E18">
         <v>100000000</v>
       </c>
       <c r="F18">
-        <v>100000000</v>
+        <v>80634056.082</v>
       </c>
       <c r="G18">
-        <v>146616858.492</v>
+        <v>151720572.677</v>
       </c>
       <c r="H18">
+        <v>17856281.946</v>
+      </c>
+      <c r="I18">
+        <v>151349924.093</v>
+      </c>
+      <c r="J18">
+        <v>241090.655</v>
+      </c>
+      <c r="K18">
+        <v>148883486.269</v>
+      </c>
+      <c r="L18">
         <v>163794398.473</v>
       </c>
-      <c r="I18">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="M18">
+        <v>100000000</v>
+      </c>
+      <c r="N18">
+        <v>100000000</v>
+      </c>
+      <c r="O18">
+        <v>155934152.34</v>
+      </c>
+      <c r="P18">
+        <v>75100.046</v>
+      </c>
+      <c r="Q18">
+        <v>100000000</v>
+      </c>
+      <c r="R18">
+        <v>522465.289</v>
+      </c>
+      <c r="S18">
+        <v>522465.289</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B19">
         <v>0.55</v>
@@ -1670,27 +2924,57 @@
         <v>0.55</v>
       </c>
       <c r="D19">
-        <v>0.185</v>
+        <v>0.192</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="G19">
-        <v>0.466</v>
+        <v>0.734</v>
       </c>
       <c r="H19">
+        <v>0.336</v>
+      </c>
+      <c r="I19">
+        <v>0.513</v>
+      </c>
+      <c r="J19">
+        <v>0.903</v>
+      </c>
+      <c r="K19">
+        <v>0.489</v>
+      </c>
+      <c r="L19">
         <v>0.643</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="P19">
+        <v>1.945</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>-0.987</v>
+      </c>
+      <c r="S19">
+        <v>-0.987</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B20">
         <v>0.095</v>
@@ -1699,27 +2983,57 @@
         <v>0.095</v>
       </c>
       <c r="D20">
-        <v>0.036</v>
+        <v>0.037</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.066</v>
       </c>
       <c r="G20">
-        <v>0.082</v>
+        <v>0.121</v>
       </c>
       <c r="H20">
+        <v>0.062</v>
+      </c>
+      <c r="I20">
+        <v>0.09</v>
+      </c>
+      <c r="J20">
+        <v>0.143</v>
+      </c>
+      <c r="K20">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="L20">
         <v>0.108</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0.096</v>
+      </c>
+      <c r="P20">
+        <v>0.251</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>-0.594</v>
+      </c>
+      <c r="S20">
+        <v>-0.594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B21">
         <v>1.55</v>
@@ -1728,27 +3042,57 @@
         <v>1.55</v>
       </c>
       <c r="D21">
-        <v>1.185</v>
+        <v>1.192</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
+        <v>1.363</v>
+      </c>
+      <c r="G21">
+        <v>1.734</v>
+      </c>
+      <c r="H21">
+        <v>1.336</v>
+      </c>
+      <c r="I21">
+        <v>1.513</v>
+      </c>
+      <c r="J21">
+        <v>1.903</v>
+      </c>
+      <c r="K21">
+        <v>1.489</v>
+      </c>
+      <c r="L21">
+        <v>1.643</v>
+      </c>
+      <c r="M21">
         <v>1</v>
       </c>
-      <c r="G21">
-        <v>1.466</v>
-      </c>
-      <c r="H21">
-        <v>1.643</v>
-      </c>
-      <c r="I21">
+      <c r="N21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="O21">
+        <v>1.559</v>
+      </c>
+      <c r="P21">
+        <v>2.945</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0.013</v>
+      </c>
+      <c r="S21">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -1774,10 +3118,40 @@
       <c r="I22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="J22">
+        <v>100000000</v>
+      </c>
+      <c r="K22">
+        <v>100000000</v>
+      </c>
+      <c r="L22">
+        <v>100000000</v>
+      </c>
+      <c r="M22">
+        <v>100000000</v>
+      </c>
+      <c r="N22">
+        <v>100000000</v>
+      </c>
+      <c r="O22">
+        <v>100000000</v>
+      </c>
+      <c r="P22">
+        <v>100000000</v>
+      </c>
+      <c r="Q22">
+        <v>100000000</v>
+      </c>
+      <c r="R22">
+        <v>100000000</v>
+      </c>
+      <c r="S22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -1803,10 +3177,40 @@
       <c r="I23">
         <v>0.138</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23">
+        <v>0.138</v>
+      </c>
+      <c r="K23">
+        <v>0.138</v>
+      </c>
+      <c r="L23">
+        <v>0.138</v>
+      </c>
+      <c r="M23">
+        <v>0.138</v>
+      </c>
+      <c r="N23">
+        <v>0.138</v>
+      </c>
+      <c r="O23">
+        <v>0.138</v>
+      </c>
+      <c r="P23">
+        <v>0.138</v>
+      </c>
+      <c r="Q23">
+        <v>0.138</v>
+      </c>
+      <c r="R23">
+        <v>0.138</v>
+      </c>
+      <c r="S23">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -1832,10 +3236,40 @@
       <c r="I24">
         <v>0.027</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24">
+        <v>0.027</v>
+      </c>
+      <c r="K24">
+        <v>0.027</v>
+      </c>
+      <c r="L24">
+        <v>0.027</v>
+      </c>
+      <c r="M24">
+        <v>0.027</v>
+      </c>
+      <c r="N24">
+        <v>0.027</v>
+      </c>
+      <c r="O24">
+        <v>0.027</v>
+      </c>
+      <c r="P24">
+        <v>0.027</v>
+      </c>
+      <c r="Q24">
+        <v>0.027</v>
+      </c>
+      <c r="R24">
+        <v>0.027</v>
+      </c>
+      <c r="S24">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -1859,6 +3293,36 @@
         <v>300</v>
       </c>
       <c r="I25">
+        <v>300</v>
+      </c>
+      <c r="J25">
+        <v>300</v>
+      </c>
+      <c r="K25">
+        <v>300</v>
+      </c>
+      <c r="L25">
+        <v>300</v>
+      </c>
+      <c r="M25">
+        <v>300</v>
+      </c>
+      <c r="N25">
+        <v>300</v>
+      </c>
+      <c r="O25">
+        <v>300</v>
+      </c>
+      <c r="P25">
+        <v>300</v>
+      </c>
+      <c r="Q25">
+        <v>300</v>
+      </c>
+      <c r="R25">
+        <v>300</v>
+      </c>
+      <c r="S25">
         <v>300</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="91">
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']2020-05-11 17:24:07</t>
   </si>
@@ -65,6 +65,30 @@
     <t>['SAR#3#0&amp;trend+ROC_14#-10#0&amp;thre+STOCHRSI_fastd_7#STOCHRSI_fastk_12#0&amp;diff+SIN#DIV#0&amp;diff&amp;HS+NATR_5#3#1&amp;trend+LINEARREG_ANGLE_40#2#0&amp;trend+NATR_14#3#0&amp;thre&amp;HS+ATR_60#1#1&amp;thre&amp;HS+ATR_14#0#0&amp;thre&amp;HS+close_TRIMA_30#42#0&amp;thre+CDLEVENINGDOJISTAR#0#0&amp;thre&amp;HS+close_MAMA#close_EMA_2#1&amp;diff&amp;HS+RSI_30#ROCR100_40#0&amp;cross+CEIL#3#0&amp;trend+OBV#4571203#1&amp;thre&amp;HS+CDLLONGLINE#3#0&amp;trend&amp;HS+CDLMATCHINGLOW#1#0&amp;thre&amp;HS+VAR_30#1#1&amp;thre+SINH#2#0&amp;trend+TSF_7#LINEARREG_14#0&amp;cross&amp;HS+CMO_12#33#0&amp;thre+LINEARREG_12#43#1&amp;thre+L_line_26#3#1&amp;trend+TRIX_26#3#1&amp;trend+CDLPIERCING#0#0&amp;thre+ROCP_26#0#0&amp;thre&amp;HS+L_line_60#28#0&amp;thre+close_TRIMA_40#close_KAMA_60#0&amp;cross+ROCR_14#1#0&amp;thre&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;diff+RSI_60#60#1&amp;thre&amp;HS+CDLHIKKAKEMOD#3#1&amp;trend&amp;HS+STDDEV_14#1#1&amp;trend&amp;HS+close_TEMA_30#close_TRIMA_40#0&amp;cross&amp;HS+CDLBREAKAWAY#2#0&amp;trend+TRANGE#ATR_26#0&amp;cross+L_line_30#AVGPRICE#1&amp;diff&amp;HS+CDLGAPSIDESIDEWHITE#2#0&amp;trend&amp;HS+TSF_5#32#1&amp;thre+TYPPRICE#1#1&amp;trend+ATAN#2#1&amp;trend&amp;HS+CDLDOJISTAR#1#0&amp;trend&amp;HS+RSI_14#65#0&amp;thre+MOM_40#3#0&amp;trend&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+close_KAMA_2#2#0&amp;trend&amp;HS+MAVP_40#42#1&amp;thre&amp;HS+CDLRISEFALL3METHODS#1#1&amp;trend&amp;HS+L_line_26#2#1&amp;trend&amp;HS+close_DEMA_14#close_TEMA_26#0&amp;cross+NATR_12#5#0&amp;thre&amp;HS+CMO_60#-24#1&amp;thre+COS#FLOOR#1&amp;cross+LINEARREG_26#3#1&amp;trend+STOCHRSI_fastk_5#25#1&amp;thre&amp;HS+MOM_14#1#1&amp;trend+CDLMATCHINGLOW#1#1&amp;trend+CMO_30#3#1&amp;trend&amp;HS+close_WMA_14#close_DEMA_26#0&amp;cross&amp;HS+LINEARREG_ANGLE_2#39#0&amp;thre+ROCR100_2#1#0&amp;trend+CDLRICKSHAWMAN#3#1&amp;trend+CMO_14#STOCHRSI_fastd_14#0&amp;cross+STOCHRSI_fastd_30#75#1&amp;thre&amp;HS+CEIL#26#1&amp;thre+ACOS#1#0&amp;trend&amp;HS+MOM_40#8#1&amp;thre&amp;HS+TRIX_2#3#1&amp;trend&amp;HS+RSI_5#ROCR100_7#1&amp;diff+close_EMA_7#close_MA_14#0&amp;diff+M_line_7#L_line_14#0&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff+close_KAMA_7#1#1&amp;trend&amp;HS+TRIX_30#0#0&amp;thre&amp;HS+CDLABANDONEDBABY#1#1&amp;trend+ROC_60#35#0&amp;thre+CDLLADDERBOTTOM#1#0&amp;trend+ROCR100_40#1#1&amp;trend&amp;HS+close_EMA_2#close_MA_7#0&amp;cross+VAR_60#3#1&amp;trend+close_MA_40#32#1&amp;thre+RSI_5#ROCR100_7#1&amp;cross+NATR_7#ATR_40#1&amp;cross&amp;HS+close_DEMA_12#close_TEMA_14#0&amp;cross&amp;HS+LINEARREG_SLOPE_14#3#1&amp;trend+CDLSHOOTINGSTAR#3#1&amp;trend+close_TEMA_60#MAVP_2#0&amp;cross&amp;HS+VAR_2#LINEARREG_ANGLE_7#0&amp;cross&amp;HS+CDLCONCEALBABYSWALL#0#0&amp;thre+STDDEV_12#VAR_14#1&amp;cross+TSF_2#25#1&amp;thre+TRIX_40#3#0&amp;trend&amp;HS+VAR_12#1#1&amp;trend+LINEARREG_26#LINEARREG_INTERCEPT_30#1&amp;cross+ATR_7#1#0&amp;trend&amp;HS+close_TRIMA_14#43#0&amp;thre&amp;HS+RSI_30#1#1&amp;trend+LINEARREG_14#1#0&amp;trend+quadrature#-8#0&amp;thre&amp;HS+close_TEMA_14#32#0&amp;thre&amp;HS+ATR_26#2#0&amp;thre&amp;HS+VAR_26#3#0&amp;trend&amp;HS+L_line_26#MAVP_60#1&amp;diff&amp;HS+CDLLONGLINE#2#0&amp;trend&amp;HS+TRIX_30#0#1&amp;thre&amp;HS+TRIX_12#0#1&amp;thre&amp;HS+TRIX_60#APO#0&amp;diff&amp;HS+ROCR100_14#1#1&amp;trend&amp;HS+NATR_30#STDDEV_2#1&amp;cross+close_TEMA_5#3#1&amp;trend&amp;HS+STOCHRSI_fastd_60#51#1&amp;thre+CDLLONGLINE#49#1&amp;thre&amp;HS+H_line_12#1#0&amp;trend&amp;HS+ROC_60#1#1&amp;trend+ROC_14#18#0&amp;thre&amp;HS+STOCHRSI_fastk_5#2#0&amp;trend+NATR_12#5#1&amp;thre&amp;HS+ROCR100_12#ROCR_14#1&amp;cross&amp;HS+H_line_7#1#1&amp;trend&amp;HS+VAR_60#1#0&amp;trend&amp;HS+close_TRIMA_60#2#1&amp;trend&amp;HS+CMO_2#STOCHRSI_fastd_2#1&amp;cross+MOM_40#CMO_60#0&amp;diff+CDLCLOSINGMARUBOZU#-2#1&amp;thre&amp;HS+close_MA_7#2#1&amp;trend&amp;HS+L_line_5#2#0&amp;trend+MACD#1#0&amp;thre&amp;HS+CDLMORNINGSTAR#1#0&amp;trend+L_line_2#2#1&amp;trend&amp;HS+STOCHRSI_fastk_26#TRIX_30#1&amp;diff+LINEARREG_SLOPE_12#TSF_14#0&amp;cross+RSI_12#1#0&amp;trend&amp;HS+close_WMA_5#3#1&amp;trend+ROCR100_2#2#1&amp;trend+LINEARREG_7#1#0&amp;trend+CDLGAPSIDESIDEWHITE#1#1&amp;trend+close_MA_60#32#1&amp;thre&amp;HS+STDDEV_26#2#0&amp;thre&amp;HS+MAVP_26#26#1&amp;thre&amp;HS+CDLKICKING#1#0&amp;trend+FLOOR#25#1&amp;thre&amp;HS+close_KAMA_30#1#1&amp;trend+LINEARREG_INTERCEPT_60#1#0&amp;trend&amp;HS+LINEARREG_INTERCEPT_26#3#0&amp;trend+LINEARREG_INTERCEPT_60#ACOS#0&amp;cross+ROCR100_30#99#0&amp;thre+close_DEMA_60#3#0&amp;trend+ROCR100_60#3#0&amp;trend&amp;HS+NATR_12#2#1&amp;trend+CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS+LINEARREG_30#1#0&amp;trend&amp;HS+close_WMA_7#26#1&amp;thre+CDLINVERTEDHAMMER#1#0&amp;thre&amp;HS+VAR_14#1#1&amp;thre+CDLABANDONEDBABY#0#1&amp;thre+M_line_2#L_line_7#0&amp;diff+MAVP_2#3#1&amp;trend+MACD#3#1&amp;trend+H_line_30#35#1&amp;thre&amp;HS+CEIL#47#1&amp;thre+ROCR_5#0#0&amp;thre&amp;HS+CDLSHOOTINGSTAR#2#1&amp;trend+PPO#3#0&amp;trend&amp;HS+ATR_7#NATR_30#0&amp;cross&amp;HS+close_KAMA_2#2#1&amp;trend&amp;HS+STDDEV_5#0#0&amp;thre+H_line_5#3#0&amp;trend&amp;HS+close_EMA_12#26#1&amp;thre&amp;HS+L_line_14#24#1&amp;thre&amp;HS+ROC_40#-16#1&amp;thre+close_DEMA_2#46#0&amp;thre+ADOSC#2#1&amp;trend&amp;HS+STDDEV_14#3#0&amp;trend&amp;HS+CMO_7#2#0&amp;trend&amp;HS+ROCR_40#ROCP_60#1&amp;cross+ROCR100_30#ROCR_40#1&amp;diff&amp;HS+STOCHRSI_fastd_5#50#1&amp;thre+ROCR100_5#89#1&amp;thre+close_KAMA_7#1#1&amp;trend+NATR_40#3#1&amp;thre&amp;HS+ATR_60#LINEARREG_5#1&amp;diff+close_SMA_40#2#1&amp;trend+STOCHRSI_fastk_7#TRIX_12#0&amp;diff+RSI_26#ROCR100_30#0&amp;cross&amp;HS+APO#1#1&amp;thre+CDLONNECK#3#0&amp;trend&amp;HS+CDLHIKKAKEMOD#2#0&amp;trend+TRANGE#1#0&amp;thre&amp;HS+close_WMA_5#32#1&amp;thre+COS#1#0&amp;trend&amp;HS+EXP#2#0&amp;trend&amp;HS+TAN#-296#0&amp;thre+CDLHANGINGMAN#0#1&amp;thre+close_EMA_14#26#1&amp;thre&amp;HS+inhpase#NATR_2#0&amp;cross&amp;HS+CDLKICKINGBYLENGTH#1#0&amp;trend+RSI_12#28#1&amp;thre+close_DEMA_14#32#1&amp;thre&amp;HS+close_EMA_26#32#1&amp;thre&amp;HS+LINEARREG_SLOPE_5#TSF_7#1&amp;diff', 'close_EMA_26#32#1&amp;thre&amp;HS']2020-05-12 06:41:11</t>
   </si>
   <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-13 10:42:11</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-13 16:46:33</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-13 22:44:17</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']2020-05-14 00:32:48</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20_shift_1#close#1&amp;HS&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*xxx+D_shift_1#30#0&amp;HS&amp;thre*xxx']2020-05-14 01:43:28</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-14 03:30:41</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff']2020-05-14 05:31:14</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre']2020-05-14 07:29:27</t>
+  </si>
+  <si>
     <t>strategy_name</t>
   </si>
   <si>
@@ -180,6 +204,9 @@
   </si>
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-11 17:14:55</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20_shift_1#close#1&amp;HS&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*xxx+D_shift_1#30#0&amp;HS&amp;thre*xxx']2020-05-14 01:43:29</t>
   </si>
   <si>
     <t>start_date</t>
@@ -618,13 +645,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:26">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -676,66 +703,114 @@
       <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>59</v>
+      </c>
+      <c r="P2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
+      <c r="V2" t="s">
         <v>46</v>
       </c>
-      <c r="K2" t="s">
+      <c r="W2" t="s">
         <v>47</v>
       </c>
-      <c r="L2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="X2" t="s">
         <v>49</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Y2" t="s">
         <v>50</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Z2" t="s">
         <v>51</v>
       </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>-0.06068879581669351</v>
@@ -788,10 +863,34 @@
       <c r="R3">
         <v>-0.5858844793193516</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>-0.150795083462982</v>
+      </c>
+      <c r="U3">
+        <v>-0.1579827465023286</v>
+      </c>
+      <c r="V3">
+        <v>-0.1567601421304226</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>-0.1209820410255686</v>
+      </c>
+      <c r="Y3">
+        <v>-0.1049158262770931</v>
+      </c>
+      <c r="Z3">
+        <v>-0.129150824477956</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>309</v>
@@ -844,10 +943,34 @@
       <c r="R4">
         <v>55343</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>4014</v>
+      </c>
+      <c r="U4">
+        <v>1560</v>
+      </c>
+      <c r="V4">
+        <v>469</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>2367</v>
+      </c>
+      <c r="Y4">
+        <v>771</v>
+      </c>
+      <c r="Z4">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>-0.322888504320907</v>
@@ -856,7 +979,7 @@
         <v>-0.1183184018008555</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>-0.6048521730266428</v>
@@ -880,10 +1003,10 @@
         <v>-0.4545198422842536</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N5">
         <v>-1.063976094679115</v>
@@ -892,7 +1015,7 @@
         <v>0.3533550856249668</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q5">
         <v>-12.40955753951304</v>
@@ -900,10 +1023,34 @@
       <c r="R5">
         <v>-12.40955753951304</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5">
+        <v>-0.3632366384530361</v>
+      </c>
+      <c r="U5">
+        <v>0.2391627163853851</v>
+      </c>
+      <c r="V5">
+        <v>0.07047986719995178</v>
+      </c>
+      <c r="W5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X5">
+        <v>-0.1097858239713151</v>
+      </c>
+      <c r="Y5">
+        <v>-0.3685974919741902</v>
+      </c>
+      <c r="Z5">
+        <v>-0.03156956008838294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0.00586360100162878</v>
@@ -956,10 +1103,34 @@
       <c r="R6">
         <v>-0.5858844793193516</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>-0.03986804108296027</v>
+      </c>
+      <c r="U6">
+        <v>0.05815746242066359</v>
+      </c>
+      <c r="V6">
+        <v>0.03789251454160617</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0.001268935456350647</v>
+      </c>
+      <c r="Y6">
+        <v>-0.01756079400495423</v>
+      </c>
+      <c r="Z6">
+        <v>0.02115370472041645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>-0.01037357430000463</v>
@@ -1012,10 +1183,34 @@
       <c r="R7">
         <v>-0.5905839587242026</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>-0.06965358142040601</v>
+      </c>
+      <c r="U7">
+        <v>-0.06444005740999637</v>
+      </c>
+      <c r="V7">
+        <v>-0.02928697676608161</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>-0.06452455896518838</v>
+      </c>
+      <c r="Y7">
+        <v>-0.04294378617508421</v>
+      </c>
+      <c r="Z7">
+        <v>-0.06865599485653195</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>352</v>
@@ -1068,10 +1263,34 @@
       <c r="R8">
         <v>56143</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>4750</v>
+      </c>
+      <c r="U8">
+        <v>1141</v>
+      </c>
+      <c r="V8">
+        <v>2150</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>1642</v>
+      </c>
+      <c r="Y8">
+        <v>1064</v>
+      </c>
+      <c r="Z8">
+        <v>7148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>0.964891579226408</v>
@@ -1080,7 +1299,7 @@
         <v>0.9242453061539718</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>2.169444188749579</v>
@@ -1104,10 +1323,10 @@
         <v>1.61797184494811</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>-0.09540756946655782</v>
@@ -1116,7 +1335,7 @@
         <v>1.965500067665733</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q9">
         <v>-37.68925196360794</v>
@@ -1124,10 +1343,34 @@
       <c r="R9">
         <v>-37.68925196360794</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9">
+        <v>-0.1203066445141539</v>
+      </c>
+      <c r="U9">
+        <v>0.4169535572336237</v>
+      </c>
+      <c r="V9">
+        <v>0.4035141658479074</v>
+      </c>
+      <c r="W9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9">
+        <v>0.2013949957443495</v>
+      </c>
+      <c r="Y9">
+        <v>-0.9194510280130714</v>
+      </c>
+      <c r="Z9">
+        <v>-0.3498167821980699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0.04737268008837399</v>
@@ -1180,10 +1423,34 @@
       <c r="R10">
         <v>-0.5905839587242026</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.004971303835086399</v>
+      </c>
+      <c r="U10">
+        <v>0.0565919006866133</v>
+      </c>
+      <c r="V10">
+        <v>0.05138831366504672</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0.03182864803949149</v>
+      </c>
+      <c r="Y10">
+        <v>-0.01789586097537285</v>
+      </c>
+      <c r="Z10">
+        <v>-0.004002514335647122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>-0.07593883860828288</v>
@@ -1236,10 +1503,34 @@
       <c r="R11">
         <v>-0.6356217245065575</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>-0.1742884136807769</v>
+      </c>
+      <c r="U11">
+        <v>-0.1607330793818318</v>
+      </c>
+      <c r="V11">
+        <v>-0.1059622181272566</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>-0.1527278994133658</v>
+      </c>
+      <c r="Y11">
+        <v>-0.07742449554060138</v>
+      </c>
+      <c r="Z11">
+        <v>-0.2216972850462069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>559</v>
@@ -1292,10 +1583,34 @@
       <c r="R12">
         <v>57732</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>3321</v>
+      </c>
+      <c r="U12">
+        <v>1990</v>
+      </c>
+      <c r="V12">
+        <v>1685</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>2840</v>
+      </c>
+      <c r="Y12">
+        <v>1428</v>
+      </c>
+      <c r="Z12">
+        <v>4745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>-0.04841559501838143</v>
@@ -1304,7 +1619,7 @@
         <v>-0.6748977489571448</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>-1.446289189101312</v>
@@ -1328,10 +1643,10 @@
         <v>0.1030007104252951</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>-0.2693133559121839</v>
@@ -1340,7 +1655,7 @@
         <v>-0.9201635600766969</v>
       </c>
       <c r="P13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>-28.28099545520579</v>
@@ -1348,10 +1663,34 @@
       <c r="R13">
         <v>-28.28099545520579</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="S13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13">
+        <v>-1.544450205131759</v>
+      </c>
+      <c r="U13">
+        <v>-0.4187453517074859</v>
+      </c>
+      <c r="V13">
+        <v>-1.406651460541292</v>
+      </c>
+      <c r="W13" t="s">
+        <v>48</v>
+      </c>
+      <c r="X13">
+        <v>-0.97382364569949</v>
+      </c>
+      <c r="Y13">
+        <v>-0.7466487605189031</v>
+      </c>
+      <c r="Z13">
+        <v>-1.69710830218097</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>0.01824049369479946</v>
@@ -1404,10 +1743,34 @@
       <c r="R14">
         <v>-0.6356217245065574</v>
       </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>-0.1209528232299727</v>
+      </c>
+      <c r="U14">
+        <v>-0.02851282063545975</v>
+      </c>
+      <c r="V14">
+        <v>-0.06513116068794444</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>-0.06974554037919313</v>
+      </c>
+      <c r="Y14">
+        <v>-0.02769528305814802</v>
+      </c>
+      <c r="Z14">
+        <v>-0.157518734122112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>-0.1120318841141407</v>
@@ -1460,10 +1823,34 @@
       <c r="R15">
         <v>-0.5365836093907533</v>
       </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>-0.1447683320723143</v>
+      </c>
+      <c r="U15">
+        <v>-0.1384800715721118</v>
+      </c>
+      <c r="V15">
+        <v>-0.08761751206002044</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>-0.06543176300540754</v>
+      </c>
+      <c r="Y15">
+        <v>-0.1285082119714086</v>
+      </c>
+      <c r="Z15">
+        <v>-0.1257843117493427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>513</v>
@@ -1516,10 +1903,34 @@
       <c r="R16">
         <v>60472</v>
       </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>2750</v>
+      </c>
+      <c r="U16">
+        <v>2255</v>
+      </c>
+      <c r="V16">
+        <v>1786</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>3435</v>
+      </c>
+      <c r="Y16">
+        <v>1632</v>
+      </c>
+      <c r="Z16">
+        <v>4607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>0.6413937902326782</v>
@@ -1528,7 +1939,7 @@
         <v>-0.2706152262487113</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <v>1.493562370348469</v>
@@ -1552,10 +1963,10 @@
         <v>2.144193851268474</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1.029327758872524</v>
@@ -1564,7 +1975,7 @@
         <v>1.083214063259147</v>
       </c>
       <c r="P17" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q17">
         <v>-35.97233501729208</v>
@@ -1572,10 +1983,34 @@
       <c r="R17">
         <v>-35.97233501729208</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17">
+        <v>1.002781409894963</v>
+      </c>
+      <c r="U17">
+        <v>-0.1514728739974248</v>
+      </c>
+      <c r="V17">
+        <v>-0.5044025247297703</v>
+      </c>
+      <c r="W17" t="s">
+        <v>48</v>
+      </c>
+      <c r="X17">
+        <v>1.628088937001858</v>
+      </c>
+      <c r="Y17">
+        <v>1.107184471481085</v>
+      </c>
+      <c r="Z17">
+        <v>1.180763345861575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>0.09461197171710613</v>
@@ -1628,10 +2063,34 @@
       <c r="R18">
         <v>-0.5365836093907533</v>
       </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0.2177208392555697</v>
+      </c>
+      <c r="U18">
+        <v>-0.003510506616096656</v>
+      </c>
+      <c r="V18">
+        <v>-0.0307292143551158</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0.2927129183001333</v>
+      </c>
+      <c r="Y18">
+        <v>0.242913321747531</v>
+      </c>
+      <c r="Z18">
+        <v>0.2580885963266497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>-0.163714060091224</v>
@@ -1684,10 +2143,34 @@
       <c r="R19">
         <v>-0.536798</v>
       </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>-0.2388284516496409</v>
+      </c>
+      <c r="U19">
+        <v>-0.304276169000006</v>
+      </c>
+      <c r="V19">
+        <v>-0.2297152689189456</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>-0.2113134003435182</v>
+      </c>
+      <c r="Y19">
+        <v>-0.4135708905074058</v>
+      </c>
+      <c r="Z19">
+        <v>-0.4189956400744366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>1011</v>
@@ -1740,10 +2223,34 @@
       <c r="R20">
         <v>54010</v>
       </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>3733</v>
+      </c>
+      <c r="U20">
+        <v>1099</v>
+      </c>
+      <c r="V20">
+        <v>3968</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>1755</v>
+      </c>
+      <c r="Y20">
+        <v>1318</v>
+      </c>
+      <c r="Z20">
+        <v>7285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>1.415005227739788</v>
@@ -1752,7 +2259,7 @@
         <v>0.6911351083684878</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E21">
         <v>0.5134714379876141</v>
@@ -1776,10 +2283,10 @@
         <v>1.207139776651669</v>
       </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="M21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <v>1.245776409597041</v>
@@ -1788,7 +2295,7 @@
         <v>2.193115179407612</v>
       </c>
       <c r="P21" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Q21">
         <v>-5.023761652020543</v>
@@ -1796,10 +2303,34 @@
       <c r="R21">
         <v>-5.023761652020543</v>
       </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" t="s">
+        <v>48</v>
+      </c>
+      <c r="T21">
+        <v>2.119189326723302</v>
+      </c>
+      <c r="U21">
+        <v>1.517856842930615</v>
+      </c>
+      <c r="V21">
+        <v>0.3792863868755692</v>
+      </c>
+      <c r="W21" t="s">
+        <v>48</v>
+      </c>
+      <c r="X21">
+        <v>1.814370310865916</v>
+      </c>
+      <c r="Y21">
+        <v>0.4297882188331858</v>
+      </c>
+      <c r="Z21">
+        <v>0.4997581219019073</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>0.317564</v>
@@ -1851,6 +2382,30 @@
       </c>
       <c r="R22">
         <v>-0.536798</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>1.046256</v>
+      </c>
+      <c r="U22">
+        <v>0.4849619999999999</v>
+      </c>
+      <c r="V22">
+        <v>0.105577</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0.679076</v>
+      </c>
+      <c r="Y22">
+        <v>0.189632</v>
+      </c>
+      <c r="Z22">
+        <v>0.206887</v>
       </c>
     </row>
   </sheetData>
@@ -1860,18 +2415,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:27">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1921,305 +2476,449 @@
       <c r="S1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="J2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" t="s">
         <v>45</v>
       </c>
-      <c r="K2" t="s">
+      <c r="W2" t="s">
         <v>46</v>
       </c>
-      <c r="L2" t="s">
+      <c r="X2" t="s">
         <v>47</v>
       </c>
-      <c r="M2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="Y2" t="s">
         <v>49</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Z2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AA2" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="O3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="S3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>87</v>
+      </c>
+      <c r="T3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" t="s">
+        <v>87</v>
+      </c>
+      <c r="V3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W3" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="O4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="S4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>88</v>
+      </c>
+      <c r="T4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U4" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" t="s">
+        <v>88</v>
+      </c>
+      <c r="W4" t="s">
+        <v>88</v>
+      </c>
+      <c r="X4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>89</v>
+      </c>
+      <c r="T5" t="s">
+        <v>89</v>
+      </c>
+      <c r="U5" t="s">
+        <v>89</v>
+      </c>
+      <c r="V5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" t="s">
+        <v>89</v>
+      </c>
+      <c r="X5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="M6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>90</v>
+      </c>
+      <c r="T6" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" t="s">
+        <v>90</v>
+      </c>
+      <c r="V6" t="s">
+        <v>90</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -2275,10 +2974,34 @@
       <c r="S7">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>100000000</v>
+      </c>
+      <c r="U7">
+        <v>100000000</v>
+      </c>
+      <c r="V7">
+        <v>100000000</v>
+      </c>
+      <c r="W7">
+        <v>100000000</v>
+      </c>
+      <c r="X7">
+        <v>100000000</v>
+      </c>
+      <c r="Y7">
+        <v>100000000</v>
+      </c>
+      <c r="Z7">
+        <v>100000000</v>
+      </c>
+      <c r="AA7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>0.056</v>
@@ -2334,10 +3057,34 @@
       <c r="S8">
         <v>-0.9360000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>-0.035</v>
+      </c>
+      <c r="U8">
+        <v>0.126</v>
+      </c>
+      <c r="V8">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="W8">
+        <v>-0.014</v>
+      </c>
+      <c r="X8">
+        <v>-0.035</v>
+      </c>
+      <c r="Y8">
+        <v>0.122</v>
+      </c>
+      <c r="Z8">
+        <v>0.043</v>
+      </c>
+      <c r="AA8">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>0.217</v>
@@ -2393,10 +3140,34 @@
       <c r="S9">
         <v>0.275</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0.362</v>
+      </c>
+      <c r="V9">
+        <v>0.334</v>
+      </c>
+      <c r="W9">
+        <v>0.227</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0.379</v>
+      </c>
+      <c r="Z9">
+        <v>0.391</v>
+      </c>
+      <c r="AA9">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>0.617</v>
@@ -2440,10 +3211,28 @@
       <c r="S10">
         <v>-10.326</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="U10">
+        <v>0.767</v>
+      </c>
+      <c r="V10">
+        <v>0.489</v>
+      </c>
+      <c r="W10">
+        <v>-0.076</v>
+      </c>
+      <c r="Y10">
+        <v>0.849</v>
+      </c>
+      <c r="Z10">
+        <v>0.316</v>
+      </c>
+      <c r="AA10">
+        <v>0.165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>0.184</v>
@@ -2499,10 +3288,34 @@
       <c r="S11">
         <v>-5.078</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>-0.233</v>
+      </c>
+      <c r="U11">
+        <v>0.515</v>
+      </c>
+      <c r="V11">
+        <v>0.261</v>
+      </c>
+      <c r="W11">
+        <v>-0.146</v>
+      </c>
+      <c r="X11">
+        <v>-0.233</v>
+      </c>
+      <c r="Y11">
+        <v>0.552</v>
+      </c>
+      <c r="Z11">
+        <v>0.145</v>
+      </c>
+      <c r="AA11">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>0.136</v>
@@ -2558,10 +3371,34 @@
       <c r="S12">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>0.163</v>
+      </c>
+      <c r="U12">
+        <v>0.147</v>
+      </c>
+      <c r="V12">
+        <v>0.14</v>
+      </c>
+      <c r="W12">
+        <v>0.148</v>
+      </c>
+      <c r="X12">
+        <v>0.163</v>
+      </c>
+      <c r="Y12">
+        <v>0.129</v>
+      </c>
+      <c r="Z12">
+        <v>0.134</v>
+      </c>
+      <c r="AA12">
+        <v>0.137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>0.209</v>
@@ -2617,10 +3454,34 @@
       <c r="S13">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>0.245</v>
+      </c>
+      <c r="U13">
+        <v>0.218</v>
+      </c>
+      <c r="V13">
+        <v>0.214</v>
+      </c>
+      <c r="W13">
+        <v>0.218</v>
+      </c>
+      <c r="X13">
+        <v>0.245</v>
+      </c>
+      <c r="Y13">
+        <v>0.196</v>
+      </c>
+      <c r="Z13">
+        <v>0.199</v>
+      </c>
+      <c r="AA13">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>0.028</v>
@@ -2676,10 +3537,34 @@
       <c r="S14">
         <v>-0.366</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>-0.013</v>
+      </c>
+      <c r="U14">
+        <v>0.058</v>
+      </c>
+      <c r="V14">
+        <v>0.035</v>
+      </c>
+      <c r="W14">
+        <v>-0.004</v>
+      </c>
+      <c r="X14">
+        <v>-0.013</v>
+      </c>
+      <c r="Y14">
+        <v>0.064</v>
+      </c>
+      <c r="Z14">
+        <v>0.024</v>
+      </c>
+      <c r="AA14">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>0.099</v>
@@ -2735,10 +3620,34 @@
       <c r="S15">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0.176</v>
+      </c>
+      <c r="V15">
+        <v>0.16</v>
+      </c>
+      <c r="W15">
+        <v>0.121</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0.154</v>
+      </c>
+      <c r="Z15">
+        <v>0.163</v>
+      </c>
+      <c r="AA15">
+        <v>0.176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>0.164</v>
@@ -2794,10 +3703,34 @@
       <c r="S16">
         <v>0.987</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0.255</v>
+      </c>
+      <c r="V16">
+        <v>0.304</v>
+      </c>
+      <c r="W16">
+        <v>0.303</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0.211</v>
+      </c>
+      <c r="Z16">
+        <v>0.414</v>
+      </c>
+      <c r="AA16">
+        <v>0.438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>155010327.538</v>
@@ -2853,10 +3786,34 @@
       <c r="S17">
         <v>1286957.289</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>100000000</v>
+      </c>
+      <c r="U17">
+        <v>209987830.935</v>
+      </c>
+      <c r="V17">
+        <v>162055222.945</v>
+      </c>
+      <c r="W17">
+        <v>109035537.823</v>
+      </c>
+      <c r="X17">
+        <v>100000000</v>
+      </c>
+      <c r="Y17">
+        <v>209521069.238</v>
+      </c>
+      <c r="Z17">
+        <v>142037354.035</v>
+      </c>
+      <c r="AA17">
+        <v>126063998.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B18">
         <v>152943314.538</v>
@@ -2912,10 +3869,34 @@
       <c r="S18">
         <v>522465.289</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>100000000</v>
+      </c>
+      <c r="U18">
+        <v>79.935</v>
+      </c>
+      <c r="V18">
+        <v>157337400.945</v>
+      </c>
+      <c r="W18">
+        <v>103928611.823</v>
+      </c>
+      <c r="X18">
+        <v>100000000</v>
+      </c>
+      <c r="Y18">
+        <v>29.938</v>
+      </c>
+      <c r="Z18">
+        <v>128371125.235</v>
+      </c>
+      <c r="AA18">
+        <v>103.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B19">
         <v>0.55</v>
@@ -2971,10 +3952,34 @@
       <c r="S19">
         <v>-0.987</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>1.1</v>
+      </c>
+      <c r="V19">
+        <v>0.621</v>
+      </c>
+      <c r="W19">
+        <v>0.09</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>1.095</v>
+      </c>
+      <c r="Z19">
+        <v>0.42</v>
+      </c>
+      <c r="AA19">
+        <v>0.261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B20">
         <v>0.095</v>
@@ -3030,10 +4035,34 @@
       <c r="S20">
         <v>-0.594</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0.166</v>
+      </c>
+      <c r="V20">
+        <v>0.105</v>
+      </c>
+      <c r="W20">
+        <v>0.018</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0.166</v>
+      </c>
+      <c r="Z20">
+        <v>0.075</v>
+      </c>
+      <c r="AA20">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B21">
         <v>1.55</v>
@@ -3089,10 +4118,34 @@
       <c r="S21">
         <v>0.013</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>2.1</v>
+      </c>
+      <c r="V21">
+        <v>1.621</v>
+      </c>
+      <c r="W21">
+        <v>1.09</v>
+      </c>
+      <c r="X21">
+        <v>1</v>
+      </c>
+      <c r="Y21">
+        <v>2.095</v>
+      </c>
+      <c r="Z21">
+        <v>1.42</v>
+      </c>
+      <c r="AA21">
+        <v>1.261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -3148,10 +4201,34 @@
       <c r="S22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>100000000</v>
+      </c>
+      <c r="U22">
+        <v>100000000</v>
+      </c>
+      <c r="V22">
+        <v>100000000</v>
+      </c>
+      <c r="W22">
+        <v>100000000</v>
+      </c>
+      <c r="X22">
+        <v>100000000</v>
+      </c>
+      <c r="Y22">
+        <v>100000000</v>
+      </c>
+      <c r="Z22">
+        <v>100000000</v>
+      </c>
+      <c r="AA22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -3207,10 +4284,34 @@
       <c r="S23">
         <v>0.138</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>0.138</v>
+      </c>
+      <c r="U23">
+        <v>0.138</v>
+      </c>
+      <c r="V23">
+        <v>0.138</v>
+      </c>
+      <c r="W23">
+        <v>0.138</v>
+      </c>
+      <c r="X23">
+        <v>0.138</v>
+      </c>
+      <c r="Y23">
+        <v>0.138</v>
+      </c>
+      <c r="Z23">
+        <v>0.138</v>
+      </c>
+      <c r="AA23">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -3266,10 +4367,34 @@
       <c r="S24">
         <v>0.027</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>0.027</v>
+      </c>
+      <c r="U24">
+        <v>0.027</v>
+      </c>
+      <c r="V24">
+        <v>0.027</v>
+      </c>
+      <c r="W24">
+        <v>0.027</v>
+      </c>
+      <c r="X24">
+        <v>0.027</v>
+      </c>
+      <c r="Y24">
+        <v>0.027</v>
+      </c>
+      <c r="Z24">
+        <v>0.027</v>
+      </c>
+      <c r="AA24">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -3324,6 +4449,30 @@
       </c>
       <c r="S25">
         <v>300</v>
+      </c>
+      <c r="T25">
+        <v>2970</v>
+      </c>
+      <c r="U25">
+        <v>2970</v>
+      </c>
+      <c r="V25">
+        <v>2970</v>
+      </c>
+      <c r="W25">
+        <v>2970</v>
+      </c>
+      <c r="X25">
+        <v>2970</v>
+      </c>
+      <c r="Y25">
+        <v>2970</v>
+      </c>
+      <c r="Z25">
+        <v>2970</v>
+      </c>
+      <c r="AA25">
+        <v>2970</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="100">
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']2020-05-11 17:24:07</t>
   </si>
@@ -89,6 +89,27 @@
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre']2020-05-14 07:29:27</t>
   </si>
   <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre', 'K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre']2020-05-14 09:48:11</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre']2020-05-14 11:51:26</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre']2020-05-14 14:27:03</t>
+  </si>
+  <si>
+    <t>['ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*ROCP_26#0#0&amp;thre&amp;HS+ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*CMO_14#STOCHRSI_fastd_14#0&amp;cross+ROCR100_30#99#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*ROCP_26#0#0&amp;thre&amp;HS+ROCR100_30#99#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+ROCR100_30#99#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*CMO_14#STOCHRSI_fastd_14#0&amp;cross+ROCR100_30#99#0&amp;thre*CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS*ROCP_26#0#0&amp;thre&amp;HS+ROCR100_30#99#0&amp;thre*CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+ROCR100_30#99#0&amp;thre*CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS*CMO_14#STOCHRSI_fastd_14#0&amp;cross', 'CDLMORNINGSTAR#1#0&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*MOM_40#CMO_60#0&amp;diff+CDLMORNINGSTAR#1#0&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*L_line_26#2#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*MOM_40#CMO_60#0&amp;diff+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*L_line_26#2#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*MOM_40#CMO_60#0&amp;diff+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*L_line_26#2#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*STDDEV_14#1#1&amp;trend&amp;HS']2020-05-14 14:49:45</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre']2020-05-14 16:39:32</t>
+  </si>
+  <si>
+    <t>['K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+K#10#0&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#70#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_5#1&amp;diff*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#80#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*close_MA_5#close_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#90#1&amp;thre*K#80#1&amp;thre*D_shift_1#20#0&amp;thre', 'close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_shift_1#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+xxx*open#close#1&amp;diff*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+xxx*open#close#1&amp;diff*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*open#close#1&amp;diff*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+xxx*open#close#1&amp;diff*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+xxx*open#close#1&amp;diff*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*open#close#1&amp;diff*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+xxx*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+xxx*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+xxx*K#10#0&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#10#0&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#10#0&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#10#0&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#10#0&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#10#0&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+xxx*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+xxx*K#90#1&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#90#1&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#90#1&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#90#1&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+xxx*K#90#1&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#90#1&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+xxx*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+xxx*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+xxx*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#10#0&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*K#40#0&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*CCI#100#1&amp;thre*D_shift_1#40#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*open#close_MA_10#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*close_MA_20_shift_1#close_MA_20#1&amp;diff+DEA_shift_1#DEA#1&amp;HS&amp;diff*K#90#1&amp;thre*RSI_12_shift_1#RSI_12#1&amp;diff*D_shift_1#40#0&amp;thre']2020-05-14 17:59:49</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-14 18:27:22</t>
+  </si>
+  <si>
     <t>strategy_name</t>
   </si>
   <si>
@@ -203,10 +224,16 @@
     <t>['SAR#3#0&amp;trend+ROC_14#-10#0&amp;thre+STOCHRSI_fastd_7#STOCHRSI_fastk_12#0&amp;diff+SIN#DIV#0&amp;diff&amp;HS+NATR_5#3#1&amp;trend+LINEARREG_ANGLE_40#2#0&amp;trend+NATR_14#3#0&amp;thre&amp;HS+ATR_60#1#1&amp;thre&amp;HS+ATR_14#0#0&amp;thre&amp;HS+close_TRIMA_30#42#0&amp;thre+CDLEVENINGDOJISTAR#0#0&amp;thre&amp;HS+close_MAMA#close_EMA_2#1&amp;diff&amp;HS+RSI_30#ROCR100_40#0&amp;cross+CEIL#3#0&amp;trend+OBV#4571203#1&amp;thre&amp;HS+CDLLONGLINE#3#0&amp;trend&amp;HS+CDLMATCHINGLOW#1#0&amp;thre&amp;HS+VAR_30#1#1&amp;thre+SINH#2#0&amp;trend+TSF_7#LINEARREG_14#0&amp;cross&amp;HS+CMO_12#33#0&amp;thre+LINEARREG_12#43#1&amp;thre+L_line_26#3#1&amp;trend+TRIX_26#3#1&amp;trend+CDLPIERCING#0#0&amp;thre+ROCP_26#0#0&amp;thre&amp;HS+L_line_60#28#0&amp;thre+close_TRIMA_40#close_KAMA_60#0&amp;cross+ROCR_14#1#0&amp;thre&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;diff+RSI_60#60#1&amp;thre&amp;HS+CDLHIKKAKEMOD#3#1&amp;trend&amp;HS+STDDEV_14#1#1&amp;trend&amp;HS+close_TEMA_30#close_TRIMA_40#0&amp;cross&amp;HS+CDLBREAKAWAY#2#0&amp;trend+TRANGE#ATR_26#0&amp;cross+L_line_30#AVGPRICE#1&amp;diff&amp;HS+CDLGAPSIDESIDEWHITE#2#0&amp;trend&amp;HS+TSF_5#32#1&amp;thre+TYPPRICE#1#1&amp;trend+ATAN#2#1&amp;trend&amp;HS+CDLDOJISTAR#1#0&amp;trend&amp;HS+RSI_14#65#0&amp;thre+MOM_40#3#0&amp;trend&amp;HS+STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+close_KAMA_2#2#0&amp;trend&amp;HS+MAVP_40#42#1&amp;thre&amp;HS+CDLRISEFALL3METHODS#1#1&amp;trend&amp;HS+L_line_26#2#1&amp;trend&amp;HS+close_DEMA_14#close_TEMA_26#0&amp;cross+NATR_12#5#0&amp;thre&amp;HS+CMO_60#-24#1&amp;thre+COS#FLOOR#1&amp;cross+LINEARREG_26#3#1&amp;trend+STOCHRSI_fastk_5#25#1&amp;thre&amp;HS+MOM_14#1#1&amp;trend+CDLMATCHINGLOW#1#1&amp;trend+CMO_30#3#1&amp;trend&amp;HS+close_WMA_14#close_DEMA_26#0&amp;cross&amp;HS+LINEARREG_ANGLE_2#39#0&amp;thre+ROCR100_2#1#0&amp;trend+CDLRICKSHAWMAN#3#1&amp;trend+CMO_14#STOCHRSI_fastd_14#0&amp;cross+STOCHRSI_fastd_30#75#1&amp;thre&amp;HS+CEIL#26#1&amp;thre+ACOS#1#0&amp;trend&amp;HS+MOM_40#8#1&amp;thre&amp;HS+TRIX_2#3#1&amp;trend&amp;HS+RSI_5#ROCR100_7#1&amp;diff+close_EMA_7#close_MA_14#0&amp;diff+M_line_7#L_line_14#0&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff+close_KAMA_7#1#1&amp;trend&amp;HS+TRIX_30#0#0&amp;thre&amp;HS+CDLABANDONEDBABY#1#1&amp;trend+ROC_60#35#0&amp;thre+CDLLADDERBOTTOM#1#0&amp;trend+ROCR100_40#1#1&amp;trend&amp;HS+close_EMA_2#close_MA_7#0&amp;cross+VAR_60#3#1&amp;trend+close_MA_40#32#1&amp;thre+RSI_5#ROCR100_7#1&amp;cross+NATR_7#ATR_40#1&amp;cross&amp;HS+close_DEMA_12#close_TEMA_14#0&amp;cross&amp;HS+LINEARREG_SLOPE_14#3#1&amp;trend+CDLSHOOTINGSTAR#3#1&amp;trend+close_TEMA_60#MAVP_2#0&amp;cross&amp;HS+VAR_2#LINEARREG_ANGLE_7#0&amp;cross&amp;HS+CDLCONCEALBABYSWALL#0#0&amp;thre+STDDEV_12#VAR_14#1&amp;cross+TSF_2#25#1&amp;thre+TRIX_40#3#0&amp;trend&amp;HS+VAR_12#1#1&amp;trend+LINEARREG_26#LINEARREG_INTERCEPT_30#1&amp;cross+ATR_7#1#0&amp;trend&amp;HS+close_TRIMA_14#43#0&amp;thre&amp;HS+RSI_30#1#1&amp;trend+LINEARREG_14#1#0&amp;trend+quadrature#-8#0&amp;thre&amp;HS+close_TEMA_14#32#0&amp;thre&amp;HS+ATR_26#2#0&amp;thre&amp;HS+VAR_26#3#0&amp;trend&amp;HS+L_line_26#MAVP_60#1&amp;diff&amp;HS+CDLLONGLINE#2#0&amp;trend&amp;HS+TRIX_30#0#1&amp;thre&amp;HS+TRIX_12#0#1&amp;thre&amp;HS+TRIX_60#APO#0&amp;diff&amp;HS+ROCR100_14#1#1&amp;trend&amp;HS+NATR_30#STDDEV_2#1&amp;cross+close_TEMA_5#3#1&amp;trend&amp;HS+STOCHRSI_fastd_60#51#1&amp;thre+CDLLONGLINE#49#1&amp;thre&amp;HS+H_line_12#1#0&amp;trend&amp;HS+ROC_60#1#1&amp;trend+ROC_14#18#0&amp;thre&amp;HS+STOCHRSI_fastk_5#2#0&amp;trend+NATR_12#5#1&amp;thre&amp;HS+ROCR100_12#ROCR_14#1&amp;cross&amp;HS+H_line_7#1#1&amp;trend&amp;HS+VAR_60#1#0&amp;trend&amp;HS+close_TRIMA_60#2#1&amp;trend&amp;HS+CMO_2#STOCHRSI_fastd_2#1&amp;cross+MOM_40#CMO_60#0&amp;diff+CDLCLOSINGMARUBOZU#-2#1&amp;thre&amp;HS+close_MA_7#2#1&amp;trend&amp;HS+L_line_5#2#0&amp;trend+MACD#1#0&amp;thre&amp;HS+CDLMORNINGSTAR#1#0&amp;trend+L_line_2#2#1&amp;trend&amp;HS+STOCHRSI_fastk_26#TRIX_30#1&amp;diff+LINEARREG_SLOPE_12#TSF_14#0&amp;cross+RSI_12#1#0&amp;trend&amp;HS+close_WMA_5#3#1&amp;trend+ROCR100_2#2#1&amp;trend+LINEARREG_7#1#0&amp;trend+CDLGAPSIDESIDEWHITE#1#1&amp;trend+close_MA_60#32#1&amp;thre&amp;HS+STDDEV_26#2#0&amp;thre&amp;HS+MAVP_26#26#1&amp;thre&amp;HS+CDLKICKING#1#0&amp;trend+FLOOR#25#1&amp;thre&amp;HS+close_KAMA_30#1#1&amp;trend+LINEARREG_INTERCEPT_60#1#0&amp;trend&amp;HS+LINEARREG_INTERCEPT_26#3#0&amp;trend+LINEARREG_INTERCEPT_60#ACOS#0&amp;cross+ROCR100_30#99#0&amp;thre+close_DEMA_60#3#0&amp;trend+ROCR100_60#3#0&amp;trend&amp;HS+NATR_12#2#1&amp;trend+CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS+LINEARREG_30#1#0&amp;trend&amp;HS+close_WMA_7#26#1&amp;thre+CDLINVERTEDHAMMER#1#0&amp;thre&amp;HS+VAR_14#1#1&amp;thre+CDLABANDONEDBABY#0#1&amp;thre+M_line_2#L_line_7#0&amp;diff+MAVP_2#3#1&amp;trend+MACD#3#1&amp;trend+H_line_30#35#1&amp;thre&amp;HS+CEIL#47#1&amp;thre+ROCR_5#0#0&amp;thre&amp;HS+CDLSHOOTINGSTAR#2#1&amp;trend+PPO#3#0&amp;trend&amp;HS+ATR_7#NATR_30#0&amp;cross&amp;HS+close_KAMA_2#2#1&amp;trend&amp;HS+STDDEV_5#0#0&amp;thre+H_line_5#3#0&amp;trend&amp;HS+close_EMA_12#26#1&amp;thre&amp;HS+L_line_14#24#1&amp;thre&amp;HS+ROC_40#-16#1&amp;thre+close_DEMA_2#46#0&amp;thre+ADOSC#2#1&amp;trend&amp;HS+STDDEV_14#3#0&amp;trend&amp;HS+CMO_7#2#0&amp;trend&amp;HS+ROCR_40#ROCP_60#1&amp;cross+ROCR100_30#ROCR_40#1&amp;diff&amp;HS+STOCHRSI_fastd_5#50#1&amp;thre+ROCR100_5#89#1&amp;thre+close_KAMA_7#1#1&amp;trend+NATR_40#3#1&amp;thre&amp;HS+ATR_60#LINEARREG_5#1&amp;diff+close_SMA_40#2#1&amp;trend+STOCHRSI_fastk_7#TRIX_12#0&amp;diff+RSI_26#ROCR100_30#0&amp;cross&amp;HS+APO#1#1&amp;thre+CDLONNECK#3#0&amp;trend&amp;HS+CDLHIKKAKEMOD#2#0&amp;trend+TRANGE#1#0&amp;thre&amp;HS+close_WMA_5#32#1&amp;thre+COS#1#0&amp;trend&amp;HS+EXP#2#0&amp;trend&amp;HS+TAN#-296#0&amp;thre+CDLHANGINGMAN#0#1&amp;thre+close_EMA_14#26#1&amp;thre&amp;HS+inhpase#NATR_2#0&amp;cross&amp;HS+CDLKICKINGBYLENGTH#1#0&amp;trend+RSI_12#28#1&amp;thre+close_DEMA_14#32#1&amp;thre&amp;HS+close_EMA_26#32#1&amp;thre&amp;HS+LINEARREG_SLOPE_5#TSF_7#1&amp;diff', 'close_EMA_26#32#1&amp;thre&amp;HS']</t>
   </si>
   <si>
+    <t>['ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*ROCP_26#0#0&amp;thre&amp;HS+ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*CMO_14#STOCHRSI_fastd_14#0&amp;cross+ROCR100_30#99#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*ROCP_26#0#0&amp;thre&amp;HS+ROCR100_30#99#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+ROCR100_30#99#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*CMO_14#STOCHRSI_fastd_14#0&amp;cross+ROCR100_30#99#0&amp;thre*CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS*ROCP_26#0#0&amp;thre&amp;HS+ROCR100_30#99#0&amp;thre*CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+ROCR100_30#99#0&amp;thre*CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS*CMO_14#STOCHRSI_fastd_14#0&amp;cross', 'CDLMORNINGSTAR#1#0&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*MOM_40#CMO_60#0&amp;diff+CDLMORNINGSTAR#1#0&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*L_line_26#2#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*MOM_40#CMO_60#0&amp;diff+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*L_line_26#2#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*MOM_40#CMO_60#0&amp;diff+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*L_line_26#2#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*STDDEV_14#1#1&amp;trend&amp;HS']</t>
+  </si>
+  <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-11 17:14:55</t>
   </si>
   <si>
     <t>['K#80#1&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#10#0&amp;HS&amp;thre*close_MA_20#open#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff', 'close_MA_20_shift_1#close#1&amp;HS&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*xxx+D_shift_1#30#0&amp;HS&amp;thre*xxx']2020-05-14 01:43:29</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre']2020-05-14 11:51:27</t>
   </si>
   <si>
     <t>start_date</t>
@@ -645,13 +672,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z22"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:33">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -727,90 +754,132 @@
       <c r="Z1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:33">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="V2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" t="s">
+      <c r="W2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="X2" t="s">
         <v>56</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Y2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Z2" t="s">
         <v>58</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AA2" t="s">
         <v>59</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AB2" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AC2" t="s">
         <v>61</v>
       </c>
-      <c r="R2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>51</v>
+      <c r="AD2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:33">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>-0.06068879581669351</v>
@@ -887,10 +956,31 @@
       <c r="Z3">
         <v>-0.129150824477956</v>
       </c>
+      <c r="AA3">
+        <v>-0.1137520864076151</v>
+      </c>
+      <c r="AB3">
+        <v>-0.1665838479721048</v>
+      </c>
+      <c r="AC3">
+        <v>-0.0722906845655128</v>
+      </c>
+      <c r="AD3">
+        <v>-0.2171551657990929</v>
+      </c>
+      <c r="AE3">
+        <v>-0.1324938251231278</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:33">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B4">
         <v>309</v>
@@ -967,10 +1057,31 @@
       <c r="Z4">
         <v>4444</v>
       </c>
+      <c r="AA4">
+        <v>2308</v>
+      </c>
+      <c r="AB4">
+        <v>412</v>
+      </c>
+      <c r="AC4">
+        <v>1249</v>
+      </c>
+      <c r="AD4">
+        <v>3255</v>
+      </c>
+      <c r="AE4">
+        <v>1312</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:33">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>-0.322888504320907</v>
@@ -979,7 +1090,7 @@
         <v>-0.1183184018008555</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E5">
         <v>-0.6048521730266428</v>
@@ -1003,10 +1114,10 @@
         <v>-0.4545198422842536</v>
       </c>
       <c r="L5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>-1.063976094679115</v>
@@ -1015,7 +1126,7 @@
         <v>0.3533550856249668</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q5">
         <v>-12.40955753951304</v>
@@ -1024,7 +1135,7 @@
         <v>-12.40955753951304</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T5">
         <v>-0.3632366384530361</v>
@@ -1036,7 +1147,7 @@
         <v>0.07047986719995178</v>
       </c>
       <c r="W5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X5">
         <v>-0.1097858239713151</v>
@@ -1047,10 +1158,31 @@
       <c r="Z5">
         <v>-0.03156956008838294</v>
       </c>
+      <c r="AA5">
+        <v>-0.6231109363165234</v>
+      </c>
+      <c r="AB5">
+        <v>-0.3786647637358212</v>
+      </c>
+      <c r="AC5">
+        <v>-0.8140129112461539</v>
+      </c>
+      <c r="AD5">
+        <v>-0.006748662266880898</v>
+      </c>
+      <c r="AE5">
+        <v>-0.5836385640223933</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:33">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B6">
         <v>0.00586360100162878</v>
@@ -1127,10 +1259,31 @@
       <c r="Z6">
         <v>0.02115370472041645</v>
       </c>
+      <c r="AA6">
+        <v>-0.03538892100652559</v>
+      </c>
+      <c r="AB6">
+        <v>-0.06031352350466328</v>
+      </c>
+      <c r="AC6">
+        <v>-0.0431116745095471</v>
+      </c>
+      <c r="AD6">
+        <v>0.03237940824307967</v>
+      </c>
+      <c r="AE6">
+        <v>-0.05592301662487794</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:33">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>-0.01037357430000463</v>
@@ -1207,10 +1360,31 @@
       <c r="Z7">
         <v>-0.06865599485653195</v>
       </c>
+      <c r="AA7">
+        <v>-0.1340036315394983</v>
+      </c>
+      <c r="AB7">
+        <v>-0.1056047363254722</v>
+      </c>
+      <c r="AC7">
+        <v>-0.07544008888580256</v>
+      </c>
+      <c r="AD7">
+        <v>-0.05860246909571998</v>
+      </c>
+      <c r="AE7">
+        <v>-0.05278710103586115</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:33">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>352</v>
@@ -1287,10 +1461,31 @@
       <c r="Z8">
         <v>7148</v>
       </c>
+      <c r="AA8">
+        <v>1090</v>
+      </c>
+      <c r="AB8">
+        <v>995</v>
+      </c>
+      <c r="AC8">
+        <v>1126</v>
+      </c>
+      <c r="AD8">
+        <v>2906</v>
+      </c>
+      <c r="AE8">
+        <v>2088</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:33">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0.964891579226408</v>
@@ -1299,7 +1494,7 @@
         <v>0.9242453061539718</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>2.169444188749579</v>
@@ -1323,10 +1518,10 @@
         <v>1.61797184494811</v>
       </c>
       <c r="L9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N9">
         <v>-0.09540756946655782</v>
@@ -1335,7 +1530,7 @@
         <v>1.965500067665733</v>
       </c>
       <c r="P9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q9">
         <v>-37.68925196360794</v>
@@ -1344,7 +1539,7 @@
         <v>-37.68925196360794</v>
       </c>
       <c r="S9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T9">
         <v>-0.1203066445141539</v>
@@ -1356,7 +1551,7 @@
         <v>0.4035141658479074</v>
       </c>
       <c r="W9" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X9">
         <v>0.2013949957443495</v>
@@ -1367,10 +1562,31 @@
       <c r="Z9">
         <v>-0.3498167821980699</v>
       </c>
+      <c r="AA9">
+        <v>-0.4839704342491026</v>
+      </c>
+      <c r="AB9">
+        <v>-0.4070949768315069</v>
+      </c>
+      <c r="AC9">
+        <v>0.2946414051398947</v>
+      </c>
+      <c r="AD9">
+        <v>1.765034620458594</v>
+      </c>
+      <c r="AE9">
+        <v>0.4730736696479984</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:33">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0.04737268008837399</v>
@@ -1447,10 +1663,31 @@
       <c r="Z10">
         <v>-0.004002514335647122</v>
       </c>
+      <c r="AA10">
+        <v>-0.02157056717111772</v>
+      </c>
+      <c r="AB10">
+        <v>-0.01783521114330681</v>
+      </c>
+      <c r="AC10">
+        <v>0.04529957191237951</v>
+      </c>
+      <c r="AD10">
+        <v>0.2519884765043658</v>
+      </c>
+      <c r="AE10">
+        <v>0.04992378707102983</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:33">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>-0.07593883860828288</v>
@@ -1527,10 +1764,31 @@
       <c r="Z11">
         <v>-0.2216972850462069</v>
       </c>
+      <c r="AA11">
+        <v>-0.1540580315506848</v>
+      </c>
+      <c r="AB11">
+        <v>-0.1588889330965412</v>
+      </c>
+      <c r="AC11">
+        <v>-0.1099951938729632</v>
+      </c>
+      <c r="AD11">
+        <v>-0.3184428580203629</v>
+      </c>
+      <c r="AE11">
+        <v>-0.1424265006595918</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:33">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>559</v>
@@ -1607,10 +1865,31 @@
       <c r="Z12">
         <v>4745</v>
       </c>
+      <c r="AA12">
+        <v>2951</v>
+      </c>
+      <c r="AB12">
+        <v>1481</v>
+      </c>
+      <c r="AC12">
+        <v>1471</v>
+      </c>
+      <c r="AD12">
+        <v>3525</v>
+      </c>
+      <c r="AE12">
+        <v>3188</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:33">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>-0.04841559501838143</v>
@@ -1619,7 +1898,7 @@
         <v>-0.6748977489571448</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E13">
         <v>-1.446289189101312</v>
@@ -1643,10 +1922,10 @@
         <v>0.1030007104252951</v>
       </c>
       <c r="L13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N13">
         <v>-0.2693133559121839</v>
@@ -1655,7 +1934,7 @@
         <v>-0.9201635600766969</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q13">
         <v>-28.28099545520579</v>
@@ -1664,7 +1943,7 @@
         <v>-28.28099545520579</v>
       </c>
       <c r="S13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T13">
         <v>-1.544450205131759</v>
@@ -1676,7 +1955,7 @@
         <v>-1.406651460541292</v>
       </c>
       <c r="W13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X13">
         <v>-0.97382364569949</v>
@@ -1687,10 +1966,31 @@
       <c r="Z13">
         <v>-1.69710830218097</v>
       </c>
+      <c r="AA13">
+        <v>-0.8422943385329807</v>
+      </c>
+      <c r="AB13">
+        <v>0.5127971884664815</v>
+      </c>
+      <c r="AC13">
+        <v>-1.64246984763442</v>
+      </c>
+      <c r="AD13">
+        <v>-1.225295899305936</v>
+      </c>
+      <c r="AE13">
+        <v>-1.526583608735104</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:33">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>0.01824049369479946</v>
@@ -1767,10 +2067,31 @@
       <c r="Z14">
         <v>-0.157518734122112</v>
       </c>
+      <c r="AA14">
+        <v>-0.07836328088632351</v>
+      </c>
+      <c r="AB14">
+        <v>0.09697592435106797</v>
+      </c>
+      <c r="AC14">
+        <v>-0.09471800380764191</v>
+      </c>
+      <c r="AD14">
+        <v>-0.2172444456640206</v>
+      </c>
+      <c r="AE14">
+        <v>-0.132414757446955</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:33">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>-0.1120318841141407</v>
@@ -1847,10 +2168,31 @@
       <c r="Z15">
         <v>-0.1257843117493427</v>
       </c>
+      <c r="AA15">
+        <v>-0.1058799638787767</v>
+      </c>
+      <c r="AB15">
+        <v>-0.119507024189021</v>
+      </c>
+      <c r="AC15">
+        <v>-0.04138410855045427</v>
+      </c>
+      <c r="AD15">
+        <v>-0.1560694627358297</v>
+      </c>
+      <c r="AE15">
+        <v>-0.05422537834328478</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:33">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>513</v>
@@ -1927,10 +2269,31 @@
       <c r="Z16">
         <v>4607</v>
       </c>
+      <c r="AA16">
+        <v>2916</v>
+      </c>
+      <c r="AB16">
+        <v>831</v>
+      </c>
+      <c r="AC16">
+        <v>1953</v>
+      </c>
+      <c r="AD16">
+        <v>4575</v>
+      </c>
+      <c r="AE16">
+        <v>2870</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:33">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>0.6413937902326782</v>
@@ -1939,7 +2302,7 @@
         <v>-0.2706152262487113</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <v>1.493562370348469</v>
@@ -1963,10 +2326,10 @@
         <v>2.144193851268474</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N17">
         <v>1.029327758872524</v>
@@ -1975,7 +2338,7 @@
         <v>1.083214063259147</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q17">
         <v>-35.97233501729208</v>
@@ -1984,7 +2347,7 @@
         <v>-35.97233501729208</v>
       </c>
       <c r="S17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T17">
         <v>1.002781409894963</v>
@@ -1996,7 +2359,7 @@
         <v>-0.5044025247297703</v>
       </c>
       <c r="W17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X17">
         <v>1.628088937001858</v>
@@ -2007,10 +2370,31 @@
       <c r="Z17">
         <v>1.180763345861575</v>
       </c>
+      <c r="AA17">
+        <v>1.108950405603052</v>
+      </c>
+      <c r="AB17">
+        <v>1.137127772180651</v>
+      </c>
+      <c r="AC17">
+        <v>1.102886380772635</v>
+      </c>
+      <c r="AD17">
+        <v>1.190659736365568</v>
+      </c>
+      <c r="AE17">
+        <v>1.441159038997348</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:33">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>0.09461197171710613</v>
@@ -2087,10 +2471,31 @@
       <c r="Z18">
         <v>0.2580885963266497</v>
       </c>
+      <c r="AA18">
+        <v>0.2433198134868055</v>
+      </c>
+      <c r="AB18">
+        <v>0.3066860612022815</v>
+      </c>
+      <c r="AC18">
+        <v>0.1137465044058649</v>
+      </c>
+      <c r="AD18">
+        <v>0.3488043338463108</v>
+      </c>
+      <c r="AE18">
+        <v>0.2270010222670149</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:33">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>-0.163714060091224</v>
@@ -2167,10 +2572,31 @@
       <c r="Z19">
         <v>-0.4189956400744366</v>
       </c>
+      <c r="AA19">
+        <v>-0.369979169891326</v>
+      </c>
+      <c r="AB19">
+        <v>-0.4600443867992506</v>
+      </c>
+      <c r="AC19">
+        <v>-0.2118384418740034</v>
+      </c>
+      <c r="AD19">
+        <v>-0.3178222950040793</v>
+      </c>
+      <c r="AE19">
+        <v>-0.2960234201220105</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:33">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>1011</v>
@@ -2247,10 +2673,31 @@
       <c r="Z20">
         <v>7285</v>
       </c>
+      <c r="AA20">
+        <v>1189</v>
+      </c>
+      <c r="AB20">
+        <v>1334</v>
+      </c>
+      <c r="AC20">
+        <v>1131</v>
+      </c>
+      <c r="AD20">
+        <v>2495</v>
+      </c>
+      <c r="AE20">
+        <v>1083</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:33">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>1.415005227739788</v>
@@ -2259,7 +2706,7 @@
         <v>0.6911351083684878</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>0.5134714379876141</v>
@@ -2283,10 +2730,10 @@
         <v>1.207139776651669</v>
       </c>
       <c r="L21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N21">
         <v>1.245776409597041</v>
@@ -2295,7 +2742,7 @@
         <v>2.193115179407612</v>
       </c>
       <c r="P21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q21">
         <v>-5.023761652020543</v>
@@ -2304,7 +2751,7 @@
         <v>-5.023761652020543</v>
       </c>
       <c r="S21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="T21">
         <v>2.119189326723302</v>
@@ -2316,7 +2763,7 @@
         <v>0.3792863868755692</v>
       </c>
       <c r="W21" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="X21">
         <v>1.814370310865916</v>
@@ -2327,10 +2774,31 @@
       <c r="Z21">
         <v>0.4997581219019073</v>
       </c>
+      <c r="AA21">
+        <v>0.3382216072735291</v>
+      </c>
+      <c r="AB21">
+        <v>0.2618419624100639</v>
+      </c>
+      <c r="AC21">
+        <v>1.029406952091754</v>
+      </c>
+      <c r="AD21">
+        <v>-0.2200711072886523</v>
+      </c>
+      <c r="AE21">
+        <v>0.8356816516922829</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:33">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>0.317564</v>
@@ -2406,6 +2874,27 @@
       </c>
       <c r="Z22">
         <v>0.206887</v>
+      </c>
+      <c r="AA22">
+        <v>0.1469469999999999</v>
+      </c>
+      <c r="AB22">
+        <v>0.1493</v>
+      </c>
+      <c r="AC22">
+        <v>0.2827280000000001</v>
+      </c>
+      <c r="AD22">
+        <v>-0.03854400000000002</v>
+      </c>
+      <c r="AE22">
+        <v>0.284511</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2415,18 +2904,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:34">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2489,7 +2978,7 @@
         <v>19</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>21</v>
@@ -2500,425 +2989,551 @@
       <c r="AA1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" t="s">
         <v>52</v>
       </c>
-      <c r="J2" t="s">
+      <c r="W2" t="s">
         <v>53</v>
       </c>
-      <c r="K2" t="s">
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="L2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Z2" t="s">
         <v>57</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AA2" t="s">
         <v>58</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AB2" t="s">
         <v>59</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AC2" t="s">
         <v>60</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AD2" t="s">
         <v>61</v>
       </c>
-      <c r="S2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" t="s">
-        <v>59</v>
-      </c>
-      <c r="U2" t="s">
-        <v>59</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>51</v>
+      <c r="AE2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="K3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="O3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="P3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="R3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="S3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="T3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="U3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="V3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="W3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="X3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Y3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="Z3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="AA3" t="s">
-        <v>87</v>
+        <v>96</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:34">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="O4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="R4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="S4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="T4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="U4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="V4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="W4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="X4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Y4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Z4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="AA4" t="s">
-        <v>88</v>
+        <v>97</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="Q5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="S5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="T5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="U5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="V5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="W5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="X5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="Z5" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="AA5" t="s">
-        <v>89</v>
+        <v>98</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:34">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="R6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="S6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="T6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="U6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="V6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="Z6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="AA6" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:34">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -2998,10 +3613,31 @@
       <c r="AA7">
         <v>100000000</v>
       </c>
+      <c r="AB7">
+        <v>100000000</v>
+      </c>
+      <c r="AC7">
+        <v>100000000</v>
+      </c>
+      <c r="AD7">
+        <v>100000000</v>
+      </c>
+      <c r="AE7">
+        <v>100000000</v>
+      </c>
+      <c r="AF7">
+        <v>100000000</v>
+      </c>
+      <c r="AG7">
+        <v>100000000</v>
+      </c>
+      <c r="AH7">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:34">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B8">
         <v>0.056</v>
@@ -3081,10 +3717,31 @@
       <c r="AA8">
         <v>0.019</v>
       </c>
+      <c r="AB8">
+        <v>0.013</v>
+      </c>
+      <c r="AC8">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AD8">
+        <v>0.02</v>
+      </c>
+      <c r="AE8">
+        <v>0.018</v>
+      </c>
+      <c r="AF8">
+        <v>0.031</v>
+      </c>
+      <c r="AG8">
+        <v>-0.035</v>
+      </c>
+      <c r="AH8">
+        <v>-0.035</v>
+      </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:34">
       <c r="A9" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B9">
         <v>0.217</v>
@@ -3164,10 +3821,31 @@
       <c r="AA9">
         <v>0.456</v>
       </c>
+      <c r="AB9">
+        <v>0.39</v>
+      </c>
+      <c r="AC9">
+        <v>0.624</v>
+      </c>
+      <c r="AD9">
+        <v>0.23</v>
+      </c>
+      <c r="AE9">
+        <v>0.858</v>
+      </c>
+      <c r="AF9">
+        <v>0.346</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:34">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>0.617</v>
@@ -3229,10 +3907,25 @@
       <c r="AA10">
         <v>0.165</v>
       </c>
+      <c r="AB10">
+        <v>0.132</v>
+      </c>
+      <c r="AC10">
+        <v>0.359</v>
+      </c>
+      <c r="AD10">
+        <v>0.232</v>
+      </c>
+      <c r="AE10">
+        <v>0.15</v>
+      </c>
+      <c r="AF10">
+        <v>0.277</v>
+      </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:34">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B11">
         <v>0.184</v>
@@ -3312,10 +4005,31 @@
       <c r="AA11">
         <v>0.033</v>
       </c>
+      <c r="AB11">
+        <v>-0.006</v>
+      </c>
+      <c r="AC11">
+        <v>0.307</v>
+      </c>
+      <c r="AD11">
+        <v>0.014</v>
+      </c>
+      <c r="AE11">
+        <v>0.107</v>
+      </c>
+      <c r="AF11">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="AG11">
+        <v>-0.233</v>
+      </c>
+      <c r="AH11">
+        <v>-0.233</v>
+      </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:34">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>0.136</v>
@@ -3395,10 +4109,31 @@
       <c r="AA12">
         <v>0.137</v>
       </c>
+      <c r="AB12">
+        <v>0.137</v>
+      </c>
+      <c r="AC12">
+        <v>0.142</v>
+      </c>
+      <c r="AD12">
+        <v>0.142</v>
+      </c>
+      <c r="AE12">
+        <v>0.096</v>
+      </c>
+      <c r="AF12">
+        <v>0.133</v>
+      </c>
+      <c r="AG12">
+        <v>0.163</v>
+      </c>
+      <c r="AH12">
+        <v>0.163</v>
+      </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:34">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>0.209</v>
@@ -3478,10 +4213,31 @@
       <c r="AA13">
         <v>0.19</v>
       </c>
+      <c r="AB13">
+        <v>0.199</v>
+      </c>
+      <c r="AC13">
+        <v>0.201</v>
+      </c>
+      <c r="AD13">
+        <v>0.211</v>
+      </c>
+      <c r="AE13">
+        <v>0.139</v>
+      </c>
+      <c r="AF13">
+        <v>0.197</v>
+      </c>
+      <c r="AG13">
+        <v>0.245</v>
+      </c>
+      <c r="AH13">
+        <v>0.245</v>
+      </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:34">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B14">
         <v>0.028</v>
@@ -3561,10 +4317,31 @@
       <c r="AA14">
         <v>0.013</v>
       </c>
+      <c r="AB14">
+        <v>0.01</v>
+      </c>
+      <c r="AC14">
+        <v>0.037</v>
+      </c>
+      <c r="AD14">
+        <v>0.011</v>
+      </c>
+      <c r="AE14">
+        <v>0.025</v>
+      </c>
+      <c r="AF14">
+        <v>0.019</v>
+      </c>
+      <c r="AG14">
+        <v>-0.013</v>
+      </c>
+      <c r="AH14">
+        <v>-0.013</v>
+      </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:34">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B15">
         <v>0.099</v>
@@ -3644,10 +4421,31 @@
       <c r="AA15">
         <v>0.176</v>
       </c>
+      <c r="AB15">
+        <v>0.163</v>
+      </c>
+      <c r="AC15">
+        <v>0.235</v>
+      </c>
+      <c r="AD15">
+        <v>0.11</v>
+      </c>
+      <c r="AE15">
+        <v>0.249</v>
+      </c>
+      <c r="AF15">
+        <v>0.142</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:34">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <v>0.164</v>
@@ -3727,10 +4525,31 @@
       <c r="AA16">
         <v>0.438</v>
       </c>
+      <c r="AB16">
+        <v>0.478</v>
+      </c>
+      <c r="AC16">
+        <v>0.464</v>
+      </c>
+      <c r="AD16">
+        <v>0.274</v>
+      </c>
+      <c r="AE16">
+        <v>0.318</v>
+      </c>
+      <c r="AF16">
+        <v>0.372</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:34">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B17">
         <v>155010327.538</v>
@@ -3810,10 +4629,31 @@
       <c r="AA17">
         <v>126063998.35</v>
       </c>
+      <c r="AB17">
+        <v>122923318.175</v>
+      </c>
+      <c r="AC17">
+        <v>155139680.368</v>
+      </c>
+      <c r="AD17">
+        <v>129755700.796</v>
+      </c>
+      <c r="AE17">
+        <v>121651891.794</v>
+      </c>
+      <c r="AF17">
+        <v>135991123.087</v>
+      </c>
+      <c r="AG17">
+        <v>100000000</v>
+      </c>
+      <c r="AH17">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:34">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B18">
         <v>152943314.538</v>
@@ -3893,10 +4733,31 @@
       <c r="AA18">
         <v>103.35</v>
       </c>
+      <c r="AB18">
+        <v>121946988.175</v>
+      </c>
+      <c r="AC18">
+        <v>2197280.368</v>
+      </c>
+      <c r="AD18">
+        <v>128491250.796</v>
+      </c>
+      <c r="AE18">
+        <v>598463.863</v>
+      </c>
+      <c r="AF18">
+        <v>128860265.087</v>
+      </c>
+      <c r="AG18">
+        <v>100000000</v>
+      </c>
+      <c r="AH18">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:34">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B19">
         <v>0.55</v>
@@ -3976,10 +4837,31 @@
       <c r="AA19">
         <v>0.261</v>
       </c>
+      <c r="AB19">
+        <v>0.229</v>
+      </c>
+      <c r="AC19">
+        <v>0.551</v>
+      </c>
+      <c r="AD19">
+        <v>0.298</v>
+      </c>
+      <c r="AE19">
+        <v>0.217</v>
+      </c>
+      <c r="AF19">
+        <v>0.36</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:34">
       <c r="A20" s="1" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B20">
         <v>0.095</v>
@@ -4059,10 +4941,31 @@
       <c r="AA20">
         <v>0.049</v>
       </c>
+      <c r="AB20">
+        <v>0.044</v>
+      </c>
+      <c r="AC20">
+        <v>0.095</v>
+      </c>
+      <c r="AD20">
+        <v>0.055</v>
+      </c>
+      <c r="AE20">
+        <v>0.041</v>
+      </c>
+      <c r="AF20">
+        <v>0.066</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:34">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B21">
         <v>1.55</v>
@@ -4142,10 +5045,31 @@
       <c r="AA21">
         <v>1.261</v>
       </c>
+      <c r="AB21">
+        <v>1.229</v>
+      </c>
+      <c r="AC21">
+        <v>1.551</v>
+      </c>
+      <c r="AD21">
+        <v>1.298</v>
+      </c>
+      <c r="AE21">
+        <v>1.217</v>
+      </c>
+      <c r="AF21">
+        <v>1.36</v>
+      </c>
+      <c r="AG21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:34">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -4225,10 +5149,31 @@
       <c r="AA22">
         <v>100000000</v>
       </c>
+      <c r="AB22">
+        <v>100000000</v>
+      </c>
+      <c r="AC22">
+        <v>100000000</v>
+      </c>
+      <c r="AD22">
+        <v>100000000</v>
+      </c>
+      <c r="AE22">
+        <v>100000000</v>
+      </c>
+      <c r="AF22">
+        <v>100000000</v>
+      </c>
+      <c r="AG22">
+        <v>100000000</v>
+      </c>
+      <c r="AH22">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:34">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -4308,10 +5253,31 @@
       <c r="AA23">
         <v>0.138</v>
       </c>
+      <c r="AB23">
+        <v>0.138</v>
+      </c>
+      <c r="AC23">
+        <v>0.138</v>
+      </c>
+      <c r="AD23">
+        <v>0.138</v>
+      </c>
+      <c r="AE23">
+        <v>0.138</v>
+      </c>
+      <c r="AF23">
+        <v>0.138</v>
+      </c>
+      <c r="AG23">
+        <v>0.138</v>
+      </c>
+      <c r="AH23">
+        <v>0.138</v>
+      </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:34">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -4391,10 +5357,31 @@
       <c r="AA24">
         <v>0.027</v>
       </c>
+      <c r="AB24">
+        <v>0.027</v>
+      </c>
+      <c r="AC24">
+        <v>0.027</v>
+      </c>
+      <c r="AD24">
+        <v>0.027</v>
+      </c>
+      <c r="AE24">
+        <v>0.027</v>
+      </c>
+      <c r="AF24">
+        <v>0.027</v>
+      </c>
+      <c r="AG24">
+        <v>0.027</v>
+      </c>
+      <c r="AH24">
+        <v>0.027</v>
+      </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:34">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -4472,6 +5459,27 @@
         <v>2970</v>
       </c>
       <c r="AA25">
+        <v>2970</v>
+      </c>
+      <c r="AB25">
+        <v>2970</v>
+      </c>
+      <c r="AC25">
+        <v>2970</v>
+      </c>
+      <c r="AD25">
+        <v>2970</v>
+      </c>
+      <c r="AE25">
+        <v>300</v>
+      </c>
+      <c r="AF25">
+        <v>2970</v>
+      </c>
+      <c r="AG25">
+        <v>2970</v>
+      </c>
+      <c r="AH25">
         <v>2970</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="115">
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']2020-05-11 17:24:07</t>
   </si>
@@ -110,6 +110,33 @@
     <t>['K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*MACD_shift_1#0#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*xxx*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#20#0&amp;thre*OBV#0#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_20_shift_1#close_MA_10#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#K_shift_1#1&amp;diff+D_shift_1#80#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*OBV#0#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+close_MA_20_shift_1#close#1&amp;HS&amp;diff*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*close_MA_5#close#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#D_shift_1#1&amp;diff+MACD_shift_1#0#0&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_20_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-14 18:27:22</t>
   </si>
   <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre', 'K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre']2020-05-14 21:07:07</t>
+  </si>
+  <si>
+    <t>['ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*CEIL#26#1&amp;thre+ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*MOM_40#CMO_60#0&amp;diff+ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross+ROCR100_30#99#0&amp;thre*TRANGE#ATR_26#0&amp;cross*CEIL#26#1&amp;thre+ROCR100_30#99#0&amp;thre*TRANGE#ATR_26#0&amp;cross*MOM_40#CMO_60#0&amp;diff+ROCR100_30#99#0&amp;thre*TRANGE#ATR_26#0&amp;cross*COS#FLOOR#1&amp;cross+ROCR100_30#99#0&amp;thre*MOM_14#1#1&amp;trend*CEIL#26#1&amp;thre+ROCR100_30#99#0&amp;thre*MOM_14#1#1&amp;trend*MOM_40#CMO_60#0&amp;diff+ROCR100_30#99#0&amp;thre*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross', 'CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*CDLLONGLINE#2#0&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*ROC_14#-10#0&amp;thre+CDLMORNINGSTAR#1#0&amp;trend*STDDEV_26#2#0&amp;thre&amp;HS*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*STDDEV_26#2#0&amp;thre&amp;HS*CDLLONGLINE#2#0&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*STDDEV_26#2#0&amp;thre&amp;HS*ROC_14#-10#0&amp;thre+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*CDLLONGLINE#2#0&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*ROC_14#-10#0&amp;thre']2020-05-14 21:58:23</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-14 23:12:54</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*xxx+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*xxx+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*xxx+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*xxx+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*xxx+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*xxx+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#RSI_12_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*xxx+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#RSI_12_shift_1#1&amp;diff', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open#open_shift_1#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*OBV#0#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_MA_10#open#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#open_shift_1#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*OBV#0#0&amp;thre']2020-05-14 23:40:39</t>
+  </si>
+  <si>
+    <t>['L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend', 'MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*ROCR_14#1#0&amp;thre&amp;HS']2020-05-15 11:14:57</t>
+  </si>
+  <si>
+    <t>['L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend', 'MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*ROCR_14#1#0&amp;thre&amp;HS']2020-05-15 12:11:45</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-16 21:20:29</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-16 21:23:05</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-16 21:25:32</t>
+  </si>
+  <si>
     <t>strategy_name</t>
   </si>
   <si>
@@ -227,6 +254,12 @@
     <t>['ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*ROCP_26#0#0&amp;thre&amp;HS+ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*CMO_14#STOCHRSI_fastd_14#0&amp;cross+ROCR100_30#99#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*ROCP_26#0#0&amp;thre&amp;HS+ROCR100_30#99#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+ROCR100_30#99#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*CMO_14#STOCHRSI_fastd_14#0&amp;cross+ROCR100_30#99#0&amp;thre*CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS*ROCP_26#0#0&amp;thre&amp;HS+ROCR100_30#99#0&amp;thre*CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross+ROCR100_30#99#0&amp;thre*CDLSHOOTINGSTAR#2#1&amp;trend&amp;HS*CMO_14#STOCHRSI_fastd_14#0&amp;cross', 'CDLMORNINGSTAR#1#0&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*MOM_40#CMO_60#0&amp;diff+CDLMORNINGSTAR#1#0&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*L_line_26#2#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*MOM_40#CMO_60#0&amp;diff+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*L_line_26#2#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*MOM_40#CMO_60#0&amp;diff+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*L_line_26#2#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*STDDEV_14#1#1&amp;trend&amp;HS']</t>
   </si>
   <si>
+    <t>['ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*CEIL#26#1&amp;thre+ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*MOM_40#CMO_60#0&amp;diff+ROCR100_30#99#0&amp;thre*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross+ROCR100_30#99#0&amp;thre*TRANGE#ATR_26#0&amp;cross*CEIL#26#1&amp;thre+ROCR100_30#99#0&amp;thre*TRANGE#ATR_26#0&amp;cross*MOM_40#CMO_60#0&amp;diff+ROCR100_30#99#0&amp;thre*TRANGE#ATR_26#0&amp;cross*COS#FLOOR#1&amp;cross+ROCR100_30#99#0&amp;thre*MOM_14#1#1&amp;trend*CEIL#26#1&amp;thre+ROCR100_30#99#0&amp;thre*MOM_14#1#1&amp;trend*MOM_40#CMO_60#0&amp;diff+ROCR100_30#99#0&amp;thre*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross', 'CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*CDLLONGLINE#2#0&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*VAR_26#3#0&amp;trend&amp;HS*ROC_14#-10#0&amp;thre+CDLMORNINGSTAR#1#0&amp;trend*STDDEV_26#2#0&amp;thre&amp;HS*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*STDDEV_26#2#0&amp;thre&amp;HS*CDLLONGLINE#2#0&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*STDDEV_26#2#0&amp;thre&amp;HS*ROC_14#-10#0&amp;thre+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*STDDEV_14#1#1&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*CDLLONGLINE#2#0&amp;trend&amp;HS+CDLMORNINGSTAR#1#0&amp;trend*ROC_14#-10#0&amp;thre*ROC_14#-10#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend', 'MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*ROCR_14#1#0&amp;thre&amp;HS']</t>
+  </si>
+  <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-11 17:14:55</t>
   </si>
   <si>
@@ -234,6 +267,18 @@
   </si>
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre']2020-05-14 11:51:27</t>
+  </si>
+  <si>
+    <t>['L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend', 'MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*ROCR_14#1#0&amp;thre&amp;HS']2020-05-15 11:14:58</t>
+  </si>
+  <si>
+    <t>['L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend', 'MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*ROCR_14#1#0&amp;thre&amp;HS']2020-05-15 12:11:46</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-16 21:20:30</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-16 21:25:33</t>
   </si>
   <si>
     <t>start_date</t>
@@ -672,13 +717,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG22"/>
+  <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:42">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -775,111 +820,165 @@
       <c r="AG1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:42">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
         <v>61</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" t="s">
+      <c r="W2" t="s">
         <v>63</v>
       </c>
-      <c r="M2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="X2" t="s">
         <v>65</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Y2" t="s">
         <v>66</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Z2" t="s">
         <v>67</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AA2" t="s">
         <v>68</v>
       </c>
-      <c r="R2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" t="s">
-        <v>52</v>
-      </c>
-      <c r="V2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>59</v>
-      </c>
       <c r="AB2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AC2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AD2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AG2" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:42">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>-0.06068879581669351</v>
@@ -977,10 +1076,37 @@
       <c r="AG3">
         <v>0</v>
       </c>
+      <c r="AH3">
+        <v>-0.04934546237730997</v>
+      </c>
+      <c r="AI3">
+        <v>-0.1596303063061453</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.1469179218683226</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>-0.1414335751915482</v>
+      </c>
+      <c r="AM3">
+        <v>-0.07121830420982878</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>-0.01159416821163517</v>
+      </c>
+      <c r="AP3">
+        <v>-0.01159416821163517</v>
+      </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:42">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>309</v>
@@ -1078,10 +1204,37 @@
       <c r="AG4">
         <v>0</v>
       </c>
+      <c r="AH4">
+        <v>1236</v>
+      </c>
+      <c r="AI4">
+        <v>1850</v>
+      </c>
+      <c r="AJ4">
+        <v>4213</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>11204</v>
+      </c>
+      <c r="AM4">
+        <v>1331</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>5</v>
+      </c>
+      <c r="AP4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:42">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>-0.322888504320907</v>
@@ -1090,7 +1243,7 @@
         <v>-0.1183184018008555</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E5">
         <v>-0.6048521730266428</v>
@@ -1114,10 +1267,10 @@
         <v>-0.4545198422842536</v>
       </c>
       <c r="L5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>-1.063976094679115</v>
@@ -1126,7 +1279,7 @@
         <v>0.3533550856249668</v>
       </c>
       <c r="P5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q5">
         <v>-12.40955753951304</v>
@@ -1135,7 +1288,7 @@
         <v>-12.40955753951304</v>
       </c>
       <c r="S5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T5">
         <v>-0.3632366384530361</v>
@@ -1147,7 +1300,7 @@
         <v>0.07047986719995178</v>
       </c>
       <c r="W5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="X5">
         <v>-0.1097858239713151</v>
@@ -1174,15 +1327,42 @@
         <v>-0.5836385640223933</v>
       </c>
       <c r="AF5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AG5" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="AH5">
+        <v>0.05320433839428328</v>
+      </c>
+      <c r="AI5">
+        <v>0.4476369526919806</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.3254924943382368</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL5">
+        <v>-0.6349822855800702</v>
+      </c>
+      <c r="AM5">
+        <v>0.2206488533949868</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO5">
+        <v>-1.269152600861652</v>
+      </c>
+      <c r="AP5">
+        <v>-1.269152600861652</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:42">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0.00586360100162878</v>
@@ -1280,10 +1460,37 @@
       <c r="AG6">
         <v>0</v>
       </c>
+      <c r="AH6">
+        <v>0.02767022305948205</v>
+      </c>
+      <c r="AI6">
+        <v>0.1324617358944217</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.03575587849791229</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>-0.06507613908954571</v>
+      </c>
+      <c r="AM6">
+        <v>0.05797514437615696</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0.002740742591343351</v>
+      </c>
+      <c r="AP6">
+        <v>0.002740742591343351</v>
+      </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:42">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>-0.01037357430000463</v>
@@ -1381,10 +1588,37 @@
       <c r="AG7">
         <v>0</v>
       </c>
+      <c r="AH7">
+        <v>-0.03668775711501926</v>
+      </c>
+      <c r="AI7">
+        <v>-0.08729558124200243</v>
+      </c>
+      <c r="AJ7">
+        <v>-0.06998796737383017</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>-0.0882600446726628</v>
+      </c>
+      <c r="AM7">
+        <v>-0.05728922077385556</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>-0.004274648691877103</v>
+      </c>
+      <c r="AP7">
+        <v>-0.004274648691877103</v>
+      </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:42">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B8">
         <v>352</v>
@@ -1482,10 +1716,37 @@
       <c r="AG8">
         <v>0</v>
       </c>
+      <c r="AH8">
+        <v>1045</v>
+      </c>
+      <c r="AI8">
+        <v>2680</v>
+      </c>
+      <c r="AJ8">
+        <v>4762</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>8219</v>
+      </c>
+      <c r="AM8">
+        <v>785</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>10</v>
+      </c>
+      <c r="AP8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:42">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>0.964891579226408</v>
@@ -1494,7 +1755,7 @@
         <v>0.9242453061539718</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E9">
         <v>2.169444188749579</v>
@@ -1518,10 +1779,10 @@
         <v>1.61797184494811</v>
       </c>
       <c r="L9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N9">
         <v>-0.09540756946655782</v>
@@ -1530,7 +1791,7 @@
         <v>1.965500067665733</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q9">
         <v>-37.68925196360794</v>
@@ -1539,7 +1800,7 @@
         <v>-37.68925196360794</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T9">
         <v>-0.1203066445141539</v>
@@ -1551,7 +1812,7 @@
         <v>0.4035141658479074</v>
       </c>
       <c r="W9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="X9">
         <v>0.2013949957443495</v>
@@ -1578,15 +1839,42 @@
         <v>0.4730736696479984</v>
       </c>
       <c r="AF9" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AG9" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="AH9">
+        <v>-1.370123228295609</v>
+      </c>
+      <c r="AI9">
+        <v>1.461266996267181</v>
+      </c>
+      <c r="AJ9">
+        <v>-0.1187234385253557</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL9">
+        <v>1.148032185747048</v>
+      </c>
+      <c r="AM9">
+        <v>0.4146879469045491</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO9">
+        <v>-0.7385624297843628</v>
+      </c>
+      <c r="AP9">
+        <v>-0.7385624297843628</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:42">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B10">
         <v>0.04737268008837399</v>
@@ -1684,10 +1972,37 @@
       <c r="AG10">
         <v>0</v>
       </c>
+      <c r="AH10">
+        <v>-0.0290156312325489</v>
+      </c>
+      <c r="AI10">
+        <v>0.2558153420965087</v>
+      </c>
+      <c r="AJ10">
+        <v>0.004598886204926035</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0.1827097373248718</v>
+      </c>
+      <c r="AM10">
+        <v>0.07259188642541514</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0.02053629678570749</v>
+      </c>
+      <c r="AP10">
+        <v>0.02053629678570749</v>
+      </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:42">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B11">
         <v>-0.07593883860828288</v>
@@ -1785,10 +2100,37 @@
       <c r="AG11">
         <v>0</v>
       </c>
+      <c r="AH11">
+        <v>-0.05394643045416558</v>
+      </c>
+      <c r="AI11">
+        <v>-0.2919322791621823</v>
+      </c>
+      <c r="AJ11">
+        <v>-0.1762287389111897</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>-0.2555909597093247</v>
+      </c>
+      <c r="AM11">
+        <v>-0.2503816494792539</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>-0.01950445030738301</v>
+      </c>
+      <c r="AP11">
+        <v>-0.01950445030738301</v>
+      </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:42">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>559</v>
@@ -1886,10 +2228,37 @@
       <c r="AG12">
         <v>0</v>
       </c>
+      <c r="AH12">
+        <v>2959</v>
+      </c>
+      <c r="AI12">
+        <v>3902</v>
+      </c>
+      <c r="AJ12">
+        <v>3337</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>8804</v>
+      </c>
+      <c r="AM12">
+        <v>946</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>8</v>
+      </c>
+      <c r="AP12">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:42">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B13">
         <v>-0.04841559501838143</v>
@@ -1898,7 +2267,7 @@
         <v>-0.6748977489571448</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E13">
         <v>-1.446289189101312</v>
@@ -1922,10 +2291,10 @@
         <v>0.1030007104252951</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N13">
         <v>-0.2693133559121839</v>
@@ -1934,7 +2303,7 @@
         <v>-0.9201635600766969</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q13">
         <v>-28.28099545520579</v>
@@ -1943,7 +2312,7 @@
         <v>-28.28099545520579</v>
       </c>
       <c r="S13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T13">
         <v>-1.544450205131759</v>
@@ -1955,7 +2324,7 @@
         <v>-1.406651460541292</v>
       </c>
       <c r="W13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="X13">
         <v>-0.97382364569949</v>
@@ -1982,15 +2351,42 @@
         <v>-1.526583608735104</v>
       </c>
       <c r="AF13" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AG13" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="AH13">
+        <v>-0.05010348883158287</v>
+      </c>
+      <c r="AI13">
+        <v>-1.079981654372995</v>
+      </c>
+      <c r="AJ13">
+        <v>-1.468656616824614</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL13">
+        <v>-1.80636133801716</v>
+      </c>
+      <c r="AM13">
+        <v>-1.824138591602852</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO13">
+        <v>-2.695254162384179</v>
+      </c>
+      <c r="AP13">
+        <v>-2.695254162384179</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:42">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B14">
         <v>0.01824049369479946</v>
@@ -2088,10 +2484,37 @@
       <c r="AG14">
         <v>0</v>
       </c>
+      <c r="AH14">
+        <v>0.02036989244562566</v>
+      </c>
+      <c r="AI14">
+        <v>-0.2200034268376864</v>
+      </c>
+      <c r="AJ14">
+        <v>-0.1153252174187369</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>-0.2120789938579104</v>
+      </c>
+      <c r="AM14">
+        <v>-0.1869722731290311</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>-0.01777121125262902</v>
+      </c>
+      <c r="AP14">
+        <v>-0.01777121125262902</v>
+      </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:42">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <v>-0.1120318841141407</v>
@@ -2189,10 +2612,37 @@
       <c r="AG15">
         <v>0</v>
       </c>
+      <c r="AH15">
+        <v>-0.1087212746116364</v>
+      </c>
+      <c r="AI15">
+        <v>-0.1462439564471382</v>
+      </c>
+      <c r="AJ15">
+        <v>-0.1456555385270077</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>-0.1409773534143612</v>
+      </c>
+      <c r="AM15">
+        <v>-0.09958316173555593</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>-0.00671389798430444</v>
+      </c>
+      <c r="AP15">
+        <v>-0.00671389798430444</v>
+      </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:42">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>513</v>
@@ -2290,10 +2740,37 @@
       <c r="AG16">
         <v>0</v>
       </c>
+      <c r="AH16">
+        <v>2704</v>
+      </c>
+      <c r="AI16">
+        <v>3604</v>
+      </c>
+      <c r="AJ16">
+        <v>2760</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>10286</v>
+      </c>
+      <c r="AM16">
+        <v>1103</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>12</v>
+      </c>
+      <c r="AP16">
+        <v>12</v>
+      </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:42">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>0.6413937902326782</v>
@@ -2302,7 +2779,7 @@
         <v>-0.2706152262487113</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E17">
         <v>1.493562370348469</v>
@@ -2326,10 +2803,10 @@
         <v>2.144193851268474</v>
       </c>
       <c r="L17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N17">
         <v>1.029327758872524</v>
@@ -2338,7 +2815,7 @@
         <v>1.083214063259147</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q17">
         <v>-35.97233501729208</v>
@@ -2347,7 +2824,7 @@
         <v>-35.97233501729208</v>
       </c>
       <c r="S17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T17">
         <v>1.002781409894963</v>
@@ -2359,7 +2836,7 @@
         <v>-0.5044025247297703</v>
       </c>
       <c r="W17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="X17">
         <v>1.628088937001858</v>
@@ -2386,15 +2863,42 @@
         <v>1.441159038997348</v>
       </c>
       <c r="AF17" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AG17" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="AH17">
+        <v>0.948387948049548</v>
+      </c>
+      <c r="AI17">
+        <v>1.685220915797262</v>
+      </c>
+      <c r="AJ17">
+        <v>0.9938171930453183</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL17">
+        <v>1.606653975785654</v>
+      </c>
+      <c r="AM17">
+        <v>0.9338620825318455</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO17">
+        <v>-0.6093366127015696</v>
+      </c>
+      <c r="AP17">
+        <v>-0.6093366127015696</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:42">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B18">
         <v>0.09461197171710613</v>
@@ -2492,10 +2996,37 @@
       <c r="AG18">
         <v>0</v>
       </c>
+      <c r="AH18">
+        <v>0.1805960002443651</v>
+      </c>
+      <c r="AI18">
+        <v>0.465722103135184</v>
+      </c>
+      <c r="AJ18">
+        <v>0.215022872521215</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0.3888144340363849</v>
+      </c>
+      <c r="AM18">
+        <v>0.1893291092208449</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0.01844715785442581</v>
+      </c>
+      <c r="AP18">
+        <v>0.01844715785442581</v>
+      </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:42">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B19">
         <v>-0.163714060091224</v>
@@ -2593,10 +3124,37 @@
       <c r="AG19">
         <v>0</v>
       </c>
+      <c r="AH19">
+        <v>-0.4008865466487979</v>
+      </c>
+      <c r="AI19">
+        <v>-0.4095177468372391</v>
+      </c>
+      <c r="AJ19">
+        <v>-0.2431826405764677</v>
+      </c>
+      <c r="AK19">
+        <v>0</v>
+      </c>
+      <c r="AL19">
+        <v>-0.379474793323006</v>
+      </c>
+      <c r="AM19">
+        <v>-0.1966407803413993</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>-0.03629603067114362</v>
+      </c>
+      <c r="AP19">
+        <v>-0.03629603067114362</v>
+      </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:42">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B20">
         <v>1011</v>
@@ -2694,10 +3252,37 @@
       <c r="AG20">
         <v>0</v>
       </c>
+      <c r="AH20">
+        <v>2008</v>
+      </c>
+      <c r="AI20">
+        <v>2927</v>
+      </c>
+      <c r="AJ20">
+        <v>3598</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>7156</v>
+      </c>
+      <c r="AM20">
+        <v>996</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>13</v>
+      </c>
+      <c r="AP20">
+        <v>13</v>
+      </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:42">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B21">
         <v>1.415005227739788</v>
@@ -2706,7 +3291,7 @@
         <v>0.6911351083684878</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E21">
         <v>0.5134714379876141</v>
@@ -2730,10 +3315,10 @@
         <v>1.207139776651669</v>
       </c>
       <c r="L21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="N21">
         <v>1.245776409597041</v>
@@ -2742,7 +3327,7 @@
         <v>2.193115179407612</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="Q21">
         <v>-5.023761652020543</v>
@@ -2751,7 +3336,7 @@
         <v>-5.023761652020543</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="T21">
         <v>2.119189326723302</v>
@@ -2763,7 +3348,7 @@
         <v>0.3792863868755692</v>
       </c>
       <c r="W21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="X21">
         <v>1.814370310865916</v>
@@ -2790,15 +3375,42 @@
         <v>0.8356816516922829</v>
       </c>
       <c r="AF21" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="AG21" t="s">
-        <v>55</v>
+        <v>64</v>
+      </c>
+      <c r="AH21">
+        <v>0.4835036050219694</v>
+      </c>
+      <c r="AI21">
+        <v>0.9901187709251497</v>
+      </c>
+      <c r="AJ21">
+        <v>2.201352395079155</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL21">
+        <v>1.123298805808431</v>
+      </c>
+      <c r="AM21">
+        <v>0.5770550991639743</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO21">
+        <v>0.7275347930620225</v>
+      </c>
+      <c r="AP21">
+        <v>0.7275347930620225</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:42">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B22">
         <v>0.317564</v>
@@ -2895,6 +3507,33 @@
       </c>
       <c r="AG22">
         <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0.2511589999999999</v>
+      </c>
+      <c r="AI22">
+        <v>0.6718310000000001</v>
+      </c>
+      <c r="AJ22">
+        <v>1.106618</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0.5783259999999999</v>
+      </c>
+      <c r="AM22">
+        <v>0.1824060000000001</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0.08072900000000005</v>
+      </c>
+      <c r="AP22">
+        <v>0.08072900000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2904,18 +3543,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AQ25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:43">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2978,7 +3617,7 @@
         <v>19</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>21</v>
@@ -2993,7 +3632,7 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>26</v>
@@ -3010,530 +3649,692 @@
       <c r="AH1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s">
+        <v>75</v>
+      </c>
+      <c r="U2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" t="s">
+      <c r="W2" t="s">
         <v>62</v>
       </c>
-      <c r="M2" t="s">
+      <c r="X2" t="s">
         <v>63</v>
       </c>
-      <c r="N2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Y2" t="s">
         <v>65</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Z2" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AA2" t="s">
         <v>67</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AB2" t="s">
         <v>68</v>
       </c>
-      <c r="S2" t="s">
-        <v>68</v>
-      </c>
-      <c r="T2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" t="s">
-        <v>52</v>
-      </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>59</v>
-      </c>
       <c r="AC2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AD2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="AE2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AF2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AG2" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s">
-        <v>64</v>
+        <v>73</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="L3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="M3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="Q3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="R3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="S3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="T3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="U3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="V3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="W3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="X3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="Y3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="Z3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AA3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AB3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AC3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AD3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AE3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AF3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AG3" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="AH3" t="s">
-        <v>96</v>
+        <v>111</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="M4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="P4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="Q4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="R4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="T4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="U4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="V4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="W4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="X4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="Y4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="Z4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AA4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AB4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AC4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AD4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AE4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AF4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AG4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AH4" t="s">
-        <v>97</v>
+        <v>112</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="L5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="M5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="N5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="Q5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="R5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="S5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="T5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="U5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="V5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="W5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="X5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="Y5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="Z5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AA5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AB5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AC5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AD5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AE5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AF5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AG5" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="AH5" t="s">
-        <v>98</v>
+        <v>113</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="O6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="Q6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="R6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="S6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="T6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="U6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="V6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="W6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="X6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="Z6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AB6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AD6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AE6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AH6" t="s">
-        <v>99</v>
+        <v>114</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -3634,10 +4435,37 @@
       <c r="AH7">
         <v>100000000</v>
       </c>
+      <c r="AI7">
+        <v>100000000</v>
+      </c>
+      <c r="AJ7">
+        <v>100000000</v>
+      </c>
+      <c r="AK7">
+        <v>100000000</v>
+      </c>
+      <c r="AL7">
+        <v>100000000</v>
+      </c>
+      <c r="AM7">
+        <v>100000000</v>
+      </c>
+      <c r="AN7">
+        <v>100000000</v>
+      </c>
+      <c r="AO7">
+        <v>100000000</v>
+      </c>
+      <c r="AP7">
+        <v>100000000</v>
+      </c>
+      <c r="AQ7">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>0.056</v>
@@ -3738,10 +4566,37 @@
       <c r="AH8">
         <v>-0.035</v>
       </c>
+      <c r="AI8">
+        <v>0.057</v>
+      </c>
+      <c r="AJ8">
+        <v>0.173</v>
+      </c>
+      <c r="AK8">
+        <v>0.134</v>
+      </c>
+      <c r="AL8">
+        <v>-0.035</v>
+      </c>
+      <c r="AM8">
+        <v>0.09</v>
+      </c>
+      <c r="AN8">
+        <v>0.006</v>
+      </c>
+      <c r="AO8">
+        <v>-0.035</v>
+      </c>
+      <c r="AP8">
+        <v>-0.014</v>
+      </c>
+      <c r="AQ8">
+        <v>-0.014</v>
+      </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>0.217</v>
@@ -3842,10 +4697,37 @@
       <c r="AH9">
         <v>0</v>
       </c>
+      <c r="AI9">
+        <v>0.424</v>
+      </c>
+      <c r="AJ9">
+        <v>0.965</v>
+      </c>
+      <c r="AK9">
+        <v>0.364</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0.649</v>
+      </c>
+      <c r="AN9">
+        <v>0.489</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0.031</v>
+      </c>
+      <c r="AQ9">
+        <v>0.031</v>
+      </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:43">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B10">
         <v>0.617</v>
@@ -3922,10 +4804,31 @@
       <c r="AF10">
         <v>0.277</v>
       </c>
+      <c r="AI10">
+        <v>0.374</v>
+      </c>
+      <c r="AJ10">
+        <v>0.711</v>
+      </c>
+      <c r="AK10">
+        <v>0.806</v>
+      </c>
+      <c r="AM10">
+        <v>0.526</v>
+      </c>
+      <c r="AN10">
+        <v>0.105</v>
+      </c>
+      <c r="AP10">
+        <v>-0.38</v>
+      </c>
+      <c r="AQ10">
+        <v>-0.38</v>
+      </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:43">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>0.184</v>
@@ -4026,10 +4929,37 @@
       <c r="AH11">
         <v>-0.233</v>
       </c>
+      <c r="AI11">
+        <v>0.216</v>
+      </c>
+      <c r="AJ11">
+        <v>1.236</v>
+      </c>
+      <c r="AK11">
+        <v>0.55</v>
+      </c>
+      <c r="AL11">
+        <v>-0.233</v>
+      </c>
+      <c r="AM11">
+        <v>0.5580000000000001</v>
+      </c>
+      <c r="AN11">
+        <v>-0.035</v>
+      </c>
+      <c r="AO11">
+        <v>-0.233</v>
+      </c>
+      <c r="AP11">
+        <v>-0.149</v>
+      </c>
+      <c r="AQ11">
+        <v>-0.149</v>
+      </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:43">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B12">
         <v>0.136</v>
@@ -4130,10 +5060,37 @@
       <c r="AH12">
         <v>0.163</v>
       </c>
+      <c r="AI12">
+        <v>0.135</v>
+      </c>
+      <c r="AJ12">
+        <v>0.094</v>
+      </c>
+      <c r="AK12">
+        <v>0.147</v>
+      </c>
+      <c r="AL12">
+        <v>0.163</v>
+      </c>
+      <c r="AM12">
+        <v>0.099</v>
+      </c>
+      <c r="AN12">
+        <v>0.109</v>
+      </c>
+      <c r="AO12">
+        <v>0.163</v>
+      </c>
+      <c r="AP12">
+        <v>0.158</v>
+      </c>
+      <c r="AQ12">
+        <v>0.158</v>
+      </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:43">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B13">
         <v>0.209</v>
@@ -4234,10 +5191,37 @@
       <c r="AH13">
         <v>0.245</v>
       </c>
+      <c r="AI13">
+        <v>0.201</v>
+      </c>
+      <c r="AJ13">
+        <v>0.14</v>
+      </c>
+      <c r="AK13">
+        <v>0.218</v>
+      </c>
+      <c r="AL13">
+        <v>0.245</v>
+      </c>
+      <c r="AM13">
+        <v>0.147</v>
+      </c>
+      <c r="AN13">
+        <v>0.165</v>
+      </c>
+      <c r="AO13">
+        <v>0.245</v>
+      </c>
+      <c r="AP13">
+        <v>0.24</v>
+      </c>
+      <c r="AQ13">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:43">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <v>0.028</v>
@@ -4338,10 +5322,37 @@
       <c r="AH14">
         <v>-0.013</v>
       </c>
+      <c r="AI14">
+        <v>0.031</v>
+      </c>
+      <c r="AJ14">
+        <v>0.131</v>
+      </c>
+      <c r="AK14">
+        <v>0.061</v>
+      </c>
+      <c r="AL14">
+        <v>-0.013</v>
+      </c>
+      <c r="AM14">
+        <v>0.067</v>
+      </c>
+      <c r="AN14">
+        <v>0.01</v>
+      </c>
+      <c r="AO14">
+        <v>-0.351</v>
+      </c>
+      <c r="AP14">
+        <v>-0.225</v>
+      </c>
+      <c r="AQ14">
+        <v>-0.225</v>
+      </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:43">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="B15">
         <v>0.099</v>
@@ -4442,10 +5453,37 @@
       <c r="AH15">
         <v>0</v>
       </c>
+      <c r="AI15">
+        <v>0.177</v>
+      </c>
+      <c r="AJ15">
+        <v>0.275</v>
+      </c>
+      <c r="AK15">
+        <v>0.177</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0.198</v>
+      </c>
+      <c r="AN15">
+        <v>0.161</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0.034</v>
+      </c>
+      <c r="AQ15">
+        <v>0.034</v>
+      </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:43">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B16">
         <v>0.164</v>
@@ -4546,10 +5584,37 @@
       <c r="AH16">
         <v>0</v>
       </c>
+      <c r="AI16">
+        <v>0.401</v>
+      </c>
+      <c r="AJ16">
+        <v>0.41</v>
+      </c>
+      <c r="AK16">
+        <v>0.251</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+      <c r="AM16">
+        <v>0.39</v>
+      </c>
+      <c r="AN16">
+        <v>0.254</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>0.036</v>
+      </c>
+      <c r="AQ16">
+        <v>0.036</v>
+      </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:43">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B17">
         <v>155010327.538</v>
@@ -4650,10 +5715,37 @@
       <c r="AH17">
         <v>100000000</v>
       </c>
+      <c r="AI17">
+        <v>150735921.235</v>
+      </c>
+      <c r="AJ17">
+        <v>252313838.393</v>
+      </c>
+      <c r="AK17">
+        <v>218063784.295</v>
+      </c>
+      <c r="AL17">
+        <v>100000000</v>
+      </c>
+      <c r="AM17">
+        <v>177826299.933</v>
+      </c>
+      <c r="AN17">
+        <v>120356337.723</v>
+      </c>
+      <c r="AO17">
+        <v>100000000</v>
+      </c>
+      <c r="AP17">
+        <v>110633149.245</v>
+      </c>
+      <c r="AQ17">
+        <v>110633149.245</v>
+      </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:43">
       <c r="A18" s="1" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="B18">
         <v>152943314.538</v>
@@ -4754,10 +5846,37 @@
       <c r="AH18">
         <v>100000000</v>
       </c>
+      <c r="AI18">
+        <v>150735921.235</v>
+      </c>
+      <c r="AJ18">
+        <v>1569752.61</v>
+      </c>
+      <c r="AK18">
+        <v>66.295</v>
+      </c>
+      <c r="AL18">
+        <v>100000000</v>
+      </c>
+      <c r="AM18">
+        <v>25899811.933</v>
+      </c>
+      <c r="AN18">
+        <v>42455187.723</v>
+      </c>
+      <c r="AO18">
+        <v>100000000</v>
+      </c>
+      <c r="AP18">
+        <v>110633149.245</v>
+      </c>
+      <c r="AQ18">
+        <v>110633149.245</v>
+      </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:43">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>0.55</v>
@@ -4858,10 +5977,37 @@
       <c r="AH19">
         <v>0</v>
       </c>
+      <c r="AI19">
+        <v>0.507</v>
+      </c>
+      <c r="AJ19">
+        <v>1.523</v>
+      </c>
+      <c r="AK19">
+        <v>1.181</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+      <c r="AM19">
+        <v>0.778</v>
+      </c>
+      <c r="AN19">
+        <v>0.204</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0.106</v>
+      </c>
+      <c r="AQ19">
+        <v>0.106</v>
+      </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:43">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B20">
         <v>0.095</v>
@@ -4962,10 +6108,37 @@
       <c r="AH20">
         <v>0</v>
       </c>
+      <c r="AI20">
+        <v>0.089</v>
+      </c>
+      <c r="AJ20">
+        <v>0.211</v>
+      </c>
+      <c r="AK20">
+        <v>0.175</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0.127</v>
+      </c>
+      <c r="AN20">
+        <v>0.039</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0.021</v>
+      </c>
+      <c r="AQ20">
+        <v>0.021</v>
+      </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:43">
       <c r="A21" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B21">
         <v>1.55</v>
@@ -5066,10 +6239,37 @@
       <c r="AH21">
         <v>1</v>
       </c>
+      <c r="AI21">
+        <v>1.507</v>
+      </c>
+      <c r="AJ21">
+        <v>2.523</v>
+      </c>
+      <c r="AK21">
+        <v>2.181</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
+        <v>1.778</v>
+      </c>
+      <c r="AN21">
+        <v>1.204</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>1.106</v>
+      </c>
+      <c r="AQ21">
+        <v>1.106</v>
+      </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:43">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -5170,10 +6370,37 @@
       <c r="AH22">
         <v>100000000</v>
       </c>
+      <c r="AI22">
+        <v>100000000</v>
+      </c>
+      <c r="AJ22">
+        <v>100000000</v>
+      </c>
+      <c r="AK22">
+        <v>100000000</v>
+      </c>
+      <c r="AL22">
+        <v>100000000</v>
+      </c>
+      <c r="AM22">
+        <v>100000000</v>
+      </c>
+      <c r="AN22">
+        <v>100000000</v>
+      </c>
+      <c r="AO22">
+        <v>100000000</v>
+      </c>
+      <c r="AP22">
+        <v>100000000</v>
+      </c>
+      <c r="AQ22">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:43">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -5274,10 +6501,37 @@
       <c r="AH23">
         <v>0.138</v>
       </c>
+      <c r="AI23">
+        <v>0.138</v>
+      </c>
+      <c r="AJ23">
+        <v>0.138</v>
+      </c>
+      <c r="AK23">
+        <v>0.138</v>
+      </c>
+      <c r="AL23">
+        <v>0.138</v>
+      </c>
+      <c r="AM23">
+        <v>0.138</v>
+      </c>
+      <c r="AN23">
+        <v>0.138</v>
+      </c>
+      <c r="AO23">
+        <v>0.138</v>
+      </c>
+      <c r="AP23">
+        <v>0.138</v>
+      </c>
+      <c r="AQ23">
+        <v>0.138</v>
+      </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:43">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -5378,10 +6632,37 @@
       <c r="AH24">
         <v>0.027</v>
       </c>
+      <c r="AI24">
+        <v>0.027</v>
+      </c>
+      <c r="AJ24">
+        <v>0.027</v>
+      </c>
+      <c r="AK24">
+        <v>0.027</v>
+      </c>
+      <c r="AL24">
+        <v>0.027</v>
+      </c>
+      <c r="AM24">
+        <v>0.027</v>
+      </c>
+      <c r="AN24">
+        <v>0.027</v>
+      </c>
+      <c r="AO24">
+        <v>0.027</v>
+      </c>
+      <c r="AP24">
+        <v>0.027</v>
+      </c>
+      <c r="AQ24">
+        <v>0.027</v>
+      </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:43">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -5481,6 +6762,33 @@
       </c>
       <c r="AH25">
         <v>2970</v>
+      </c>
+      <c r="AI25">
+        <v>2970</v>
+      </c>
+      <c r="AJ25">
+        <v>300</v>
+      </c>
+      <c r="AK25">
+        <v>2970</v>
+      </c>
+      <c r="AL25">
+        <v>2970</v>
+      </c>
+      <c r="AM25">
+        <v>300</v>
+      </c>
+      <c r="AN25">
+        <v>30</v>
+      </c>
+      <c r="AO25">
+        <v>2</v>
+      </c>
+      <c r="AP25">
+        <v>2</v>
+      </c>
+      <c r="AQ25">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="118">
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']2020-05-11 17:24:07</t>
   </si>
@@ -137,6 +137,12 @@
     <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-16 21:25:32</t>
   </si>
   <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-18 22:34:52</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-18 22:38:05</t>
+  </si>
+  <si>
     <t>strategy_name</t>
   </si>
   <si>
@@ -279,6 +285,9 @@
   </si>
   <si>
     <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-16 21:25:33</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-18 22:34:53</t>
   </si>
   <si>
     <t>start_date</t>
@@ -717,13 +726,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP22"/>
+  <dimension ref="A1:AR22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:42">
+    <row r="1" spans="1:44">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -847,138 +856,150 @@
       <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AQ1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:42">
+    <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P2" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>79</v>
+      </c>
+      <c r="R2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
         <v>65</v>
       </c>
-      <c r="F2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="X2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" t="s">
+      <c r="Y2" t="s">
         <v>68</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Z2" t="s">
         <v>69</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AA2" t="s">
         <v>70</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AB2" t="s">
         <v>71</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AC2" t="s">
         <v>72</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AD2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE2" t="s">
         <v>73</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AF2" t="s">
         <v>74</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AG2" t="s">
         <v>75</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AH2" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AI2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>77</v>
       </c>
-      <c r="R2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" t="s">
-        <v>62</v>
-      </c>
-      <c r="W2" t="s">
-        <v>63</v>
-      </c>
-      <c r="X2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" t="s">
+      <c r="AK2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" t="s">
         <v>67</v>
       </c>
-      <c r="AA2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>65</v>
-      </c>
       <c r="AO2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AP2" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:42">
+    <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B3">
         <v>-0.06068879581669351</v>
@@ -1103,10 +1124,16 @@
       <c r="AP3">
         <v>-0.01159416821163517</v>
       </c>
+      <c r="AQ3">
+        <v>-0.01159416821163517</v>
+      </c>
+      <c r="AR3">
+        <v>-0.01159416821163517</v>
+      </c>
     </row>
-    <row r="4" spans="1:42">
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4">
         <v>309</v>
@@ -1231,10 +1258,16 @@
       <c r="AP4">
         <v>5</v>
       </c>
+      <c r="AQ4">
+        <v>5</v>
+      </c>
+      <c r="AR4">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:42">
+    <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5">
         <v>-0.322888504320907</v>
@@ -1243,7 +1276,7 @@
         <v>-0.1183184018008555</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E5">
         <v>-0.6048521730266428</v>
@@ -1267,10 +1300,10 @@
         <v>-0.4545198422842536</v>
       </c>
       <c r="L5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>-1.063976094679115</v>
@@ -1279,7 +1312,7 @@
         <v>0.3533550856249668</v>
       </c>
       <c r="P5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q5">
         <v>-12.40955753951304</v>
@@ -1288,7 +1321,7 @@
         <v>-12.40955753951304</v>
       </c>
       <c r="S5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T5">
         <v>-0.3632366384530361</v>
@@ -1300,7 +1333,7 @@
         <v>0.07047986719995178</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X5">
         <v>-0.1097858239713151</v>
@@ -1327,10 +1360,10 @@
         <v>-0.5836385640223933</v>
       </c>
       <c r="AF5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AH5">
         <v>0.05320433839428328</v>
@@ -1342,7 +1375,7 @@
         <v>-0.3254924943382368</v>
       </c>
       <c r="AK5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL5">
         <v>-0.6349822855800702</v>
@@ -1351,7 +1384,7 @@
         <v>0.2206488533949868</v>
       </c>
       <c r="AN5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AO5">
         <v>-1.269152600861652</v>
@@ -1359,10 +1392,16 @@
       <c r="AP5">
         <v>-1.269152600861652</v>
       </c>
+      <c r="AQ5">
+        <v>-1.269152600861652</v>
+      </c>
+      <c r="AR5">
+        <v>-1.269152600861652</v>
+      </c>
     </row>
-    <row r="6" spans="1:42">
+    <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0.00586360100162878</v>
@@ -1487,10 +1526,16 @@
       <c r="AP6">
         <v>0.002740742591343351</v>
       </c>
+      <c r="AQ6">
+        <v>0.002740742591343351</v>
+      </c>
+      <c r="AR6">
+        <v>0.002740742591343351</v>
+      </c>
     </row>
-    <row r="7" spans="1:42">
+    <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7">
         <v>-0.01037357430000463</v>
@@ -1615,10 +1660,16 @@
       <c r="AP7">
         <v>-0.004274648691877103</v>
       </c>
+      <c r="AQ7">
+        <v>-0.003599807477501327</v>
+      </c>
+      <c r="AR7">
+        <v>-0.003599807477501327</v>
+      </c>
     </row>
-    <row r="8" spans="1:42">
+    <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8">
         <v>352</v>
@@ -1743,10 +1794,16 @@
       <c r="AP8">
         <v>10</v>
       </c>
+      <c r="AQ8">
+        <v>11</v>
+      </c>
+      <c r="AR8">
+        <v>11</v>
+      </c>
     </row>
-    <row r="9" spans="1:42">
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B9">
         <v>0.964891579226408</v>
@@ -1755,7 +1812,7 @@
         <v>0.9242453061539718</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>2.169444188749579</v>
@@ -1779,10 +1836,10 @@
         <v>1.61797184494811</v>
       </c>
       <c r="L9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N9">
         <v>-0.09540756946655782</v>
@@ -1791,7 +1848,7 @@
         <v>1.965500067665733</v>
       </c>
       <c r="P9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q9">
         <v>-37.68925196360794</v>
@@ -1800,7 +1857,7 @@
         <v>-37.68925196360794</v>
       </c>
       <c r="S9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T9">
         <v>-0.1203066445141539</v>
@@ -1812,7 +1869,7 @@
         <v>0.4035141658479074</v>
       </c>
       <c r="W9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X9">
         <v>0.2013949957443495</v>
@@ -1839,10 +1896,10 @@
         <v>0.4730736696479984</v>
       </c>
       <c r="AF9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AH9">
         <v>-1.370123228295609</v>
@@ -1854,7 +1911,7 @@
         <v>-0.1187234385253557</v>
       </c>
       <c r="AK9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL9">
         <v>1.148032185747048</v>
@@ -1863,7 +1920,7 @@
         <v>0.4146879469045491</v>
       </c>
       <c r="AN9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AO9">
         <v>-0.7385624297843628</v>
@@ -1871,10 +1928,16 @@
       <c r="AP9">
         <v>-0.7385624297843628</v>
       </c>
+      <c r="AQ9">
+        <v>-0.08659115004151199</v>
+      </c>
+      <c r="AR9">
+        <v>-0.08659115004151199</v>
+      </c>
     </row>
-    <row r="10" spans="1:42">
+    <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10">
         <v>0.04737268008837399</v>
@@ -1999,10 +2062,16 @@
       <c r="AP10">
         <v>0.02053629678570749</v>
       </c>
+      <c r="AQ10">
+        <v>0.02662290265398528</v>
+      </c>
+      <c r="AR10">
+        <v>0.02662290265398528</v>
+      </c>
     </row>
-    <row r="11" spans="1:42">
+    <row r="11" spans="1:44">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B11">
         <v>-0.07593883860828288</v>
@@ -2127,10 +2196,16 @@
       <c r="AP11">
         <v>-0.01950445030738301</v>
       </c>
+      <c r="AQ11">
+        <v>-0.01950367336977399</v>
+      </c>
+      <c r="AR11">
+        <v>-0.01950367336977399</v>
+      </c>
     </row>
-    <row r="12" spans="1:42">
+    <row r="12" spans="1:44">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>559</v>
@@ -2255,10 +2330,16 @@
       <c r="AP12">
         <v>8</v>
       </c>
+      <c r="AQ12">
+        <v>8</v>
+      </c>
+      <c r="AR12">
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:42">
+    <row r="13" spans="1:44">
       <c r="A13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13">
         <v>-0.04841559501838143</v>
@@ -2267,7 +2348,7 @@
         <v>-0.6748977489571448</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>-1.446289189101312</v>
@@ -2291,10 +2372,10 @@
         <v>0.1030007104252951</v>
       </c>
       <c r="L13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>-0.2693133559121839</v>
@@ -2303,7 +2384,7 @@
         <v>-0.9201635600766969</v>
       </c>
       <c r="P13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q13">
         <v>-28.28099545520579</v>
@@ -2312,7 +2393,7 @@
         <v>-28.28099545520579</v>
       </c>
       <c r="S13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T13">
         <v>-1.544450205131759</v>
@@ -2324,7 +2405,7 @@
         <v>-1.406651460541292</v>
       </c>
       <c r="W13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X13">
         <v>-0.97382364569949</v>
@@ -2351,10 +2432,10 @@
         <v>-1.526583608735104</v>
       </c>
       <c r="AF13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AH13">
         <v>-0.05010348883158287</v>
@@ -2366,7 +2447,7 @@
         <v>-1.468656616824614</v>
       </c>
       <c r="AK13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL13">
         <v>-1.80636133801716</v>
@@ -2375,7 +2456,7 @@
         <v>-1.824138591602852</v>
       </c>
       <c r="AN13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AO13">
         <v>-2.695254162384179</v>
@@ -2383,10 +2464,16 @@
       <c r="AP13">
         <v>-2.695254162384179</v>
       </c>
+      <c r="AQ13">
+        <v>-2.685817447719115</v>
+      </c>
+      <c r="AR13">
+        <v>-2.685817447719115</v>
+      </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:44">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14">
         <v>0.01824049369479946</v>
@@ -2511,10 +2598,16 @@
       <c r="AP14">
         <v>-0.01777121125262902</v>
       </c>
+      <c r="AQ14">
+        <v>-0.01777101448754293</v>
+      </c>
+      <c r="AR14">
+        <v>-0.01777101448754293</v>
+      </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:44">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15">
         <v>-0.1120318841141407</v>
@@ -2639,10 +2732,16 @@
       <c r="AP15">
         <v>-0.00671389798430444</v>
       </c>
+      <c r="AQ15">
+        <v>-0.00671337409076711</v>
+      </c>
+      <c r="AR15">
+        <v>-0.00671337409076711</v>
+      </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:44">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16">
         <v>513</v>
@@ -2767,10 +2866,16 @@
       <c r="AP16">
         <v>12</v>
       </c>
+      <c r="AQ16">
+        <v>12</v>
+      </c>
+      <c r="AR16">
+        <v>12</v>
+      </c>
     </row>
-    <row r="17" spans="1:42">
+    <row r="17" spans="1:44">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>0.6413937902326782</v>
@@ -2779,7 +2884,7 @@
         <v>-0.2706152262487113</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E17">
         <v>1.493562370348469</v>
@@ -2803,10 +2908,10 @@
         <v>2.144193851268474</v>
       </c>
       <c r="L17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N17">
         <v>1.029327758872524</v>
@@ -2815,7 +2920,7 @@
         <v>1.083214063259147</v>
       </c>
       <c r="P17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q17">
         <v>-35.97233501729208</v>
@@ -2824,7 +2929,7 @@
         <v>-35.97233501729208</v>
       </c>
       <c r="S17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T17">
         <v>1.002781409894963</v>
@@ -2836,7 +2941,7 @@
         <v>-0.5044025247297703</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X17">
         <v>1.628088937001858</v>
@@ -2863,10 +2968,10 @@
         <v>1.441159038997348</v>
       </c>
       <c r="AF17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AH17">
         <v>0.948387948049548</v>
@@ -2878,7 +2983,7 @@
         <v>0.9938171930453183</v>
       </c>
       <c r="AK17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL17">
         <v>1.606653975785654</v>
@@ -2887,7 +2992,7 @@
         <v>0.9338620825318455</v>
       </c>
       <c r="AN17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AO17">
         <v>-0.6093366127015696</v>
@@ -2895,10 +3000,16 @@
       <c r="AP17">
         <v>-0.6093366127015696</v>
       </c>
+      <c r="AQ17">
+        <v>-0.5983784716676824</v>
+      </c>
+      <c r="AR17">
+        <v>-0.5983784716676824</v>
+      </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:44">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>0.09461197171710613</v>
@@ -3023,10 +3134,16 @@
       <c r="AP18">
         <v>0.01844715785442581</v>
       </c>
+      <c r="AQ18">
+        <v>0.0184457676860019</v>
+      </c>
+      <c r="AR18">
+        <v>0.0184457676860019</v>
+      </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:44">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B19">
         <v>-0.163714060091224</v>
@@ -3151,10 +3268,16 @@
       <c r="AP19">
         <v>-0.03629603067114362</v>
       </c>
+      <c r="AQ19">
+        <v>-0.03629603067114362</v>
+      </c>
+      <c r="AR19">
+        <v>-0.03629603067114362</v>
+      </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:44">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B20">
         <v>1011</v>
@@ -3279,10 +3402,16 @@
       <c r="AP20">
         <v>13</v>
       </c>
+      <c r="AQ20">
+        <v>13</v>
+      </c>
+      <c r="AR20">
+        <v>13</v>
+      </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:44">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21">
         <v>1.415005227739788</v>
@@ -3291,7 +3420,7 @@
         <v>0.6911351083684878</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E21">
         <v>0.5134714379876141</v>
@@ -3315,10 +3444,10 @@
         <v>1.207139776651669</v>
       </c>
       <c r="L21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N21">
         <v>1.245776409597041</v>
@@ -3327,7 +3456,7 @@
         <v>2.193115179407612</v>
       </c>
       <c r="P21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q21">
         <v>-5.023761652020543</v>
@@ -3336,7 +3465,7 @@
         <v>-5.023761652020543</v>
       </c>
       <c r="S21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="T21">
         <v>2.119189326723302</v>
@@ -3348,7 +3477,7 @@
         <v>0.3792863868755692</v>
       </c>
       <c r="W21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X21">
         <v>1.814370310865916</v>
@@ -3375,10 +3504,10 @@
         <v>0.8356816516922829</v>
       </c>
       <c r="AF21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AH21">
         <v>0.4835036050219694</v>
@@ -3390,7 +3519,7 @@
         <v>2.201352395079155</v>
       </c>
       <c r="AK21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AL21">
         <v>1.123298805808431</v>
@@ -3399,7 +3528,7 @@
         <v>0.5770550991639743</v>
       </c>
       <c r="AN21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AO21">
         <v>0.7275347930620225</v>
@@ -3407,10 +3536,16 @@
       <c r="AP21">
         <v>0.7275347930620225</v>
       </c>
+      <c r="AQ21">
+        <v>0.7275347930620225</v>
+      </c>
+      <c r="AR21">
+        <v>0.7275347930620225</v>
+      </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:44">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>0.317564</v>
@@ -3533,6 +3668,12 @@
         <v>0.08072900000000005</v>
       </c>
       <c r="AP22">
+        <v>0.08072900000000005</v>
+      </c>
+      <c r="AQ22">
+        <v>0.08072900000000005</v>
+      </c>
+      <c r="AR22">
         <v>0.08072900000000005</v>
       </c>
     </row>
@@ -3543,18 +3684,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ25"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:43">
+    <row r="1" spans="1:45">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -3617,7 +3758,7 @@
         <v>19</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>21</v>
@@ -3632,7 +3773,7 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>26</v>
@@ -3662,679 +3803,715 @@
         <v>34</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:45">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S2" t="s">
+        <v>79</v>
+      </c>
+      <c r="T2" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" t="s">
+        <v>77</v>
+      </c>
+      <c r="V2" t="s">
         <v>63</v>
       </c>
-      <c r="F2" t="s">
+      <c r="W2" t="s">
+        <v>64</v>
+      </c>
+      <c r="X2" t="s">
         <v>65</v>
       </c>
-      <c r="G2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="Y2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
+      <c r="Z2" t="s">
         <v>68</v>
       </c>
-      <c r="J2" t="s">
+      <c r="AA2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AB2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" t="s">
+      <c r="AC2" t="s">
         <v>71</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AD2" t="s">
         <v>72</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AE2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF2" t="s">
         <v>73</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AG2" t="s">
         <v>74</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AH2" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AI2" t="s">
         <v>76</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AJ2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK2" t="s">
         <v>77</v>
       </c>
-      <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s">
-        <v>75</v>
-      </c>
-      <c r="U2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" t="s">
-        <v>62</v>
-      </c>
-      <c r="X2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AL2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO2" t="s">
         <v>67</v>
       </c>
-      <c r="AB2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>65</v>
-      </c>
       <c r="AP2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AQ2" t="s">
-        <v>65</v>
+        <v>67</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:45">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="R3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="S3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="T3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="U3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="V3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="W3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="X3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Z3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AA3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AB3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AC3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AD3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AE3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AF3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AG3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AH3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AI3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AJ3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AK3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AL3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AM3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AN3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AO3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AP3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AQ3" t="s">
-        <v>111</v>
+        <v>114</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:45">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="O4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="S4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="U4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="V4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="W4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="X4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Y4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Z4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AA4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AB4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AC4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AD4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AE4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AF4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AG4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AH4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AI4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AJ4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AK4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AL4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AM4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AN4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AO4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AP4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="AQ4" t="s">
-        <v>112</v>
+        <v>115</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:45">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="R5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="S5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="T5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="U5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="V5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="W5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="X5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Y5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AB5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AC5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AD5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AE5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AF5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AG5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AH5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AI5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AJ5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AK5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AL5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AM5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AN5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AO5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AP5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AQ5" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:45">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="S6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="T6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="U6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="V6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="W6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="X6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Y6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AA6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AB6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AD6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AE6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AF6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AH6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AI6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AJ6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AM6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AN6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AO6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AP6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AQ6" t="s">
-        <v>114</v>
+        <v>117</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:45">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -4462,10 +4639,16 @@
       <c r="AQ7">
         <v>100000000</v>
       </c>
+      <c r="AR7">
+        <v>100000000</v>
+      </c>
+      <c r="AS7">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:45">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B8">
         <v>0.056</v>
@@ -4593,10 +4776,16 @@
       <c r="AQ8">
         <v>-0.014</v>
       </c>
+      <c r="AR8">
+        <v>-0.012</v>
+      </c>
+      <c r="AS8">
+        <v>-0.012</v>
+      </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:45">
       <c r="A9" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B9">
         <v>0.217</v>
@@ -4724,10 +4913,16 @@
       <c r="AQ9">
         <v>0.031</v>
       </c>
+      <c r="AR9">
+        <v>0.031</v>
+      </c>
+      <c r="AS9">
+        <v>0.031</v>
+      </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:45">
       <c r="A10" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>0.617</v>
@@ -4825,10 +5020,16 @@
       <c r="AQ10">
         <v>-0.38</v>
       </c>
+      <c r="AR10">
+        <v>-0.342</v>
+      </c>
+      <c r="AS10">
+        <v>-0.342</v>
+      </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:45">
       <c r="A11" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B11">
         <v>0.184</v>
@@ -4956,10 +5157,16 @@
       <c r="AQ11">
         <v>-0.149</v>
       </c>
+      <c r="AR11">
+        <v>-0.143</v>
+      </c>
+      <c r="AS11">
+        <v>-0.143</v>
+      </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:45">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>0.136</v>
@@ -5087,10 +5294,16 @@
       <c r="AQ12">
         <v>0.158</v>
       </c>
+      <c r="AR12">
+        <v>0.158</v>
+      </c>
+      <c r="AS12">
+        <v>0.158</v>
+      </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:45">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B13">
         <v>0.209</v>
@@ -5218,10 +5431,16 @@
       <c r="AQ13">
         <v>0.24</v>
       </c>
+      <c r="AR13">
+        <v>0.24</v>
+      </c>
+      <c r="AS13">
+        <v>0.24</v>
+      </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:45">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B14">
         <v>0.028</v>
@@ -5349,10 +5568,16 @@
       <c r="AQ14">
         <v>-0.225</v>
       </c>
+      <c r="AR14">
+        <v>-0.217</v>
+      </c>
+      <c r="AS14">
+        <v>-0.217</v>
+      </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:45">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B15">
         <v>0.099</v>
@@ -5480,10 +5705,16 @@
       <c r="AQ15">
         <v>0.034</v>
       </c>
+      <c r="AR15">
+        <v>0.034</v>
+      </c>
+      <c r="AS15">
+        <v>0.034</v>
+      </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:45">
       <c r="A16" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B16">
         <v>0.164</v>
@@ -5611,10 +5842,16 @@
       <c r="AQ16">
         <v>0.036</v>
       </c>
+      <c r="AR16">
+        <v>0.036</v>
+      </c>
+      <c r="AS16">
+        <v>0.036</v>
+      </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:45">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B17">
         <v>155010327.538</v>
@@ -5742,10 +5979,16 @@
       <c r="AQ17">
         <v>110633149.245</v>
       </c>
+      <c r="AR17">
+        <v>111292841.967</v>
+      </c>
+      <c r="AS17">
+        <v>111292841.967</v>
+      </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:45">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B18">
         <v>152943314.538</v>
@@ -5873,10 +6116,16 @@
       <c r="AQ18">
         <v>110633149.245</v>
       </c>
+      <c r="AR18">
+        <v>111292841.967</v>
+      </c>
+      <c r="AS18">
+        <v>111292841.967</v>
+      </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:45">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B19">
         <v>0.55</v>
@@ -6004,10 +6253,16 @@
       <c r="AQ19">
         <v>0.106</v>
       </c>
+      <c r="AR19">
+        <v>0.113</v>
+      </c>
+      <c r="AS19">
+        <v>0.113</v>
+      </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:45">
       <c r="A20" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B20">
         <v>0.095</v>
@@ -6135,10 +6390,16 @@
       <c r="AQ20">
         <v>0.021</v>
       </c>
+      <c r="AR20">
+        <v>0.022</v>
+      </c>
+      <c r="AS20">
+        <v>0.022</v>
+      </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:45">
       <c r="A21" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B21">
         <v>1.55</v>
@@ -6266,10 +6527,16 @@
       <c r="AQ21">
         <v>1.106</v>
       </c>
+      <c r="AR21">
+        <v>1.113</v>
+      </c>
+      <c r="AS21">
+        <v>1.113</v>
+      </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:45">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -6397,10 +6664,16 @@
       <c r="AQ22">
         <v>100000000</v>
       </c>
+      <c r="AR22">
+        <v>100000000</v>
+      </c>
+      <c r="AS22">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:45">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -6528,10 +6801,16 @@
       <c r="AQ23">
         <v>0.138</v>
       </c>
+      <c r="AR23">
+        <v>0.138</v>
+      </c>
+      <c r="AS23">
+        <v>0.138</v>
+      </c>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:45">
       <c r="A24" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -6659,10 +6938,16 @@
       <c r="AQ24">
         <v>0.027</v>
       </c>
+      <c r="AR24">
+        <v>0.027</v>
+      </c>
+      <c r="AS24">
+        <v>0.027</v>
+      </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:45">
       <c r="A25" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -6788,6 +7073,12 @@
         <v>2</v>
       </c>
       <c r="AQ25">
+        <v>2</v>
+      </c>
+      <c r="AR25">
+        <v>2</v>
+      </c>
+      <c r="AS25">
         <v>2</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="127">
   <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']2020-05-11 17:24:07</t>
   </si>
@@ -143,6 +143,24 @@
     <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-18 22:38:05</t>
   </si>
   <si>
+    <t>['close_EMA_5#2#1&amp;trend*close_EMA_10#2#1&amp;trend*close_EMA_20#2#1&amp;trend*close_EMA_60#2#1&amp;trend+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+close#settle#0&amp;diff*vol#vol_MA_3#0&amp;diff+LowerShadowRate#0.8#1&amp;thre+LowerShadowRate#0.3#1&amp;thre*UpperShadowRate#0.3#1&amp;thre*vol#vol_MA_3#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*close#high#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*close#high_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*close#high_shift_2#1#diff+high#LimitUp#1&amp;diff*vol#vol_MA_3_multiply_2#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_multiply_2_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_multiply_2_shift_2#1#diff', 'MACD#0#0&amp;thre']2020-05-23 10:13:00</t>
+  </si>
+  <si>
+    <t>['close_EMA_5#2#1&amp;trend*close_EMA_10#2#1&amp;trend*close_EMA_20#2#1&amp;trend*close_EMA_60#2#1&amp;trend+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+close#settle#0&amp;diff*vol#vol_MA_3#0&amp;diff+LowerShadowRate#0.8#1&amp;thre+LowerShadowRate#0.3#1&amp;thre*UpperShadowRate#0.3#1&amp;thre*vol#vol_MA_3#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*close#high#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*close#high_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*close#high_shift_2#1#diff+high#LimitUp#1&amp;diff*vol#vol_MA_3_multiply_2#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_multiply_2_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_multiply_2_shift_2#1#diff', 'MACD#0#0&amp;thre']2020-05-23 10:14:52</t>
+  </si>
+  <si>
+    <t>['close_EMA_5#2#1&amp;trend*close_EMA_10#2#1&amp;trend*close_EMA_20#2#1&amp;trend*close_EMA_60#2#1&amp;trend+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+close#settle#0&amp;diff*vol#vol_MA_3#0&amp;diff+LowerShadowRate#0.8#1&amp;thre+LowerShadowRate#0.3#1&amp;thre*UpperShadowRate#0.3#1&amp;thre*vol#vol_MA_3#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*close#high#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*close#high_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*close#high_shift_2#1#diff+high#LimitUp#1&amp;diff*vol#vol_MA_3_multiply_2#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_multiply_2_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_multiply_2_shift_2#1#diff', 'MACD#0#0&amp;thre']2020-05-23 10:15:34</t>
+  </si>
+  <si>
+    <t>['close_EMA_5#2#1&amp;trend*close_EMA_10#2#1&amp;trend*close_EMA_20#2#1&amp;trend*close_EMA_60#2#1&amp;trend+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+close#settle#0&amp;diff*vol#vol_MA_3#0&amp;diff+LowerShadowRate#0.8#1&amp;thre+LowerShadowRate#0.3#1&amp;thre*UpperShadowRate#0.3#1&amp;thre*vol#vol_MA_3#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*close#high#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*close#high_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*close#high_shift_2#1#diff+high#LimitUp#1&amp;diff*vol#vol_MA_3_multiply_2#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_multiply_2_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_multiply_2_shift_2#1#diff', 'MACD#0#0&amp;thre']2020-05-23 10:17:09</t>
+  </si>
+  <si>
+    <t>['close_EMA_5#2#1&amp;trend*close_EMA_10#2#1&amp;trend*close_EMA_20#2#1&amp;trend*close_EMA_60#2#1&amp;trend+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+close#settle#0&amp;diff*vol#vol_MA_3#0&amp;diff+LowerShadowRate#0.8#1&amp;thre+LowerShadowRate#0.3#1&amp;thre*UpperShadowRate#0.3#1&amp;thre*vol#vol_MA_3#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*close#high#1&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*close#high_shift_1#1&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*close#high_shift_2#1&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3_multiply_2#1&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_multiply_2_shift_1#1&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_multiply_2_shift_2#1&amp;diff', 'MACD#0#0&amp;thre']2020-05-23 10:25:02</t>
+  </si>
+  <si>
+    <t>['close_EMA_5#2#1&amp;trend*close_EMA_10#2#1&amp;trend*close_EMA_20#2#1&amp;trend*close_EMA_60#2#1&amp;trend+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+close#settle#0&amp;diff*vol#vol_MA_3#0&amp;diff+LowerShadowRate#0.8#1&amp;thre+LowerShadowRate#0.3#1&amp;thre*UpperShadowRate#0.3#1&amp;thre*vol#vol_MA_3#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*close#high#1&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*close#high_shift_1#1&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*close#high_shift_2#1&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3_multiply_2#1&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_multiply_2_shift_1#1&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_multiply_2_shift_2#1&amp;diff', 'MACD#0#0&amp;thre']2020-05-23 11:28:26</t>
+  </si>
+  <si>
     <t>strategy_name</t>
   </si>
   <si>
@@ -266,6 +284,12 @@
     <t>['L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*TAN#-296#0&amp;thre*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*L_line_30#AVGPRICE#1&amp;diff&amp;HS*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*STOCHRSI_fastd_5#STOCHRSI_fastk_7#0&amp;cross*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*close_TRIMA_60#2#1&amp;trend&amp;HS*close_DEMA_60#3#0&amp;trend+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*CDLABANDONEDBABY#0#1&amp;thre+L_line_5#2#0&amp;trend*MOM_14#1#1&amp;trend*COS#FLOOR#1&amp;cross*close_DEMA_60#3#0&amp;trend', 'MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*VAR_26#3#0&amp;trend&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*STDDEV_26#2#0&amp;thre&amp;HS*ROCR_14#1#0&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*close_DEMA_14#32#1&amp;thre&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*L_line_26#MAVP_60#1&amp;diff&amp;HS+MOM_12#CMO_14#1&amp;diff*ROC_14#-10#0&amp;thre*ROCR_14#1#0&amp;thre&amp;HS']</t>
   </si>
   <si>
+    <t>['close_EMA_5#2#1&amp;trend*close_EMA_10#2#1&amp;trend*close_EMA_20#2#1&amp;trend*close_EMA_60#2#1&amp;trend+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+close#settle#0&amp;diff*vol#vol_MA_3#0&amp;diff+LowerShadowRate#0.8#1&amp;thre+LowerShadowRate#0.3#1&amp;thre*UpperShadowRate#0.3#1&amp;thre*vol#vol_MA_3#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*close#high#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*close#high_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*close#high_shift_2#1#diff+high#LimitUp#1&amp;diff*vol#vol_MA_3_multiply_2#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_multiply_2_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_multiply_2_shift_2#1#diff', 'MACD#0#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['close_EMA_5#2#1&amp;trend*close_EMA_10#2#1&amp;trend*close_EMA_20#2#1&amp;trend*close_EMA_60#2#1&amp;trend+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+close#settle#0&amp;diff*vol#vol_MA_3#0&amp;diff+LowerShadowRate#0.8#1&amp;thre+LowerShadowRate#0.3#1&amp;thre*UpperShadowRate#0.3#1&amp;thre*vol#vol_MA_3#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*close#high#1&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*close#high_shift_1#1&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*close#high_shift_2#1&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3_multiply_2#1&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_multiply_2_shift_1#1&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_multiply_2_shift_2#1&amp;diff', 'MACD#0#0&amp;thre']</t>
+  </si>
+  <si>
     <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-11 17:14:55</t>
   </si>
   <si>
@@ -288,6 +312,9 @@
   </si>
   <si>
     <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-18 22:34:53</t>
+  </si>
+  <si>
+    <t>['close_EMA_5#2#1&amp;trend*close_EMA_10#2#1&amp;trend*close_EMA_20#2#1&amp;trend*close_EMA_60#2#1&amp;trend+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#1&amp;thre*vol#vol_MA_3#1&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#1&amp;thre*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#1&amp;thre*vol_shift_2#vol_MA_3_shift_2#1&amp;diff+Klength#0#0&amp;thre*vol#vol_MA_3#0&amp;diff*Klength_shift_1#0#0&amp;thre*vol_shift_1#vol_MA_3_shift_1#0&amp;diff*Klength_shift_2#0#0&amp;thre*vol_shift_2#vol_MA_3_shift_2#0&amp;diff+close#settle#0&amp;diff*vol#vol_MA_3#0&amp;diff+LowerShadowRate#0.8#1&amp;thre+LowerShadowRate#0.3#1&amp;thre*UpperShadowRate#0.3#1&amp;thre*vol#vol_MA_3#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high#LimitUp#1&amp;diff*vol#vol_MA_3#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_shift_0#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_shift_1#1&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_shift_2#1&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_shift_2#1&amp;diff*high_shift_0#LimitUp_multiply_0.99_shift_0#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_1#LimitUp_multiply_0.99_shift_1#0&amp;diff*high_shift_2#LimitUp_multiply_0.99_shift_2#0&amp;diff+high#LimitUp#1&amp;diff*close#high#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*close#high_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*close#high_shift_2#1#diff+high#LimitUp#1&amp;diff*vol#vol_MA_3_multiply_2#1#diff+high_shift_1#LimitUp_shift_1#1&amp;diff*vol_shift_1#vol_MA_3_multiply_2_shift_1#1#diff+high_shift_2#LimitUp_shift_2#1&amp;diff*vol_shift_2#vol_MA_3_multiply_2_shift_2#1#diff', 'MACD#0#0&amp;thre']2020-05-23 10:14:53</t>
   </si>
   <si>
     <t>start_date</t>
@@ -726,13 +753,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR22"/>
+  <dimension ref="A1:AX22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44">
+    <row r="1" spans="1:50">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -862,144 +889,180 @@
       <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AS1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:44">
+    <row r="2" spans="1:50">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>85</v>
+      </c>
+      <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" t="s">
+      <c r="V2" t="s">
         <v>70</v>
       </c>
-      <c r="I2" t="s">
+      <c r="W2" t="s">
         <v>71</v>
       </c>
-      <c r="J2" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="X2" t="s">
         <v>73</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Y2" t="s">
         <v>74</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Z2" t="s">
         <v>75</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AA2" t="s">
         <v>76</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AB2" t="s">
         <v>77</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AC2" t="s">
         <v>78</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AD2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE2" t="s">
         <v>79</v>
       </c>
-      <c r="R2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD2" t="s">
+      <c r="AF2" t="s">
         <v>80</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN2" t="s">
         <v>73</v>
       </c>
-      <c r="AF2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>67</v>
-      </c>
       <c r="AO2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AP2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AQ2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AR2" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:50">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B3">
         <v>-0.06068879581669351</v>
@@ -1130,10 +1193,28 @@
       <c r="AR3">
         <v>-0.01159416821163517</v>
       </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>-0.06169247491806684</v>
+      </c>
+      <c r="AX3">
+        <v>-0.1244282673478077</v>
+      </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:50">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>309</v>
@@ -1264,10 +1345,28 @@
       <c r="AR4">
         <v>5</v>
       </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>433</v>
+      </c>
+      <c r="AX4">
+        <v>39005</v>
+      </c>
     </row>
-    <row r="5" spans="1:44">
+    <row r="5" spans="1:50">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B5">
         <v>-0.322888504320907</v>
@@ -1276,7 +1375,7 @@
         <v>-0.1183184018008555</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>-0.6048521730266428</v>
@@ -1300,10 +1399,10 @@
         <v>-0.4545198422842536</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N5">
         <v>-1.063976094679115</v>
@@ -1312,7 +1411,7 @@
         <v>0.3533550856249668</v>
       </c>
       <c r="P5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q5">
         <v>-12.40955753951304</v>
@@ -1321,7 +1420,7 @@
         <v>-12.40955753951304</v>
       </c>
       <c r="S5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T5">
         <v>-0.3632366384530361</v>
@@ -1333,7 +1432,7 @@
         <v>0.07047986719995178</v>
       </c>
       <c r="W5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="X5">
         <v>-0.1097858239713151</v>
@@ -1360,10 +1459,10 @@
         <v>-0.5836385640223933</v>
       </c>
       <c r="AF5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AH5">
         <v>0.05320433839428328</v>
@@ -1375,7 +1474,7 @@
         <v>-0.3254924943382368</v>
       </c>
       <c r="AK5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AL5">
         <v>-0.6349822855800702</v>
@@ -1384,7 +1483,7 @@
         <v>0.2206488533949868</v>
       </c>
       <c r="AN5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AO5">
         <v>-1.269152600861652</v>
@@ -1398,10 +1497,28 @@
       <c r="AR5">
         <v>-1.269152600861652</v>
       </c>
+      <c r="AS5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW5">
+        <v>-0.1742464559552611</v>
+      </c>
+      <c r="AX5">
+        <v>-0.7218330218643367</v>
+      </c>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:50">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0.00586360100162878</v>
@@ -1532,10 +1649,28 @@
       <c r="AR6">
         <v>0.002740742591343351</v>
       </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0.009400306103171531</v>
+      </c>
+      <c r="AX6">
+        <v>-0.08399387163688167</v>
+      </c>
     </row>
-    <row r="7" spans="1:44">
+    <row r="7" spans="1:50">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>-0.01037357430000463</v>
@@ -1666,10 +1801,28 @@
       <c r="AR7">
         <v>-0.003599807477501327</v>
       </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>-0.0681699674938151</v>
+      </c>
+      <c r="AX7">
+        <v>-0.06488572004343218</v>
+      </c>
     </row>
-    <row r="8" spans="1:44">
+    <row r="8" spans="1:50">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>352</v>
@@ -1800,10 +1953,28 @@
       <c r="AR8">
         <v>11</v>
       </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>454</v>
+      </c>
+      <c r="AX8">
+        <v>39924</v>
+      </c>
     </row>
-    <row r="9" spans="1:44">
+    <row r="9" spans="1:50">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B9">
         <v>0.964891579226408</v>
@@ -1812,7 +1983,7 @@
         <v>0.9242453061539718</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E9">
         <v>2.169444188749579</v>
@@ -1836,10 +2007,10 @@
         <v>1.61797184494811</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N9">
         <v>-0.09540756946655782</v>
@@ -1848,7 +2019,7 @@
         <v>1.965500067665733</v>
       </c>
       <c r="P9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q9">
         <v>-37.68925196360794</v>
@@ -1857,7 +2028,7 @@
         <v>-37.68925196360794</v>
       </c>
       <c r="S9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T9">
         <v>-0.1203066445141539</v>
@@ -1869,7 +2040,7 @@
         <v>0.4035141658479074</v>
       </c>
       <c r="W9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="X9">
         <v>0.2013949957443495</v>
@@ -1896,10 +2067,10 @@
         <v>0.4730736696479984</v>
       </c>
       <c r="AF9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AH9">
         <v>-1.370123228295609</v>
@@ -1911,7 +2082,7 @@
         <v>-0.1187234385253557</v>
       </c>
       <c r="AK9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AL9">
         <v>1.148032185747048</v>
@@ -1920,7 +2091,7 @@
         <v>0.4146879469045491</v>
       </c>
       <c r="AN9" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AO9">
         <v>-0.7385624297843628</v>
@@ -1934,10 +2105,28 @@
       <c r="AR9">
         <v>-0.08659115004151199</v>
       </c>
+      <c r="AS9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW9">
+        <v>-0.02410062659913095</v>
+      </c>
+      <c r="AX9">
+        <v>1.313656451328336</v>
+      </c>
     </row>
-    <row r="10" spans="1:44">
+    <row r="10" spans="1:50">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B10">
         <v>0.04737268008837399</v>
@@ -2068,10 +2257,28 @@
       <c r="AR10">
         <v>0.02662290265398528</v>
       </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0.02438075956310778</v>
+      </c>
+      <c r="AX10">
+        <v>0.1642101831062104</v>
+      </c>
     </row>
-    <row r="11" spans="1:44">
+    <row r="11" spans="1:50">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B11">
         <v>-0.07593883860828288</v>
@@ -2202,10 +2409,28 @@
       <c r="AR11">
         <v>-0.01950367336977399</v>
       </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>-0.2027204177757062</v>
+      </c>
+      <c r="AX11">
+        <v>-0.225304038033267</v>
+      </c>
     </row>
-    <row r="12" spans="1:44">
+    <row r="12" spans="1:50">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B12">
         <v>559</v>
@@ -2336,10 +2561,28 @@
       <c r="AR12">
         <v>8</v>
       </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>408</v>
+      </c>
+      <c r="AX12">
+        <v>40218</v>
+      </c>
     </row>
-    <row r="13" spans="1:44">
+    <row r="13" spans="1:50">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B13">
         <v>-0.04841559501838143</v>
@@ -2348,7 +2591,7 @@
         <v>-0.6748977489571448</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>-1.446289189101312</v>
@@ -2372,10 +2615,10 @@
         <v>0.1030007104252951</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>-0.2693133559121839</v>
@@ -2384,7 +2627,7 @@
         <v>-0.9201635600766969</v>
       </c>
       <c r="P13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q13">
         <v>-28.28099545520579</v>
@@ -2393,7 +2636,7 @@
         <v>-28.28099545520579</v>
       </c>
       <c r="S13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T13">
         <v>-1.544450205131759</v>
@@ -2405,7 +2648,7 @@
         <v>-1.406651460541292</v>
       </c>
       <c r="W13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="X13">
         <v>-0.97382364569949</v>
@@ -2432,10 +2675,10 @@
         <v>-1.526583608735104</v>
       </c>
       <c r="AF13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AG13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AH13">
         <v>-0.05010348883158287</v>
@@ -2447,7 +2690,7 @@
         <v>-1.468656616824614</v>
       </c>
       <c r="AK13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AL13">
         <v>-1.80636133801716</v>
@@ -2456,7 +2699,7 @@
         <v>-1.824138591602852</v>
       </c>
       <c r="AN13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AO13">
         <v>-2.695254162384179</v>
@@ -2470,10 +2713,28 @@
       <c r="AR13">
         <v>-2.685817447719115</v>
       </c>
+      <c r="AS13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW13">
+        <v>-0.8328478636357293</v>
+      </c>
+      <c r="AX13">
+        <v>-1.467562467822817</v>
+      </c>
     </row>
-    <row r="14" spans="1:44">
+    <row r="14" spans="1:50">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B14">
         <v>0.01824049369479946</v>
@@ -2604,10 +2865,28 @@
       <c r="AR14">
         <v>-0.01777101448754293</v>
       </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>-0.08378056288827058</v>
+      </c>
+      <c r="AX14">
+        <v>-0.1870280577456498</v>
+      </c>
     </row>
-    <row r="15" spans="1:44">
+    <row r="15" spans="1:50">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B15">
         <v>-0.1120318841141407</v>
@@ -2738,10 +3017,28 @@
       <c r="AR15">
         <v>-0.00671337409076711</v>
       </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>-0.1857844062029436</v>
+      </c>
+      <c r="AX15">
+        <v>-0.1472952251674774</v>
+      </c>
     </row>
-    <row r="16" spans="1:44">
+    <row r="16" spans="1:50">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>513</v>
@@ -2872,10 +3169,28 @@
       <c r="AR16">
         <v>12</v>
       </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>448</v>
+      </c>
+      <c r="AX16">
+        <v>40099</v>
+      </c>
     </row>
-    <row r="17" spans="1:44">
+    <row r="17" spans="1:50">
       <c r="A17" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B17">
         <v>0.6413937902326782</v>
@@ -2884,7 +3199,7 @@
         <v>-0.2706152262487113</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <v>1.493562370348469</v>
@@ -2908,10 +3223,10 @@
         <v>2.144193851268474</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N17">
         <v>1.029327758872524</v>
@@ -2920,7 +3235,7 @@
         <v>1.083214063259147</v>
       </c>
       <c r="P17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q17">
         <v>-35.97233501729208</v>
@@ -2929,7 +3244,7 @@
         <v>-35.97233501729208</v>
       </c>
       <c r="S17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T17">
         <v>1.002781409894963</v>
@@ -2941,7 +3256,7 @@
         <v>-0.5044025247297703</v>
       </c>
       <c r="W17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="X17">
         <v>1.628088937001858</v>
@@ -2968,10 +3283,10 @@
         <v>1.441159038997348</v>
       </c>
       <c r="AF17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AG17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AH17">
         <v>0.948387948049548</v>
@@ -2983,7 +3298,7 @@
         <v>0.9938171930453183</v>
       </c>
       <c r="AK17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AL17">
         <v>1.606653975785654</v>
@@ -2992,7 +3307,7 @@
         <v>0.9338620825318455</v>
       </c>
       <c r="AN17" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AO17">
         <v>-0.6093366127015696</v>
@@ -3006,10 +3321,28 @@
       <c r="AR17">
         <v>-0.5983784716676824</v>
       </c>
+      <c r="AS17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW17">
+        <v>0.6858260606690806</v>
+      </c>
+      <c r="AX17">
+        <v>0.8301674065697834</v>
+      </c>
     </row>
-    <row r="18" spans="1:44">
+    <row r="18" spans="1:50">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B18">
         <v>0.09461197171710613</v>
@@ -3140,10 +3473,28 @@
       <c r="AR18">
         <v>0.0184457676860019</v>
       </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>0.16272209011029</v>
+      </c>
+      <c r="AX18">
+        <v>0.1730581135876896</v>
+      </c>
     </row>
-    <row r="19" spans="1:44">
+    <row r="19" spans="1:50">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B19">
         <v>-0.163714060091224</v>
@@ -3274,10 +3625,28 @@
       <c r="AR19">
         <v>-0.03629603067114362</v>
       </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>-0.1980661691179311</v>
+      </c>
+      <c r="AX19">
+        <v>-0.337488433306477</v>
+      </c>
     </row>
-    <row r="20" spans="1:44">
+    <row r="20" spans="1:50">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>1011</v>
@@ -3408,10 +3777,28 @@
       <c r="AR20">
         <v>13</v>
       </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>402</v>
+      </c>
+      <c r="AX20">
+        <v>36361</v>
+      </c>
     </row>
-    <row r="21" spans="1:44">
+    <row r="21" spans="1:50">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B21">
         <v>1.415005227739788</v>
@@ -3420,7 +3807,7 @@
         <v>0.6911351083684878</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E21">
         <v>0.5134714379876141</v>
@@ -3444,10 +3831,10 @@
         <v>1.207139776651669</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="M21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="N21">
         <v>1.245776409597041</v>
@@ -3456,7 +3843,7 @@
         <v>2.193115179407612</v>
       </c>
       <c r="P21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="Q21">
         <v>-5.023761652020543</v>
@@ -3465,7 +3852,7 @@
         <v>-5.023761652020543</v>
       </c>
       <c r="S21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="T21">
         <v>2.119189326723302</v>
@@ -3477,7 +3864,7 @@
         <v>0.3792863868755692</v>
       </c>
       <c r="W21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="X21">
         <v>1.814370310865916</v>
@@ -3504,10 +3891,10 @@
         <v>0.8356816516922829</v>
       </c>
       <c r="AF21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AG21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AH21">
         <v>0.4835036050219694</v>
@@ -3519,7 +3906,7 @@
         <v>2.201352395079155</v>
       </c>
       <c r="AK21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AL21">
         <v>1.123298805808431</v>
@@ -3528,7 +3915,7 @@
         <v>0.5770550991639743</v>
       </c>
       <c r="AN21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="AO21">
         <v>0.7275347930620225</v>
@@ -3542,10 +3929,28 @@
       <c r="AR21">
         <v>0.7275347930620225</v>
       </c>
+      <c r="AS21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW21">
+        <v>0.2804025631502005</v>
+      </c>
+      <c r="AX21">
+        <v>0.4860576445760595</v>
+      </c>
     </row>
-    <row r="22" spans="1:44">
+    <row r="22" spans="1:50">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B22">
         <v>0.317564</v>
@@ -3675,6 +4080,24 @@
       </c>
       <c r="AR22">
         <v>0.08072900000000005</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+      <c r="AV22">
+        <v>0</v>
+      </c>
+      <c r="AW22">
+        <v>0.103658</v>
+      </c>
+      <c r="AX22">
+        <v>0.216296</v>
       </c>
     </row>
   </sheetData>
@@ -3684,18 +4107,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AY25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:51">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -3758,7 +4181,7 @@
         <v>19</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>21</v>
@@ -3773,7 +4196,7 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>26</v>
@@ -3803,715 +4226,823 @@
         <v>34</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="AP1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="AT1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:45">
+    <row r="2" spans="1:51">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" t="s">
+        <v>83</v>
+      </c>
+      <c r="V2" t="s">
         <v>69</v>
       </c>
-      <c r="I2" t="s">
+      <c r="W2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" t="s">
+      <c r="X2" t="s">
         <v>71</v>
       </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="Y2" t="s">
         <v>73</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Z2" t="s">
         <v>74</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AA2" t="s">
         <v>75</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AB2" t="s">
         <v>76</v>
       </c>
-      <c r="P2" t="s">
+      <c r="AC2" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AD2" t="s">
         <v>78</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AE2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF2" t="s">
         <v>79</v>
       </c>
-      <c r="S2" t="s">
-        <v>79</v>
-      </c>
-      <c r="T2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" t="s">
-        <v>63</v>
-      </c>
-      <c r="W2" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>80</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO2" t="s">
         <v>73</v>
       </c>
-      <c r="AG2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>67</v>
-      </c>
       <c r="AP2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AQ2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AR2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AS2" t="s">
-        <v>67</v>
+        <v>73</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:45">
+    <row r="3" spans="1:51">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="N3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="O3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Q3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="R3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="S3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="T3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="U3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="V3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="W3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="X3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Y3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="Z3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AA3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AB3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AC3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AD3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AE3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AF3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AG3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AH3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AI3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AJ3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AK3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AL3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AM3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AN3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AO3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AP3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AQ3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AR3" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="AS3" t="s">
-        <v>114</v>
+        <v>123</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:51">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="H4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="N4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="O4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="P4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Q4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="R4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="S4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="T4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="U4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="V4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="W4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Y4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="Z4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AA4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AB4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AC4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AD4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AE4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AF4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AG4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AH4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AI4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AJ4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AK4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AL4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AM4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AN4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AO4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AP4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AQ4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AR4" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="AS4" t="s">
-        <v>115</v>
+        <v>124</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:45">
+    <row r="5" spans="1:51">
       <c r="A5" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="N5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="O5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="P5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Q5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="R5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="S5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="T5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="U5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="V5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="W5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="X5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Z5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AA5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AB5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AC5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AD5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AE5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AF5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AG5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AH5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AI5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AJ5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AK5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AL5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AM5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AN5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AO5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AP5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AQ5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AR5" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="AS5" t="s">
-        <v>116</v>
+        <v>125</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:45">
+    <row r="6" spans="1:51">
       <c r="A6" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="N6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="O6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Q6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="R6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="S6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="T6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="U6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="V6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="W6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Y6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="Z6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AA6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AB6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AC6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AD6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AE6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AF6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AG6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AI6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AJ6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AK6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AL6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AM6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AN6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AO6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AP6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AQ6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AR6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="s">
-        <v>117</v>
+        <v>126</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:45">
+    <row r="7" spans="1:51">
       <c r="A7" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -4645,10 +5176,28 @@
       <c r="AS7">
         <v>100000000</v>
       </c>
+      <c r="AT7">
+        <v>100000000</v>
+      </c>
+      <c r="AU7">
+        <v>100000000</v>
+      </c>
+      <c r="AV7">
+        <v>100000000</v>
+      </c>
+      <c r="AW7">
+        <v>100000000</v>
+      </c>
+      <c r="AX7">
+        <v>100000000</v>
+      </c>
+      <c r="AY7">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:45">
+    <row r="8" spans="1:51">
       <c r="A8" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B8">
         <v>0.056</v>
@@ -4782,10 +5331,28 @@
       <c r="AS8">
         <v>-0.012</v>
       </c>
+      <c r="AT8">
+        <v>-0.035</v>
+      </c>
+      <c r="AU8">
+        <v>-0.035</v>
+      </c>
+      <c r="AV8">
+        <v>-0.035</v>
+      </c>
+      <c r="AW8">
+        <v>-0.035</v>
+      </c>
+      <c r="AX8">
+        <v>0.011</v>
+      </c>
+      <c r="AY8">
+        <v>0.006</v>
+      </c>
     </row>
-    <row r="9" spans="1:45">
+    <row r="9" spans="1:51">
       <c r="A9" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B9">
         <v>0.217</v>
@@ -4919,10 +5486,28 @@
       <c r="AS9">
         <v>0.031</v>
       </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0.313</v>
+      </c>
+      <c r="AY9">
+        <v>0.67</v>
+      </c>
     </row>
-    <row r="10" spans="1:45">
+    <row r="10" spans="1:51">
       <c r="A10" s="1" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B10">
         <v>0.617</v>
@@ -5026,10 +5611,16 @@
       <c r="AS10">
         <v>-0.342</v>
       </c>
+      <c r="AX10">
+        <v>0.109</v>
+      </c>
+      <c r="AY10">
+        <v>0.114</v>
+      </c>
     </row>
-    <row r="11" spans="1:45">
+    <row r="11" spans="1:51">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>0.184</v>
@@ -5163,10 +5754,28 @@
       <c r="AS11">
         <v>-0.143</v>
       </c>
+      <c r="AT11">
+        <v>-0.233</v>
+      </c>
+      <c r="AU11">
+        <v>-0.233</v>
+      </c>
+      <c r="AV11">
+        <v>-0.233</v>
+      </c>
+      <c r="AW11">
+        <v>-0.233</v>
+      </c>
+      <c r="AX11">
+        <v>-0.022</v>
+      </c>
+      <c r="AY11">
+        <v>-0.008</v>
+      </c>
     </row>
-    <row r="12" spans="1:45">
+    <row r="12" spans="1:51">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B12">
         <v>0.136</v>
@@ -5300,10 +5909,28 @@
       <c r="AS12">
         <v>0.158</v>
       </c>
+      <c r="AT12">
+        <v>0.163</v>
+      </c>
+      <c r="AU12">
+        <v>0.163</v>
+      </c>
+      <c r="AV12">
+        <v>0.163</v>
+      </c>
+      <c r="AW12">
+        <v>0.163</v>
+      </c>
+      <c r="AX12">
+        <v>0.144</v>
+      </c>
+      <c r="AY12">
+        <v>0.089</v>
+      </c>
     </row>
-    <row r="13" spans="1:45">
+    <row r="13" spans="1:51">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="B13">
         <v>0.209</v>
@@ -5437,10 +6064,28 @@
       <c r="AS13">
         <v>0.24</v>
       </c>
+      <c r="AT13">
+        <v>0.245</v>
+      </c>
+      <c r="AU13">
+        <v>0.245</v>
+      </c>
+      <c r="AV13">
+        <v>0.245</v>
+      </c>
+      <c r="AW13">
+        <v>0.245</v>
+      </c>
+      <c r="AX13">
+        <v>0.222</v>
+      </c>
+      <c r="AY13">
+        <v>0.124</v>
+      </c>
     </row>
-    <row r="14" spans="1:45">
+    <row r="14" spans="1:51">
       <c r="A14" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B14">
         <v>0.028</v>
@@ -5574,10 +6219,28 @@
       <c r="AS14">
         <v>-0.217</v>
       </c>
+      <c r="AT14">
+        <v>-0.351</v>
+      </c>
+      <c r="AU14">
+        <v>-0.351</v>
+      </c>
+      <c r="AV14">
+        <v>-0.351</v>
+      </c>
+      <c r="AW14">
+        <v>-0.351</v>
+      </c>
+      <c r="AX14">
+        <v>-0.034</v>
+      </c>
+      <c r="AY14">
+        <v>-0.012</v>
+      </c>
     </row>
-    <row r="15" spans="1:45">
+    <row r="15" spans="1:51">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B15">
         <v>0.099</v>
@@ -5711,10 +6374,28 @@
       <c r="AS15">
         <v>0.034</v>
       </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0.164</v>
+      </c>
+      <c r="AY15">
+        <v>0.19</v>
+      </c>
     </row>
-    <row r="16" spans="1:45">
+    <row r="16" spans="1:51">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B16">
         <v>0.164</v>
@@ -5848,10 +6529,28 @@
       <c r="AS16">
         <v>0.036</v>
       </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+      <c r="AV16">
+        <v>0</v>
+      </c>
+      <c r="AW16">
+        <v>0</v>
+      </c>
+      <c r="AX16">
+        <v>0.211</v>
+      </c>
+      <c r="AY16">
+        <v>0.352</v>
+      </c>
     </row>
-    <row r="17" spans="1:45">
+    <row r="17" spans="1:51">
       <c r="A17" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B17">
         <v>155010327.538</v>
@@ -5985,10 +6684,28 @@
       <c r="AS17">
         <v>111292841.967</v>
       </c>
+      <c r="AT17">
+        <v>100000000</v>
+      </c>
+      <c r="AU17">
+        <v>100000000</v>
+      </c>
+      <c r="AV17">
+        <v>100000000</v>
+      </c>
+      <c r="AW17">
+        <v>100000000</v>
+      </c>
+      <c r="AX17">
+        <v>120720934.18</v>
+      </c>
+      <c r="AY17">
+        <v>120173017.868</v>
+      </c>
     </row>
-    <row r="18" spans="1:45">
+    <row r="18" spans="1:51">
       <c r="A18" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="B18">
         <v>152943314.538</v>
@@ -6122,10 +6839,28 @@
       <c r="AS18">
         <v>111292841.967</v>
       </c>
+      <c r="AT18">
+        <v>100000000</v>
+      </c>
+      <c r="AU18">
+        <v>100000000</v>
+      </c>
+      <c r="AV18">
+        <v>100000000</v>
+      </c>
+      <c r="AW18">
+        <v>100000000</v>
+      </c>
+      <c r="AX18">
+        <v>17038450.18</v>
+      </c>
+      <c r="AY18">
+        <v>7415187.868</v>
+      </c>
     </row>
-    <row r="19" spans="1:45">
+    <row r="19" spans="1:51">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B19">
         <v>0.55</v>
@@ -6259,10 +6994,28 @@
       <c r="AS19">
         <v>0.113</v>
       </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
+      </c>
+      <c r="AW19">
+        <v>0</v>
+      </c>
+      <c r="AX19">
+        <v>0.207</v>
+      </c>
+      <c r="AY19">
+        <v>0.202</v>
+      </c>
     </row>
-    <row r="20" spans="1:45">
+    <row r="20" spans="1:51">
       <c r="A20" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B20">
         <v>0.095</v>
@@ -6396,10 +7149,28 @@
       <c r="AS20">
         <v>0.022</v>
       </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+      <c r="AV20">
+        <v>0</v>
+      </c>
+      <c r="AW20">
+        <v>0</v>
+      </c>
+      <c r="AX20">
+        <v>0.04</v>
+      </c>
+      <c r="AY20">
+        <v>0.039</v>
+      </c>
     </row>
-    <row r="21" spans="1:45">
+    <row r="21" spans="1:51">
       <c r="A21" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="B21">
         <v>1.55</v>
@@ -6533,10 +7304,28 @@
       <c r="AS21">
         <v>1.113</v>
       </c>
+      <c r="AT21">
+        <v>1</v>
+      </c>
+      <c r="AU21">
+        <v>1</v>
+      </c>
+      <c r="AV21">
+        <v>1</v>
+      </c>
+      <c r="AW21">
+        <v>1</v>
+      </c>
+      <c r="AX21">
+        <v>1.207</v>
+      </c>
+      <c r="AY21">
+        <v>1.202</v>
+      </c>
     </row>
-    <row r="22" spans="1:45">
+    <row r="22" spans="1:51">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -6670,10 +7459,28 @@
       <c r="AS22">
         <v>100000000</v>
       </c>
+      <c r="AT22">
+        <v>100000000</v>
+      </c>
+      <c r="AU22">
+        <v>100000000</v>
+      </c>
+      <c r="AV22">
+        <v>100000000</v>
+      </c>
+      <c r="AW22">
+        <v>100000000</v>
+      </c>
+      <c r="AX22">
+        <v>100000000</v>
+      </c>
+      <c r="AY22">
+        <v>100000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:45">
+    <row r="23" spans="1:51">
       <c r="A23" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -6807,10 +7614,28 @@
       <c r="AS23">
         <v>0.138</v>
       </c>
+      <c r="AT23">
+        <v>0.138</v>
+      </c>
+      <c r="AU23">
+        <v>0.138</v>
+      </c>
+      <c r="AV23">
+        <v>0.138</v>
+      </c>
+      <c r="AW23">
+        <v>0.138</v>
+      </c>
+      <c r="AX23">
+        <v>0.138</v>
+      </c>
+      <c r="AY23">
+        <v>0.138</v>
+      </c>
     </row>
-    <row r="24" spans="1:45">
+    <row r="24" spans="1:51">
       <c r="A24" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -6944,10 +7769,28 @@
       <c r="AS24">
         <v>0.027</v>
       </c>
+      <c r="AT24">
+        <v>0.027</v>
+      </c>
+      <c r="AU24">
+        <v>0.027</v>
+      </c>
+      <c r="AV24">
+        <v>0.027</v>
+      </c>
+      <c r="AW24">
+        <v>0.027</v>
+      </c>
+      <c r="AX24">
+        <v>0.027</v>
+      </c>
+      <c r="AY24">
+        <v>0.027</v>
+      </c>
     </row>
-    <row r="25" spans="1:45">
+    <row r="25" spans="1:51">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -7080,6 +7923,24 @@
       </c>
       <c r="AS25">
         <v>2</v>
+      </c>
+      <c r="AT25">
+        <v>2</v>
+      </c>
+      <c r="AU25">
+        <v>2</v>
+      </c>
+      <c r="AV25">
+        <v>2</v>
+      </c>
+      <c r="AW25">
+        <v>2</v>
+      </c>
+      <c r="AX25">
+        <v>2</v>
+      </c>
+      <c r="AY25">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,9 +15,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
-  <si>
-    <t>['K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-23 21:10:01</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']2020-05-24 15:50:59</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']2020-05-24 16:02:12</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff']2020-05-24 16:15:00</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre']2020-05-24 16:27:05</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre', 'K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre']2020-05-24 16:40:01</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre']2020-05-24 16:52:10</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre']2020-05-24 17:08:18</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre']2020-05-24 17:23:28</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre', 'K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre']2020-05-24 17:39:57</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-24 17:53:05</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-24 21:18:08</t>
+  </si>
+  <si>
+    <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']2020-05-24 21:56:34</t>
   </si>
   <si>
     <t>strategy_name</t>
@@ -83,13 +116,46 @@
     <t>2015Total_Return</t>
   </si>
   <si>
-    <t>['K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']</t>
-  </si>
-  <si>
-    <t>-inf</t>
-  </si>
-  <si>
-    <t>['K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1*K#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1*D#40#1&amp;thre+K_shift_1#10#0&amp;thre&amp;HS*RSI_12#80#1*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1*K#40#1&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1*D#40#1&amp;thre+D#20#0&amp;thre&amp;HS*RSI_12#80#1*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1*K#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1*D#40#1&amp;thre+D_shift_1#90#1&amp;thre&amp;HS*RSI_12#80#1*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#open_shift_1#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;diff&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;thre&amp;HS*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-23 20:56:39</t>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'open#close_MA_10#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+open#close_MA_10#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*CCI#100#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*OBV#0#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close_MA_20_shift_1#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*CCI#100#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close#1&amp;diff']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K#90#1&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_MA_10#open#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+DEA_shift_1#DEA#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*open#close#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K#60#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#60#1&amp;HS&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#90#1&amp;thre*open_shift_1#close_MA_5#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open#close#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*open_shift_1#close_MA_5#1&amp;diff']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#20#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K#90#1&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5#close_MA_10#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_5_shift_1#close_MA_10_shift_1#1&amp;diff+D#70#1&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_MA_10#close_MA_10_shift_1#1&amp;diff', 'close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D#90#1&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#D_shift_1#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*CCI#100#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#K#1&amp;diff*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K_shift_1#70#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*K_shift_1#70#1&amp;thre', 'K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+K#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*K#40#1&amp;HS&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#close#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#80#1&amp;thre*D_shift_1#80#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_MA_10#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#K#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#10#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*K#70#1&amp;HS&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D#90#1&amp;thre*D_shift_1#10#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K_shift_1#20#1&amp;thre+K#60#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D_shift_1#10#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D#K#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5_shift_1#open#1&amp;diff+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#90#1&amp;thre+D#90#1&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_10#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+close_MA_20#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#K#1&amp;diff*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_5_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_MA_20#close_MA_10#1&amp;diff*K_shift_1#90#1&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*open#close_MA_5#1&amp;diff+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K#10#0&amp;thre+D#50#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#60#1&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#70#1&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D_shift_1#10#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*close_MA_10_shift_1#close_shift_1#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*D#K#1&amp;diff*CCI#-100#1&amp;thre*CCI#0#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close#close_MA_20_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*CCI#-100#0&amp;thre*K#90#1&amp;thre*CCI#-100#1&amp;thre*CCI#0#0&amp;thre', 'K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+K#60#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close#1&amp;HS&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open_shift_1#close_MA_10_shift_1#1&amp;HS&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*open#close#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close#close_MA_20#1&amp;HS&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*open#close_MA_5#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*OBV#0#0&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D#20#0&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#90#1&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K_shift_1#30#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*K#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D#40#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#10#0&amp;thre', 'close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_5#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*open#close#1&amp;diff*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K_shift_1#70#1&amp;thre+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*open#close_MA_20_shift_1#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*close_shift_1#close_MA_20#1&amp;diff+D#40#0&amp;HS&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre*K_shift_1#70#1&amp;thre']2020-05-24 15:39:55</t>
+  </si>
+  <si>
+    <t>['K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+K_shift_1#10#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#20#0&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_shift_1#close_MA_10_shift_1#1&amp;diff*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*K#50#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*D#K#1&amp;diff*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*close_MA_5#open#1&amp;diff+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*D_shift_1#30#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*D#60#1&amp;thre*RSI_12#80#1&amp;thre*RSI_12#100#0&amp;thre*RSI_12#0#1&amp;thre*RSI_12#20#0&amp;thre', 'close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_10_shift_1#open#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*open#close_MA_5#1&amp;diff*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#30#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*K#70#0&amp;thre*D_shift_1#90#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*close_MA_5#close#1&amp;diff+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D#80#1&amp;thre+D_shift_1#40#0&amp;HS&amp;thre*D#10#0&amp;thre*RSI_12#40#1&amp;thre*RSI_12#60#0&amp;thre*D_shift_1#90#1&amp;thre']2020-05-24 17:08:19</t>
   </si>
   <si>
     <t>start_date</t>
@@ -528,249 +594,975 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:14">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>-0.02363391992978081</v>
+      </c>
+      <c r="C3">
+        <v>-0.04568359300465918</v>
+      </c>
+      <c r="D3">
+        <v>-0.0466417000947128</v>
+      </c>
+      <c r="E3">
+        <v>-0.01048936754253282</v>
+      </c>
+      <c r="F3">
+        <v>-0.02313746354777946</v>
+      </c>
+      <c r="G3">
+        <v>-0.03661410064056903</v>
+      </c>
+      <c r="H3">
+        <v>-0.1262296572537243</v>
+      </c>
+      <c r="I3">
+        <v>-0.01540979340960624</v>
+      </c>
+      <c r="J3">
+        <v>-0.01629407600329946</v>
+      </c>
+      <c r="K3">
+        <v>-0.007821616203648518</v>
+      </c>
+      <c r="L3">
+        <v>-0.02601509401812141</v>
+      </c>
+      <c r="M3">
+        <v>-0.0387356433885141</v>
+      </c>
+      <c r="N3">
+        <v>-0.1337550293411364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>322</v>
+      </c>
+      <c r="C4">
+        <v>530</v>
+      </c>
+      <c r="D4">
+        <v>865</v>
+      </c>
+      <c r="E4">
+        <v>439</v>
+      </c>
+      <c r="F4">
+        <v>794</v>
+      </c>
+      <c r="G4">
+        <v>781</v>
+      </c>
+      <c r="H4">
+        <v>720</v>
+      </c>
+      <c r="I4">
+        <v>335</v>
+      </c>
+      <c r="J4">
+        <v>261</v>
+      </c>
+      <c r="K4">
+        <v>379</v>
+      </c>
+      <c r="L4">
+        <v>743</v>
+      </c>
+      <c r="M4">
+        <v>742</v>
+      </c>
+      <c r="N4">
+        <v>11261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>-1.507173997146131</v>
+      </c>
+      <c r="C5">
+        <v>-0.8883378351524388</v>
+      </c>
+      <c r="D5">
+        <v>-1.134752423658036</v>
+      </c>
+      <c r="E5">
+        <v>-1.133500892504697</v>
+      </c>
+      <c r="F5">
+        <v>0.03278245577109931</v>
+      </c>
+      <c r="G5">
+        <v>-0.2956727206038332</v>
+      </c>
+      <c r="H5">
+        <v>0.02619636202672722</v>
+      </c>
+      <c r="I5">
+        <v>-0.2819787199349583</v>
+      </c>
+      <c r="J5">
+        <v>0.02562204639321333</v>
+      </c>
+      <c r="K5">
+        <v>-0.6767764270914962</v>
+      </c>
+      <c r="L5">
+        <v>0.2524750153673355</v>
+      </c>
+      <c r="M5">
+        <v>-0.7317674082709527</v>
+      </c>
+      <c r="N5">
+        <v>-0.4572727771819491</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>-0.01375662293837988</v>
+      </c>
+      <c r="C6">
+        <v>-0.0120235139965327</v>
+      </c>
+      <c r="D6">
+        <v>-0.02017644922708759</v>
+      </c>
+      <c r="E6">
+        <v>0.003643378565008774</v>
+      </c>
+      <c r="F6">
+        <v>0.02916148382908505</v>
+      </c>
+      <c r="G6">
+        <v>0.006360007929802442</v>
+      </c>
+      <c r="H6">
+        <v>0.02413069277046449</v>
+      </c>
+      <c r="I6">
+        <v>0.01745770644624971</v>
+      </c>
+      <c r="J6">
+        <v>0.0250939785498226</v>
+      </c>
+      <c r="K6">
+        <v>0.01264316026280143</v>
+      </c>
+      <c r="L6">
+        <v>0.03104612653026511</v>
+      </c>
+      <c r="M6">
+        <v>-0.02063305853372258</v>
+      </c>
+      <c r="N6">
+        <v>-0.03331018989883129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>-0.006796919317365591</v>
+      </c>
+      <c r="C7">
+        <v>-0.005665982446773854</v>
+      </c>
+      <c r="D7">
+        <v>-0.007740230157869621</v>
+      </c>
+      <c r="E7">
+        <v>-0.01530640597158406</v>
+      </c>
+      <c r="F7">
+        <v>-0.03097476399219545</v>
+      </c>
+      <c r="G7">
+        <v>-0.03484385785481192</v>
+      </c>
+      <c r="H7">
+        <v>-0.02532671296913824</v>
+      </c>
+      <c r="I7">
+        <v>-0.01451777589311865</v>
+      </c>
+      <c r="J7">
+        <v>-0.006506629861487645</v>
+      </c>
+      <c r="K7">
+        <v>-0.006843323020696124</v>
+      </c>
+      <c r="L7">
+        <v>-0.03023832661267467</v>
+      </c>
+      <c r="M7">
+        <v>-0.03333174851636755</v>
+      </c>
+      <c r="N7">
+        <v>-0.06258194219820623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>352</v>
+      </c>
+      <c r="C8">
+        <v>411</v>
+      </c>
+      <c r="D8">
+        <v>1286</v>
+      </c>
+      <c r="E8">
+        <v>765</v>
+      </c>
+      <c r="F8">
+        <v>838</v>
+      </c>
+      <c r="G8">
+        <v>841</v>
+      </c>
+      <c r="H8">
+        <v>822</v>
+      </c>
+      <c r="I8">
+        <v>750</v>
+      </c>
+      <c r="J8">
+        <v>704</v>
+      </c>
+      <c r="K8">
+        <v>672</v>
+      </c>
+      <c r="L8">
+        <v>930</v>
+      </c>
+      <c r="M8">
+        <v>931</v>
+      </c>
+      <c r="N8">
+        <v>15550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1.222888629631334</v>
+      </c>
+      <c r="C9">
+        <v>0.5557846437656703</v>
+      </c>
+      <c r="D9">
+        <v>1.799910277884956</v>
+      </c>
+      <c r="E9">
+        <v>0.4831121860086069</v>
+      </c>
+      <c r="F9">
+        <v>0.4243331573033937</v>
+      </c>
+      <c r="G9">
+        <v>1.378820997760941</v>
+      </c>
+      <c r="H9">
+        <v>1.138398627752154</v>
+      </c>
+      <c r="I9">
+        <v>1.343355221998317</v>
+      </c>
+      <c r="J9">
+        <v>0.3563198111334466</v>
+      </c>
+      <c r="K9">
+        <v>0.08808616108427761</v>
+      </c>
+      <c r="L9">
+        <v>1.83095760974161</v>
+      </c>
+      <c r="M9">
+        <v>0.8970237295192598</v>
+      </c>
+      <c r="N9">
+        <v>1.111163783819671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.05417867389187224</v>
+      </c>
+      <c r="C10">
+        <v>0.03819305628379138</v>
+      </c>
+      <c r="D10">
+        <v>0.08677944167948214</v>
+      </c>
+      <c r="E10">
+        <v>0.03588817447624858</v>
+      </c>
+      <c r="F10">
+        <v>0.04229518079855311</v>
+      </c>
+      <c r="G10">
+        <v>0.1453913857219232</v>
+      </c>
+      <c r="H10">
+        <v>0.08791174440088807</v>
+      </c>
+      <c r="I10">
+        <v>0.06380063406218674</v>
+      </c>
+      <c r="J10">
+        <v>0.03088425060064593</v>
+      </c>
+      <c r="K10">
+        <v>0.0251951120015086</v>
+      </c>
+      <c r="L10">
+        <v>0.1425252583993895</v>
+      </c>
+      <c r="M10">
+        <v>0.08655598444517795</v>
+      </c>
+      <c r="N10">
+        <v>0.160865117144234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>-0.05067969928281202</v>
+      </c>
+      <c r="C11">
+        <v>-0.06058591849442319</v>
+      </c>
+      <c r="D11">
+        <v>-0.07789816101789759</v>
+      </c>
+      <c r="E11">
+        <v>-0.03841642792593603</v>
+      </c>
+      <c r="F11">
+        <v>-0.04430457377633534</v>
+      </c>
+      <c r="G11">
+        <v>-0.1060787361762173</v>
+      </c>
+      <c r="H11">
+        <v>-0.1291799568446614</v>
+      </c>
+      <c r="I11">
+        <v>-0.05055852102404912</v>
+      </c>
+      <c r="J11">
+        <v>-0.06182788307552833</v>
+      </c>
+      <c r="K11">
+        <v>-0.02367109821472779</v>
+      </c>
+      <c r="L11">
+        <v>-0.05172624949717775</v>
+      </c>
+      <c r="M11">
+        <v>-0.08782314860791085</v>
+      </c>
+      <c r="N11">
+        <v>-0.2158890327533404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B12">
+        <v>564</v>
+      </c>
+      <c r="C12">
+        <v>640</v>
+      </c>
+      <c r="D12">
+        <v>1308</v>
+      </c>
+      <c r="E12">
+        <v>946</v>
+      </c>
+      <c r="F12">
+        <v>481</v>
+      </c>
+      <c r="G12">
+        <v>1445</v>
+      </c>
+      <c r="H12">
+        <v>1073</v>
+      </c>
+      <c r="I12">
+        <v>703</v>
+      </c>
+      <c r="J12">
+        <v>896</v>
+      </c>
+      <c r="K12">
+        <v>559</v>
+      </c>
+      <c r="L12">
+        <v>745</v>
+      </c>
+      <c r="M12">
+        <v>747</v>
+      </c>
+      <c r="N12">
+        <v>9411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="B13">
+        <v>-0.4302923185600512</v>
+      </c>
+      <c r="C13">
+        <v>-0.6193857764984453</v>
+      </c>
+      <c r="D13">
+        <v>-1.462744025086907</v>
+      </c>
+      <c r="E13">
+        <v>0.02636358547579232</v>
+      </c>
+      <c r="F13">
+        <v>0.1638569132517811</v>
+      </c>
+      <c r="G13">
+        <v>-0.7044316379406474</v>
+      </c>
+      <c r="H13">
+        <v>-0.4014913524187751</v>
+      </c>
+      <c r="I13">
+        <v>-0.8197309285093999</v>
+      </c>
+      <c r="J13">
+        <v>-1.16102152861591</v>
+      </c>
+      <c r="K13">
+        <v>-0.553791512251001</v>
+      </c>
+      <c r="L13">
+        <v>-1.234514236078851</v>
+      </c>
+      <c r="M13">
+        <v>-1.991321708992162</v>
+      </c>
+      <c r="N13">
+        <v>-1.68951579689261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>3.631661734924103e-05</v>
       </c>
       <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.001395164472940639</v>
+      </c>
+      <c r="D14">
+        <v>-0.04497360314074979</v>
+      </c>
+      <c r="E14">
+        <v>0.02162168172650993</v>
+      </c>
+      <c r="F14">
+        <v>0.03491671680097484</v>
+      </c>
+      <c r="G14">
+        <v>-0.03943532514174493</v>
+      </c>
+      <c r="H14">
+        <v>-0.02252436301878727</v>
+      </c>
+      <c r="I14">
+        <v>-0.008376870969200746</v>
+      </c>
+      <c r="J14">
+        <v>-0.02475570382877261</v>
+      </c>
+      <c r="K14">
+        <v>0.01113098604010627</v>
+      </c>
+      <c r="L14">
+        <v>-0.03680552706165021</v>
+      </c>
+      <c r="M14">
+        <v>-0.07462357111727831</v>
+      </c>
+      <c r="N14">
+        <v>-0.1669917619398029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.1158155069311024</v>
       </c>
       <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.02672248887703121</v>
+      </c>
+      <c r="D15">
+        <v>-0.04729747449581712</v>
+      </c>
+      <c r="E15">
+        <v>-0.07310007808760921</v>
+      </c>
+      <c r="F15">
+        <v>-0.1268911135213352</v>
+      </c>
+      <c r="G15">
+        <v>-0.07090455590209643</v>
+      </c>
+      <c r="H15">
+        <v>-0.06145629928663421</v>
+      </c>
+      <c r="I15">
+        <v>-0.02613167345116785</v>
+      </c>
+      <c r="J15">
+        <v>-0.02860520560916224</v>
+      </c>
+      <c r="K15">
+        <v>-0.03282045960658597</v>
+      </c>
+      <c r="L15">
+        <v>-0.1198840683727456</v>
+      </c>
+      <c r="M15">
+        <v>-0.1315077350320901</v>
+      </c>
+      <c r="N15">
+        <v>-0.1660463329292464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>811</v>
+      </c>
+      <c r="D16">
+        <v>1430</v>
+      </c>
+      <c r="E16">
+        <v>848</v>
+      </c>
+      <c r="F16">
+        <v>638</v>
+      </c>
+      <c r="G16">
+        <v>1452</v>
+      </c>
+      <c r="H16">
+        <v>1066</v>
+      </c>
+      <c r="I16">
+        <v>591</v>
+      </c>
+      <c r="J16">
+        <v>649</v>
+      </c>
+      <c r="K16">
+        <v>534</v>
+      </c>
+      <c r="L16">
+        <v>1596</v>
+      </c>
+      <c r="M16">
+        <v>1583</v>
+      </c>
+      <c r="N16">
+        <v>14148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>0.4681379358793397</v>
+      </c>
+      <c r="C17">
+        <v>-1.096380388017197</v>
+      </c>
+      <c r="D17">
+        <v>1.616514768030212</v>
+      </c>
+      <c r="E17">
+        <v>1.457190258655504</v>
+      </c>
+      <c r="F17">
+        <v>0.7150936267698448</v>
+      </c>
+      <c r="G17">
+        <v>1.250340826169145</v>
+      </c>
+      <c r="H17">
+        <v>1.433883698696152</v>
+      </c>
+      <c r="I17">
+        <v>1.331773426100567</v>
+      </c>
+      <c r="J17">
+        <v>1.559191300059617</v>
+      </c>
+      <c r="K17">
+        <v>0.9808116506052496</v>
+      </c>
+      <c r="L17">
+        <v>1.172121921937964</v>
+      </c>
+      <c r="M17">
+        <v>0.9310716782529328</v>
+      </c>
+      <c r="N17">
+        <v>0.1018553030464748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.07231878434784193</v>
       </c>
       <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.00849236200999837</v>
+      </c>
+      <c r="D18">
+        <v>0.2354840525424335</v>
+      </c>
+      <c r="E18">
+        <v>0.2316393251906465</v>
+      </c>
+      <c r="F18">
+        <v>0.1297545777425679</v>
+      </c>
+      <c r="G18">
+        <v>0.2016316472927021</v>
+      </c>
+      <c r="H18">
+        <v>0.2331558740026403</v>
+      </c>
+      <c r="I18">
+        <v>0.1181289697894119</v>
+      </c>
+      <c r="J18">
+        <v>0.149443562467718</v>
+      </c>
+      <c r="K18">
+        <v>0.08591664073277396</v>
+      </c>
+      <c r="L18">
+        <v>0.2248170530153966</v>
+      </c>
+      <c r="M18">
+        <v>0.1869350497016947</v>
+      </c>
+      <c r="N18">
+        <v>0.04252972030081404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>-0.1199412846360711</v>
       </c>
       <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>-0.06271501327441409</v>
+      </c>
+      <c r="D19">
+        <v>-0.1395429518309241</v>
+      </c>
+      <c r="E19">
+        <v>-0.07822559672627849</v>
+      </c>
+      <c r="F19">
+        <v>-0.03619015775726786</v>
+      </c>
+      <c r="G19">
+        <v>-0.2189019415891662</v>
+      </c>
+      <c r="H19">
+        <v>-0.1735897008582619</v>
+      </c>
+      <c r="I19">
+        <v>-0.1076069555456357</v>
+      </c>
+      <c r="J19">
+        <v>-0.0824603854877004</v>
+      </c>
+      <c r="K19">
+        <v>-0.07822539193009503</v>
+      </c>
+      <c r="L19">
+        <v>-0.06509518562323302</v>
+      </c>
+      <c r="M19">
+        <v>-0.09670399601843283</v>
+      </c>
+      <c r="N19">
+        <v>-0.2396021299336563</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>1580</v>
+      </c>
+      <c r="D20">
+        <v>1500</v>
+      </c>
+      <c r="E20">
+        <v>772</v>
+      </c>
+      <c r="F20">
+        <v>870</v>
+      </c>
+      <c r="G20">
+        <v>661</v>
+      </c>
+      <c r="H20">
+        <v>979</v>
+      </c>
+      <c r="I20">
+        <v>631</v>
+      </c>
+      <c r="J20">
+        <v>1027</v>
+      </c>
+      <c r="K20">
+        <v>1464</v>
+      </c>
+      <c r="L20">
+        <v>1630</v>
+      </c>
+      <c r="M20">
+        <v>1631</v>
+      </c>
+      <c r="N20">
+        <v>14456</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>1.395543817831294</v>
+      </c>
+      <c r="C21">
+        <v>0.9394999822910608</v>
+      </c>
+      <c r="D21">
+        <v>0.8272221474700227</v>
+      </c>
+      <c r="E21">
+        <v>1.835845160313317</v>
+      </c>
+      <c r="F21">
+        <v>0.6572354376874373</v>
+      </c>
+      <c r="G21">
+        <v>0.5705130963911428</v>
+      </c>
+      <c r="H21">
+        <v>1.270460141496838</v>
+      </c>
+      <c r="I21">
+        <v>1.258335115304318</v>
+      </c>
+      <c r="J21">
+        <v>1.444668404336998</v>
+      </c>
+      <c r="K21">
+        <v>1.279416563814068</v>
+      </c>
+      <c r="L21">
+        <v>2.1722577515477</v>
+      </c>
+      <c r="M21">
+        <v>1.639649439050237</v>
+      </c>
+      <c r="N21">
+        <v>0.6616917182477605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.269061</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.121885</v>
+      </c>
+      <c r="D22">
+        <v>0.1483190000000001</v>
+      </c>
+      <c r="E22">
+        <v>0.3685099999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.08400999999999992</v>
+      </c>
+      <c r="G22">
+        <v>0.180939</v>
+      </c>
+      <c r="H22">
+        <v>0.4594750000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.2456389999999999</v>
+      </c>
+      <c r="J22">
+        <v>0.2311319999999999</v>
+      </c>
+      <c r="K22">
+        <v>0.251744</v>
+      </c>
+      <c r="L22">
+        <v>0.634439</v>
+      </c>
+      <c r="M22">
+        <v>0.4943010000000001</v>
+      </c>
+      <c r="N22">
+        <v>0.228472</v>
       </c>
     </row>
   </sheetData>
@@ -780,96 +1572,294 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="B6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -880,197 +1870,701 @@
       <c r="D7">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>100000000</v>
+      </c>
+      <c r="F7">
+        <v>100000000</v>
+      </c>
+      <c r="G7">
+        <v>100000000</v>
+      </c>
+      <c r="H7">
+        <v>100000000</v>
+      </c>
+      <c r="I7">
+        <v>100000000</v>
+      </c>
+      <c r="J7">
+        <v>100000000</v>
+      </c>
+      <c r="K7">
+        <v>100000000</v>
+      </c>
+      <c r="L7">
+        <v>100000000</v>
+      </c>
+      <c r="M7">
+        <v>100000000</v>
+      </c>
+      <c r="N7">
+        <v>100000000</v>
+      </c>
+      <c r="O7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B8">
-        <v>-0.035</v>
+        <v>0.037</v>
       </c>
       <c r="C8">
-        <v>-0.035</v>
+        <v>0.037</v>
       </c>
       <c r="D8">
-        <v>-0.035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.008</v>
+      </c>
+      <c r="E8">
+        <v>0.042</v>
+      </c>
+      <c r="F8">
+        <v>0.089</v>
+      </c>
+      <c r="G8">
+        <v>0.029</v>
+      </c>
+      <c r="H8">
+        <v>0.061</v>
+      </c>
+      <c r="I8">
+        <v>0.111</v>
+      </c>
+      <c r="J8">
+        <v>0.049</v>
+      </c>
+      <c r="K8">
+        <v>0.042</v>
+      </c>
+      <c r="L8">
+        <v>0.039</v>
+      </c>
+      <c r="M8">
+        <v>0.137</v>
+      </c>
+      <c r="N8">
+        <v>0.083</v>
+      </c>
+      <c r="O8">
+        <v>0.008999999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.154</v>
       </c>
       <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.075</v>
+      </c>
+      <c r="E9">
+        <v>0.167</v>
+      </c>
+      <c r="F9">
+        <v>0.159</v>
+      </c>
+      <c r="G9">
+        <v>0.121</v>
+      </c>
+      <c r="H9">
+        <v>0.291</v>
+      </c>
+      <c r="I9">
+        <v>0.407</v>
+      </c>
+      <c r="J9">
+        <v>0.134</v>
+      </c>
+      <c r="K9">
+        <v>0.122</v>
+      </c>
+      <c r="L9">
+        <v>0.134</v>
+      </c>
+      <c r="M9">
+        <v>0.235</v>
+      </c>
+      <c r="N9">
+        <v>0.254</v>
+      </c>
+      <c r="O9">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>54</v>
+      </c>
+      <c r="B10">
+        <v>0.486</v>
+      </c>
+      <c r="C10">
+        <v>0.486</v>
+      </c>
+      <c r="D10">
+        <v>-0.119</v>
+      </c>
+      <c r="E10">
+        <v>0.555</v>
+      </c>
+      <c r="F10">
+        <v>1.027</v>
+      </c>
+      <c r="G10">
+        <v>0.416</v>
+      </c>
+      <c r="H10">
+        <v>0.533</v>
+      </c>
+      <c r="I10">
+        <v>0.792</v>
+      </c>
+      <c r="J10">
+        <v>0.6870000000000001</v>
+      </c>
+      <c r="K10">
+        <v>0.659</v>
+      </c>
+      <c r="L10">
+        <v>0.576</v>
+      </c>
+      <c r="M10">
+        <v>1.176</v>
+      </c>
+      <c r="N10">
+        <v>0.703</v>
+      </c>
+      <c r="O10">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B11">
-        <v>-0.233</v>
+        <v>0.083</v>
       </c>
       <c r="C11">
-        <v>-0.233</v>
+        <v>0.083</v>
       </c>
       <c r="D11">
-        <v>-0.233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.124</v>
+      </c>
+      <c r="E11">
+        <v>0.106</v>
+      </c>
+      <c r="F11">
+        <v>0.315</v>
+      </c>
+      <c r="G11">
+        <v>0.04</v>
+      </c>
+      <c r="H11">
+        <v>0.22</v>
+      </c>
+      <c r="I11">
+        <v>0.528</v>
+      </c>
+      <c r="J11">
+        <v>0.13</v>
+      </c>
+      <c r="K11">
+        <v>0.099</v>
+      </c>
+      <c r="L11">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="M11">
+        <v>0.556</v>
+      </c>
+      <c r="N11">
+        <v>0.311</v>
+      </c>
+      <c r="O11">
+        <v>-0.027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B12">
-        <v>0.163</v>
+        <v>0.145</v>
       </c>
       <c r="C12">
-        <v>0.163</v>
+        <v>0.145</v>
       </c>
       <c r="D12">
-        <v>0.163</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.154</v>
+      </c>
+      <c r="E12">
+        <v>0.141</v>
+      </c>
+      <c r="F12">
+        <v>0.142</v>
+      </c>
+      <c r="G12">
+        <v>0.149</v>
+      </c>
+      <c r="H12">
+        <v>0.131</v>
+      </c>
+      <c r="I12">
+        <v>0.119</v>
+      </c>
+      <c r="J12">
+        <v>0.147</v>
+      </c>
+      <c r="K12">
+        <v>0.146</v>
+      </c>
+      <c r="L12">
+        <v>0.144</v>
+      </c>
+      <c r="M12">
+        <v>0.138</v>
+      </c>
+      <c r="N12">
+        <v>0.139</v>
+      </c>
+      <c r="O12">
+        <v>0.134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B13">
-        <v>0.245</v>
+        <v>0.221</v>
       </c>
       <c r="C13">
-        <v>0.245</v>
+        <v>0.221</v>
       </c>
       <c r="D13">
-        <v>0.245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.232</v>
+      </c>
+      <c r="E13">
+        <v>0.216</v>
+      </c>
+      <c r="F13">
+        <v>0.222</v>
+      </c>
+      <c r="G13">
+        <v>0.227</v>
+      </c>
+      <c r="H13">
+        <v>0.202</v>
+      </c>
+      <c r="I13">
+        <v>0.185</v>
+      </c>
+      <c r="J13">
+        <v>0.223</v>
+      </c>
+      <c r="K13">
+        <v>0.224</v>
+      </c>
+      <c r="L13">
+        <v>0.222</v>
+      </c>
+      <c r="M13">
+        <v>0.216</v>
+      </c>
+      <c r="N13">
+        <v>0.214</v>
+      </c>
+      <c r="O13">
+        <v>0.198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B14">
-        <v>-0.013</v>
+        <v>0.018</v>
       </c>
       <c r="C14">
-        <v>-0.013</v>
+        <v>0.018</v>
       </c>
       <c r="D14">
-        <v>-0.013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.003</v>
+      </c>
+      <c r="E14">
+        <v>0.02</v>
+      </c>
+      <c r="F14">
+        <v>0.041</v>
+      </c>
+      <c r="G14">
+        <v>0.013</v>
+      </c>
+      <c r="H14">
+        <v>0.032</v>
+      </c>
+      <c r="I14">
+        <v>0.064</v>
+      </c>
+      <c r="J14">
+        <v>0.022</v>
+      </c>
+      <c r="K14">
+        <v>0.019</v>
+      </c>
+      <c r="L14">
+        <v>0.018</v>
+      </c>
+      <c r="M14">
+        <v>0.065</v>
+      </c>
+      <c r="N14">
+        <v>0.478</v>
+      </c>
+      <c r="O14">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.052</v>
+      </c>
+      <c r="E15">
+        <v>0.082</v>
+      </c>
+      <c r="F15">
+        <v>0.09</v>
+      </c>
+      <c r="G15">
+        <v>0.076</v>
+      </c>
+      <c r="H15">
+        <v>0.126</v>
+      </c>
+      <c r="I15">
+        <v>0.152</v>
+      </c>
+      <c r="J15">
+        <v>0.075</v>
+      </c>
+      <c r="K15">
+        <v>0.068</v>
+      </c>
+      <c r="L15">
+        <v>0.073</v>
+      </c>
+      <c r="M15">
+        <v>0.121</v>
+      </c>
+      <c r="N15">
+        <v>0.127</v>
+      </c>
+      <c r="O15">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.079</v>
+      </c>
+      <c r="E16">
+        <v>0.167</v>
+      </c>
+      <c r="F16">
+        <v>0.078</v>
+      </c>
+      <c r="G16">
+        <v>0.127</v>
+      </c>
+      <c r="H16">
+        <v>0.226</v>
+      </c>
+      <c r="I16">
+        <v>0.175</v>
+      </c>
+      <c r="J16">
+        <v>0.108</v>
+      </c>
+      <c r="K16">
+        <v>0.082</v>
+      </c>
+      <c r="L16">
+        <v>0.078</v>
+      </c>
+      <c r="M16">
+        <v>0.12</v>
+      </c>
+      <c r="N16">
+        <v>0.132</v>
+      </c>
+      <c r="O16">
+        <v>0.301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B17">
-        <v>100000000</v>
+        <v>141501940.509</v>
       </c>
       <c r="C17">
-        <v>100000000</v>
+        <v>141501940.509</v>
       </c>
       <c r="D17">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>113904104.74</v>
+      </c>
+      <c r="E17">
+        <v>144865212.057</v>
+      </c>
+      <c r="F17">
+        <v>181034567.489</v>
+      </c>
+      <c r="G17">
+        <v>135760772.024</v>
+      </c>
+      <c r="H17">
+        <v>157217993.518</v>
+      </c>
+      <c r="I17">
+        <v>199712751.967</v>
+      </c>
+      <c r="J17">
+        <v>149543575.845</v>
+      </c>
+      <c r="K17">
+        <v>145096091.615</v>
+      </c>
+      <c r="L17">
+        <v>142715352.167</v>
+      </c>
+      <c r="M17">
+        <v>227142247.573</v>
+      </c>
+      <c r="N17">
+        <v>174655037.336</v>
+      </c>
+      <c r="O17">
+        <v>120966551.593</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B18">
-        <v>100000000</v>
+        <v>141501940.509</v>
       </c>
       <c r="C18">
-        <v>100000000</v>
+        <v>141501940.509</v>
       </c>
       <c r="D18">
-        <v>100000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>113502304.74</v>
+      </c>
+      <c r="E18">
+        <v>106737949.057</v>
+      </c>
+      <c r="F18">
+        <v>177136617.489</v>
+      </c>
+      <c r="G18">
+        <v>18126752.024</v>
+      </c>
+      <c r="H18">
+        <v>157217993.518</v>
+      </c>
+      <c r="I18">
+        <v>62778941.367</v>
+      </c>
+      <c r="J18">
+        <v>149543575.845</v>
+      </c>
+      <c r="K18">
+        <v>145096091.615</v>
+      </c>
+      <c r="L18">
+        <v>142715352.167</v>
+      </c>
+      <c r="M18">
+        <v>453711.573</v>
+      </c>
+      <c r="N18">
+        <v>357113.336</v>
+      </c>
+      <c r="O18">
+        <v>16447117.593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.415</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.139</v>
+      </c>
+      <c r="E19">
+        <v>0.449</v>
+      </c>
+      <c r="F19">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G19">
+        <v>0.358</v>
+      </c>
+      <c r="H19">
+        <v>0.572</v>
+      </c>
+      <c r="I19">
+        <v>0.997</v>
+      </c>
+      <c r="J19">
+        <v>0.495</v>
+      </c>
+      <c r="K19">
+        <v>0.451</v>
+      </c>
+      <c r="L19">
+        <v>0.427</v>
+      </c>
+      <c r="M19">
+        <v>1.271</v>
+      </c>
+      <c r="N19">
+        <v>0.747</v>
+      </c>
+      <c r="O19">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>0.075</v>
       </c>
       <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.027</v>
+      </c>
+      <c r="E20">
+        <v>0.08</v>
+      </c>
+      <c r="F20">
+        <v>0.131</v>
+      </c>
+      <c r="G20">
+        <v>0.065</v>
+      </c>
+      <c r="H20">
+        <v>0.098</v>
+      </c>
+      <c r="I20">
+        <v>0.154</v>
+      </c>
+      <c r="J20">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="K20">
+        <v>0.08</v>
+      </c>
+      <c r="L20">
+        <v>0.076</v>
+      </c>
+      <c r="M20">
+        <v>0.185</v>
+      </c>
+      <c r="N20">
+        <v>0.122</v>
+      </c>
+      <c r="O20">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>1.415</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>1.415</v>
       </c>
       <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1.139</v>
+      </c>
+      <c r="E21">
+        <v>1.449</v>
+      </c>
+      <c r="F21">
+        <v>1.81</v>
+      </c>
+      <c r="G21">
+        <v>1.358</v>
+      </c>
+      <c r="H21">
+        <v>1.572</v>
+      </c>
+      <c r="I21">
+        <v>1.997</v>
+      </c>
+      <c r="J21">
+        <v>1.495</v>
+      </c>
+      <c r="K21">
+        <v>1.451</v>
+      </c>
+      <c r="L21">
+        <v>1.427</v>
+      </c>
+      <c r="M21">
+        <v>2.271</v>
+      </c>
+      <c r="N21">
+        <v>1.747</v>
+      </c>
+      <c r="O21">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -1081,10 +2575,43 @@
       <c r="D22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>100000000</v>
+      </c>
+      <c r="F22">
+        <v>100000000</v>
+      </c>
+      <c r="G22">
+        <v>100000000</v>
+      </c>
+      <c r="H22">
+        <v>100000000</v>
+      </c>
+      <c r="I22">
+        <v>100000000</v>
+      </c>
+      <c r="J22">
+        <v>100000000</v>
+      </c>
+      <c r="K22">
+        <v>100000000</v>
+      </c>
+      <c r="L22">
+        <v>100000000</v>
+      </c>
+      <c r="M22">
+        <v>100000000</v>
+      </c>
+      <c r="N22">
+        <v>100000000</v>
+      </c>
+      <c r="O22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B23">
         <v>0.138</v>
@@ -1095,10 +2622,43 @@
       <c r="D23">
         <v>0.138</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>0.138</v>
+      </c>
+      <c r="F23">
+        <v>0.138</v>
+      </c>
+      <c r="G23">
+        <v>0.138</v>
+      </c>
+      <c r="H23">
+        <v>0.138</v>
+      </c>
+      <c r="I23">
+        <v>0.138</v>
+      </c>
+      <c r="J23">
+        <v>0.138</v>
+      </c>
+      <c r="K23">
+        <v>0.138</v>
+      </c>
+      <c r="L23">
+        <v>0.138</v>
+      </c>
+      <c r="M23">
+        <v>0.138</v>
+      </c>
+      <c r="N23">
+        <v>0.138</v>
+      </c>
+      <c r="O23">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B24">
         <v>0.027</v>
@@ -1109,10 +2669,43 @@
       <c r="D24">
         <v>0.027</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>0.027</v>
+      </c>
+      <c r="F24">
+        <v>0.027</v>
+      </c>
+      <c r="G24">
+        <v>0.027</v>
+      </c>
+      <c r="H24">
+        <v>0.027</v>
+      </c>
+      <c r="I24">
+        <v>0.027</v>
+      </c>
+      <c r="J24">
+        <v>0.027</v>
+      </c>
+      <c r="K24">
+        <v>0.027</v>
+      </c>
+      <c r="L24">
+        <v>0.027</v>
+      </c>
+      <c r="M24">
+        <v>0.027</v>
+      </c>
+      <c r="N24">
+        <v>0.027</v>
+      </c>
+      <c r="O24">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -1121,6 +2714,39 @@
         <v>300</v>
       </c>
       <c r="D25">
+        <v>300</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>300</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <v>300</v>
+      </c>
+      <c r="J25">
+        <v>300</v>
+      </c>
+      <c r="K25">
+        <v>300</v>
+      </c>
+      <c r="L25">
+        <v>300</v>
+      </c>
+      <c r="M25">
+        <v>300</v>
+      </c>
+      <c r="N25">
+        <v>300</v>
+      </c>
+      <c r="O25">
         <v>300</v>
       </c>
     </row>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,11 +15,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-25 11:24:00</t>
   </si>
   <si>
+    <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#3250#0&amp;HS&amp;thre']2020-05-29 13:46:06</t>
+  </si>
+  <si>
     <t>strategy_name</t>
   </si>
   <si>
@@ -99,6 +102,12 @@
   </si>
   <si>
     <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#3250#0&amp;HS&amp;thre']</t>
+  </si>
+  <si>
+    <t>-inf</t>
   </si>
   <si>
     <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']2020-05-25 11:06:49</t>
@@ -540,34 +549,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>-0.1335832885259942</v>
@@ -575,10 +590,13 @@
       <c r="C3">
         <v>-0.0387356433885141</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>-0.06024692282454791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>11263</v>
@@ -586,10 +604,13 @@
       <c r="C4">
         <v>742</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>-0.4588544657591355</v>
@@ -597,10 +618,13 @@
       <c r="C5">
         <v>-0.7317674082709527</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>-3.354645923486953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>-0.03323854346467311</v>
@@ -608,10 +632,13 @@
       <c r="C6">
         <v>-0.02063305853372258</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>-0.06024692282454795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>-0.06262379305057586</v>
@@ -619,10 +646,13 @@
       <c r="C7">
         <v>-0.03333174851636755</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>-0.02518579348834171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>15525</v>
@@ -630,10 +660,13 @@
       <c r="C8">
         <v>931</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>1.082051056197432</v>
@@ -641,10 +674,13 @@
       <c r="C9">
         <v>0.8970237295192598</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>-0.6105901971292913</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.1574681104545674</v>
@@ -652,10 +688,13 @@
       <c r="C10">
         <v>0.08655598444517795</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>0.01140461972019989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>-0.2159777259226376</v>
@@ -663,10 +702,13 @@
       <c r="C11">
         <v>-0.08782314860791085</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>-0.09243551418203044</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>9411</v>
@@ -674,10 +716,13 @@
       <c r="C12">
         <v>747</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>-1.693044806176839</v>
@@ -685,10 +730,13 @@
       <c r="C13">
         <v>-1.991321708992162</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>-1.110883529264025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>-0.1671487993329587</v>
@@ -696,10 +744,13 @@
       <c r="C14">
         <v>-0.07462357111727831</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>-0.02865469672306354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>-0.1680655085690917</v>
@@ -707,10 +758,13 @@
       <c r="C15">
         <v>-0.1315077350320901</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>-0.003171748376039396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>14311</v>
@@ -718,10 +772,13 @@
       <c r="C16">
         <v>1583</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.2213252176576767</v>
@@ -729,10 +786,13 @@
       <c r="C17">
         <v>0.9594475757773023</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>-45.29547745217225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0.06348582650153679</v>
@@ -740,10 +800,13 @@
       <c r="C18">
         <v>0.1929215435626332</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>-0.003060663126044649</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>-0.1033982940464883</v>
@@ -751,10 +814,13 @@
       <c r="C19">
         <v>-0.02701886676445531</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>1819</v>
@@ -762,10 +828,13 @@
       <c r="C20">
         <v>108</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>-0.06620908625560429</v>
@@ -773,10 +842,13 @@
       <c r="C21">
         <v>-0.4976848525102717</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>0.004520294457508001</v>
@@ -784,10 +856,13 @@
       <c r="C22">
         <v>-0.005945541152427045</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>-0.2397561068833339</v>
@@ -795,10 +870,13 @@
       <c r="C23">
         <v>-0.09670399601843283</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>-0.121655234522653</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>14483</v>
@@ -806,10 +884,13 @@
       <c r="C24">
         <v>1631</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>0.6150957254390144</v>
@@ -817,16 +898,22 @@
       <c r="C25">
         <v>1.639649439050237</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <v>0.05329492418715995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>0.213546</v>
       </c>
       <c r="C26">
         <v>0.4943010000000001</v>
+      </c>
+      <c r="D26">
+        <v>0.03717499999999996</v>
       </c>
     </row>
   </sheetData>
@@ -836,96 +923,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -936,10 +1041,13 @@
       <c r="D7">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0.013</v>
@@ -950,10 +1058,13 @@
       <c r="D8">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>-0.047</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B9">
         <v>0.385</v>
@@ -964,10 +1075,13 @@
       <c r="D9">
         <v>0.239</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0.138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>0.123</v>
@@ -978,10 +1092,13 @@
       <c r="D10">
         <v>0.675</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>-0.6919999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11">
         <v>0.015</v>
@@ -992,10 +1109,13 @@
       <c r="D11">
         <v>0.309</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>-0.278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12">
         <v>0.132</v>
@@ -1006,10 +1126,13 @@
       <c r="D12">
         <v>0.14</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B13">
         <v>0.198</v>
@@ -1020,10 +1143,13 @@
       <c r="D13">
         <v>0.217</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>0.023</v>
@@ -1034,10 +1160,13 @@
       <c r="D14">
         <v>0.478</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>-0.408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>0.158</v>
@@ -1048,10 +1177,13 @@
       <c r="D15">
         <v>0.124</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0.065</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B16">
         <v>0.303</v>
@@ -1062,10 +1194,13 @@
       <c r="D16">
         <v>0.132</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>0.155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>124312447.842</v>
@@ -1076,10 +1211,13 @@
       <c r="D17">
         <v>177341936.317</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>94232711.40800001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>56808719.842</v>
@@ -1090,10 +1228,13 @@
       <c r="D18">
         <v>177341936.317</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>94232711.40800001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B19">
         <v>0.243</v>
@@ -1104,10 +1245,13 @@
       <c r="D19">
         <v>0.773</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>-0.058</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>0.043</v>
@@ -1118,10 +1262,13 @@
       <c r="D20">
         <v>0.118</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>-0.011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>1.243</v>
@@ -1132,10 +1279,13 @@
       <c r="D21">
         <v>1.773</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>0.9419999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -1146,10 +1296,13 @@
       <c r="D22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>0.114</v>
@@ -1160,10 +1313,13 @@
       <c r="D23">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B24">
         <v>0.021</v>
@@ -1174,10 +1330,13 @@
       <c r="D24">
         <v>0.021</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -1187,6 +1346,9 @@
       </c>
       <c r="D25">
         <v>300</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,12 +15,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="79">
   <si>
     <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-25 11:24:00</t>
   </si>
   <si>
-    <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#3250#0&amp;HS&amp;thre']2020-05-29 13:46:06</t>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-28 10:44:36</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-28 10:46:01</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-28 15:11:58</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-28 15:31:55</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#1#0&amp;trend']2020-05-29 10:19:03</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#1#0&amp;trend']2020-05-29 10:44:12</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;HS&amp;cross', 'close_MA_5#1#0&amp;HS&amp;trend']2020-05-29 11:27:53</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;HS&amp;cross', 'close_MA_5#1#0&amp;HS&amp;trend']2020-05-29 11:29:58</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;HS&amp;cross', 'close_MA_5#1#0&amp;HS&amp;trend']2020-05-29 11:36:49</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;HS&amp;diff', 'close_MA_5#3250#0&amp;HS&amp;thre']2020-05-29 11:40:18</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-29 11:44:59</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-29 12:41:33</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-29 12:59:58</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#3250#0&amp;HS&amp;thre']2020-05-29 13:16:11</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-29 13:34:29</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-29 14:45:54</t>
   </si>
   <si>
     <t>strategy_name</t>
@@ -104,13 +149,28 @@
     <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']</t>
   </si>
   <si>
+    <t>-inf</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#1#0&amp;trend']</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;HS&amp;cross', 'close_MA_5#1#0&amp;HS&amp;trend']</t>
+  </si>
+  <si>
+    <t>['close_MA_5#close_MA_30#1&amp;HS&amp;diff', 'close_MA_5#3250#0&amp;HS&amp;thre']</t>
+  </si>
+  <si>
     <t>['close_MA_5#close_MA_30#1&amp;cross', 'close_MA_5#3250#0&amp;HS&amp;thre']</t>
   </si>
   <si>
-    <t>-inf</t>
-  </si>
-  <si>
     <t>['close_EMA_7#close_EMA_15#1&amp;diff*close_EMA_15#close_EMA_25#1&amp;diff*close_EMA_15#2#1&amp;trend*close_EMA_25#2#1&amp;trend*MACD#0#1&amp;thre*close#close_shift_4#1&amp;diff*K#40#1&amp;thre&amp;HS', 'MACD#0#0&amp;thre+K#40#0&amp;thre&amp;HS']2020-05-25 11:06:49</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-29 12:41:34</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-29 14:45:55</t>
   </si>
   <si>
     <t>start_date</t>
@@ -549,13 +609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -565,24 +625,114 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>-0.1335832885259942</v>
@@ -591,12 +741,57 @@
         <v>-0.0387356433885141</v>
       </c>
       <c r="D3">
+        <v>-0.01333731565708862</v>
+      </c>
+      <c r="E3">
+        <v>-0.01376728874647914</v>
+      </c>
+      <c r="F3">
+        <v>-0.02537915304850813</v>
+      </c>
+      <c r="G3">
+        <v>-0.02552662629747426</v>
+      </c>
+      <c r="H3">
+        <v>-0.004542207310074042</v>
+      </c>
+      <c r="I3">
+        <v>-0.004542521770842134</v>
+      </c>
+      <c r="J3">
+        <v>-0.009746282544405016</v>
+      </c>
+      <c r="K3">
+        <v>-0.009746282544405016</v>
+      </c>
+      <c r="L3">
+        <v>-0.001034434462474199</v>
+      </c>
+      <c r="M3">
+        <v>-0.2767663048057512</v>
+      </c>
+      <c r="N3">
+        <v>-0.05910111019000974</v>
+      </c>
+      <c r="O3">
+        <v>-0.02552662629747426</v>
+      </c>
+      <c r="P3">
+        <v>-0.02611106006309538</v>
+      </c>
+      <c r="Q3">
         <v>-0.06024692282454791</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="R3">
+        <v>-0.02611106006309538</v>
+      </c>
+      <c r="S3">
+        <v>-0.02611106006309538</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>11263</v>
@@ -605,12 +800,57 @@
         <v>742</v>
       </c>
       <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>708</v>
+      </c>
+      <c r="G4">
+        <v>708</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>165</v>
+      </c>
+      <c r="N4">
+        <v>20</v>
+      </c>
+      <c r="O4">
+        <v>708</v>
+      </c>
+      <c r="P4">
+        <v>743</v>
+      </c>
+      <c r="Q4">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="R4">
+        <v>743</v>
+      </c>
+      <c r="S4">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>-0.4588544657591355</v>
@@ -619,12 +859,57 @@
         <v>-0.7317674082709527</v>
       </c>
       <c r="D5">
+        <v>-4.197139538686245</v>
+      </c>
+      <c r="E5">
+        <v>-4.145914654707241</v>
+      </c>
+      <c r="F5">
+        <v>0.729608402108934</v>
+      </c>
+      <c r="G5">
+        <v>0.5190325718370152</v>
+      </c>
+      <c r="H5">
+        <v>-5.60468972049443</v>
+      </c>
+      <c r="I5">
+        <v>-5.655391593010962</v>
+      </c>
+      <c r="J5">
+        <v>-4.63464383048671</v>
+      </c>
+      <c r="K5">
+        <v>-4.63464383048671</v>
+      </c>
+      <c r="L5">
+        <v>-46.26552080096017</v>
+      </c>
+      <c r="M5">
+        <v>-2.149673123541235</v>
+      </c>
+      <c r="N5">
+        <v>-2.621293018083257</v>
+      </c>
+      <c r="O5">
+        <v>0.5190325718370152</v>
+      </c>
+      <c r="P5">
+        <v>0.1380621772197431</v>
+      </c>
+      <c r="Q5">
         <v>-3.354645923486953</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="R5">
+        <v>0.1380621772197431</v>
+      </c>
+      <c r="S5">
+        <v>0.1380621772197431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>-0.03323854346467311</v>
@@ -633,12 +918,57 @@
         <v>-0.02063305853372258</v>
       </c>
       <c r="D6">
+        <v>-0.01095763513703832</v>
+      </c>
+      <c r="E6">
+        <v>-0.01149291728951817</v>
+      </c>
+      <c r="F6">
+        <v>0.05504885091471173</v>
+      </c>
+      <c r="G6">
+        <v>0.04484052258402194</v>
+      </c>
+      <c r="H6">
+        <v>-0.001974610997620002</v>
+      </c>
+      <c r="I6">
+        <v>-0.002281279680680931</v>
+      </c>
+      <c r="J6">
+        <v>-0.003827591452272229</v>
+      </c>
+      <c r="K6">
+        <v>-0.003827591452272229</v>
+      </c>
+      <c r="L6">
+        <v>-0.001034434462474219</v>
+      </c>
+      <c r="M6">
+        <v>-0.2767663048057512</v>
+      </c>
+      <c r="N6">
+        <v>-0.04931572224062138</v>
+      </c>
+      <c r="O6">
+        <v>0.04484052258402194</v>
+      </c>
+      <c r="P6">
+        <v>0.02539896550728183</v>
+      </c>
+      <c r="Q6">
         <v>-0.06024692282454795</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="R6">
+        <v>0.02539896550728183</v>
+      </c>
+      <c r="S6">
+        <v>0.02539896550728183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>-0.06262379305057586</v>
@@ -647,12 +977,57 @@
         <v>-0.03333174851636755</v>
       </c>
       <c r="D7">
+        <v>-0.02699004582082487</v>
+      </c>
+      <c r="E7">
+        <v>-0.02806569570832751</v>
+      </c>
+      <c r="F7">
+        <v>-0.03145438345683504</v>
+      </c>
+      <c r="G7">
+        <v>-0.03186437765691152</v>
+      </c>
+      <c r="H7">
+        <v>-0.0005931532024240349</v>
+      </c>
+      <c r="I7">
+        <v>-0.0005934646587276715</v>
+      </c>
+      <c r="J7">
+        <v>-0.0003648296305109877</v>
+      </c>
+      <c r="K7">
+        <v>-0.0003648296305109877</v>
+      </c>
+      <c r="L7">
+        <v>-0.000728257280328326</v>
+      </c>
+      <c r="M7">
+        <v>-0.1582718064269161</v>
+      </c>
+      <c r="N7">
+        <v>-0.02794766904616508</v>
+      </c>
+      <c r="O7">
+        <v>-0.03186437765691152</v>
+      </c>
+      <c r="P7">
+        <v>-0.03042426463946146</v>
+      </c>
+      <c r="Q7">
         <v>-0.02518579348834171</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="R7">
+        <v>-0.03042426463946146</v>
+      </c>
+      <c r="S7">
+        <v>-0.03042426463946146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <v>15525</v>
@@ -661,12 +1036,57 @@
         <v>931</v>
       </c>
       <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>918</v>
+      </c>
+      <c r="G8">
+        <v>918</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>226</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>918</v>
+      </c>
+      <c r="P8">
+        <v>930</v>
+      </c>
+      <c r="Q8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="R8">
+        <v>930</v>
+      </c>
+      <c r="S8">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>1.082051056197432</v>
@@ -675,12 +1095,57 @@
         <v>0.8970237295192598</v>
       </c>
       <c r="D9">
+        <v>-2.441503118749551</v>
+      </c>
+      <c r="E9">
+        <v>-2.455646840386413</v>
+      </c>
+      <c r="F9">
+        <v>1.863352629957667</v>
+      </c>
+      <c r="G9">
+        <v>1.676865860766334</v>
+      </c>
+      <c r="H9">
+        <v>-168.2818863975014</v>
+      </c>
+      <c r="I9">
+        <v>-168.0785599695089</v>
+      </c>
+      <c r="J9">
+        <v>-19.46975353832414</v>
+      </c>
+      <c r="K9">
+        <v>-19.46975353832414</v>
+      </c>
+      <c r="L9">
+        <v>-5.380805591267157</v>
+      </c>
+      <c r="M9">
+        <v>0.7371640946029152</v>
+      </c>
+      <c r="N9">
+        <v>-2.457383019621572</v>
+      </c>
+      <c r="O9">
+        <v>1.676865860766334</v>
+      </c>
+      <c r="P9">
+        <v>1.740916954376539</v>
+      </c>
+      <c r="Q9">
         <v>-0.6105901971292913</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="R9">
+        <v>1.740916954376539</v>
+      </c>
+      <c r="S9">
+        <v>1.740916954376539</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B10">
         <v>0.1574681104545674</v>
@@ -689,12 +1154,57 @@
         <v>0.08655598444517795</v>
       </c>
       <c r="D10">
+        <v>-0.02570412099183945</v>
+      </c>
+      <c r="E10">
+        <v>-0.02694997908514722</v>
+      </c>
+      <c r="F10">
+        <v>0.1481981455322884</v>
+      </c>
+      <c r="G10">
+        <v>0.1351936333064504</v>
+      </c>
+      <c r="H10">
+        <v>-0.0005931532024240658</v>
+      </c>
+      <c r="I10">
+        <v>-0.0005934646587277044</v>
+      </c>
+      <c r="J10">
+        <v>0.0009985017515921791</v>
+      </c>
+      <c r="K10">
+        <v>0.0009985017515921791</v>
+      </c>
+      <c r="L10">
+        <v>0.007453837880277901</v>
+      </c>
+      <c r="M10">
+        <v>0.2448779874037985</v>
+      </c>
+      <c r="N10">
+        <v>-0.02695176335417025</v>
+      </c>
+      <c r="O10">
+        <v>0.1351936333064504</v>
+      </c>
+      <c r="P10">
+        <v>0.136507687273538</v>
+      </c>
+      <c r="Q10">
         <v>0.01140461972019989</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="R10">
+        <v>0.136507687273538</v>
+      </c>
+      <c r="S10">
+        <v>0.136507687273538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>-0.2159777259226376</v>
@@ -703,12 +1213,57 @@
         <v>-0.08782314860791085</v>
       </c>
       <c r="D11">
+        <v>-0.01840457039278842</v>
+      </c>
+      <c r="E11">
+        <v>-0.01886256099003214</v>
+      </c>
+      <c r="F11">
+        <v>-0.05468091087995508</v>
+      </c>
+      <c r="G11">
+        <v>-0.06397508934574148</v>
+      </c>
+      <c r="H11">
+        <v>-0.001950315731876318</v>
+      </c>
+      <c r="I11">
+        <v>-0.001949045520259429</v>
+      </c>
+      <c r="J11">
+        <v>-0.0005565866383553386</v>
+      </c>
+      <c r="K11">
+        <v>-0.0005565866383553386</v>
+      </c>
+      <c r="L11">
+        <v>-0.0005565510531239104</v>
+      </c>
+      <c r="M11">
+        <v>-0.2627954453558634</v>
+      </c>
+      <c r="N11">
+        <v>-0.03498277250785342</v>
+      </c>
+      <c r="O11">
+        <v>-0.06397508934574148</v>
+      </c>
+      <c r="P11">
+        <v>-0.05482560718353879</v>
+      </c>
+      <c r="Q11">
         <v>-0.09243551418203044</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="R11">
+        <v>-0.05482560718353879</v>
+      </c>
+      <c r="S11">
+        <v>-0.05482560718353879</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B12">
         <v>9411</v>
@@ -717,12 +1272,57 @@
         <v>747</v>
       </c>
       <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>752</v>
+      </c>
+      <c r="G12">
+        <v>752</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12">
+        <v>108</v>
+      </c>
+      <c r="N12">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <v>752</v>
+      </c>
+      <c r="P12">
+        <v>745</v>
+      </c>
+      <c r="Q12">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="R12">
+        <v>745</v>
+      </c>
+      <c r="S12">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>-1.693044806176839</v>
@@ -731,12 +1331,57 @@
         <v>-1.991321708992162</v>
       </c>
       <c r="D13">
+        <v>-2.665116215652615</v>
+      </c>
+      <c r="E13">
+        <v>-2.698891710121748</v>
+      </c>
+      <c r="F13">
+        <v>-1.259054716597146</v>
+      </c>
+      <c r="G13">
+        <v>-1.52862792447725</v>
+      </c>
+      <c r="H13">
+        <v>-31.40284897217546</v>
+      </c>
+      <c r="I13">
+        <v>-31.391010199319</v>
+      </c>
+      <c r="J13">
+        <v>-68.11840401450705</v>
+      </c>
+      <c r="K13">
+        <v>-68.11840401450705</v>
+      </c>
+      <c r="L13">
+        <v>-68.41137057542826</v>
+      </c>
+      <c r="M13">
+        <v>-0.4411239992653502</v>
+      </c>
+      <c r="N13">
+        <v>-2.202222408696063</v>
+      </c>
+      <c r="O13">
+        <v>-1.52862792447725</v>
+      </c>
+      <c r="P13">
+        <v>-1.332962630358328</v>
+      </c>
+      <c r="Q13">
         <v>-1.110883529264025</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="R13">
+        <v>-1.332962630358328</v>
+      </c>
+      <c r="S13">
+        <v>-1.332962630358328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B14">
         <v>-0.1671487993329587</v>
@@ -745,12 +1390,57 @@
         <v>-0.07462357111727831</v>
       </c>
       <c r="D14">
+        <v>-0.0151018645119175</v>
+      </c>
+      <c r="E14">
+        <v>-0.0158610271903323</v>
+      </c>
+      <c r="F14">
+        <v>-0.03839371993225341</v>
+      </c>
+      <c r="G14">
+        <v>-0.04898507249788583</v>
+      </c>
+      <c r="H14">
+        <v>-0.001845901896601359</v>
+      </c>
+      <c r="I14">
+        <v>-0.001845756267734108</v>
+      </c>
+      <c r="J14">
+        <v>-0.0003506623953212974</v>
+      </c>
+      <c r="K14">
+        <v>-0.0003506623953212974</v>
+      </c>
+      <c r="L14">
+        <v>-0.0003499044224142908</v>
+      </c>
+      <c r="M14">
+        <v>-0.06891687513503572</v>
+      </c>
+      <c r="N14">
+        <v>-0.0186289617814425</v>
+      </c>
+      <c r="O14">
+        <v>-0.04898507249788583</v>
+      </c>
+      <c r="P14">
+        <v>-0.04072656362467635</v>
+      </c>
+      <c r="Q14">
         <v>-0.02865469672306354</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="R14">
+        <v>-0.04072656362467635</v>
+      </c>
+      <c r="S14">
+        <v>-0.04072656362467635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>-0.1680655085690917</v>
@@ -759,12 +1449,57 @@
         <v>-0.1315077350320901</v>
       </c>
       <c r="D15">
+        <v>-0.07818340922993272</v>
+      </c>
+      <c r="E15">
+        <v>-0.07977000047017191</v>
+      </c>
+      <c r="F15">
+        <v>-0.1197220478283202</v>
+      </c>
+      <c r="G15">
+        <v>-0.1233835419687401</v>
+      </c>
+      <c r="H15">
+        <v>-0.001189205640865887</v>
+      </c>
+      <c r="I15">
+        <v>-0.002054439638032979</v>
+      </c>
+      <c r="J15">
+        <v>-0.0005023960426649987</v>
+      </c>
+      <c r="K15">
+        <v>-0.0005023960426649987</v>
+      </c>
+      <c r="L15">
+        <v>-0.0005031636664123429</v>
+      </c>
+      <c r="M15">
+        <v>-0.04066040069729837</v>
+      </c>
+      <c r="N15">
+        <v>-0.08155166740395781</v>
+      </c>
+      <c r="O15">
+        <v>-0.1233835419687401</v>
+      </c>
+      <c r="P15">
+        <v>-0.1226339869918299</v>
+      </c>
+      <c r="Q15">
         <v>-0.003171748376039396</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="R15">
+        <v>-0.1226339869918299</v>
+      </c>
+      <c r="S15">
+        <v>-0.1226339869918299</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>14311</v>
@@ -773,12 +1508,57 @@
         <v>1583</v>
       </c>
       <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>1666</v>
+      </c>
+      <c r="G16">
+        <v>1661</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>260</v>
+      </c>
+      <c r="N16">
+        <v>18</v>
+      </c>
+      <c r="O16">
+        <v>1661</v>
+      </c>
+      <c r="P16">
+        <v>1591</v>
+      </c>
+      <c r="Q16">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="R16">
+        <v>1591</v>
+      </c>
+      <c r="S16">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B17">
         <v>0.2213252176576767</v>
@@ -787,12 +1567,57 @@
         <v>0.9594475757773023</v>
       </c>
       <c r="D17">
+        <v>-1.49816910528116</v>
+      </c>
+      <c r="E17">
+        <v>-1.537204086508001</v>
+      </c>
+      <c r="F17">
+        <v>1.113108673226292</v>
+      </c>
+      <c r="G17">
+        <v>1.004497559882213</v>
+      </c>
+      <c r="H17">
+        <v>-57.60012760429483</v>
+      </c>
+      <c r="I17">
+        <v>-14.77542304657556</v>
+      </c>
+      <c r="J17">
+        <v>-20.46321308791678</v>
+      </c>
+      <c r="K17">
+        <v>-20.46321308791678</v>
+      </c>
+      <c r="L17">
+        <v>-46.26930011639998</v>
+      </c>
+      <c r="M17">
+        <v>-6.204176937506864</v>
+      </c>
+      <c r="N17">
+        <v>-1.56333492688295</v>
+      </c>
+      <c r="O17">
+        <v>1.004497559882213</v>
+      </c>
+      <c r="P17">
+        <v>1.148522590559731</v>
+      </c>
+      <c r="Q17">
         <v>-45.29547745217225</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="R17">
+        <v>1.148522590559731</v>
+      </c>
+      <c r="S17">
+        <v>1.148522590559731</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>0.06348582650153679</v>
@@ -801,12 +1626,57 @@
         <v>0.1929215435626332</v>
       </c>
       <c r="D18">
+        <v>-0.04536606223283277</v>
+      </c>
+      <c r="E18">
+        <v>-0.04718550186778026</v>
+      </c>
+      <c r="F18">
+        <v>0.2291007872305596</v>
+      </c>
+      <c r="G18">
+        <v>0.2085386517354445</v>
+      </c>
+      <c r="H18">
+        <v>-0.001189205640865902</v>
+      </c>
+      <c r="I18">
+        <v>0.0004298287026923737</v>
+      </c>
+      <c r="J18">
+        <v>0.001715281163418581</v>
+      </c>
+      <c r="K18">
+        <v>0.001715281163418581</v>
+      </c>
+      <c r="L18">
+        <v>-0.0003192006658464175</v>
+      </c>
+      <c r="M18">
+        <v>-0.04062907724299896</v>
+      </c>
+      <c r="N18">
+        <v>-0.04296148760948547</v>
+      </c>
+      <c r="O18">
+        <v>0.2085386517354445</v>
+      </c>
+      <c r="P18">
+        <v>0.2216704981348391</v>
+      </c>
+      <c r="Q18">
         <v>-0.003060663126044649</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="R18">
+        <v>0.2216704981348391</v>
+      </c>
+      <c r="S18">
+        <v>0.2216704981348391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>-0.1033982940464883</v>
@@ -817,10 +1687,55 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>-0.01882757612633779</v>
+      </c>
+      <c r="G19">
+        <v>-0.01882901173393536</v>
+      </c>
+      <c r="H19">
+        <v>-0.0004641405982772628</v>
+      </c>
+      <c r="I19">
+        <v>-0.000464860753074392</v>
+      </c>
+      <c r="J19">
+        <v>-4.253656413377715e-05</v>
+      </c>
+      <c r="K19">
+        <v>-4.253656413377715e-05</v>
+      </c>
+      <c r="L19">
+        <v>-4.376733285871293e-05</v>
+      </c>
+      <c r="M19">
+        <v>-0.01705749836663717</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>-0.01882901173393536</v>
+      </c>
+      <c r="P19">
+        <v>-0.01828549114614042</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>-0.01828549114614042</v>
+      </c>
+      <c r="S19">
+        <v>-0.01828549114614042</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>1819</v>
@@ -831,10 +1746,55 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>111</v>
+      </c>
+      <c r="G20">
+        <v>107</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>33</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>107</v>
+      </c>
+      <c r="P20">
+        <v>117</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>117</v>
+      </c>
+      <c r="S20">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>-0.06620908625560429</v>
@@ -843,12 +1803,57 @@
         <v>-0.4976848525102717</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21">
+        <v>0.3265475020733701</v>
+      </c>
+      <c r="G21">
+        <v>0.1831598353467835</v>
+      </c>
+      <c r="H21">
+        <v>-43.21967203484927</v>
+      </c>
+      <c r="I21">
+        <v>-43.02362342882401</v>
+      </c>
+      <c r="J21">
+        <v>-63.28793300864574</v>
+      </c>
+      <c r="K21">
+        <v>-63.28793300864574</v>
+      </c>
+      <c r="L21">
+        <v>-63.4939319596322</v>
+      </c>
+      <c r="M21">
+        <v>-4.286141176084367</v>
+      </c>
+      <c r="N21" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21">
+        <v>0.1831598353467835</v>
+      </c>
+      <c r="P21">
+        <v>0.1911434151243133</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21">
+        <v>0.1911434151243133</v>
+      </c>
+      <c r="S21">
+        <v>0.1911434151243133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>0.004520294457508001</v>
@@ -859,10 +1864,55 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.01027155265987028</v>
+      </c>
+      <c r="G22">
+        <v>0.007972723179100976</v>
+      </c>
+      <c r="H22">
+        <v>-0.0004641405982772473</v>
+      </c>
+      <c r="I22">
+        <v>-0.0004648607530743822</v>
+      </c>
+      <c r="J22">
+        <v>0.0002176289327772785</v>
+      </c>
+      <c r="K22">
+        <v>0.0002176289327772785</v>
+      </c>
+      <c r="L22">
+        <v>0.0002168472400716087</v>
+      </c>
+      <c r="M22">
+        <v>-0.01696855009455075</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0.007972723179100976</v>
+      </c>
+      <c r="P22">
+        <v>0.007982109873217891</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.007982109873217891</v>
+      </c>
+      <c r="S22">
+        <v>0.007982109873217891</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>-0.2397561068833339</v>
@@ -871,12 +1921,57 @@
         <v>-0.09670399601843283</v>
       </c>
       <c r="D23">
+        <v>-0.09213503364476239</v>
+      </c>
+      <c r="E23">
+        <v>-0.09327648459123195</v>
+      </c>
+      <c r="F23">
+        <v>-0.06908872711804159</v>
+      </c>
+      <c r="G23">
+        <v>-0.06923504683981918</v>
+      </c>
+      <c r="H23">
+        <v>-0.003348000000000018</v>
+      </c>
+      <c r="I23">
+        <v>-0.002622000000000013</v>
+      </c>
+      <c r="J23">
+        <v>-0.004019239704624256</v>
+      </c>
+      <c r="K23">
+        <v>-0.004019239704624256</v>
+      </c>
+      <c r="L23">
+        <v>-0.0007260000000000044</v>
+      </c>
+      <c r="M23">
+        <v>-0.1753117822661829</v>
+      </c>
+      <c r="N23">
+        <v>-0.08713307100867962</v>
+      </c>
+      <c r="O23">
+        <v>-0.06923504683981918</v>
+      </c>
+      <c r="P23">
+        <v>-0.06523737869483792</v>
+      </c>
+      <c r="Q23">
         <v>-0.121655234522653</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="R23">
+        <v>-0.06523737869483792</v>
+      </c>
+      <c r="S23">
+        <v>-0.06523737869483792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>14483</v>
@@ -885,12 +1980,57 @@
         <v>1631</v>
       </c>
       <c r="D24">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>27</v>
+      </c>
+      <c r="F24">
+        <v>1581</v>
+      </c>
+      <c r="G24">
+        <v>1581</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>7</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>147</v>
+      </c>
+      <c r="N24">
+        <v>27</v>
+      </c>
+      <c r="O24">
+        <v>1581</v>
+      </c>
+      <c r="P24">
+        <v>1630</v>
+      </c>
+      <c r="Q24">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="R24">
+        <v>1630</v>
+      </c>
+      <c r="S24">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>0.6150957254390144</v>
@@ -899,12 +2039,57 @@
         <v>1.639649439050237</v>
       </c>
       <c r="D25">
+        <v>-0.5244216367600057</v>
+      </c>
+      <c r="E25">
+        <v>-0.549168549775723</v>
+      </c>
+      <c r="F25">
+        <v>1.983265242049308</v>
+      </c>
+      <c r="G25">
+        <v>1.928585126284191</v>
+      </c>
+      <c r="H25">
+        <v>-17.90105835969605</v>
+      </c>
+      <c r="I25">
+        <v>-14.74726720403689</v>
+      </c>
+      <c r="J25">
+        <v>-1.696130393941731</v>
+      </c>
+      <c r="K25">
+        <v>-1.696130393941731</v>
+      </c>
+      <c r="L25">
+        <v>-62.46590292863328</v>
+      </c>
+      <c r="M25">
+        <v>1.543676373019662</v>
+      </c>
+      <c r="N25">
+        <v>-0.4232595562366393</v>
+      </c>
+      <c r="O25">
+        <v>1.928585126284191</v>
+      </c>
+      <c r="P25">
+        <v>2.15018673658828</v>
+      </c>
+      <c r="Q25">
         <v>0.05329492418715995</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="R25">
+        <v>2.15018673658828</v>
+      </c>
+      <c r="S25">
+        <v>2.15018673658828</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B26">
         <v>0.213546</v>
@@ -913,7 +2098,52 @@
         <v>0.4943010000000001</v>
       </c>
       <c r="D26">
+        <v>-0.04139899999999996</v>
+      </c>
+      <c r="E26">
+        <v>-0.04471599999999998</v>
+      </c>
+      <c r="F26">
+        <v>0.588916</v>
+      </c>
+      <c r="G26">
+        <v>0.5724421590745452</v>
+      </c>
+      <c r="H26">
+        <v>-0.003348000000000018</v>
+      </c>
+      <c r="I26">
+        <v>-0.001875999999999989</v>
+      </c>
+      <c r="J26">
+        <v>0.01238600000000001</v>
+      </c>
+      <c r="K26">
+        <v>0.01238600000000001</v>
+      </c>
+      <c r="L26">
+        <v>-0.0004199999999999759</v>
+      </c>
+      <c r="M26">
+        <v>0.7803185536978091</v>
+      </c>
+      <c r="N26">
+        <v>-0.02773400000000004</v>
+      </c>
+      <c r="O26">
+        <v>0.5724421590745452</v>
+      </c>
+      <c r="P26">
+        <v>0.6272709999999999</v>
+      </c>
+      <c r="Q26">
         <v>0.03717499999999996</v>
+      </c>
+      <c r="R26">
+        <v>0.6272709999999999</v>
+      </c>
+      <c r="S26">
+        <v>0.6272709999999999</v>
       </c>
     </row>
   </sheetData>
@@ -923,18 +2153,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -942,95 +2172,365 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" t="s">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3" t="s">
+        <v>75</v>
+      </c>
+      <c r="P3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>76</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>76</v>
+      </c>
+      <c r="T4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S5" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R6" t="s">
+        <v>78</v>
+      </c>
+      <c r="S6" t="s">
+        <v>78</v>
+      </c>
+      <c r="T6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="B7">
         <v>100000000</v>
@@ -1044,10 +2544,55 @@
       <c r="E7">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>100000000</v>
+      </c>
+      <c r="G7">
+        <v>100000000</v>
+      </c>
+      <c r="H7">
+        <v>100000000</v>
+      </c>
+      <c r="I7">
+        <v>100000000</v>
+      </c>
+      <c r="J7">
+        <v>100000000</v>
+      </c>
+      <c r="K7">
+        <v>100000000</v>
+      </c>
+      <c r="L7">
+        <v>100000000</v>
+      </c>
+      <c r="M7">
+        <v>100000000</v>
+      </c>
+      <c r="N7">
+        <v>100000000</v>
+      </c>
+      <c r="O7">
+        <v>100000000</v>
+      </c>
+      <c r="P7">
+        <v>100000000</v>
+      </c>
+      <c r="Q7">
+        <v>100000000</v>
+      </c>
+      <c r="R7">
+        <v>100000000</v>
+      </c>
+      <c r="S7">
+        <v>100000000</v>
+      </c>
+      <c r="T7">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B8">
         <v>0.013</v>
@@ -1059,12 +2604,57 @@
         <v>0.08</v>
       </c>
       <c r="E8">
+        <v>-0.061</v>
+      </c>
+      <c r="F8">
+        <v>-0.063</v>
+      </c>
+      <c r="G8">
+        <v>0.133</v>
+      </c>
+      <c r="H8">
+        <v>0.121</v>
+      </c>
+      <c r="I8">
+        <v>-0.037</v>
+      </c>
+      <c r="J8">
+        <v>-0.037</v>
+      </c>
+      <c r="K8">
+        <v>-0.033</v>
+      </c>
+      <c r="L8">
+        <v>-0.033</v>
+      </c>
+      <c r="M8">
+        <v>-0.034</v>
+      </c>
+      <c r="N8">
+        <v>0.064</v>
+      </c>
+      <c r="O8">
+        <v>-0.066</v>
+      </c>
+      <c r="P8">
+        <v>0.121</v>
+      </c>
+      <c r="Q8">
+        <v>0.128</v>
+      </c>
+      <c r="R8">
         <v>-0.047</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="S8">
+        <v>0.128</v>
+      </c>
+      <c r="T8">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>0.385</v>
@@ -1076,12 +2666,57 @@
         <v>0.239</v>
       </c>
       <c r="E9">
+        <v>0.04</v>
+      </c>
+      <c r="F9">
+        <v>0.041</v>
+      </c>
+      <c r="G9">
+        <v>0.222</v>
+      </c>
+      <c r="H9">
+        <v>0.224</v>
+      </c>
+      <c r="I9">
+        <v>0.001</v>
+      </c>
+      <c r="J9">
+        <v>0.001</v>
+      </c>
+      <c r="K9">
+        <v>0.005</v>
+      </c>
+      <c r="L9">
+        <v>0.005</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.36</v>
+      </c>
+      <c r="O9">
+        <v>0.041</v>
+      </c>
+      <c r="P9">
+        <v>0.224</v>
+      </c>
+      <c r="Q9">
+        <v>0.221</v>
+      </c>
+      <c r="R9">
         <v>0.138</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="S9">
+        <v>0.221</v>
+      </c>
+      <c r="T9">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>0.123</v>
@@ -1093,12 +2728,57 @@
         <v>0.675</v>
       </c>
       <c r="E10">
+        <v>-0.922</v>
+      </c>
+      <c r="F10">
+        <v>-0.944</v>
+      </c>
+      <c r="G10">
+        <v>1.124</v>
+      </c>
+      <c r="H10">
+        <v>1.023</v>
+      </c>
+      <c r="I10">
+        <v>-13.656</v>
+      </c>
+      <c r="J10">
+        <v>-12.663</v>
+      </c>
+      <c r="K10">
+        <v>-5.844</v>
+      </c>
+      <c r="L10">
+        <v>-5.844</v>
+      </c>
+      <c r="M10">
+        <v>-17.74</v>
+      </c>
+      <c r="N10">
+        <v>0.287</v>
+      </c>
+      <c r="O10">
+        <v>-0.981</v>
+      </c>
+      <c r="P10">
+        <v>1.023</v>
+      </c>
+      <c r="Q10">
+        <v>1.108</v>
+      </c>
+      <c r="R10">
         <v>-0.6919999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="S10">
+        <v>1.108</v>
+      </c>
+      <c r="T10">
+        <v>1.108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>0.015</v>
@@ -1110,12 +2790,57 @@
         <v>0.309</v>
       </c>
       <c r="E11">
+        <v>-0.313</v>
+      </c>
+      <c r="F11">
+        <v>-0.319</v>
+      </c>
+      <c r="G11">
+        <v>0.545</v>
+      </c>
+      <c r="H11">
+        <v>0.491</v>
+      </c>
+      <c r="I11">
+        <v>-0.217</v>
+      </c>
+      <c r="J11">
+        <v>-0.215</v>
+      </c>
+      <c r="K11">
+        <v>-0.202</v>
+      </c>
+      <c r="L11">
+        <v>-0.202</v>
+      </c>
+      <c r="M11">
+        <v>-0.205</v>
+      </c>
+      <c r="N11">
+        <v>0.193</v>
+      </c>
+      <c r="O11">
+        <v>-0.334</v>
+      </c>
+      <c r="P11">
+        <v>0.491</v>
+      </c>
+      <c r="Q11">
+        <v>0.524</v>
+      </c>
+      <c r="R11">
         <v>-0.278</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="S11">
+        <v>0.524</v>
+      </c>
+      <c r="T11">
+        <v>0.524</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>0.132</v>
@@ -1127,12 +2852,57 @@
         <v>0.14</v>
       </c>
       <c r="E12">
+        <v>0.162</v>
+      </c>
+      <c r="F12">
+        <v>0.162</v>
+      </c>
+      <c r="G12">
+        <v>0.141</v>
+      </c>
+      <c r="H12">
+        <v>0.141</v>
+      </c>
+      <c r="I12">
+        <v>0.163</v>
+      </c>
+      <c r="J12">
+        <v>0.163</v>
+      </c>
+      <c r="K12">
+        <v>0.162</v>
+      </c>
+      <c r="L12">
+        <v>0.162</v>
+      </c>
+      <c r="M12">
+        <v>0.163</v>
+      </c>
+      <c r="N12">
+        <v>0.175</v>
+      </c>
+      <c r="O12">
+        <v>0.162</v>
+      </c>
+      <c r="P12">
+        <v>0.141</v>
+      </c>
+      <c r="Q12">
+        <v>0.14</v>
+      </c>
+      <c r="R12">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="S12">
+        <v>0.14</v>
+      </c>
+      <c r="T12">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="B13">
         <v>0.198</v>
@@ -1144,12 +2914,57 @@
         <v>0.217</v>
       </c>
       <c r="E13">
+        <v>0.246</v>
+      </c>
+      <c r="F13">
+        <v>0.246</v>
+      </c>
+      <c r="G13">
+        <v>0.221</v>
+      </c>
+      <c r="H13">
+        <v>0.221</v>
+      </c>
+      <c r="I13">
+        <v>0.247</v>
+      </c>
+      <c r="J13">
+        <v>0.247</v>
+      </c>
+      <c r="K13">
+        <v>0.246</v>
+      </c>
+      <c r="L13">
+        <v>0.246</v>
+      </c>
+      <c r="M13">
+        <v>0.247</v>
+      </c>
+      <c r="N13">
+        <v>0.276</v>
+      </c>
+      <c r="O13">
+        <v>0.246</v>
+      </c>
+      <c r="P13">
+        <v>0.221</v>
+      </c>
+      <c r="Q13">
+        <v>0.219</v>
+      </c>
+      <c r="R13">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="S13">
+        <v>0.219</v>
+      </c>
+      <c r="T13">
+        <v>0.219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B14">
         <v>0.023</v>
@@ -1161,12 +2976,57 @@
         <v>0.478</v>
       </c>
       <c r="E14">
+        <v>-0.474</v>
+      </c>
+      <c r="F14">
+        <v>-0.483</v>
+      </c>
+      <c r="G14">
+        <v>0.855</v>
+      </c>
+      <c r="H14">
+        <v>0.769</v>
+      </c>
+      <c r="I14">
+        <v>-0.329</v>
+      </c>
+      <c r="J14">
+        <v>-0.325</v>
+      </c>
+      <c r="K14">
+        <v>-0.306</v>
+      </c>
+      <c r="L14">
+        <v>-0.306</v>
+      </c>
+      <c r="M14">
+        <v>-0.311</v>
+      </c>
+      <c r="N14">
+        <v>0.304</v>
+      </c>
+      <c r="O14">
+        <v>-0.506</v>
+      </c>
+      <c r="P14">
+        <v>0.769</v>
+      </c>
+      <c r="Q14">
+        <v>0.822</v>
+      </c>
+      <c r="R14">
         <v>-0.408</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="S14">
+        <v>0.822</v>
+      </c>
+      <c r="T14">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B15">
         <v>0.158</v>
@@ -1180,10 +3040,55 @@
       <c r="E15">
         <v>0.065</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0.066</v>
+      </c>
+      <c r="G15">
+        <v>0.122</v>
+      </c>
+      <c r="H15">
+        <v>0.122</v>
+      </c>
+      <c r="I15">
+        <v>0.003</v>
+      </c>
+      <c r="J15">
+        <v>0.003</v>
+      </c>
+      <c r="K15">
+        <v>0.006</v>
+      </c>
+      <c r="L15">
+        <v>0.006</v>
+      </c>
+      <c r="M15">
+        <v>0.002</v>
+      </c>
+      <c r="N15">
+        <v>0.243</v>
+      </c>
+      <c r="O15">
+        <v>0.067</v>
+      </c>
+      <c r="P15">
+        <v>0.122</v>
+      </c>
+      <c r="Q15">
+        <v>0.119</v>
+      </c>
+      <c r="R15">
+        <v>0.065</v>
+      </c>
+      <c r="S15">
+        <v>0.119</v>
+      </c>
+      <c r="T15">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>0.303</v>
@@ -1195,12 +3100,57 @@
         <v>0.132</v>
       </c>
       <c r="E16">
+        <v>0.178</v>
+      </c>
+      <c r="F16">
+        <v>0.183</v>
+      </c>
+      <c r="G16">
+        <v>0.12</v>
+      </c>
+      <c r="H16">
+        <v>0.123</v>
+      </c>
+      <c r="I16">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.007</v>
+      </c>
+      <c r="K16">
+        <v>0.01</v>
+      </c>
+      <c r="L16">
+        <v>0.01</v>
+      </c>
+      <c r="M16">
+        <v>0.001</v>
+      </c>
+      <c r="N16">
+        <v>0.315</v>
+      </c>
+      <c r="O16">
+        <v>0.197</v>
+      </c>
+      <c r="P16">
+        <v>0.123</v>
+      </c>
+      <c r="Q16">
+        <v>0.123</v>
+      </c>
+      <c r="R16">
         <v>0.155</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="S16">
+        <v>0.123</v>
+      </c>
+      <c r="T16">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B17">
         <v>124312447.842</v>
@@ -1212,12 +3162,57 @@
         <v>177341936.317</v>
       </c>
       <c r="E17">
+        <v>86850408.34100001</v>
+      </c>
+      <c r="F17">
+        <v>86161312.54099999</v>
+      </c>
+      <c r="G17">
+        <v>233615751.363</v>
+      </c>
+      <c r="H17">
+        <v>219592247.552</v>
+      </c>
+      <c r="I17">
+        <v>99061876.609</v>
+      </c>
+      <c r="J17">
+        <v>99338408.723</v>
+      </c>
+      <c r="K17">
+        <v>101111473.086</v>
+      </c>
+      <c r="L17">
+        <v>101111473.086</v>
+      </c>
+      <c r="M17">
+        <v>100553395.975</v>
+      </c>
+      <c r="N17">
+        <v>147739555.269</v>
+      </c>
+      <c r="O17">
+        <v>84473067.8</v>
+      </c>
+      <c r="P17">
+        <v>219592247.552</v>
+      </c>
+      <c r="Q17">
+        <v>227670469.923</v>
+      </c>
+      <c r="R17">
         <v>94232711.40800001</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="S17">
+        <v>227670469.923</v>
+      </c>
+      <c r="T17">
+        <v>227670469.923</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B18">
         <v>56808719.842</v>
@@ -1229,12 +3224,57 @@
         <v>177341936.317</v>
       </c>
       <c r="E18">
+        <v>86850408.34100001</v>
+      </c>
+      <c r="F18">
+        <v>86161312.54099999</v>
+      </c>
+      <c r="G18">
+        <v>233615751.363</v>
+      </c>
+      <c r="H18">
+        <v>219592247.552</v>
+      </c>
+      <c r="I18">
+        <v>99061876.609</v>
+      </c>
+      <c r="J18">
+        <v>99338408.723</v>
+      </c>
+      <c r="K18">
+        <v>101111473.086</v>
+      </c>
+      <c r="L18">
+        <v>101111473.086</v>
+      </c>
+      <c r="M18">
+        <v>100553395.975</v>
+      </c>
+      <c r="N18">
+        <v>147739555.269</v>
+      </c>
+      <c r="O18">
+        <v>84473067.8</v>
+      </c>
+      <c r="P18">
+        <v>219592247.552</v>
+      </c>
+      <c r="Q18">
+        <v>227670469.923</v>
+      </c>
+      <c r="R18">
         <v>94232711.40800001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="S18">
+        <v>227670469.923</v>
+      </c>
+      <c r="T18">
+        <v>227670469.923</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B19">
         <v>0.243</v>
@@ -1246,12 +3286,57 @@
         <v>0.773</v>
       </c>
       <c r="E19">
+        <v>-0.131</v>
+      </c>
+      <c r="F19">
+        <v>-0.138</v>
+      </c>
+      <c r="G19">
+        <v>1.336</v>
+      </c>
+      <c r="H19">
+        <v>1.196</v>
+      </c>
+      <c r="I19">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="J19">
+        <v>-0.007</v>
+      </c>
+      <c r="K19">
+        <v>0.011</v>
+      </c>
+      <c r="L19">
+        <v>0.011</v>
+      </c>
+      <c r="M19">
+        <v>0.006</v>
+      </c>
+      <c r="N19">
+        <v>0.477</v>
+      </c>
+      <c r="O19">
+        <v>-0.155</v>
+      </c>
+      <c r="P19">
+        <v>1.196</v>
+      </c>
+      <c r="Q19">
+        <v>1.277</v>
+      </c>
+      <c r="R19">
         <v>-0.058</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="S19">
+        <v>1.277</v>
+      </c>
+      <c r="T19">
+        <v>1.277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B20">
         <v>0.043</v>
@@ -1263,12 +3348,57 @@
         <v>0.118</v>
       </c>
       <c r="E20">
+        <v>-0.027</v>
+      </c>
+      <c r="F20">
+        <v>-0.028</v>
+      </c>
+      <c r="G20">
+        <v>0.179</v>
+      </c>
+      <c r="H20">
+        <v>0.165</v>
+      </c>
+      <c r="I20">
+        <v>-0.002</v>
+      </c>
+      <c r="J20">
+        <v>-0.001</v>
+      </c>
+      <c r="K20">
+        <v>0.002</v>
+      </c>
+      <c r="L20">
+        <v>0.002</v>
+      </c>
+      <c r="M20">
+        <v>0.001</v>
+      </c>
+      <c r="N20">
+        <v>0.079</v>
+      </c>
+      <c r="O20">
+        <v>-0.032</v>
+      </c>
+      <c r="P20">
+        <v>0.165</v>
+      </c>
+      <c r="Q20">
+        <v>0.173</v>
+      </c>
+      <c r="R20">
         <v>-0.011</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="S20">
+        <v>0.173</v>
+      </c>
+      <c r="T20">
+        <v>0.173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>1.243</v>
@@ -1280,12 +3410,57 @@
         <v>1.773</v>
       </c>
       <c r="E21">
+        <v>0.869</v>
+      </c>
+      <c r="F21">
+        <v>0.862</v>
+      </c>
+      <c r="G21">
+        <v>2.336</v>
+      </c>
+      <c r="H21">
+        <v>2.196</v>
+      </c>
+      <c r="I21">
+        <v>0.991</v>
+      </c>
+      <c r="J21">
+        <v>0.993</v>
+      </c>
+      <c r="K21">
+        <v>1.011</v>
+      </c>
+      <c r="L21">
+        <v>1.011</v>
+      </c>
+      <c r="M21">
+        <v>1.006</v>
+      </c>
+      <c r="N21">
+        <v>1.477</v>
+      </c>
+      <c r="O21">
+        <v>0.845</v>
+      </c>
+      <c r="P21">
+        <v>2.196</v>
+      </c>
+      <c r="Q21">
+        <v>2.277</v>
+      </c>
+      <c r="R21">
         <v>0.9419999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="S21">
+        <v>2.277</v>
+      </c>
+      <c r="T21">
+        <v>2.277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B22">
         <v>100000000</v>
@@ -1299,10 +3474,55 @@
       <c r="E22">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>100000000</v>
+      </c>
+      <c r="G22">
+        <v>100000000</v>
+      </c>
+      <c r="H22">
+        <v>100000000</v>
+      </c>
+      <c r="I22">
+        <v>100000000</v>
+      </c>
+      <c r="J22">
+        <v>100000000</v>
+      </c>
+      <c r="K22">
+        <v>100000000</v>
+      </c>
+      <c r="L22">
+        <v>100000000</v>
+      </c>
+      <c r="M22">
+        <v>100000000</v>
+      </c>
+      <c r="N22">
+        <v>100000000</v>
+      </c>
+      <c r="O22">
+        <v>100000000</v>
+      </c>
+      <c r="P22">
+        <v>100000000</v>
+      </c>
+      <c r="Q22">
+        <v>100000000</v>
+      </c>
+      <c r="R22">
+        <v>100000000</v>
+      </c>
+      <c r="S22">
+        <v>100000000</v>
+      </c>
+      <c r="T22">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B23">
         <v>0.114</v>
@@ -1316,10 +3536,55 @@
       <c r="E23">
         <v>0.114</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0.114</v>
+      </c>
+      <c r="G23">
+        <v>0.114</v>
+      </c>
+      <c r="H23">
+        <v>0.114</v>
+      </c>
+      <c r="I23">
+        <v>0.114</v>
+      </c>
+      <c r="J23">
+        <v>0.114</v>
+      </c>
+      <c r="K23">
+        <v>0.114</v>
+      </c>
+      <c r="L23">
+        <v>0.114</v>
+      </c>
+      <c r="M23">
+        <v>0.114</v>
+      </c>
+      <c r="N23">
+        <v>0.114</v>
+      </c>
+      <c r="O23">
+        <v>0.114</v>
+      </c>
+      <c r="P23">
+        <v>0.114</v>
+      </c>
+      <c r="Q23">
+        <v>0.114</v>
+      </c>
+      <c r="R23">
+        <v>0.114</v>
+      </c>
+      <c r="S23">
+        <v>0.114</v>
+      </c>
+      <c r="T23">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B24">
         <v>0.021</v>
@@ -1333,10 +3598,55 @@
       <c r="E24">
         <v>0.021</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <v>0.021</v>
+      </c>
+      <c r="G24">
+        <v>0.021</v>
+      </c>
+      <c r="H24">
+        <v>0.021</v>
+      </c>
+      <c r="I24">
+        <v>0.021</v>
+      </c>
+      <c r="J24">
+        <v>0.021</v>
+      </c>
+      <c r="K24">
+        <v>0.021</v>
+      </c>
+      <c r="L24">
+        <v>0.021</v>
+      </c>
+      <c r="M24">
+        <v>0.021</v>
+      </c>
+      <c r="N24">
+        <v>0.021</v>
+      </c>
+      <c r="O24">
+        <v>0.021</v>
+      </c>
+      <c r="P24">
+        <v>0.021</v>
+      </c>
+      <c r="Q24">
+        <v>0.021</v>
+      </c>
+      <c r="R24">
+        <v>0.021</v>
+      </c>
+      <c r="S24">
+        <v>0.021</v>
+      </c>
+      <c r="T24">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>300</v>
@@ -1348,7 +3658,52 @@
         <v>300</v>
       </c>
       <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>300</v>
+      </c>
+      <c r="H25">
+        <v>300</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>4</v>
+      </c>
+      <c r="P25">
+        <v>300</v>
+      </c>
+      <c r="Q25">
+        <v>300</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>300</v>
+      </c>
+      <c r="T25">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/meta_stra_framwork/result/single/single.xlsx
+++ b/meta_stra_framwork/result/single/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="80">
   <si>
     <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-25 11:24:00</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-29 14:45:54</t>
+  </si>
+  <si>
+    <t>['K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+K#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#80#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close#close_shift_1#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*close_MA_10_shift_1#close_MA_5#1&amp;diff*D_shift_1#80#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*K#90#1&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#10#0&amp;thre+D_shift_1#90#1&amp;HS&amp;thre*RSI_12#20#1&amp;thre*RSI_12#40#0&amp;thre*D_shift_1#80#1&amp;thre', 'close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20#close#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+close_MA_20_shift_1#close_MA_20#1&amp;HS&amp;diff*D_shift_1#90#1&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*open#open_shift_1#1&amp;HS&amp;diff*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#20#0&amp;thre*K#10#0&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*D_shift_1#90#1&amp;HS&amp;thre+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*open#close#1&amp;diff+D_shift_1#30#0&amp;HS&amp;thre*D_shift_1#90#1&amp;thre*K#10#0&amp;thre']2020-05-29 15:12:48</t>
   </si>
   <si>
     <t>strategy_name</t>
@@ -609,13 +612,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -670,69 +673,75 @@
       <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>-0.1335832885259942</v>
@@ -788,10 +797,13 @@
       <c r="S3">
         <v>-0.02611106006309538</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>-0.03194564554078705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>11263</v>
@@ -847,10 +859,13 @@
       <c r="S4">
         <v>743</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>-0.4588544657591355</v>
@@ -906,10 +921,13 @@
       <c r="S5">
         <v>0.1380621772197431</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>-0.6441806791989829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>-0.03323854346467311</v>
@@ -965,10 +983,13 @@
       <c r="S6">
         <v>0.02539896550728183</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>-0.01515527982972657</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>-0.06262379305057586</v>
@@ -1024,10 +1045,13 @@
       <c r="S7">
         <v>-0.03042426463946146</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>-0.03116487685220837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8">
         <v>15525</v>
@@ -1083,10 +1107,13 @@
       <c r="S8">
         <v>930</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9">
         <v>1.082051056197432</v>
@@ -1142,10 +1169,13 @@
       <c r="S9">
         <v>1.740916954376539</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>1.004967003714083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10">
         <v>0.1574681104545674</v>
@@ -1201,10 +1231,13 @@
       <c r="S10">
         <v>0.136507687273538</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>0.09176499170372075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11">
         <v>-0.2159777259226376</v>
@@ -1260,10 +1293,13 @@
       <c r="S11">
         <v>-0.05482560718353879</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>-0.0821460344438395</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>9411</v>
@@ -1319,10 +1355,13 @@
       <c r="S12">
         <v>745</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>-1.693044806176839</v>
@@ -1378,10 +1417,13 @@
       <c r="S13">
         <v>-1.332962630358328</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>-1.969972884930749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>-0.1671487993329587</v>
@@ -1437,10 +1479,13 @@
       <c r="S14">
         <v>-0.04072656362467635</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>-0.0703102552346019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>-0.1680655085690917</v>
@@ -1496,10 +1541,13 @@
       <c r="S15">
         <v>-0.1226339869918299</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>-0.1427357166110522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16">
         <v>14311</v>
@@ -1555,10 +1603,13 @@
       <c r="S16">
         <v>1591</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17">
         <v>0.2213252176576767</v>
@@ -1614,10 +1665,13 @@
       <c r="S17">
         <v>1.148522590559731</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>0.8722480618057192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18">
         <v>0.06348582650153679</v>
@@ -1673,10 +1727,13 @@
       <c r="S18">
         <v>0.2216704981348391</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>0.1766771440219893</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <v>-0.1033982940464883</v>
@@ -1732,10 +1789,13 @@
       <c r="S19">
         <v>-0.01828549114614042</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>-0.02728584221815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20">
         <v>1819</v>
@@ -1791,10 +1851,13 @@
       <c r="S20">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>-0.06620908625560429</v>
@@ -1803,10 +1866,10 @@
         <v>-0.4976848525102717</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21">
         <v>0.3265475020733701</v>
@@ -1833,7 +1896,7 @@
         <v>-4.286141176084367</v>
       </c>
       <c r="N21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O21">
         <v>0.1831598353467835</v>
@@ -1842,7 +1905,7 @@
         <v>0.1911434151243133</v>
       </c>
       <c r="Q21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R21">
         <v>0.1911434151243133</v>
@@ -1850,10 +1913,13 @@
       <c r="S21">
         <v>0.1911434151243133</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>-0.4876305650252578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>0.004520294457508001</v>
@@ -1909,10 +1975,13 @@
       <c r="S22">
         <v>0.007982109873217891</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>-0.005906139613860271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>-0.2397561068833339</v>
@@ -1968,10 +2037,13 @@
       <c r="S23">
         <v>-0.06523737869483792</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>-0.09929787736570306</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>14483</v>
@@ -2027,10 +2099,13 @@
       <c r="S24">
         <v>1630</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>0.6150957254390144</v>
@@ -2086,10 +2161,13 @@
       <c r="S25">
         <v>2.15018673658828</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>1.780811403830281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>0.213546</v>
@@ -2144,6 +2222,9 @@
       </c>
       <c r="S26">
         <v>0.6272709999999999</v>
+      </c>
+      <c r="T26">
+        <v>0.5213179999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2153,18 +2234,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -2203,7 +2284,7 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -2215,322 +2296,340 @@
         <v>15</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>52</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>76</v>
+      </c>
+      <c r="U3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>78</v>
+      </c>
+      <c r="U5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       